--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>15173.5570160381</v>
+        <v>14551.0467957338</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>15191.29274084142</v>
+        <v>14568.05489484309</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>15209.28331415619</v>
+        <v>14585.30738705099</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>15227.53237325168</v>
+        <v>14602.80776040419</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>15246.04360662352</v>
+        <v>14620.55955207411</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>15264.8207546968</v>
+        <v>14638.5663490312</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>15283.8676105383</v>
+        <v>14656.83178872793</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>15303.18802057808</v>
+        <v>14675.35955979073</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>15322.78588534038</v>
+        <v>14694.153402721</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>15342.66516018418</v>
+        <v>14713.21711060515</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>15362.82985605315</v>
+        <v>14732.55452983394</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>15383.28404023561</v>
+        <v>14752.16956083115</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>15404.03183713416</v>
+        <v>14772.06615879167</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>15425.07742904537</v>
+        <v>14792.24833442922</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>15446.42505694949</v>
+        <v>14812.7201547336</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>15468.07902131044</v>
+        <v>14833.48574373797</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>15490.0436828861</v>
+        <v>14854.54928329577</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>15512.32346354902</v>
+        <v>14875.91501386786</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>15534.92284711777</v>
+        <v>14897.58723531969</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>15557.84638019887</v>
+        <v>14919.57030772876</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>15581.09867303968</v>
+        <v>14941.86865220245</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>15604.68440039214</v>
+        <v>14964.48675170636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>15628.60830238755</v>
+        <v>14987.42915190321</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>15652.87518542272</v>
+        <v>15010.70046200263</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>15677.48992305726</v>
+        <v>15034.30535562159</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>15702.45745692242</v>
+        <v>15058.24857165604</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>15727.78279764155</v>
+        <v>15082.53491516353</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>15753.47102576224</v>
+        <v>15107.16925825715</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>15779.52729270035</v>
+        <v>15132.15654101081</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>15805.95682169607</v>
+        <v>15157.50177237609</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>15832.764908782</v>
+        <v>15183.21003111064</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>15859.95692376374</v>
+        <v>15209.28646671841</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>15887.53831121266</v>
+        <v>15235.73630040185</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>15915.5145914714</v>
+        <v>15262.56482602608</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>15943.89136167199</v>
+        <v>15289.77741109525</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>15972.67429676699</v>
+        <v>15317.37949774131</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>16001.86915057335</v>
+        <v>15345.37660372524</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>16031.48175682973</v>
+        <v>15373.77432345073</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>16061.51803026696</v>
+        <v>15402.57832899093</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>16091.98396769201</v>
+        <v>15431.79437112786</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>16122.88564908555</v>
+        <v>15461.42828040497</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>16154.22923871342</v>
+        <v>15491.48596819296</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>16186.02098625179</v>
+        <v>15521.97342776885</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>16218.26722792668</v>
+        <v>15552.89673540871</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>16250.97438766766</v>
+        <v>15584.26205149403</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>16284.14897827579</v>
+        <v>15616.07562163173</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>16317.79760260651</v>
+        <v>15648.34377778859</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>16351.92695476702</v>
+        <v>15681.07293943939</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>16386.54382132868</v>
+        <v>15714.26961472971</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>16421.65508255461</v>
+        <v>15747.94040165302</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>16457.26771364248</v>
+        <v>15782.09198924259</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>16493.38878598282</v>
+        <v>15816.73115877817</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>16530.02546843294</v>
+        <v>15851.86478500759</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>16567.18502860689</v>
+        <v>15887.49983738381</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>16604.87483418113</v>
+        <v>15923.64338131706</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>16643.10235421666</v>
+        <v>15960.30257944271</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>16681.87516049755</v>
+        <v>15997.48469290488</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>16721.20092888601</v>
+        <v>16035.19708265594</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>16761.08744069432</v>
+        <v>16073.4472107721</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>16801.54258407377</v>
+        <v>16112.24264178543</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>16842.57435542088</v>
+        <v>16151.59104403234</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>16884.19086080091</v>
+        <v>16191.50019101878</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>16926.40031738934</v>
+        <v>16231.97796280238</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>16969.21105493081</v>
+        <v>16273.03234739178</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>17012.63151721649</v>
+        <v>16314.67144216326</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>17056.67026357967</v>
+        <v>16356.90345529498</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>17101.33597040989</v>
+        <v>16399.73670721896</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>17146.63743268581</v>
+        <v>16443.17963209119</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>17192.58356552732</v>
+        <v>16487.24077927989</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>17239.18340576667</v>
+        <v>16531.92881487234</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>17286.44611353939</v>
+        <v>16577.25252320037</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>17334.38097389476</v>
+        <v>16623.22080838497</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>17382.99739842654</v>
+        <v>16669.8426958999</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>17432.30492692387</v>
+        <v>16717.12733415501</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>17482.31322904292</v>
+        <v>16765.08399609922</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>17533.03210599919</v>
+        <v>16813.72208084348</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>17584.47149228126</v>
+        <v>16863.05111530408</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>17636.64145738574</v>
+        <v>16913.08075586659</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>17689.55220757411</v>
+        <v>16963.82079007049</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>17743.21408765169</v>
+        <v>17015.28113831516</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>17797.63758276877</v>
+        <v>17067.47185558727</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>17852.83332024468</v>
+        <v>17120.40313320978</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>17908.81207141476</v>
+        <v>17174.08530061337</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>17965.58475350083</v>
+        <v>17228.52882712994</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>18023.16243150522</v>
+        <v>17283.7443238092</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>18081.5563201291</v>
+        <v>17339.74254525805</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>18140.77778571508</v>
+        <v>17396.53439150364</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>18200.83834821486</v>
+        <v>17454.13090988023</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>18261.74968318191</v>
+        <v>17512.54329694013</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>18323.52362378992</v>
+        <v>17571.78290038934</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>18386.17216287736</v>
+        <v>17631.86122104825</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>18449.70745501833</v>
+        <v>17692.78991483749</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>18514.14181862051</v>
+        <v>17754.58079478986</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>18579.48773805048</v>
+        <v>17817.24583308844</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>18645.75786578678</v>
+        <v>17880.79716313129</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>18712.96502460141</v>
+        <v>17945.24708162346</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>18781.12220977018</v>
+        <v>18010.60805069669</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>18850.24259131222</v>
+        <v>18076.89270005704</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>18920.33951625976</v>
+        <v>18144.11382916148</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>18991.42651095783</v>
+        <v>18212.28440942333</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>19063.51728339545</v>
+        <v>18281.41758644778</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>19136.62572556812</v>
+        <v>18351.52668229747</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>19210.76591587255</v>
+        <v>18422.62519778885</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>19285.95212153431</v>
+        <v>18494.72681482047</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>19362.19880106889</v>
+        <v>18567.84539873289</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>19439.52060677695</v>
+        <v>18641.99500070158</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>19517.93238727435</v>
+        <v>18717.18986016324</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>19597.44919005784</v>
+        <v>18793.44440727616</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>19678.08626410711</v>
+        <v>18870.77326541547</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>19759.85906252368</v>
+        <v>18949.1912537039</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>19842.78324520808</v>
+        <v>19028.71338957905</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>19926.87468157542</v>
+        <v>19109.35489139753</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>20012.14945331082</v>
+        <v>19191.1311810774</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>20098.62385716516</v>
+        <v>19274.05788677912</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>20186.3144077923</v>
+        <v>19358.15084562658</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>20275.23784062875</v>
+        <v>19443.4261064684</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>20365.41111481676</v>
+        <v>19529.89993268114</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>20456.85141617163</v>
+        <v>19617.58880501504</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>20549.5761601948</v>
+        <v>19706.50942448333</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>20643.60299513341</v>
+        <v>19796.67871529632</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>20738.94980508773</v>
+        <v>19888.11382784129</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>20835.63471316743</v>
+        <v>19980.83214170945</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20933.67608469848</v>
+        <v>20074.85126877097</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>21033.0925304811</v>
+        <v>20170.18905629959</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>21133.90291010102</v>
+        <v>20266.8635901478</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>21236.12633529487</v>
+        <v>20364.89319797436</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>21339.78217337149</v>
+        <v>20464.29645252501</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>21444.89005069033</v>
+        <v>20565.09217496832</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>21551.46985619886</v>
+        <v>20667.29943828805</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>21659.54174503052</v>
+        <v>20770.93757073325</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>21769.12614216475</v>
+        <v>20876.02615932834</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>21880.24374615118</v>
+        <v>20982.58505344441</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>21992.91553289941</v>
+        <v>21090.6343684336</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>22107.16275953676</v>
+        <v>21200.1944893285</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>22223.0069683356</v>
+        <v>21311.28607460841</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>22340.46999071243</v>
+        <v>21423.93006003432</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>22459.57395130113</v>
+        <v>21538.14766255503</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>22580.34127210192</v>
+        <v>21653.96038428601</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>22702.79467670925</v>
+        <v>21771.39001656372</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>22826.95719462032</v>
+        <v>21890.45864407741</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>22952.85216562704</v>
+        <v>22011.18864908084</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>23080.50324429393</v>
+        <v>22133.60271568663</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>23209.93440452475</v>
+        <v>22257.72383424533</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>23341.16994422063</v>
+        <v>22383.57530581257</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>23474.23449003246</v>
+        <v>22511.18074670653</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>23609.15300221094</v>
+        <v>22640.56409315885</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>23745.95077955704</v>
+        <v>22771.74960606208</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>23884.65346447621</v>
+        <v>22904.76187581656</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>24025.28704814008</v>
+        <v>23039.62582728042</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>24167.87787575871</v>
+        <v>23176.36672482528</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>24312.45265196736</v>
+        <v>23315.01017750227</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>24459.03844633137</v>
+        <v>23455.582144321</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>24607.66269897326</v>
+        <v>23598.10893964573</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>24758.35322632608</v>
+        <v>23742.6172387128</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>24911.13822701725</v>
+        <v>23889.13408327294</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>25066.04628788721</v>
+        <v>24037.68688736317</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>25223.10639014768</v>
+        <v>24188.3034432122</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>25382.34791568407</v>
+        <v>24341.01192728452</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>25543.80065350696</v>
+        <v>24495.840906467</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>25707.494806358</v>
+        <v>24652.81934440386</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>25873.46099747514</v>
+        <v>24811.97660798434</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>26041.73027752297</v>
+        <v>24973.34247398877</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>26212.33413169386</v>
+        <v>25136.94713589824</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>26385.3044869855</v>
+        <v>25302.82121087375</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>26560.67371966132</v>
+        <v>25470.99574691038</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>26738.47466289981</v>
+        <v>25641.50223017296</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>26918.7406146396</v>
+        <v>25814.37259251917</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>27101.50534562674</v>
+        <v>25989.63921921669</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>27286.8031076714</v>
+        <v>26167.33495686125</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>27474.66864212143</v>
+        <v>26347.49312150242</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>27665.13718855979</v>
+        <v>26530.14750698441</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>27858.24449373434</v>
+        <v>26715.33239350923</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>28054.02682072735</v>
+        <v>26903.08255643029</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>28252.52095837361</v>
+        <v>27093.4332752839</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>28453.76423093522</v>
+        <v>27286.4203430674</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>28657.79450804279</v>
+        <v>27482.08007577217</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>28864.65021491104</v>
+        <v>27680.44932218045</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>29074.37034283957</v>
+        <v>27881.56547393508</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>29286.99446000767</v>
+        <v>28085.46647589162</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>29502.56272257372</v>
+        <v>28292.1908367622</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>29721.1158860897</v>
+        <v>28501.77764006187</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>29942.69531724127</v>
+        <v>28714.26655536698</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>30167.34300592477</v>
+        <v>28929.69784989681</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>30395.10157767275</v>
+        <v>29148.11240042913</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>30626.01430643944</v>
+        <v>29369.55170556129</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>30860.12512775871</v>
+        <v>29594.05789832833</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>31097.4786522869</v>
+        <v>29821.67375919017</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>31338.1201797435</v>
+        <v>30052.44272940046</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>31582.09571326293</v>
+        <v>30286.40892476933</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>31829.45197417113</v>
+        <v>30523.61714983404</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>32080.23641720085</v>
+        <v>30764.11291244993</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>32334.49724616071</v>
+        <v>31007.94243881655</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>32592.28343007186</v>
+        <v>31255.15268895234</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>32853.64471978844</v>
+        <v>31505.79137263341</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>33118.63166511699</v>
+        <v>31759.9069658103</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>33387.29563245101</v>
+        <v>32017.54872751935</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>33659.68882293722</v>
+        <v>32278.76671730348</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>33935.86429119018</v>
+        <v>32543.61181315905</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>34215.87596457277</v>
+        <v>32812.13573002542</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>34499.77866306013</v>
+        <v>33084.3910388339</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>34787.62811970519</v>
+        <v>33360.43118613371</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>35079.48100172439</v>
+        <v>33640.31051431246</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>35375.39493222207</v>
+        <v>33924.08428242959</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>35675.42851257375</v>
+        <v>34211.80868768106</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>35979.64134548686</v>
+        <v>34503.54088751414</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>36288.09405876003</v>
+        <v>34799.33902241191</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>36600.84832976062</v>
+        <v>35099.26223936657</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>36917.96691064188</v>
+        <v>35403.37071606211</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>37239.51365432065</v>
+        <v>35711.72568578607</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>37565.55354123704</v>
+        <v>36024.38946309166</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>37896.15270691826</v>
+        <v>36341.4254702305</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>38231.37847036854</v>
+        <v>36662.89826437789</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>38571.29936330731</v>
+        <v>36988.87356567156</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>38915.98516027912</v>
+        <v>37319.41828608618</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>39265.50690965743</v>
+        <v>37654.60055916524</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>39619.93696556576</v>
+        <v>37994.48977063267</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>39979.34902073989</v>
+        <v>38339.15658990658</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>40343.81814035372</v>
+        <v>38688.67300253781</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>40713.4207968333</v>
+        <v>39043.1123435952</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>41088.23490568248</v>
+        <v>39402.54933202191</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>41468.33986234308</v>
+        <v>39767.060105983</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>41853.81658011482</v>
+        <v>40136.72225922985</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>42244.74752915688</v>
+        <v>40511.61487850161</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>42641.2167765964</v>
+        <v>40891.81858198813</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>43043.3100277651</v>
+        <v>41277.41555887499</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>43451.11466858957</v>
+        <v>41668.48960999447</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>43864.71980915588</v>
+        <v>42065.12618960298</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>44284.21632847203</v>
+        <v>42467.41244830718</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>44709.69692044963</v>
+        <v>42875.43727715904</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>45141.25614112697</v>
+        <v>43289.29135294162</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>45578.99045715297</v>
+        <v>43709.06718466385</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>46022.99829555276</v>
+        <v>44134.8591612847</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>46473.38009479448</v>
+        <v>44566.7636006845</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>46930.23835717424</v>
+        <v>45004.87879990107</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>47393.67770253752</v>
+        <v>45449.30508664703</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>47863.80492335249</v>
+        <v>45900.14487212356</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>48340.72904114968</v>
+        <v>46357.50270514489</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>48824.56136434169</v>
+        <v>46821.48532758566</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>49315.4155474342</v>
+        <v>47292.20173116273</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>49813.40765163807</v>
+        <v>47769.76321556066</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>50318.65620689051</v>
+        <v>48254.28344790859</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>50831.28227529132</v>
+        <v>48745.87852361359</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>51351.40951595752</v>
+        <v>49244.66702855479</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>51879.16425129749</v>
+        <v>49750.77010263852</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>52414.67553470304</v>
+        <v>50264.31150471334</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>52958.07521965532</v>
+        <v>50785.41767884044</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>53509.49803023642</v>
+        <v>51314.21782191304</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>54069.08163303664</v>
+        <v>51850.84395261295</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>54636.96671044213</v>
+        <v>52395.43098169202</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>55213.29703528569</v>
+        <v>52948.11678356002</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>55798.21954683757</v>
+        <v>53509.04226915804</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>56391.8844281105</v>
+        <v>54078.35146009166</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>56994.44518444723</v>
+        <v>54656.19156399484</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>57606.0587233546</v>
+        <v>55242.71305108842</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>58226.88543554319</v>
+        <v>55838.06973189499</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>58857.08927712507</v>
+        <v>56442.41883606457</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>59496.83785291768</v>
+        <v>57055.92109226088</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>60146.30250079444</v>
+        <v>57678.74080905112</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>60805.65837701708</v>
+        <v>58311.04595673779</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>61475.08454247706</v>
+        <v>58953.00825006172</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>62154.76404976717</v>
+        <v>59604.80323170146</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>62844.88403099526</v>
+        <v>60266.6103564849</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>63545.63578624588</v>
+        <v>60938.61307622071</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>64257.21487258604</v>
+        <v>61620.9989250535</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>64979.82119350196</v>
+        <v>62313.9596052306</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>65713.65908864645</v>
+        <v>63017.69107316813</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>66458.93742376564</v>
+        <v>63732.39362568783</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>67215.86968066241</v>
+        <v>64458.27198629003</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>67984.67404704743</v>
+        <v>65195.53539131818</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>68765.57350611272</v>
+        <v>65944.39767585776</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>69558.79592565609</v>
+        <v>66705.07735920434</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>70364.57414656985</v>
+        <v>67477.79772972173</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>71183.14607049627</v>
+        <v>68262.78692890136</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>72014.75474644036</v>
+        <v>69060.27803442205</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>72859.64845611605</v>
+        <v>69870.5091419941</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>73718.08079779001</v>
+        <v>70693.72344576387</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>74590.31076837267</v>
+        <v>71530.16931703682</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>75476.60284349238</v>
+        <v>72380.10038106635</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>76377.22705527353</v>
+        <v>73243.77559164145</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>77292.45906752632</v>
+        <v>74121.45930319087</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>78222.58024803779</v>
+        <v>75013.42134010945</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>79167.87773764199</v>
+        <v>75919.93706299379</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>80128.64451572839</v>
+        <v>76841.28743146344</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>81105.17946183335</v>
+        <v>77777.75906322541</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>82097.78741294355</v>
+        <v>78729.64428902679</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>83106.77921612264</v>
+        <v>79697.24120312241</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>84132.47177605834</v>
+        <v>80680.85370887064</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>85175.18809710772</v>
+        <v>81680.79155905487</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>86235.2573194064</v>
+        <v>82697.37039051024</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>87313.01474858688</v>
+        <v>83730.91175262323</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>88408.80187863673</v>
+        <v>84781.74312925192</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>89522.9664074132</v>
+        <v>85850.19795360448</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>90655.86224431347</v>
+        <v>86936.61561559382</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>91807.84950958229</v>
+        <v>88041.34146117496</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>92979.29452473058</v>
+        <v>89164.72678315555</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>94170.56979351721</v>
+        <v>90307.12880295831</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>95382.05397293709</v>
+        <v>91468.91064279957</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>96614.13183364453</v>
+        <v>92650.44128773618</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>97867.19420922955</v>
+        <v>93852.0955370226</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>99141.63793375362</v>
+        <v>95074.25394420935</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>100437.8657669404</v>
+        <v>96317.30274540331</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>101756.2863064124</v>
+        <v>97581.63377510429</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>103097.3138863541</v>
+        <v>98867.64436902603</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>104461.3684619762</v>
+        <v>100175.7372533004</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>105848.8754791562</v>
+        <v>101506.3204194661</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>107260.2657286249</v>
+        <v>102859.806984637</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>108695.9751840682</v>
+        <v>104236.6150362463</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>110156.4448235201</v>
+        <v>105637.1674607668</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>111642.1204334243</v>
+        <v>107061.8917558114</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>113153.4523947471</v>
+        <v>108511.2198250211</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>114690.8954505413</v>
+        <v>109985.5877551638</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>116254.9084543659</v>
+        <v>111485.4355748762</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>117845.9540989856</v>
+        <v>113011.2069944938</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>119464.4986247954</v>
+        <v>114563.3491264372</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>121111.0115074329</v>
+        <v>116142.3121856404</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>122785.9651240701</v>
+        <v>117748.5491695335</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>124489.8343979069</v>
+        <v>119382.5155171215</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>126223.0964204176</v>
+        <v>121044.6687467277</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>127986.2300509431</v>
+        <v>122735.4680720138</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>129779.7154932619</v>
+        <v>124455.3739959222</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>131604.0338488159</v>
+        <v>126204.8478822315</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133459.6666463218</v>
+        <v>127984.3515044651</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>135347.0953475462</v>
+        <v>129794.3465719431</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>137266.8008290882</v>
+        <v>131635.2942328258</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>139219.2628400732</v>
+        <v>133507.6545540547</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>141204.9594357255</v>
+        <v>135411.8859781649</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>143224.3663868682</v>
+        <v>137348.4447570093</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>145277.9565654655</v>
+        <v>139317.7843625115</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>147366.1993064113</v>
+        <v>141320.3548746358</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>149489.5597458491</v>
+        <v>143356.6023468541</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>151648.4981363982</v>
+        <v>145426.968149466</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>153843.4691397563</v>
+        <v>147531.8882912221</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>156074.921097244</v>
+        <v>149671.7927197957</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>158343.2952789589</v>
+        <v>151847.1046017413</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>160649.0251123113</v>
+        <v>154058.2395826802</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>162992.5353908212</v>
+        <v>156305.6050285566</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>165374.2414641646</v>
+        <v>158589.5992489147</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>167794.5484105711</v>
+        <v>160910.6107032476</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>170253.850192791</v>
+        <v>163269.0171915937</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>172752.5287989615</v>
+        <v>165665.1850306481</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>175290.9533698208</v>
+        <v>168099.4682167839</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>177869.4793138374</v>
+        <v>170572.2075774849</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>180488.4474119338</v>
+        <v>173083.7299127985</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>183148.1829136075</v>
+        <v>175634.3471285391</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>185848.994626355</v>
+        <v>178224.3553630696</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>188591.1740004319</v>
+        <v>180854.0341096095</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>191374.9942110733</v>
+        <v>183523.6453361095</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>194200.7092404229</v>
+        <v>186233.4326048438</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>197068.552961502</v>
+        <v>188983.6201939612</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>199978.7382266617</v>
+        <v>191774.4122233341</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>202931.4559630365</v>
+        <v>194605.991787122</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>205926.8742776128</v>
+        <v>197478.5200955553</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>208965.1375745892</v>
+        <v>200392.1356285074</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>212046.3656877816</v>
+        <v>203346.9533034932</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>215170.6530308767</v>
+        <v>206343.0636607841</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>218338.0677683872</v>
+        <v>209380.5320683762</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>217787.8517887294</v>
+        <v>208852.8892447916</v>
       </c>
       <c r="C358" t="n">
-        <v>3760.799221467691</v>
+        <v>3453.178342164983</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>217230.9174892094</v>
+        <v>208318.8037270783</v>
       </c>
       <c r="C359" t="n">
-        <v>7571.498543402562</v>
+        <v>6952.175122395342</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>216667.1321250916</v>
+        <v>207778.1482164847</v>
       </c>
       <c r="C360" t="n">
-        <v>11432.21540374693</v>
+        <v>10497.09817259995</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>216096.3589941073</v>
+        <v>207230.7916190883</v>
       </c>
       <c r="C361" t="n">
-        <v>15343.04189771333</v>
+        <v>14088.03205490899</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>215518.4573229476</v>
+        <v>206676.5989369444</v>
       </c>
       <c r="C362" t="n">
-        <v>19304.04420939586</v>
+        <v>17725.03753977759</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>214933.2821512727</v>
+        <v>206115.4311568557</v>
       </c>
       <c r="C363" t="n">
-        <v>23315.26208401584</v>
+        <v>21408.15112140003</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>214340.684213381</v>
+        <v>205547.1451368932</v>
       </c>
       <c r="C364" t="n">
-        <v>27376.70834350787</v>
+        <v>25137.38457291929</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>213740.5098177117</v>
+        <v>204971.5934908453</v>
       </c>
       <c r="C365" t="n">
-        <v>31488.36844805186</v>
+        <v>28912.72454382421</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>213132.6007244029</v>
+        <v>204388.6244707968</v>
       </c>
       <c r="C366" t="n">
-        <v>35650.20010604985</v>
+        <v>32734.13220182905</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>212516.7940211618</v>
+        <v>203798.0818480934</v>
       </c>
       <c r="C367" t="n">
-        <v>39862.13293492149</v>
+        <v>36601.54292141462</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>211892.9219977578</v>
+        <v>203199.8047929835</v>
       </c>
       <c r="C368" t="n">
-        <v>44124.06817493399</v>
+        <v>40514.86602106614</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>211260.8120194983</v>
+        <v>202593.627753283</v>
       </c>
       <c r="C369" t="n">
-        <v>48435.87845812708</v>
+        <v>44473.98455109919</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>210620.2864000994</v>
+        <v>201979.380332465</v>
       </c>
       <c r="C370" t="n">
-        <v>52797.40763419562</v>
+        <v>48478.75513378474</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>209971.162274434</v>
+        <v>201356.8871676248</v>
       </c>
       <c r="C371" t="n">
-        <v>57208.47065499494</v>
+        <v>52529.00785730148</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>209313.2514716942</v>
+        <v>200725.9678078484</v>
       </c>
       <c r="C372" t="n">
-        <v>61668.85351910827</v>
+        <v>56624.54622483735</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>208646.3603895828</v>
+        <v>200086.4365935654</v>
       </c>
       <c r="C373" t="n">
-        <v>61668.49907479459</v>
+        <v>56624.22077289072</v>
       </c>
       <c r="D373" t="n">
-        <v>4509.814202874779</v>
+        <v>4135.011160204228</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>207970.2898702214</v>
+        <v>199438.1025375465</v>
       </c>
       <c r="C374" t="n">
-        <v>61668.08893476586</v>
+        <v>56623.84418095344</v>
       </c>
       <c r="D374" t="n">
-        <v>9068.489167612322</v>
+        <v>8314.822346864052</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>207284.8350785391</v>
+        <v>198780.7692082824</v>
       </c>
       <c r="C375" t="n">
-        <v>61667.61496073574</v>
+        <v>56623.40897642399</v>
       </c>
       <c r="D375" t="n">
-        <v>13675.73245563348</v>
+        <v>12539.16542547679</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>206589.7853839943</v>
+        <v>198114.2346165589</v>
       </c>
       <c r="C376" t="n">
-        <v>61667.06792642445</v>
+        <v>56622.90668770159</v>
       </c>
       <c r="D376" t="n">
-        <v>18331.22416187174</v>
+        <v>16807.7470777458</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>205884.9242465718</v>
+        <v>197438.2911061289</v>
       </c>
       <c r="C377" t="n">
-        <v>61666.43738795336</v>
+        <v>56622.32772518216</v>
       </c>
       <c r="D377" t="n">
-        <v>23034.61730173936</v>
+        <v>21120.24915638645</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>205170.0291080815</v>
+        <v>196752.7252494731</v>
       </c>
       <c r="C378" t="n">
-        <v>61665.71154115303</v>
+        <v>56621.66125023814</v>
       </c>
       <c r="D378" t="n">
-        <v>27785.53827419199</v>
+        <v>25476.32910970629</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>204444.8712898973</v>
+        <v>196057.3177497328</v>
       </c>
       <c r="C379" t="n">
-        <v>61664.87706479597</v>
+        <v>56620.89503127415</v>
       </c>
       <c r="D379" t="n">
-        <v>32583.58740128287</v>
+        <v>29875.62047631779</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>203709.2158983619</v>
+        <v>195351.8433499956</v>
       </c>
       <c r="C380" t="n">
-        <v>61663.91894873629</v>
+        <v>56620.01528592437</v>
       </c>
       <c r="D380" t="n">
-        <v>37428.33954428094</v>
+        <v>34317.7334500519</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>202962.8217391964</v>
+        <v>194636.0707512174</v>
       </c>
       <c r="C381" t="n">
-        <v>61662.82030591625</v>
+        <v>56619.00650843625</v>
       </c>
       <c r="D381" t="n">
-        <v>42319.344796097</v>
+        <v>38802.25551483782</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>202205.4412423582</v>
+        <v>193909.7625401618</v>
       </c>
       <c r="C382" t="n">
-        <v>61661.56216718466</v>
+        <v>56617.85128127215</v>
       </c>
       <c r="D382" t="n">
-        <v>47256.12924941357</v>
+        <v>43328.75214899496</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>201436.8203989004</v>
+        <v>193172.6751288508</v>
       </c>
       <c r="C383" t="n">
-        <v>61660.12325786604</v>
+        <v>56616.53006995435</v>
       </c>
       <c r="D383" t="n">
-        <v>47256.04074239874</v>
+        <v>43328.67099764866</v>
       </c>
       <c r="E383" t="n">
-        <v>4982.15509715941</v>
+        <v>5165.565887578204</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>200656.6987114989</v>
+        <v>192424.5587071215</v>
       </c>
       <c r="C384" t="n">
-        <v>61658.47975502347</v>
+        <v>56615.02100018298</v>
       </c>
       <c r="D384" t="n">
-        <v>47255.93522484969</v>
+        <v>43328.57424948494</v>
       </c>
       <c r="E384" t="n">
-        <v>10009.09003592831</v>
+        <v>10377.56012147606</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>199864.8091604247</v>
+        <v>191665.1572099938</v>
       </c>
       <c r="C385" t="n">
-        <v>61656.60502437421</v>
+        <v>56613.29961627118</v>
       </c>
       <c r="D385" t="n">
-        <v>47255.80963781911</v>
+        <v>43328.45909978039</v>
       </c>
       <c r="E385" t="n">
-        <v>15080.26731637886</v>
+        <v>15635.425414488</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>199060.8781868512</v>
+        <v>190894.2083016629</v>
       </c>
       <c r="C386" t="n">
-        <v>61654.46933584708</v>
+        <v>56611.33861996872</v>
       </c>
       <c r="D386" t="n">
-        <v>47255.66041421818</v>
+        <v>43328.32227790094</v>
       </c>
       <c r="E386" t="n">
-        <v>20195.12975111748</v>
+        <v>20938.5840671773</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>198244.6256954979</v>
+        <v>190111.4433780355</v>
       </c>
       <c r="C387" t="n">
-        <v>61652.0395568144</v>
+        <v>56609.10758878684</v>
       </c>
       <c r="D387" t="n">
-        <v>47255.4834023474</v>
+        <v>43328.15997718781</v>
       </c>
       <c r="E387" t="n">
-        <v>25353.10166629779</v>
+        <v>26286.43921310258</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>197415.765078723</v>
+        <v>189316.5875898321</v>
       </c>
       <c r="C388" t="n">
-        <v>61649.27882209426</v>
+        <v>56606.572672993</v>
       </c>
       <c r="D388" t="n">
-        <v>47255.27377934289</v>
+        <v>43327.96777559722</v>
       </c>
       <c r="E388" t="n">
-        <v>30553.5901767951</v>
+        <v>31678.37614093599</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>196574.0032642788</v>
+        <v>188509.3598883845</v>
       </c>
       <c r="C389" t="n">
-        <v>61646.14617989763</v>
+        <v>56603.69627051838</v>
       </c>
       <c r="D389" t="n">
-        <v>47255.02595345017</v>
+        <v>43327.74054609593</v>
       </c>
       <c r="E389" t="n">
-        <v>35795.98653325205</v>
+        <v>37113.76369109836</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>195719.0407890503</v>
+        <v>187689.4730963491</v>
       </c>
       <c r="C390" t="n">
-        <v>61642.59621299677</v>
+        <v>56600.43667911358</v>
       </c>
       <c r="D390" t="n">
-        <v>47254.73345395814</v>
+        <v>43327.47235574275</v>
       </c>
       <c r="E390" t="n">
-        <v>41079.66753834836</v>
+        <v>42591.95572416688</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>194850.5719011879</v>
+        <v>186856.634005649</v>
       </c>
       <c r="C391" t="n">
-        <v>61638.57863451354</v>
+        <v>56596.7477252</v>
       </c>
       <c r="D391" t="n">
-        <v>47254.38880754905</v>
+        <v>43327.15635231471</v>
       </c>
       <c r="E391" t="n">
-        <v>46403.99702927945</v>
+        <v>48112.292657929</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>193968.284693135</v>
+        <v>186010.5435050442</v>
       </c>
       <c r="C392" t="n">
-        <v>61634.03785787293</v>
+        <v>56592.57836899975</v>
       </c>
       <c r="D392" t="n">
-        <v>47253.98339974414</v>
+        <v>43326.78463726785</v>
       </c>
       <c r="E392" t="n">
-        <v>51768.32742305893</v>
+        <v>53674.10306957296</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>193071.8612681279</v>
+        <v>185150.8967398009</v>
       </c>
       <c r="C393" t="n">
-        <v>61628.91254063978</v>
+        <v>56587.872285685</v>
       </c>
       <c r="D393" t="n">
-        <v>47253.50732005287</v>
+        <v>43326.34812375576</v>
       </c>
       <c r="E393" t="n">
-        <v>51768.26351963715</v>
+        <v>53674.0368136397</v>
       </c>
       <c r="F393" t="n">
-        <v>5403.737801236643</v>
+        <v>6328.167502909429</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>192160.9779428132</v>
+        <v>184277.3833059965</v>
       </c>
       <c r="C394" t="n">
-        <v>61623.13510215485</v>
+        <v>56582.56742246989</v>
       </c>
       <c r="D394" t="n">
-        <v>47252.94918936675</v>
+        <v>43325.83637836845</v>
       </c>
       <c r="E394" t="n">
-        <v>51768.1861221807</v>
+        <v>53673.95656690851</v>
       </c>
       <c r="F394" t="n">
-        <v>10846.16704516015</v>
+        <v>12701.64548150398</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>191235.3054886803</v>
+        <v>183389.6874820462</v>
       </c>
       <c r="C395" t="n">
-        <v>61616.63121511476</v>
+        <v>56576.59553177747</v>
       </c>
       <c r="D395" t="n">
-        <v>47252.29596807943</v>
+        <v>43325.23744519924</v>
       </c>
       <c r="E395" t="n">
-        <v>51768.09255929689</v>
+        <v>53673.85955964326</v>
       </c>
       <c r="F395" t="n">
-        <v>16326.6184008078</v>
+        <v>19119.65010085257</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>190294.5094150464</v>
+        <v>182487.488500079</v>
       </c>
       <c r="C396" t="n">
-        <v>61609.31927149626</v>
+        <v>56569.88168084962</v>
       </c>
       <c r="D396" t="n">
-        <v>47251.53274336461</v>
+        <v>43324.53765080161</v>
       </c>
       <c r="E396" t="n">
-        <v>51767.97966956184</v>
+        <v>53673.7425140369</v>
       </c>
       <c r="F396" t="n">
-        <v>21844.41833525937</v>
+        <v>25581.39260522821</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>189338.2502963528</v>
+        <v>181570.4608598065</v>
       </c>
       <c r="C397" t="n">
-        <v>61601.10982351287</v>
+        <v>56562.34373843155</v>
       </c>
       <c r="D397" t="n">
-        <v>47250.64249400535</v>
+        <v>43323.72138856323</v>
       </c>
       <c r="E397" t="n">
-        <v>51767.84371967391</v>
+        <v>53673.60155935165</v>
       </c>
       <c r="F397" t="n">
-        <v>27398.8909904758</v>
+        <v>32086.08151602172</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>188366.1841465365</v>
+        <v>180638.274687535</v>
       </c>
       <c r="C398" t="n">
-        <v>61591.90500060938</v>
+        <v>56553.89183945422</v>
       </c>
       <c r="D398" t="n">
-        <v>47249.60583114498</v>
+        <v>43322.77088100257</v>
       </c>
       <c r="E398" t="n">
-        <v>51767.68031051405</v>
+        <v>53673.43213452135</v>
       </c>
       <c r="F398" t="n">
-        <v>32989.36010643758</v>
+        <v>38632.92488387573</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>187377.9628432197</v>
+        <v>179690.5961429519</v>
       </c>
       <c r="C399" t="n">
-        <v>61581.59790384889</v>
+        <v>56544.42782895859</v>
       </c>
       <c r="D399" t="n">
-        <v>47248.40071332362</v>
+        <v>43321.66591848825</v>
       </c>
       <c r="E399" t="n">
-        <v>51767.48426961968</v>
+        <v>53673.22887666671</v>
       </c>
       <c r="F399" t="n">
-        <v>38615.15098584596</v>
+        <v>45221.13258949186</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>186373.2346044229</v>
+        <v>178727.0878762829</v>
       </c>
       <c r="C400" t="n">
-        <v>61570.07197942709</v>
+        <v>56533.84468685425</v>
       </c>
       <c r="D400" t="n">
-        <v>47247.00213417906</v>
+        <v>43320.38357289461</v>
       </c>
       <c r="E400" t="n">
-        <v>51767.24952844424</v>
+        <v>53672.98549383649</v>
       </c>
       <c r="F400" t="n">
-        <v>44275.59249532777</v>
+        <v>51849.9186871861</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>185351.6445204417</v>
+        <v>177747.4095383457</v>
       </c>
       <c r="C401" t="n">
-        <v>61557.20037345822</v>
+        <v>56522.02593548169</v>
       </c>
       <c r="D401" t="n">
-        <v>47245.38178122938</v>
+        <v>43318.89788474228</v>
       </c>
       <c r="E401" t="n">
-        <v>51766.96898263972</v>
+        <v>53672.69462014638</v>
       </c>
       <c r="F401" t="n">
-        <v>49970.01909777874</v>
+        <v>58518.50378490986</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>184312.8351434314</v>
+        <v>176751.2183459479</v>
       </c>
       <c r="C402" t="n">
-        <v>61542.84527061663</v>
+        <v>56508.845032351</v>
       </c>
       <c r="D402" t="n">
-        <v>47243.50766421983</v>
+        <v>43317.17952243259</v>
       </c>
       <c r="E402" t="n">
-        <v>51766.6343334616</v>
+        <v>53672.3476513457</v>
       </c>
       <c r="F402" t="n">
-        <v>55697.7729101347</v>
+        <v>65226.11745404858</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>183256.4471371293</v>
+        <v>175738.1697049532</v>
       </c>
       <c r="C403" t="n">
-        <v>61526.85721968517</v>
+        <v>56494.16475085798</v>
       </c>
       <c r="D403" t="n">
-        <v>47241.34371161376</v>
+        <v>43315.19541227333</v>
       </c>
       <c r="E403" t="n">
-        <v>51766.23590826039</v>
+        <v>53671.93455870046</v>
       </c>
       <c r="F403" t="n">
-        <v>55697.72414699171</v>
+        <v>65226.06034888395</v>
       </c>
       <c r="G403" t="n">
-        <v>5760.481633540217</v>
+        <v>6438.734544675421</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>182182.1199889862</v>
+        <v>174707.917893197</v>
       </c>
       <c r="C404" t="n">
-        <v>61509.07444955302</v>
+        <v>56477.83655223107</v>
       </c>
       <c r="D404" t="n">
-        <v>47238.84933393751</v>
+        <v>43312.9083381135</v>
       </c>
       <c r="E404" t="n">
-        <v>51765.76245789055</v>
+        <v>53671.44367894418</v>
       </c>
       <c r="F404" t="n">
-        <v>55697.66428477754</v>
+        <v>65225.9902459048</v>
       </c>
       <c r="G404" t="n">
-        <v>11553.01709368237</v>
+        <v>12913.29701030614</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>181089.4927868019</v>
+        <v>173660.1168052602</v>
       </c>
       <c r="C405" t="n">
-        <v>61489.32217972069</v>
+        <v>56459.69995243487</v>
       </c>
       <c r="D405" t="n">
-        <v>47235.97895285851</v>
+        <v>43310.27650955874</v>
       </c>
       <c r="E405" t="n">
-        <v>51765.20092874216</v>
+        <v>53670.86147791726</v>
       </c>
       <c r="F405" t="n">
-        <v>55697.59095177766</v>
+        <v>65225.90436766203</v>
       </c>
       <c r="G405" t="n">
-        <v>17376.98633935423</v>
+        <v>19422.9943506983</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>179978.2050617393</v>
+        <v>172594.4207608971</v>
       </c>
       <c r="C406" t="n">
-        <v>61467.41192990306</v>
+        <v>56439.58188824526</v>
       </c>
       <c r="D406" t="n">
-        <v>47232.681495086</v>
+        <v>43307.25309793329</v>
       </c>
       <c r="E406" t="n">
-        <v>51764.53620698415</v>
+        <v>53670.17228539495</v>
       </c>
       <c r="F406" t="n">
-        <v>55697.50130567288</v>
+        <v>65225.79938559447</v>
       </c>
       <c r="G406" t="n">
-        <v>23231.78581324825</v>
+        <v>25967.1519442607</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>178847.8976993408</v>
+        <v>171510.4853786767</v>
       </c>
       <c r="C407" t="n">
-        <v>61443.1408338691</v>
+        <v>56417.29608721483</v>
       </c>
       <c r="D407" t="n">
-        <v>47228.89985043898</v>
+        <v>43303.78573938682</v>
       </c>
       <c r="E407" t="n">
-        <v>51763.75083250568</v>
+        <v>53669.35799849786</v>
       </c>
       <c r="F407" t="n">
-        <v>55697.39194821693</v>
+        <v>65225.67132011008</v>
       </c>
       <c r="G407" t="n">
-        <v>29116.83061407948</v>
+        <v>32545.11602202951</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>177698.2139198843</v>
+        <v>170407.9685161186</v>
       </c>
       <c r="C408" t="n">
-        <v>61416.2909632149</v>
+        <v>56392.64244675889</v>
       </c>
       <c r="D408" t="n">
-        <v>47224.57029372906</v>
+        <v>43299.81600482373</v>
       </c>
       <c r="E408" t="n">
-        <v>51762.82467995807</v>
+        <v>53668.39775099183</v>
       </c>
       <c r="F408" t="n">
-        <v>55697.25882614283</v>
+        <v>65225.51542454035</v>
       </c>
       <c r="G408" t="n">
-        <v>35031.55666611085</v>
+        <v>39156.25609263869</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>176528.8003290936</v>
+        <v>169286.5312772973</v>
       </c>
       <c r="C409" t="n">
-        <v>61386.62866732758</v>
+        <v>56365.40642810832</v>
       </c>
       <c r="D409" t="n">
-        <v>47219.62187046035</v>
+        <v>43295.27883665647</v>
       </c>
       <c r="E409" t="n">
-        <v>51761.73460423841</v>
+        <v>53667.26754572072</v>
       </c>
       <c r="F409" t="n">
-        <v>55697.09711641343</v>
+        <v>65225.32605076017</v>
       </c>
       <c r="G409" t="n">
-        <v>40975.422879388</v>
+        <v>45799.96735690611</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>175339.308039857</v>
+        <v>168145.8390885409</v>
       </c>
       <c r="C410" t="n">
-        <v>61353.9039363572</v>
+        <v>56335.3584713881</v>
       </c>
       <c r="D410" t="n">
-        <v>47213.97574675547</v>
+        <v>43290.10195275809</v>
       </c>
       <c r="E410" t="n">
-        <v>51760.45404772335</v>
+        <v>53665.93984738087</v>
       </c>
       <c r="F410" t="n">
-        <v>55696.90109373728</v>
+        <v>65225.09649403948</v>
       </c>
       <c r="G410" t="n">
-        <v>46947.91329381477</v>
+        <v>52475.67310435748</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>174129.3938652106</v>
+        <v>166985.5628424706</v>
       </c>
       <c r="C411" t="n">
-        <v>61317.84979456267</v>
+        <v>56302.25343858562</v>
       </c>
       <c r="D411" t="n">
-        <v>47207.5445243795</v>
+        <v>43284.20521841336</v>
       </c>
       <c r="E411" t="n">
-        <v>51758.95260656302</v>
+        <v>53664.38313284895</v>
       </c>
       <c r="F411" t="n">
-        <v>55696.66397806875</v>
+        <v>65224.81881445489</v>
       </c>
       <c r="G411" t="n">
-        <v>52948.53919992049</v>
+        <v>59182.82708369796</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>172898.7215824104</v>
+        <v>165805.3801102141</v>
       </c>
       <c r="C412" t="n">
-        <v>61278.18173192984</v>
+        <v>56265.83009166048</v>
       </c>
       <c r="D412" t="n">
-        <v>47200.23152225231</v>
+        <v>43277.4999875435</v>
       </c>
       <c r="E412" t="n">
-        <v>51757.19555338655</v>
+        <v>53662.56139631646</v>
       </c>
       <c r="F412" t="n">
-        <v>55696.37775960303</v>
+        <v>65224.48363194601</v>
       </c>
       <c r="G412" t="n">
-        <v>58976.84122881691</v>
+        <v>65920.9158388457</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>171646.9632674484</v>
+        <v>164604.9764211707</v>
       </c>
       <c r="C413" t="n">
-        <v>61234.59718246594</v>
+        <v>56225.81061351269</v>
       </c>
       <c r="D413" t="n">
-        <v>47191.93002641571</v>
+        <v>43269.88841500712</v>
       </c>
       <c r="E413" t="n">
-        <v>51755.14331385984</v>
+        <v>53660.43360657778</v>
       </c>
       <c r="F413" t="n">
-        <v>55696.03299856388</v>
+        <v>65224.07989185268</v>
       </c>
       <c r="G413" t="n">
-        <v>58976.80171430085</v>
+        <v>65920.87167179585</v>
       </c>
       <c r="H413" t="n">
-        <v>6055.589689209753</v>
+        <v>7269.992417250414</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>170373.8006988632</v>
+        <v>163384.0466092302</v>
       </c>
       <c r="C414" t="n">
-        <v>61186.77505804534</v>
+        <v>56181.90017995831</v>
       </c>
       <c r="D414" t="n">
-        <v>47182.52251105325</v>
+        <v>43261.26274235995</v>
       </c>
       <c r="E414" t="n">
-        <v>51752.75089467788</v>
+        <v>53657.95311396482</v>
       </c>
       <c r="F414" t="n">
-        <v>55695.61859687015</v>
+        <v>65223.59459751978</v>
       </c>
       <c r="G414" t="n">
-        <v>58976.7526781307</v>
+        <v>65920.81686198949</v>
       </c>
       <c r="H414" t="n">
-        <v>12138.04246520877</v>
+        <v>14572.23511024357</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>169078.9268291592</v>
+        <v>162142.2962238249</v>
       </c>
       <c r="C415" t="n">
-        <v>61134.37534710813</v>
+        <v>56133.78659125325</v>
       </c>
       <c r="D415" t="n">
-        <v>47171.87983384797</v>
+        <v>43251.50456008489</v>
       </c>
       <c r="E415" t="n">
-        <v>51749.96726077767</v>
+        <v>53655.06700463301</v>
       </c>
       <c r="F415" t="n">
-        <v>55695.1215385577</v>
+        <v>65223.01250631263</v>
       </c>
       <c r="G415" t="n">
-        <v>58976.69196423626</v>
+        <v>65920.74899949566</v>
       </c>
       <c r="H415" t="n">
-        <v>18247.00124866511</v>
+        <v>21906.29939008724</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>167762.0473215821</v>
+        <v>160879.4430036575</v>
       </c>
       <c r="C416" t="n">
-        <v>61077.03878788509</v>
+        <v>56081.13997204712</v>
       </c>
       <c r="D416" t="n">
-        <v>47159.86040970207</v>
+        <v>43240.48404998254</v>
       </c>
       <c r="E416" t="n">
-        <v>51746.73465982827</v>
+        <v>53651.71540018338</v>
       </c>
       <c r="F416" t="n">
-        <v>55694.52659563262</v>
+        <v>65222.31578514976</v>
       </c>
       <c r="G416" t="n">
-        <v>58976.61696253374</v>
+        <v>65920.66516691294</v>
       </c>
       <c r="H416" t="n">
-        <v>24382.1466438619</v>
+        <v>29271.80180866838</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>166422.8821493998</v>
+        <v>159595.2184103704</v>
       </c>
       <c r="C417" t="n">
-        <v>61014.38662612902</v>
+        <v>56023.61254893161</v>
       </c>
       <c r="D417" t="n">
-        <v>47146.30936763046</v>
+        <v>43228.05921213383</v>
       </c>
       <c r="E417" t="n">
-        <v>51742.98789239957</v>
+        <v>53647.83070096367</v>
       </c>
       <c r="F417" t="n">
-        <v>55693.81599584493</v>
+        <v>65221.48362144209</v>
       </c>
       <c r="G417" t="n">
-        <v>58976.52452136176</v>
+        <v>65920.56184149587</v>
       </c>
       <c r="H417" t="n">
-        <v>30543.19883646042</v>
+        <v>36668.40643699821</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>165061.1672542206</v>
+        <v>158289.3692188289</v>
       </c>
       <c r="C418" t="n">
-        <v>60946.0204675647</v>
+        <v>55960.83851495935</v>
       </c>
       <c r="D418" t="n">
-        <v>47131.05769647047</v>
+        <v>43214.07508160843</v>
       </c>
       <c r="E418" t="n">
-        <v>51738.653526639</v>
+        <v>53643.33677183452</v>
       </c>
       <c r="F418" t="n">
-        <v>55692.96904870494</v>
+        <v>65220.49178513078</v>
       </c>
       <c r="G418" t="n">
-        <v>58976.4108448189</v>
+        <v>65920.43478040445</v>
       </c>
       <c r="H418" t="n">
-        <v>36729.91942214499</v>
+        <v>44095.82706057803</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>163676.6562592344</v>
+        <v>156961.6591600762</v>
       </c>
       <c r="C419" t="n">
-        <v>60871.52223541468</v>
+        <v>55892.43399064399</v>
       </c>
       <c r="D419" t="n">
-        <v>47113.92138591829</v>
+        <v>43198.36294088812</v>
       </c>
       <c r="E419" t="n">
-        <v>51733.64905679871</v>
+        <v>53638.14806971902</v>
       </c>
       <c r="F419" t="n">
-        <v>55691.96172592435</v>
+        <v>65219.31213735373</v>
       </c>
       <c r="G419" t="n">
-        <v>58976.27137277505</v>
+        <v>65920.27888658794</v>
       </c>
       <c r="H419" t="n">
-        <v>42942.11315775603</v>
+        <v>51553.82928170878</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>162269.1222326049</v>
+        <v>155611.8706123794</v>
       </c>
       <c r="C420" t="n">
-        <v>60790.45424340743</v>
+        <v>55817.99709099662</v>
       </c>
       <c r="D420" t="n">
-        <v>47094.70057029754</v>
+        <v>43180.7395347954</v>
       </c>
       <c r="E420" t="n">
-        <v>51727.88200556437</v>
+        <v>53632.16871288506</v>
       </c>
       <c r="F420" t="n">
-        <v>55690.76619236061</v>
+        <v>65217.91208114726</v>
       </c>
       <c r="G420" t="n">
-        <v>58976.10064107602</v>
+        <v>65920.08805252954</v>
       </c>
       <c r="H420" t="n">
-        <v>49179.62962617779</v>
+        <v>59042.23251825939</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>160838.3594955673</v>
+        <v>154239.8063351489</v>
       </c>
       <c r="C421" t="n">
-        <v>60702.35939461726</v>
+        <v>55737.10810810118</v>
       </c>
       <c r="D421" t="n">
-        <v>47073.17868338178</v>
+        <v>43161.00629555716</v>
       </c>
       <c r="E421" t="n">
-        <v>51721.24897084165</v>
+        <v>53625.29149264069</v>
       </c>
       <c r="F421" t="n">
-        <v>55689.35028348192</v>
+        <v>65216.25394952008</v>
       </c>
       <c r="G421" t="n">
-        <v>58975.89211919177</v>
+        <v>65919.85497877898</v>
       </c>
       <c r="H421" t="n">
-        <v>55442.36480589136</v>
+        <v>66560.91188798178</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>159384.1854691046</v>
+        <v>152845.2912398528</v>
       </c>
       <c r="C422" t="n">
-        <v>60606.76151631097</v>
+        <v>55649.32981857174</v>
       </c>
       <c r="D422" t="n">
-        <v>47049.12163351358</v>
+        <v>43138.94858647832</v>
       </c>
       <c r="E422" t="n">
-        <v>51713.63461846429</v>
+        <v>53617.39682896012</v>
       </c>
       <c r="F422" t="n">
-        <v>55687.67692536477</v>
+        <v>65214.29432622837</v>
       </c>
       <c r="G422" t="n">
-        <v>58975.63802227875</v>
+        <v>65919.57096388654</v>
       </c>
       <c r="H422" t="n">
-        <v>61730.2625357121</v>
+        <v>74109.79996699038</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>157906.4425523945</v>
+        <v>151428.174191399</v>
       </c>
       <c r="C423" t="n">
-        <v>60503.16584067741</v>
+        <v>55554.20792495992</v>
       </c>
       <c r="D423" t="n">
-        <v>47022.27700918147</v>
+        <v>43114.3349735419</v>
       </c>
       <c r="E423" t="n">
-        <v>51704.91062319875</v>
+        <v>53608.35167250309</v>
       </c>
       <c r="F423" t="n">
-        <v>55685.70349329288</v>
+        <v>65211.98329464877</v>
       </c>
       <c r="G423" t="n">
-        <v>58975.32909433626</v>
+        <v>65919.22566202785</v>
       </c>
       <c r="H423" t="n">
-        <v>68043.31586483581</v>
+        <v>81688.88841054973</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>156405.0000255397</v>
+        <v>149988.3298328036</v>
       </c>
       <c r="C424" t="n">
-        <v>60391.0596408829</v>
+        <v>55451.27163978336</v>
       </c>
       <c r="D424" t="n">
-        <v>46992.37332611303</v>
+        <v>43086.91653507489</v>
       </c>
       <c r="E424" t="n">
-        <v>51694.93456143655</v>
+        <v>53598.00835654316</v>
       </c>
       <c r="F424" t="n">
-        <v>55683.38110516062</v>
+        <v>65209.26361030281</v>
       </c>
       <c r="G424" t="n">
-        <v>58974.95435884173</v>
+        <v>65918.80680427821</v>
       </c>
       <c r="H424" t="n">
-        <v>74381.56827786687</v>
+        <v>89298.22942377286</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>154879.7559684247</v>
+        <v>148525.6604253246</v>
       </c>
       <c r="C425" t="n">
-        <v>60269.91303132261</v>
+        <v>55340.03442031885</v>
       </c>
       <c r="D425" t="n">
-        <v>46959.11932780498</v>
+        <v>43056.42622041014</v>
       </c>
       <c r="E425" t="n">
-        <v>51683.54876008495</v>
+        <v>53586.20340348218</v>
       </c>
       <c r="F425" t="n">
-        <v>55680.65384610326</v>
+        <v>65206.06979284281</v>
       </c>
       <c r="G425" t="n">
-        <v>58974.50083295241</v>
+        <v>65918.29987916393</v>
       </c>
       <c r="H425" t="n">
-        <v>80745.11478406486</v>
+        <v>96937.93706930807</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>153330.6391868922</v>
+        <v>147040.097695616</v>
       </c>
       <c r="C426" t="n">
-        <v>60139.17994021673</v>
+        <v>55219.99486164363</v>
       </c>
       <c r="D426" t="n">
-        <v>46922.20335222149</v>
+        <v>43022.57826921732</v>
       </c>
       <c r="E426" t="n">
-        <v>51670.57910738648</v>
+        <v>53572.75629189162</v>
       </c>
       <c r="F426" t="n">
-        <v>55677.45792109548</v>
+        <v>65202.32713368357</v>
       </c>
       <c r="G426" t="n">
-        <v>58973.9532010702</v>
+        <v>65917.68776779162</v>
       </c>
       <c r="H426" t="n">
-        <v>87134.10285954297</v>
+        <v>104608.1883984879</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>151757.611136806</v>
+        <v>145531.6046808527</v>
       </c>
       <c r="C427" t="n">
-        <v>59998.29926183046</v>
+        <v>55090.63775460744</v>
       </c>
       <c r="D427" t="n">
-        <v>46881.29277813107</v>
+        <v>42985.06770385382</v>
       </c>
       <c r="E427" t="n">
-        <v>51655.83383271166</v>
+        <v>53557.46819138534</v>
       </c>
       <c r="F427" t="n">
-        <v>55673.72073268885</v>
+        <v>65197.95061596621</v>
       </c>
       <c r="G427" t="n">
-        <v>58973.29344328584</v>
+        <v>65916.95032854479</v>
       </c>
       <c r="H427" t="n">
-        <v>93548.73323066311</v>
+        <v>112309.2243918287</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>150160.6678359676</v>
+        <v>144000.17756221</v>
       </c>
       <c r="C428" t="n">
-        <v>59846.69619457141</v>
+        <v>54951.43531447813</v>
       </c>
       <c r="D428" t="n">
-        <v>46836.03356520172</v>
+        <v>42943.56990768173</v>
       </c>
       <c r="E428" t="n">
-        <v>51639.10226377012</v>
+        <v>53540.12067407915</v>
       </c>
       <c r="F428" t="n">
-        <v>55669.35988161054</v>
+        <v>65192.84374418712</v>
       </c>
       <c r="G428" t="n">
-        <v>58972.50041395962</v>
+        <v>65916.0639260454</v>
       </c>
       <c r="H428" t="n">
-        <v>99989.26048634463</v>
+        <v>120041.3506941326</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>148539.841753302</v>
+        <v>142445.8474765428</v>
       </c>
       <c r="C429" t="n">
-        <v>59683.78377003942</v>
+        <v>54801.84858492018</v>
       </c>
       <c r="D429" t="n">
-        <v>46786.04990251374</v>
+        <v>42897.74030279223</v>
       </c>
       <c r="E429" t="n">
-        <v>51620.15357115947</v>
+        <v>53520.47441292208</v>
       </c>
       <c r="F429" t="n">
-        <v>55664.28208863061</v>
+        <v>65186.89728162656</v>
       </c>
       <c r="G429" t="n">
-        <v>58971.54936546569</v>
+        <v>65915.00089882282</v>
       </c>
       <c r="H429" t="n">
-        <v>106455.9935064538</v>
+        <v>127804.9381287878</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>146895.2036642127</v>
+        <v>140868.6822956239</v>
       </c>
       <c r="C430" t="n">
-        <v>59508.96457677217</v>
+        <v>54641.3290207437</v>
       </c>
       <c r="D430" t="n">
-        <v>46730.9439805584</v>
+        <v>42847.21414095315</v>
       </c>
       <c r="E430" t="n">
-        <v>51598.73551170788</v>
+        <v>53498.26787877699</v>
       </c>
       <c r="F430" t="n">
-        <v>55658.38203693452</v>
+        <v>65179.9878946833</v>
       </c>
       <c r="G430" t="n">
-        <v>58970.41141193755</v>
+        <v>65913.72895991946</v>
       </c>
       <c r="H430" t="n">
-        <v>112949.2956928965</v>
+        <v>135600.4229752049</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>145226.8644605545</v>
+        <v>139268.7883618594</v>
       </c>
       <c r="C431" t="n">
-        <v>59321.63268094831</v>
+        <v>54469.32025150045</v>
       </c>
       <c r="D431" t="n">
-        <v>46670.29590204933</v>
+        <v>42791.60642183246</v>
       </c>
       <c r="E431" t="n">
-        <v>51574.57318364448</v>
+        <v>53473.2160497643</v>
       </c>
       <c r="F431" t="n">
-        <v>55651.54113521962</v>
+        <v>65171.97670437113</v>
       </c>
       <c r="G431" t="n">
-        <v>58969.05292771613</v>
+        <v>65912.21052451053</v>
       </c>
       <c r="H431" t="n">
-        <v>119469.5849894651</v>
+        <v>143428.3069926438</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>143534.9769032715</v>
+        <v>137646.3121690247</v>
       </c>
       <c r="C432" t="n">
-        <v>59121.17574468553</v>
+        <v>54285.26002651209</v>
       </c>
       <c r="D432" t="n">
-        <v>46603.66374695973</v>
+        <v>42730.51195263054</v>
       </c>
       <c r="E432" t="n">
-        <v>51547.36780823326</v>
+        <v>53445.00914804357</v>
       </c>
       <c r="F432" t="n">
-        <v>55643.62620287753</v>
+        <v>65162.7077465724</v>
       </c>
       <c r="G432" t="n">
-        <v>58967.43487513052</v>
+        <v>65910.40195853623</v>
       </c>
       <c r="H432" t="n">
-        <v>126017.3336759197</v>
+        <v>151289.1571729998</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>141819.7373054291</v>
+        <v>136001.4419762465</v>
       </c>
       <c r="C433" t="n">
-        <v>58906.97734081071</v>
+        <v>54088.5823402999</v>
       </c>
       <c r="D433" t="n">
-        <v>46530.58380709516</v>
+        <v>42663.50556315792</v>
       </c>
       <c r="E433" t="n">
-        <v>51516.79555410629</v>
+        <v>53413.3114208663</v>
       </c>
       <c r="F433" t="n">
-        <v>55634.48807993306</v>
+        <v>65152.00634417618</v>
       </c>
       <c r="G433" t="n">
-        <v>58965.51205625277</v>
+        <v>65908.25274235624</v>
       </c>
       <c r="H433" t="n">
-        <v>132593.0679212283</v>
+        <v>159183.6052044492</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>140081.3871331095</v>
+        <v>134334.4093432219</v>
       </c>
       <c r="C434" t="n">
-        <v>58678.41946109566</v>
+        <v>53878.71973565516</v>
       </c>
       <c r="D434" t="n">
-        <v>46450.57100519845</v>
+        <v>42590.14249010909</v>
       </c>
       <c r="E434" t="n">
-        <v>51482.50642210384</v>
+        <v>53377.75998436293</v>
       </c>
       <c r="F434" t="n">
-        <v>55623.96016588932</v>
+        <v>65139.67739596003</v>
       </c>
       <c r="G434" t="n">
-        <v>58963.23228337445</v>
+        <v>65905.70454355629</v>
       </c>
       <c r="H434" t="n">
-        <v>139197.3670803268</v>
+        <v>167112.3466271801</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>138320.2145114817</v>
+        <v>132645.4905744991</v>
       </c>
       <c r="C435" t="n">
-        <v>58434.88521295739</v>
+        <v>53655.10577975823</v>
       </c>
       <c r="D435" t="n">
-        <v>46363.11951304312</v>
+        <v>42509.95894378729</v>
       </c>
       <c r="E435" t="n">
-        <v>51444.12320994159</v>
+        <v>53337.96375009594</v>
       </c>
       <c r="F435" t="n">
-        <v>55611.85689327421</v>
+        <v>65125.50358900288</v>
       </c>
       <c r="G435" t="n">
-        <v>58960.53546317319</v>
+        <v>65902.69019328227</v>
       </c>
       <c r="H435" t="n">
-        <v>145830.8627182422</v>
+        <v>175076.1396618106</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>136536.5556232686</v>
+        <v>130935.0080605716</v>
       </c>
       <c r="C436" t="n">
-        <v>58175.76169753211</v>
+        <v>53417.17770683573</v>
       </c>
       <c r="D436" t="n">
-        <v>46267.70358219156</v>
+        <v>42422.47286981979</v>
       </c>
       <c r="E436" t="n">
-        <v>51401.24057744795</v>
+        <v>53293.50245588515</v>
       </c>
       <c r="F436" t="n">
-        <v>55597.97214349728</v>
+        <v>65109.24354353874</v>
       </c>
       <c r="G436" t="n">
-        <v>58957.3525898886</v>
+        <v>65899.13256087014</v>
       </c>
       <c r="H436" t="n">
-        <v>152494.2373449099</v>
+        <v>183075.8036904833</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>134730.7959868571</v>
+        <v>129203.3315035522</v>
       </c>
       <c r="C437" t="n">
-        <v>57900.443059868</v>
+        <v>53164.37921885768</v>
       </c>
       <c r="D437" t="n">
-        <v>46163.77860005929</v>
+        <v>42327.18491745425</v>
       </c>
       <c r="E437" t="n">
-        <v>51353.42423440889</v>
+        <v>53243.92582375419</v>
       </c>
       <c r="F437" t="n">
-        <v>55582.07761459355</v>
+        <v>65090.62990146683</v>
       </c>
       <c r="G437" t="n">
-        <v>58953.60464332591</v>
+        <v>65894.94332209814</v>
       </c>
       <c r="H437" t="n">
-        <v>159188.2228435841</v>
+        <v>191112.2173701056</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>132903.3716014046</v>
+        <v>127450.8790153006</v>
       </c>
       <c r="C438" t="n">
-        <v>57608.33369976108</v>
+        <v>52896.1634337376</v>
       </c>
       <c r="D438" t="n">
-        <v>46050.78238262889</v>
+        <v>42223.5796248376</v>
       </c>
       <c r="E438" t="n">
-        <v>51300.21027418908</v>
+        <v>53188.75286901998</v>
       </c>
       <c r="F438" t="n">
-        <v>55563.92115254629</v>
+        <v>65069.36737220997</v>
       </c>
       <c r="G438" t="n">
-        <v>58949.2013881715</v>
+        <v>65890.02161713049</v>
       </c>
       <c r="H438" t="n">
-        <v>165913.5985753353</v>
+        <v>199186.3163567185</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>131054.7699465174</v>
+        <v>125678.1180760889</v>
       </c>
       <c r="C439" t="n">
-        <v>57298.85162950787</v>
+        <v>52611.99596843227</v>
       </c>
       <c r="D439" t="n">
-        <v>45928.13671359085</v>
+        <v>42111.12683024137</v>
       </c>
       <c r="E439" t="n">
-        <v>51241.10467722648</v>
+        <v>53127.47138550915</v>
       </c>
       <c r="F439" t="n">
-        <v>55543.22506012223</v>
+        <v>65045.13075223828</v>
       </c>
       <c r="G439" t="n">
-        <v>58944.04007195251</v>
+        <v>65884.25259517203</v>
       </c>
       <c r="H439" t="n">
-        <v>172671.1891418383</v>
+        <v>207299.0906196279</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>129185.5308244017</v>
+        <v>123885.5663422025</v>
       </c>
       <c r="C440" t="n">
-        <v>56971.43196259048</v>
+        <v>52311.35814226381</v>
       </c>
       <c r="D440" t="n">
-        <v>45795.24913785077</v>
+        <v>41989.2833165136</v>
       </c>
       <c r="E440" t="n">
-        <v>51175.58300918224</v>
+        <v>53059.53763259576</v>
       </c>
       <c r="F440" t="n">
-        <v>55519.68439950045</v>
+        <v>65017.56293732512</v>
       </c>
       <c r="G440" t="n">
-        <v>58938.00402002165</v>
+        <v>65877.5058440229</v>
       </c>
       <c r="H440" t="n">
-        <v>179461.861788425</v>
+        <v>215451.5813236599</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>127296.2470328184</v>
+        <v>122073.7922912866</v>
       </c>
       <c r="C441" t="n">
-        <v>56625.53051507395</v>
+        <v>51993.75028373491</v>
       </c>
       <c r="D441" t="n">
-        <v>45651.51501523556</v>
+        <v>41857.49469410491</v>
       </c>
       <c r="E441" t="n">
-        <v>51103.0903389312</v>
+        <v>52984.37625017278</v>
       </c>
       <c r="F441" t="n">
-        <v>55492.96530740066</v>
+        <v>64986.27294944036</v>
       </c>
       <c r="G441" t="n">
-        <v>58930.96112720983</v>
+        <v>65869.63370413483</v>
       </c>
       <c r="H441" t="n">
-        <v>186286.5234293018</v>
+        <v>223644.8772578083</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>125387.5648577223</v>
+        <v>120243.415694774</v>
       </c>
       <c r="C442" t="n">
-        <v>56260.62749930966</v>
+        <v>51658.69512209929</v>
       </c>
       <c r="D442" t="n">
-        <v>45496.31983786378</v>
+        <v>41715.19752584612</v>
       </c>
       <c r="E442" t="n">
-        <v>51023.04140165796</v>
+        <v>52901.38042775222</v>
       </c>
       <c r="F442" t="n">
-        <v>55462.70334388551</v>
+        <v>64950.83400307864</v>
       </c>
       <c r="G442" t="n">
-        <v>58922.76224727854</v>
+        <v>65860.46946843379</v>
       </c>
       <c r="H442" t="n">
-        <v>193146.1172768786</v>
+        <v>231880.1107886008</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>123460.1843751202</v>
+        <v>118395.1079073591</v>
       </c>
       <c r="C443" t="n">
-        <v>55876.23128743204</v>
+        <v>51305.74124301718</v>
       </c>
       <c r="D443" t="n">
-        <v>45329.041812026</v>
+        <v>41561.82169425307</v>
       </c>
       <c r="E443" t="n">
-        <v>50934.82103204493</v>
+        <v>52809.91235360045</v>
       </c>
       <c r="F443" t="n">
-        <v>55428.50189848466</v>
+        <v>64910.78163871547</v>
       </c>
       <c r="G443" t="n">
-        <v>58913.23948302849</v>
+        <v>65849.82547110193</v>
       </c>
       <c r="H443" t="n">
-        <v>200041.6190573691</v>
+        <v>240158.453316766</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>121514.8595524504</v>
+        <v>116529.5919642185</v>
       </c>
       <c r="C444" t="n">
-        <v>55471.88222014176</v>
+        <v>50934.46658579246</v>
       </c>
       <c r="D444" t="n">
-        <v>45149.05470257183</v>
+        <v>41396.79300952112</v>
       </c>
       <c r="E444" t="n">
-        <v>50837.78489186427</v>
+        <v>52709.30396911532</v>
       </c>
       <c r="F444" t="n">
-        <v>55389.9306797206</v>
+        <v>64865.61195393274</v>
       </c>
       <c r="G444" t="n">
-        <v>58902.20438188821</v>
+        <v>65837.49107071046</v>
       </c>
       <c r="H444" t="n">
-        <v>206974.0327952499</v>
+        <v>248481.1102162977</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>119552.398140661</v>
+        <v>114647.642477517</v>
       </c>
       <c r="C445" t="n">
-        <v>55047.15643441501</v>
+        <v>50544.48195798819</v>
       </c>
       <c r="D445" t="n">
-        <v>44955.73093473774</v>
+        <v>41219.53605356557</v>
       </c>
       <c r="E445" t="n">
-        <v>50731.26051518475</v>
+        <v>52598.85805251088</v>
       </c>
       <c r="F445" t="n">
-        <v>55346.5243164582</v>
+        <v>64814.77996549806</v>
       </c>
       <c r="G445" t="n">
-        <v>58889.44604401635</v>
+        <v>65823.23053556529</v>
       </c>
       <c r="H445" t="n">
-        <v>213944.3861497975</v>
+        <v>256849.3152357713</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>117573.6613491467</v>
+        <v>112750.0853246799</v>
       </c>
       <c r="C446" t="n">
-        <v>54601.66968210015</v>
+        <v>50135.43454167471</v>
       </c>
       <c r="D446" t="n">
-        <v>44748.4449451076</v>
+        <v>41029.47725248941</v>
       </c>
       <c r="E446" t="n">
-        <v>50614.5486928502</v>
+        <v>52477.84965426327</v>
       </c>
       <c r="F446" t="n">
-        <v>55297.78110169547</v>
+        <v>64757.69813825278</v>
       </c>
       <c r="G446" t="n">
-        <v>58874.72915240059</v>
+        <v>65806.7808418652</v>
       </c>
       <c r="H446" t="n">
-        <v>220953.7252878222</v>
+        <v>265264.3243428406</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>115579.5632967839</v>
+        <v>110837.7971219504</v>
       </c>
       <c r="C447" t="n">
-        <v>54135.08110988776</v>
+        <v>49707.01136421067</v>
       </c>
       <c r="D447" t="n">
-        <v>44526.57677000457</v>
+        <v>40826.04816675006</v>
       </c>
       <c r="E447" t="n">
-        <v>50486.92521585592</v>
+        <v>52345.52790466709</v>
       </c>
       <c r="F447" t="n">
-        <v>55243.16191140229</v>
+        <v>64693.73511899426</v>
       </c>
       <c r="G447" t="n">
-        <v>58857.79193711626</v>
+        <v>65787.84939826737</v>
       </c>
       <c r="H447" t="n">
-        <v>228003.1092778918</v>
+        <v>273727.408994268</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>113571.0702334835</v>
+        <v>108911.7044778789</v>
       </c>
       <c r="C448" t="n">
-        <v>53647.09696989931</v>
+        <v>49258.94270531787</v>
       </c>
       <c r="D448" t="n">
-        <v>44289.51585610978</v>
+        <v>40608.68898508392</v>
       </c>
       <c r="E448" t="n">
-        <v>50347.64299472971</v>
+        <v>52201.11821123824</v>
       </c>
       <c r="F448" t="n">
-        <v>55182.08933273496</v>
+        <v>64622.21471555185</v>
       </c>
       <c r="G448" t="n">
-        <v>58838.34408879976</v>
+        <v>65766.11171368799</v>
       </c>
       <c r="H448" t="n">
-        <v>235093.6039928446</v>
+        <v>282239.8488156305</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>111549.1995279479</v>
+        <v>106972.7830226081</v>
       </c>
       <c r="C449" t="n">
-        <v>53137.47422916109</v>
+        <v>48791.00541131225</v>
       </c>
       <c r="D449" t="n">
-        <v>44036.66507453117</v>
+        <v>40376.85220497279</v>
       </c>
       <c r="E449" t="n">
-        <v>50195.93456900722</v>
+        <v>52043.82486057215</v>
       </c>
       <c r="F449" t="n">
-        <v>55113.94703733952</v>
+        <v>64542.41516287992</v>
       </c>
       <c r="G449" t="n">
-        <v>58816.06463947307</v>
+        <v>65741.20902861026</v>
       </c>
       <c r="H449" t="n">
-        <v>242226.2755092481</v>
+        <v>290802.923677091</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>109515.0184186636</v>
+        <v>105022.0562101074</v>
       </c>
       <c r="C450" t="n">
-        <v>52606.02404553934</v>
+        <v>48303.0260867191</v>
       </c>
       <c r="D450" t="n">
-        <v>43767.44491595416</v>
+        <v>40130.00647914261</v>
       </c>
       <c r="E450" t="n">
-        <v>50031.01501737837</v>
+        <v>51872.83403562286</v>
       </c>
       <c r="F450" t="n">
-        <v>55038.07943644081</v>
+        <v>64453.56871914222</v>
       </c>
       <c r="G450" t="n">
-        <v>58790.59983209558</v>
+        <v>65712.7459337919</v>
       </c>
       <c r="H450" t="n">
-        <v>249402.1829946765</v>
+        <v>299417.9051542729</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>107469.6425265834</v>
+        <v>103060.5938918739</v>
       </c>
       <c r="C451" t="n">
-        <v>52052.61507733321</v>
+        <v>47794.88413315227</v>
       </c>
       <c r="D451" t="n">
-        <v>43481.29784094409</v>
+        <v>39867.64060431961</v>
       </c>
       <c r="E451" t="n">
-        <v>49852.08527508403</v>
+        <v>51687.31725522481</v>
       </c>
       <c r="F451" t="n">
-        <v>54953.79165492828</v>
+        <v>64354.86163536442</v>
       </c>
       <c r="G451" t="n">
-        <v>58761.56100357441</v>
+        <v>65680.28800401613</v>
       </c>
       <c r="H451" t="n">
-        <v>256622.3710763573</v>
+        <v>308086.0473664957</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>105414.2341294313</v>
+        <v>101089.510662036</v>
       </c>
       <c r="C452" t="n">
-        <v>51477.17659367557</v>
+        <v>47266.51460529447</v>
       </c>
       <c r="D452" t="n">
-        <v>43177.69275599414</v>
+        <v>39589.26762528146</v>
       </c>
       <c r="E452" t="n">
-        <v>49658.33586068069</v>
+        <v>51486.435238053</v>
       </c>
       <c r="F452" t="n">
-        <v>54860.34986162879</v>
+        <v>64245.43454220752</v>
       </c>
       <c r="G452" t="n">
-        <v>58728.52250938847</v>
+        <v>65643.35947835595</v>
       </c>
       <c r="H452" t="n">
-        <v>263887.8616878173</v>
+        <v>316808.577188329</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>14551.0467957338</v>
+        <v>1471.732009315044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>14568.05489484309</v>
+        <v>1473.452254203823</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>14585.30738705099</v>
+        <v>1475.197217667914</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>14602.80776040419</v>
+        <v>1476.967252497739</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>14620.55955207411</v>
+        <v>1478.76271645233</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>14638.5663490312</v>
+        <v>1480.583972327526</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>14656.83178872793</v>
+        <v>1482.431388025054</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>14675.35955979073</v>
+        <v>1484.30533662251</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>14694.153402721</v>
+        <v>1486.206196444267</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>14713.21711060515</v>
+        <v>1488.134351133286</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>14732.55452983394</v>
+        <v>1490.090189723875</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>14752.16956083115</v>
+        <v>1492.074106715384</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>14772.06615879167</v>
+        <v>1494.086502146863</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>14792.24833442922</v>
+        <v>1496.127781672684</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>14812.7201547336</v>
+        <v>1498.198356639135</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>14833.48574373797</v>
+        <v>1500.298644162021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>14854.54928329577</v>
+        <v>1502.429067205247</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>14875.91501386786</v>
+        <v>1504.590054660429</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>14897.58723531969</v>
+        <v>1506.782041427524</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>14919.57030772876</v>
+        <v>1509.005468496496</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>14941.86865220245</v>
+        <v>1511.260783030038</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>14964.48675170636</v>
+        <v>1513.548438447345</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>14987.42915190321</v>
+        <v>1515.868894508977</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>15010.70046200263</v>
+        <v>1518.222617402786</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>15034.30535562159</v>
+        <v>1520.610079830966</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>15058.24857165604</v>
+        <v>1523.031761098198</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>15082.53491516353</v>
+        <v>1525.488147200926</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>15107.16925825715</v>
+        <v>1527.979730917772</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>15132.15654101081</v>
+        <v>1530.507011901102</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>15157.50177237609</v>
+        <v>1533.070496769745</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>15183.21003111064</v>
+        <v>1535.67069920291</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>15209.28646671841</v>
+        <v>1538.308140035281</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>15235.73630040185</v>
+        <v>1540.983347353313</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>15262.56482602608</v>
+        <v>1543.696856592764</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>15289.77741109525</v>
+        <v>1546.44921063744</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>15317.37949774131</v>
+        <v>1549.240959919204</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>15345.37660372524</v>
+        <v>1552.072662519239</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>15373.77432345073</v>
+        <v>1554.944884270586</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>15402.57832899093</v>
+        <v>1557.858198861975</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>15431.79437112786</v>
+        <v>1560.813187942968</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>15461.42828040497</v>
+        <v>1563.810441230413</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>15491.48596819296</v>
+        <v>1566.850556616238</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>15521.97342776885</v>
+        <v>1569.934140276603</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>15552.89673540871</v>
+        <v>1573.061806782415</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>15584.26205149403</v>
+        <v>1576.234179211218</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>15616.07562163173</v>
+        <v>1579.451889260503</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>15648.34377778859</v>
+        <v>1582.715577362416</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>15681.07293943939</v>
+        <v>1586.025892799905</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>15714.26961472971</v>
+        <v>1589.383493824315</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>15747.94040165302</v>
+        <v>1592.789047774454</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>15782.09198924259</v>
+        <v>1596.243231197137</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>15816.73115877817</v>
+        <v>1599.746729969234</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>15851.86478500759</v>
+        <v>1603.300239421237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>15887.49983738381</v>
+        <v>1606.904464462357</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>15923.64338131706</v>
+        <v>1610.560119707191</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>15960.30257944271</v>
+        <v>1614.267929603943</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>15997.48469290488</v>
+        <v>1618.028628564263</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>16035.19708265594</v>
+        <v>1621.842961094666</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>16073.4472107721</v>
+        <v>1625.711681929614</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>16112.24264178543</v>
+        <v>1629.635556166224</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>16151.59104403234</v>
+        <v>1633.615359400667</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>16191.50019101878</v>
+        <v>1637.651877866239</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>16231.97796280238</v>
+        <v>1641.745908573166</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>16273.03234739178</v>
+        <v>1645.898259450126</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>16314.67144216326</v>
+        <v>1650.109749487534</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>16356.90345529498</v>
+        <v>1654.381208882607</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>16399.73670721896</v>
+        <v>1658.713479186215</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>16443.17963209119</v>
+        <v>1663.107413451582</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>16487.24077927989</v>
+        <v>1667.563876384804</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>16531.92881487234</v>
+        <v>1672.083744497254</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>16577.25252320037</v>
+        <v>1676.667906259883</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>16623.22080838497</v>
+        <v>1681.317262259435</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>16669.8426958999</v>
+        <v>1686.032725356599</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>16717.12733415501</v>
+        <v>1690.815220846157</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>16765.08399609922</v>
+        <v>1695.6656866191</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>16813.72208084348</v>
+        <v>1700.585073326789</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>16863.05111530408</v>
+        <v>1705.574344547164</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>16913.08075586659</v>
+        <v>1710.634476953029</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>16963.82079007049</v>
+        <v>1715.766460482456</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>17015.28113831516</v>
+        <v>1720.971298511319</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>17067.47185558727</v>
+        <v>1726.250008028009</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>17120.40313320978</v>
+        <v>1731.603619810347</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>17174.08530061337</v>
+        <v>1737.03317860473</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>17228.52882712994</v>
+        <v>1742.539743307549</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>17283.7443238092</v>
+        <v>1748.124387148905</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>17339.74254525805</v>
+        <v>1753.788197878671</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>17396.53439150364</v>
+        <v>1759.532277954906</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>17454.13090988023</v>
+        <v>1765.35774473471</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>17512.54329694013</v>
+        <v>1771.265730667498</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>17571.78290038934</v>
+        <v>1777.257383490778</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>17631.86122104825</v>
+        <v>1783.333866428455</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>17692.78991483749</v>
+        <v>1789.496358391691</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>17754.58079478986</v>
+        <v>1795.746054182397</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>17817.24583308844</v>
+        <v>1802.084164699368</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>17880.79716313129</v>
+        <v>1808.511917147117</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>17945.24708162346</v>
+        <v>1815.030555247469</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>18010.60805069669</v>
+        <v>1821.641339453944</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>18076.89270005704</v>
+        <v>1828.345547168984</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>18144.11382916148</v>
+        <v>1835.144472964089</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>18212.28440942333</v>
+        <v>1842.039428802893</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>18281.41758644778</v>
+        <v>1849.03174426726</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>18351.52668229747</v>
+        <v>1856.122766786432</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>18422.62519778885</v>
+        <v>1863.313861869307</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>18494.72681482047</v>
+        <v>1870.606413339895</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>18567.84539873289</v>
+        <v>1878.001823576032</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>18641.99500070158</v>
+        <v>1885.501513751401</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>18717.18986016324</v>
+        <v>1893.106924080925</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>18793.44440727616</v>
+        <v>1900.819514069627</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>18870.77326541547</v>
+        <v>1908.640762764997</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>18949.1912537039</v>
+        <v>1916.572169012966</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>19028.71338957905</v>
+        <v>1924.615251717562</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>19109.35489139753</v>
+        <v>1932.771550104309</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>19191.1311810774</v>
+        <v>1941.042623987471</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>19274.05788677912</v>
+        <v>1949.430054041237</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>19358.15084562658</v>
+        <v>1957.935442074907</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>19443.4261064684</v>
+        <v>1966.560411312197</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>19529.89993268114</v>
+        <v>1975.306606674757</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>19617.58880501504</v>
+        <v>1984.175695069991</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>19706.50942448333</v>
+        <v>1993.169365683297</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>19796.67871529632</v>
+        <v>2002.289330274823</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>19888.11382784129</v>
+        <v>2011.537323480864</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>19980.83214170945</v>
+        <v>2020.915103120023</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>20074.85126877097</v>
+        <v>2030.424450504218</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>20170.18905629959</v>
+        <v>2040.067170754712</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>20266.8635901478</v>
+        <v>2049.845093123277</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>20364.89319797436</v>
+        <v>2059.760071318611</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>20464.29645252501</v>
+        <v>2069.813983838165</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>20565.09217496832</v>
+        <v>2080.00873430556</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>20667.29943828805</v>
+        <v>2090.346251813664</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>20770.93757073325</v>
+        <v>2100.828491273572</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>20876.02615932834</v>
+        <v>2111.457433769619</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>20982.58505344441</v>
+        <v>2122.235086920581</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>21090.6343684336</v>
+        <v>2133.163485247276</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>21200.1944893285</v>
+        <v>2144.244690546727</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>21311.28607460841</v>
+        <v>2155.480792273092</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>21423.93006003432</v>
+        <v>2166.873907925552</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>21538.14766255503</v>
+        <v>2178.426183443368</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>21653.96038428601</v>
+        <v>2190.139793608334</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>21771.39001656372</v>
+        <v>2202.016942454825</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>21890.45864407741</v>
+        <v>2214.059863687713</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>22011.18864908084</v>
+        <v>2226.270821108345</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>22133.60271568663</v>
+        <v>2238.652109048878</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>22257.72383424533</v>
+        <v>2251.206052815205</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>22383.57530581257</v>
+        <v>2263.93500913876</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>22511.18074670653</v>
+        <v>2276.841366637484</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>22640.56409315885</v>
+        <v>2289.927546286222</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>22771.74960606208</v>
+        <v>2303.1960018969</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>22904.76187581656</v>
+        <v>2316.64922060875</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>23039.62582728042</v>
+        <v>2330.28972338895</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>23176.36672482528</v>
+        <v>2344.120065544006</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>23315.01017750227</v>
+        <v>2358.142837242227</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>23455.582144321</v>
+        <v>2372.36066404766</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>23598.10893964573</v>
+        <v>2386.776207465883</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>23742.6172387128</v>
+        <v>2401.392165502047</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>23889.13408327294</v>
+        <v>2416.211273231547</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>24037.68688736317</v>
+        <v>2431.236303383823</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>24188.3034432122</v>
+        <v>2446.470066939639</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>24341.01192728452</v>
+        <v>2461.915413742392</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>24495.840906467</v>
+        <v>2477.575233123856</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>24652.81934440386</v>
+        <v>2493.452454544908</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>24811.97660798434</v>
+        <v>2509.550048251712</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>24973.34247398877</v>
+        <v>2525.871025947912</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>25136.94713589824</v>
+        <v>2542.4184414834</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>25302.82121087375</v>
+        <v>2559.195391560185</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>25470.99574691038</v>
+        <v>2576.205016455994</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>25641.50223017296</v>
+        <v>2593.450500766229</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>25814.37259251917</v>
+        <v>2610.93507416485</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>25989.63921921669</v>
+        <v>2628.662012184941</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>26167.33495686125</v>
+        <v>2646.634637019535</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>26347.49312150242</v>
+        <v>2664.856318343493</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>26530.14750698441</v>
+        <v>2683.330474157109</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>26715.33239350923</v>
+        <v>2702.060571652216</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>26903.08255643029</v>
+        <v>2721.050128101587</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>27093.4332752839</v>
+        <v>2740.302711772416</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>27286.4203430674</v>
+        <v>2759.821942864719</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>27482.08007577217</v>
+        <v>2779.611494475538</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>27680.44932218045</v>
+        <v>2799.675093589818</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>27881.56547393508</v>
+        <v>2820.016522098892</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>28085.46647589162</v>
+        <v>2840.639617847496</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>28292.1908367622</v>
+        <v>2861.54827571035</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>28501.77764006187</v>
+        <v>2882.746448699292</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>28714.26655536698</v>
+        <v>2904.238149101966</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>28929.69784989681</v>
+        <v>2926.027449653229</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>29148.11240042913</v>
+        <v>2948.118484740326</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>29369.55170556129</v>
+        <v>2970.515451643013</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>29594.05789832833</v>
+        <v>2993.222611809767</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>29821.67375919017</v>
+        <v>3016.244292171378</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>30052.44272940046</v>
+        <v>3039.584886493066</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>30286.40892476933</v>
+        <v>3063.24885676653</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>30523.61714983404</v>
+        <v>3087.24073464317</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>30764.11291244993</v>
+        <v>3111.565122909879</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>31007.94243881655</v>
+        <v>3136.226697008799</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>31255.15268895234</v>
+        <v>3161.230206602509</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>31505.79137263341</v>
+        <v>3186.580477186077</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>31759.9069658103</v>
+        <v>3212.282411747525</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>32017.54872751935</v>
+        <v>3238.340992478274</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>32278.76671730348</v>
+        <v>3264.761282535131</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>32543.61181315905</v>
+        <v>3291.548427855499</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>32812.13573002542</v>
+        <v>3318.707659027427</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>33084.3910388339</v>
+        <v>3346.244293216307</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>33360.43118613371</v>
+        <v>3374.163736149874</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>33640.31051431246</v>
+        <v>3402.471484163373</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>33924.08428242959</v>
+        <v>3431.173126306698</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>34211.80868768106</v>
+        <v>3460.274346515397</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>34503.54088751414</v>
+        <v>3489.780925847419</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>34799.33902241191</v>
+        <v>3519.698744787587</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>35099.26223936657</v>
+        <v>3550.033785621785</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>35403.37071606211</v>
+        <v>3580.792134882823</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>35711.72568578607</v>
+        <v>3611.979985870093</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>36024.38946309166</v>
+        <v>3643.603641245104</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>36341.4254702305</v>
+        <v>3675.669515704973</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>36662.89826437789</v>
+        <v>3708.184138736036</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>36988.87356567156</v>
+        <v>3741.154157449787</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>37319.41828608618</v>
+        <v>3774.586339503309</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>37654.60055916524</v>
+        <v>3808.487576106442</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>37994.48977063267</v>
+        <v>3842.864885117922</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>38339.15658990658</v>
+        <v>3877.725414232774</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>38688.67300253781</v>
+        <v>3913.076444263211</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>39043.1123435952</v>
+        <v>3948.925392515356</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>39402.54933202191</v>
+        <v>3985.279816264062</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>39767.060105983</v>
+        <v>4022.147416328135</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>40136.72225922985</v>
+        <v>4059.536040748284</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>40511.61487850161</v>
+        <v>4097.453688570019</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>40891.81858198813</v>
+        <v>4135.908513733891</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>41277.41555887499</v>
+        <v>4174.908829075182</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>41668.48960999447</v>
+        <v>4214.463110435458</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>42065.12618960298</v>
+        <v>4254.580000888061</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>42467.41244830718</v>
+        <v>4295.268315079732</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>42875.43727715904</v>
+        <v>4336.537043690554</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>43289.29135294162</v>
+        <v>4378.395358014256</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>43709.06718466385</v>
+        <v>4420.852614660809</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>44134.8591612847</v>
+        <v>4463.918360383392</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>44566.7636006845</v>
+        <v>4507.602337031471</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>45004.87879990107</v>
+        <v>4551.914486631837</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>45449.30508664703</v>
+        <v>4596.864956599178</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>45900.14487212356</v>
+        <v>4642.464105077836</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>46357.50270514489</v>
+        <v>4688.72250641607</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>46821.48532758566</v>
+        <v>4735.650956774169</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>47292.20173116273</v>
+        <v>4783.260479867529</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>47769.76321556066</v>
+        <v>4831.562332845594</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>48254.28344790859</v>
+        <v>4880.568012307518</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>48745.87852361359</v>
+        <v>4930.289260455028</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>49244.66702855479</v>
+        <v>4980.738071382882</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>49750.77010263852</v>
+        <v>5031.92669750703</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>50264.31150471334</v>
+        <v>5083.867656130266</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>50785.41767884044</v>
+        <v>5136.573736145035</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>51314.21782191304</v>
+        <v>5190.058004872591</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>51850.84395261295</v>
+        <v>5244.333815037502</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>52395.43098169202</v>
+        <v>5299.414811876053</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>52948.11678356002</v>
+        <v>5355.314940376886</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>53509.04226915804</v>
+        <v>5412.048452651563</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>54078.35146009166</v>
+        <v>5469.629915432641</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>54656.19156399484</v>
+        <v>5528.07421769614</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>55242.71305108842</v>
+        <v>5587.39657840491</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>55838.06973189499</v>
+        <v>5647.612554368888</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>56442.41883606457</v>
+        <v>5708.738048217753</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>57055.92109226088</v>
+        <v>5770.789316480867</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>57678.74080905112</v>
+        <v>5833.782977768618</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>58311.04595673779</v>
+        <v>5897.736021049187</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>58953.00825006172</v>
+        <v>5962.665814013299</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>59604.80323170146</v>
+        <v>6028.590111519607</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>60266.6103564849</v>
+        <v>6095.527064112053</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>60938.61307622071</v>
+        <v>6163.495226599989</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>61620.9989250535</v>
+        <v>6232.513566691181</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>62313.9596052306</v>
+        <v>6302.601473666535</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>63017.69107316813</v>
+        <v>6373.778767085016</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>63732.39362568783</v>
+        <v>6446.065705505876</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>64458.27198629003</v>
+        <v>6519.482995214588</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>65195.53539131818</v>
+        <v>6594.051798937676</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>65944.39767585776</v>
+        <v>6669.793744530817</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>66705.07735920434</v>
+        <v>6746.730933623288</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>67477.79772972173</v>
+        <v>6824.885950200764</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>68262.78692890136</v>
+        <v>6904.281869107302</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>69060.27803442205</v>
+        <v>6984.942264446205</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>69870.5091419941</v>
+        <v>7066.891217858006</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>70693.72344576387</v>
+        <v>7150.153326652769</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>71530.16931703682</v>
+        <v>7234.753711772327</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>72380.10038106635</v>
+        <v>7320.718025556972</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>73243.77559164145</v>
+        <v>7408.072459289384</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>74121.45930319087</v>
+        <v>7496.84375048752</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>75013.42134010945</v>
+        <v>7587.059189916371</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>75919.93706299379</v>
+        <v>7678.746628287292</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>76841.28743146344</v>
+        <v>7771.934482611871</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>77777.75906322541</v>
+        <v>7866.651742175884</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>78729.64428902679</v>
+        <v>7962.927974097339</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>79697.24120312241</v>
+        <v>8060.793328430915</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>80680.85370887064</v>
+        <v>8160.278542779663</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>81680.79155905487</v>
+        <v>8261.414946373203</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>82697.37039051024</v>
+        <v>8364.234463569979</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>83730.91175262323</v>
+        <v>8468.769616739753</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>84781.74312925192</v>
+        <v>8575.053528480763</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>85850.19795360448</v>
+        <v>8683.119923124468</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>86936.61561559382</v>
+        <v>8793.00312747948</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>88041.34146117496</v>
+        <v>8904.738070764532</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>89164.72678315555</v>
+        <v>9018.360283679012</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>90307.12880295831</v>
+        <v>9133.90589655841</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>91468.91064279957</v>
+        <v>9251.411636560337</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>92650.44128773618</v>
+        <v>9370.914823825844</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>93852.0955370226</v>
+        <v>9492.453366559614</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>95074.25394420935</v>
+        <v>9616.065754971258</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>96317.30274540331</v>
+        <v>9741.791054019437</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>97581.63377510429</v>
+        <v>11269.0873416727</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>98867.64436902603</v>
+        <v>12820.77188274453</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>100175.7372533004</v>
+        <v>14397.26821288152</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>101506.3204194661</v>
+        <v>15999.00542825816</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>102859.806984637</v>
+        <v>17626.41806155449</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>104236.6150362463</v>
+        <v>19279.945941504</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>105637.1674607668</v>
+        <v>20960.03403534636</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>107061.8917558114</v>
+        <v>22667.13227352259</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>108511.2198250211</v>
+        <v>24401.69535595403</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>109985.5877551638</v>
+        <v>26164.18253925863</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>111485.4355748762</v>
+        <v>27955.05740426643</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>113011.2069944938</v>
+        <v>29774.78760320969</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>114563.3491264372</v>
+        <v>31623.8445859827</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>116142.3121856404</v>
+        <v>33502.70330488518</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>117748.5491695335</v>
+        <v>35411.84189728634</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>119382.5155171215</v>
+        <v>37351.74134567698</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>121044.6687467277</v>
+        <v>39322.8851146048</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>122735.4680720138</v>
+        <v>41325.75876402525</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>124455.3739959222</v>
+        <v>43360.84953864088</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>126204.8478822315</v>
+        <v>45428.64593284154</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>127984.3515044651</v>
+        <v>47529.63723091048</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>129794.3465719431</v>
+        <v>49664.313022208</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>131635.2942328258</v>
+        <v>51833.16269110756</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>133507.6545540547</v>
+        <v>54036.67488151376</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>135411.8859781649</v>
+        <v>56275.3369358615</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>137348.4447570093</v>
+        <v>58549.6343085655</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>139317.7843625115</v>
+        <v>60860.04995396212</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>141320.3548746358</v>
+        <v>63207.06368886706</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>143356.6023468541</v>
+        <v>65591.15152995566</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>145426.968149466</v>
+        <v>68012.78500626092</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>147531.8882912221</v>
+        <v>70472.4304471759</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>149671.7927197957</v>
+        <v>72970.54824644602</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>151847.1046017413</v>
+        <v>75507.59210273482</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>154058.2395826802</v>
+        <v>78084.00823745219</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>156305.6050285566</v>
+        <v>80700.23459064234</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>158589.5992489147</v>
+        <v>83356.69999583773</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>160910.6107032476</v>
+        <v>86053.82333489733</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>163269.0171915937</v>
+        <v>88792.01267396877</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>165665.1850306481</v>
+        <v>91571.66438182362</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>168099.4682167839</v>
+        <v>94393.16223193855</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>170572.2075774849</v>
+        <v>97256.87648981383</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>173083.7299127985</v>
+        <v>100163.1629871389</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>175634.3471285391</v>
+        <v>103112.3621845363</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>178224.3553630696</v>
+        <v>106104.7982247302</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>180854.0341096095</v>
+        <v>109140.777978107</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>183523.6453361095</v>
+        <v>112220.590082744</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>186233.4326048438</v>
+        <v>115344.503981101</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>188983.6201939612</v>
+        <v>118512.7689556667</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>191774.4122233341</v>
+        <v>121725.6131659653</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>194605.991787122</v>
+        <v>124983.2426894172</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>197478.5200955553</v>
+        <v>128285.8405686437</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>200392.1356285074</v>
+        <v>131633.5658678871</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>203346.9533034932</v>
+        <v>135026.5527412945</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>206343.0636607841</v>
+        <v>138464.9095158813</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>209380.5320683762</v>
+        <v>141948.7177920467</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>208852.8892447916</v>
+        <v>141871.5228597774</v>
       </c>
       <c r="C358" t="n">
         <v>3453.178342164983</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>208318.8037270783</v>
+        <v>141792.0060580607</v>
       </c>
       <c r="C359" t="n">
         <v>6952.175122395342</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>207778.1482164847</v>
+        <v>141710.0510101728</v>
       </c>
       <c r="C360" t="n">
         <v>10497.09817259995</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>207230.7916190883</v>
+        <v>141625.5355523002</v>
       </c>
       <c r="C361" t="n">
         <v>14088.03205490899</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>206676.5989369444</v>
+        <v>141538.3315112774</v>
       </c>
       <c r="C362" t="n">
         <v>17725.03753977759</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>206115.4311568557</v>
+        <v>141448.3044787504</v>
       </c>
       <c r="C363" t="n">
         <v>21408.15112140003</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>205547.1451368932</v>
+        <v>141355.3135821376</v>
       </c>
       <c r="C364" t="n">
         <v>25137.38457291929</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>204971.5934908453</v>
+        <v>141259.2112528011</v>
       </c>
       <c r="C365" t="n">
         <v>28912.72454382421</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>204388.6244707968</v>
+        <v>141159.8429918996</v>
       </c>
       <c r="C366" t="n">
         <v>32734.13220182905</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>203798.0818480934</v>
+        <v>141057.0471344398</v>
       </c>
       <c r="C367" t="n">
         <v>36601.54292141462</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>203199.8047929835</v>
+        <v>140950.65461211</v>
       </c>
       <c r="C368" t="n">
         <v>40514.86602106614</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>202593.627753283</v>
+        <v>140840.4887155348</v>
       </c>
       <c r="C369" t="n">
         <v>44473.98455109919</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>201979.380332465</v>
+        <v>140726.3648566587</v>
       </c>
       <c r="C370" t="n">
         <v>48478.75513378474</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>201356.8871676248</v>
+        <v>140608.0903320357</v>
       </c>
       <c r="C371" t="n">
         <v>52529.00785730148</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>200725.9678078484</v>
+        <v>140485.4640878722</v>
       </c>
       <c r="C372" t="n">
         <v>56624.54622483735</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>200086.4365935654</v>
+        <v>140358.276487752</v>
       </c>
       <c r="C373" t="n">
         <v>56624.22077289072</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>199438.1025375465</v>
+        <v>140226.3090840496</v>
       </c>
       <c r="C374" t="n">
         <v>56623.84418095344</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>198780.7692082824</v>
+        <v>140089.3343941231</v>
       </c>
       <c r="C375" t="n">
         <v>56623.40897642399</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>198114.2346165589</v>
+        <v>139947.1156824678</v>
       </c>
       <c r="C376" t="n">
         <v>56622.90668770159</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>197438.2911061289</v>
+        <v>139799.4067501015</v>
       </c>
       <c r="C377" t="n">
         <v>56622.32772518216</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>196752.7252494731</v>
+        <v>139645.951732546</v>
       </c>
       <c r="C378" t="n">
         <v>56621.66125023814</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>196057.3177497328</v>
+        <v>139486.4849078718</v>
       </c>
       <c r="C379" t="n">
         <v>56620.89503127415</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>195351.8433499956</v>
+        <v>139320.7305163654</v>
       </c>
       <c r="C380" t="n">
         <v>56620.01528592437</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>194636.0707512174</v>
+        <v>139148.402593488</v>
       </c>
       <c r="C381" t="n">
         <v>56619.00650843625</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>193909.7625401618</v>
+        <v>138969.2048178928</v>
       </c>
       <c r="C382" t="n">
         <v>56617.85128127215</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>193172.6751288508</v>
+        <v>138782.830376374</v>
       </c>
       <c r="C383" t="n">
         <v>56616.53006995435</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>192424.5587071215</v>
+        <v>138588.9618477276</v>
       </c>
       <c r="C384" t="n">
         <v>56615.02100018298</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>191665.1572099938</v>
+        <v>138387.2711076023</v>
       </c>
       <c r="C385" t="n">
         <v>56613.29961627118</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>190894.2083016629</v>
+        <v>138177.4192565279</v>
       </c>
       <c r="C386" t="n">
         <v>56611.33861996872</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>190111.4433780355</v>
+        <v>137959.0565734024</v>
       </c>
       <c r="C387" t="n">
         <v>56609.10758878684</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>189316.5875898321</v>
+        <v>137731.8224968199</v>
       </c>
       <c r="C388" t="n">
         <v>56606.572672993</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>188509.3598883845</v>
+        <v>137495.3456367095</v>
       </c>
       <c r="C389" t="n">
         <v>56603.69627051838</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>187689.4730963491</v>
+        <v>137249.2438188425</v>
       </c>
       <c r="C390" t="n">
         <v>56600.43667911358</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>186856.634005649</v>
+        <v>136993.1241648418</v>
       </c>
       <c r="C391" t="n">
         <v>56596.7477252</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>186010.5435050442</v>
+        <v>136726.583210397</v>
       </c>
       <c r="C392" t="n">
         <v>56592.57836899975</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>185150.8967398009</v>
+        <v>136449.2070644463</v>
       </c>
       <c r="C393" t="n">
         <v>56587.872285685</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>184277.3833059965</v>
+        <v>136160.5716121314</v>
       </c>
       <c r="C394" t="n">
         <v>56582.56742246989</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>183389.6874820462</v>
+        <v>135860.2427643651</v>
       </c>
       <c r="C395" t="n">
         <v>56576.59553177747</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>182487.488500079</v>
+        <v>135547.776756866</v>
       </c>
       <c r="C396" t="n">
         <v>56569.88168084962</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>181570.4608598065</v>
+        <v>135222.7205015127</v>
       </c>
       <c r="C397" t="n">
         <v>56562.34373843155</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>180638.274687535</v>
+        <v>134884.6119928502</v>
       </c>
       <c r="C398" t="n">
         <v>56553.89183945422</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>179690.5961429519</v>
+        <v>134532.9807725382</v>
       </c>
       <c r="C399" t="n">
         <v>56544.42782895859</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>178727.0878762829</v>
+        <v>134167.3484544637</v>
       </c>
       <c r="C400" t="n">
         <v>56533.84468685425</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>177747.4095383457</v>
+        <v>133787.2293131529</v>
       </c>
       <c r="C401" t="n">
         <v>56522.02593548169</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>176751.2183459479</v>
+        <v>133392.1309379952</v>
       </c>
       <c r="C402" t="n">
         <v>56508.845032351</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>175738.1697049532</v>
+        <v>132981.554955651</v>
       </c>
       <c r="C403" t="n">
         <v>56494.16475085798</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>174707.917893197</v>
+        <v>132554.9978228332</v>
       </c>
       <c r="C404" t="n">
         <v>56477.83655223107</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>173660.1168052602</v>
+        <v>132111.9516914506</v>
       </c>
       <c r="C405" t="n">
         <v>56459.69995243487</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>172594.4207608971</v>
+        <v>131651.9053478542</v>
       </c>
       <c r="C406" t="n">
         <v>56439.58188824526</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>171510.4853786767</v>
+        <v>131174.345227659</v>
       </c>
       <c r="C407" t="n">
         <v>56417.29608721483</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>170407.9685161186</v>
+        <v>130678.7565072985</v>
       </c>
       <c r="C408" t="n">
         <v>56392.64244675889</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>169286.5312772973</v>
+        <v>130164.6242731316</v>
       </c>
       <c r="C409" t="n">
         <v>56365.40642810832</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>168145.8390885409</v>
+        <v>129631.4347685346</v>
       </c>
       <c r="C410" t="n">
         <v>56335.3584713881</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>166985.5628424706</v>
+        <v>129078.6767190013</v>
       </c>
       <c r="C411" t="n">
         <v>56302.25343858562</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>165805.3801102141</v>
+        <v>128505.8427348194</v>
       </c>
       <c r="C412" t="n">
         <v>56265.83009166048</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>164604.9764211707</v>
+        <v>127912.4307904113</v>
       </c>
       <c r="C413" t="n">
         <v>56225.81061351269</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>163384.0466092302</v>
+        <v>127297.9457789064</v>
       </c>
       <c r="C414" t="n">
         <v>56181.90017995831</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>162142.2962238249</v>
+        <v>126661.9011399664</v>
       </c>
       <c r="C415" t="n">
         <v>56133.78659125325</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>160879.4430036575</v>
+        <v>126003.820558306</v>
       </c>
       <c r="C416" t="n">
         <v>56081.13997204712</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>159595.2184103704</v>
+        <v>125323.2397297492</v>
       </c>
       <c r="C417" t="n">
         <v>56023.61254893161</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>158289.3692188289</v>
+        <v>124619.7081910335</v>
       </c>
       <c r="C418" t="n">
         <v>55960.83851495935</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>156961.6591600762</v>
+        <v>123892.7912089308</v>
       </c>
       <c r="C419" t="n">
         <v>55892.43399064399</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>155611.8706123794</v>
+        <v>123142.0717235863</v>
       </c>
       <c r="C420" t="n">
         <v>55817.99709099662</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>154239.8063351489</v>
+        <v>122367.1523403116</v>
       </c>
       <c r="C421" t="n">
         <v>55737.10810810118</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>152845.2912398528</v>
+        <v>121567.6573633844</v>
       </c>
       <c r="C422" t="n">
         <v>55649.32981857174</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>151428.174191399</v>
+        <v>120743.2348647302</v>
       </c>
       <c r="C423" t="n">
         <v>55554.20792495992</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>149988.3298328036</v>
+        <v>119893.5587796894</v>
       </c>
       <c r="C424" t="n">
         <v>55451.27163978336</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>148525.6604253246</v>
+        <v>119018.3310214102</v>
       </c>
       <c r="C425" t="n">
         <v>55340.03442031885</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>147040.097695616</v>
+        <v>118117.2836047662</v>
       </c>
       <c r="C426" t="n">
         <v>55219.99486164363</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>145531.6046808527</v>
+        <v>117190.1807700791</v>
       </c>
       <c r="C427" t="n">
         <v>55090.63775460744</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>144000.17756221</v>
+        <v>116236.8210963433</v>
       </c>
       <c r="C428" t="n">
         <v>54951.43531447813</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>142445.8474765428</v>
+        <v>115257.0395931019</v>
       </c>
       <c r="C429" t="n">
         <v>54801.84858492018</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>140868.6822956239</v>
+        <v>114250.7097596275</v>
       </c>
       <c r="C430" t="n">
         <v>54641.3290207437</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>139268.7883618594</v>
+        <v>113217.7455996139</v>
       </c>
       <c r="C431" t="n">
         <v>54469.32025150045</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>137646.3121690247</v>
+        <v>112158.1035792063</v>
       </c>
       <c r="C432" t="n">
         <v>54285.26002651209</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>136001.4419762465</v>
+        <v>111071.7845158788</v>
       </c>
       <c r="C433" t="n">
         <v>54088.5823402999</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>134334.4093432219</v>
+        <v>109958.8353854341</v>
       </c>
       <c r="C434" t="n">
         <v>53878.71973565516</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>132645.4905744991</v>
+        <v>108819.3510342393</v>
       </c>
       <c r="C435" t="n">
         <v>53655.10577975823</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>130935.0080605716</v>
+        <v>107653.475783745</v>
       </c>
       <c r="C436" t="n">
         <v>53417.17770683573</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>129203.3315035522</v>
+        <v>106461.4049143573</v>
       </c>
       <c r="C437" t="n">
         <v>53164.37921885768</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>127450.8790153006</v>
+        <v>105243.3860158551</v>
       </c>
       <c r="C438" t="n">
         <v>52896.1634337376</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>125678.1180760889</v>
+        <v>103999.7201917678</v>
       </c>
       <c r="C439" t="n">
         <v>52611.99596843227</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>123885.5663422025</v>
+        <v>102730.7631054595</v>
       </c>
       <c r="C440" t="n">
         <v>52311.35814226381</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>122073.7922912866</v>
+        <v>101436.9258560973</v>
       </c>
       <c r="C441" t="n">
         <v>51993.75028373491</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>120243.415694774</v>
+        <v>100118.6756732321</v>
       </c>
       <c r="C442" t="n">
         <v>51658.69512209929</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>118395.1079073591</v>
+        <v>98776.53641937031</v>
       </c>
       <c r="C443" t="n">
         <v>51305.74124301718</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>116529.5919642185</v>
+        <v>97411.08889067805</v>
       </c>
       <c r="C444" t="n">
         <v>50934.46658579246</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>114647.642477517</v>
+        <v>96022.97090682869</v>
       </c>
       <c r="C445" t="n">
         <v>50544.48195798819</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>112750.0853246799</v>
+        <v>94612.8771819753</v>
       </c>
       <c r="C446" t="n">
         <v>50135.43454167471</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>110837.7971219504</v>
+        <v>93181.5589699004</v>
       </c>
       <c r="C447" t="n">
         <v>49707.01136421067</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>108911.7044778789</v>
+        <v>91729.82347756019</v>
       </c>
       <c r="C448" t="n">
         <v>49258.94270531787</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>106972.7830226081</v>
+        <v>90258.53304248989</v>
       </c>
       <c r="C449" t="n">
         <v>48791.00541131225</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>105022.0562101074</v>
+        <v>88768.60407086789</v>
       </c>
       <c r="C450" t="n">
         <v>48303.0260867191</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>103060.5938918739</v>
+        <v>87261.00573443658</v>
       </c>
       <c r="C451" t="n">
         <v>47794.88413315227</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>101089.510662036</v>
+        <v>85736.75842593658</v>
       </c>
       <c r="C452" t="n">
         <v>47266.51460529447</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1471.732009315044</v>
+        <v>490.5773364383481</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1473.452254203823</v>
+        <v>491.1507514012744</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1475.197217667914</v>
+        <v>491.7324058893045</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1476.967252497739</v>
+        <v>492.3224174992462</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1478.76271645233</v>
+        <v>492.9209054841101</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1480.583972327526</v>
+        <v>493.5279907758422</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1482.431388025054</v>
+        <v>494.1437960083513</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1484.30533662251</v>
+        <v>494.7684455408368</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1486.206196444267</v>
+        <v>495.4020654814222</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.134351133286</v>
+        <v>496.0447837110953</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1490.090189723875</v>
+        <v>496.6967299079582</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1492.074106715384</v>
+        <v>497.3580355717948</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1494.086502146863</v>
+        <v>498.0288340489545</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1496.127781672684</v>
+        <v>498.7092605575613</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1498.198356639135</v>
+        <v>499.3994522130451</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1500.298644162021</v>
+        <v>500.0995480540069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1502.429067205247</v>
+        <v>500.8096890684157</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1504.590054660429</v>
+        <v>501.5300182201429</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1506.782041427524</v>
+        <v>502.2606804758412</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1509.005468496496</v>
+        <v>503.0018228321653</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1511.260783030038</v>
+        <v>503.7535943433458</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1513.548438447345</v>
+        <v>504.5161461491154</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1515.868894508977</v>
+        <v>505.2896315029923</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1518.222617402786</v>
+        <v>506.0742058009286</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1520.610079830966</v>
+        <v>506.8700266103219</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1523.031761098198</v>
+        <v>507.677253699399</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1525.488147200926</v>
+        <v>508.4960490669753</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1527.979730917772</v>
+        <v>509.3265769725911</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1530.507011901102</v>
+        <v>510.1690039670338</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1533.070496769745</v>
+        <v>511.0234989232482</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1535.67069920291</v>
+        <v>511.8902330676366</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1538.308140035281</v>
+        <v>512.7693800117604</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1540.983347353313</v>
+        <v>513.6611157844376</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1543.696856592764</v>
+        <v>514.5656188642546</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1546.44921063744</v>
+        <v>515.4830702124799</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1549.240959919204</v>
+        <v>516.4136533064013</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1552.072662519239</v>
+        <v>517.3575541730797</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1554.944884270586</v>
+        <v>518.3149614235288</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1557.858198861975</v>
+        <v>519.286066287325</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1560.813187942968</v>
+        <v>520.2710626476562</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1563.810441230413</v>
+        <v>521.2701470768043</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1566.850556616238</v>
+        <v>522.2835188720794</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1569.934140276603</v>
+        <v>523.3113800922011</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1573.061806782415</v>
+        <v>524.3539355941379</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1576.234179211218</v>
+        <v>525.4113930704062</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1579.451889260503</v>
+        <v>526.4839630868347</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1582.715577362416</v>
+        <v>527.5718591208054</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1586.025892799905</v>
+        <v>528.6752975999683</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1589.383493824315</v>
+        <v>529.7944979414384</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1592.789047774454</v>
+        <v>530.9296825914846</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1596.243231197137</v>
+        <v>532.0810770657121</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1599.746729969234</v>
+        <v>533.2489099897451</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1603.300239421237</v>
+        <v>534.4334131404122</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1606.904464462357</v>
+        <v>535.634821487452</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1610.560119707191</v>
+        <v>536.8533732357301</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1614.267929603943</v>
+        <v>538.0893098679815</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1618.028628564263</v>
+        <v>539.3428761880875</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1621.842961094666</v>
+        <v>540.6143203648887</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1625.711681929614</v>
+        <v>541.9038939765381</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1629.635556166224</v>
+        <v>543.2118520554081</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1633.615359400667</v>
+        <v>544.5384531335555</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1637.651877866239</v>
+        <v>545.8839592887463</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1641.745908573166</v>
+        <v>547.2486361910558</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1645.898259450126</v>
+        <v>548.6327531500423</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1650.109749487534</v>
+        <v>550.0365831625119</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1654.381208882607</v>
+        <v>551.4604029608689</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1658.713479186215</v>
+        <v>552.9044930620722</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1663.107413451582</v>
+        <v>554.3691378171942</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1667.563876384804</v>
+        <v>555.854625461601</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1672.083744497254</v>
+        <v>557.3612481657514</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1676.667906259883</v>
+        <v>558.8893020866277</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1681.317262259435</v>
+        <v>560.4390874198111</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1686.032725356599</v>
+        <v>562.0109084521999</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1690.815220846157</v>
+        <v>563.6050736153852</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1695.6656866191</v>
+        <v>565.2218955396993</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1700.585073326789</v>
+        <v>566.8616911089299</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1705.574344547164</v>
+        <v>568.5247815157212</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1710.634476953029</v>
+        <v>570.2114923176766</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1715.766460482456</v>
+        <v>571.9221534941519</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1720.971298511319</v>
+        <v>573.6570995037727</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1726.250008028009</v>
+        <v>575.4166693426696</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1731.603619810347</v>
+        <v>577.2012066034488</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1737.03317860473</v>
+        <v>579.01105953491</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1742.539743307549</v>
+        <v>580.8465811025162</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1748.124387148905</v>
+        <v>582.7081290496347</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1753.788197878671</v>
+        <v>584.5960659595572</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1759.532277954906</v>
+        <v>586.5107593183017</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1765.35774473471</v>
+        <v>588.4525815782367</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1771.265730667498</v>
+        <v>590.4219102224995</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1777.257383490778</v>
+        <v>592.4191278302594</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1783.333866428455</v>
+        <v>594.4446221428178</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1789.496358391691</v>
+        <v>596.498786130564</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1795.746054182397</v>
+        <v>598.5820180607992</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1802.084164699368</v>
+        <v>600.6947215664558</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1808.511917147117</v>
+        <v>602.837305715706</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1815.030555247469</v>
+        <v>605.0101850824899</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1821.641339453944</v>
+        <v>607.2137798179815</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1828.345547168984</v>
+        <v>609.4485157229949</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1835.144472964089</v>
+        <v>611.7148243213626</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1842.039428802893</v>
+        <v>614.0131429342981</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1849.03174426726</v>
+        <v>616.3439147557535</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1856.122766786432</v>
+        <v>618.707588928811</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1863.313861869307</v>
+        <v>621.1046206231022</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1870.606413339895</v>
+        <v>623.5354711132982</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1878.001823576032</v>
+        <v>626.0006078586777</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1885.501513751401</v>
+        <v>628.5005045837999</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1893.106924080925</v>
+        <v>631.0356413603084</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1900.819514069627</v>
+        <v>633.606504689876</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1908.640762764997</v>
+        <v>636.2135875883323</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>1916.572169012966</v>
+        <v>638.8573896709888</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>1924.615251717562</v>
+        <v>641.538417239188</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>1932.771550104309</v>
+        <v>644.2571833681029</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>1941.042623987471</v>
+        <v>647.0142079958238</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1949.430054041237</v>
+        <v>649.8100180137459</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>1957.935442074907</v>
+        <v>652.6451473583028</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>1966.560411312197</v>
+        <v>655.5201371040658</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>1975.306606674757</v>
+        <v>658.4355355582525</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>1984.175695069991</v>
+        <v>661.3918983566641</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>1993.169365683297</v>
+        <v>664.3897885610991</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2002.289330274823</v>
+        <v>667.4297767582742</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2011.537323480864</v>
+        <v>670.5124411602883</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2020.915103120023</v>
+        <v>673.6383677066747</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2030.424450504218</v>
+        <v>676.8081501680725</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2040.067170754712</v>
+        <v>680.0223902515709</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2049.845093123277</v>
+        <v>683.2816977077593</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2059.760071318611</v>
+        <v>686.5866904395367</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2069.813983838165</v>
+        <v>689.9379946127219</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2080.00873430556</v>
+        <v>693.3362447685205</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2090.346251813664</v>
+        <v>696.7820839378876</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2100.828491273572</v>
+        <v>700.2761637578575</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2111.457433769619</v>
+        <v>703.8191445898726</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2122.235086920581</v>
+        <v>707.4116956401933</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2133.163485247276</v>
+        <v>711.0544950824249</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2144.244690546727</v>
+        <v>714.7482301822421</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2155.480792273092</v>
+        <v>718.4935974243646</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2166.873907925552</v>
+        <v>722.2913026418506</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2178.426183443368</v>
+        <v>726.1420611477897</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2190.139793608334</v>
+        <v>730.0465978694441</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2202.016942454825</v>
+        <v>734.0056474849418</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2214.059863687713</v>
+        <v>738.0199545625712</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2226.270821108345</v>
+        <v>742.090273702782</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2238.652109048878</v>
+        <v>746.2173696829591</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2251.206052815205</v>
+        <v>750.402017605068</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2263.93500913876</v>
+        <v>754.6450030462541</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2276.841366637484</v>
+        <v>758.9471222124948</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2289.927546286222</v>
+        <v>763.3091820954073</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2303.1960018969</v>
+        <v>767.7320006323001</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2316.64922060875</v>
+        <v>772.216406869583</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2330.28972338895</v>
+        <v>776.7632411296502</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2344.120065544006</v>
+        <v>781.3733551813355</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2358.142837242227</v>
+        <v>786.047612414076</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2372.36066404766</v>
+        <v>790.7868880158867</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2386.776207465883</v>
+        <v>795.5920691552942</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2401.392165502047</v>
+        <v>800.4640551673486</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2416.211273231547</v>
+        <v>805.4037577438487</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2431.236303383823</v>
+        <v>810.4121011279406</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2446.470066939639</v>
+        <v>815.4900223132129</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2461.915413742392</v>
+        <v>820.6384712474643</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2477.575233123856</v>
+        <v>825.858411041286</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2493.452454544908</v>
+        <v>831.1508181816363</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2509.550048251712</v>
+        <v>836.5166827505703</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2525.871025947912</v>
+        <v>841.9570086493046</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2542.4184414834</v>
+        <v>847.4728138278002</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2559.195391560185</v>
+        <v>853.0651305200615</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2576.205016455994</v>
+        <v>858.7350054853321</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2593.450500766229</v>
+        <v>864.4835002554091</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2610.93507416485</v>
+        <v>870.3116913882835</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2628.662012184941</v>
+        <v>876.2206707283135</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2646.634637019535</v>
+        <v>882.2115456731785</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2664.856318343493</v>
+        <v>888.2854394478312</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2683.330474157109</v>
+        <v>894.4434913857029</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2702.060571652216</v>
+        <v>900.6868572174051</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2721.050128101587</v>
+        <v>907.0167093671962</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>2740.302711772416</v>
+        <v>913.4342372574716</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>2759.821942864719</v>
+        <v>919.9406476215727</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>2779.611494475538</v>
+        <v>926.5371648251793</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>2799.675093589818</v>
+        <v>933.2250311966067</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>2820.016522098892</v>
+        <v>940.0055073662977</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>2840.639617847496</v>
+        <v>946.8798726158316</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>2861.54827571035</v>
+        <v>953.8494252367844</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>2882.746448699292</v>
+        <v>960.9154828997644</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>2904.238149101966</v>
+        <v>968.0793830339887</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>2926.027449653229</v>
+        <v>975.3424832177425</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>2948.118484740326</v>
+        <v>982.7061615801088</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>2970.515451643013</v>
+        <v>990.1718172143376</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2993.222611809767</v>
+        <v>997.7408706032559</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3016.244292171378</v>
+        <v>1005.414764057126</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3039.584886493066</v>
+        <v>1013.194962164356</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3063.24885676653</v>
+        <v>1021.08295225551</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3087.24073464317</v>
+        <v>1029.080244881058</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3111.565122909879</v>
+        <v>1037.188374303293</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3136.226697008799</v>
+        <v>1045.408899002933</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3161.230206602509</v>
+        <v>1053.743402200837</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3186.580477186077</v>
+        <v>1062.193492395359</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3212.282411747525</v>
+        <v>1070.760803915842</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3238.340992478274</v>
+        <v>1079.446997492758</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3264.761282535131</v>
+        <v>1088.253760845044</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3291.548427855499</v>
+        <v>1097.182809285166</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3318.707659027427</v>
+        <v>1106.235886342476</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3346.244293216307</v>
+        <v>1115.414764405436</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3374.163736149874</v>
+        <v>1124.721245383291</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3402.471484163373</v>
+        <v>1134.157161387791</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3431.173126306698</v>
+        <v>1143.724375435567</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3460.274346515397</v>
+        <v>1153.424782171799</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3489.780925847419</v>
+        <v>1163.260308615805</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3519.698744787587</v>
+        <v>1173.232914929196</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3550.033785621785</v>
+        <v>1183.344595207263</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3580.792134882823</v>
+        <v>1193.597378294274</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3611.979985870093</v>
+        <v>1203.993328623365</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3643.603641245104</v>
+        <v>1214.534547081701</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3675.669515704973</v>
+        <v>1225.223171901657</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>3708.184138736036</v>
+        <v>1236.061379578679</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>3741.154157449787</v>
+        <v>1247.051385816597</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>3774.586339503309</v>
+        <v>1258.195446501103</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>3808.487576106442</v>
+        <v>1269.495858702147</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>3842.864885117922</v>
+        <v>1280.954961705974</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>3877.725414232774</v>
+        <v>1292.575138077591</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>3913.076444263211</v>
+        <v>1304.358814754404</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>3948.925392515356</v>
+        <v>1316.308464171785</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>3985.279816264062</v>
+        <v>1328.426605421353</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4022.147416328135</v>
+        <v>1340.715805442712</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4059.536040748284</v>
+        <v>1353.178680249428</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4097.453688570019</v>
+        <v>1365.817896190007</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4135.908513733891</v>
+        <v>1378.63617124463</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4174.908829075182</v>
+        <v>1391.636276358393</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4214.463110435458</v>
+        <v>1404.82103681182</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4254.580000888061</v>
+        <v>1418.193333629353</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4295.268315079732</v>
+        <v>1431.756105026577</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4336.537043690554</v>
+        <v>1445.512347896852</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4378.395358014256</v>
+        <v>1459.465119338086</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4420.852614660809</v>
+        <v>1473.61753822027</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4463.918360383392</v>
+        <v>1487.972786794463</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4507.602337031471</v>
+        <v>1502.534112343823</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4551.914486631837</v>
+        <v>1517.304828877278</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4596.864956599178</v>
+        <v>1532.288318866392</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4642.464105077836</v>
+        <v>1547.488035025946</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>4688.72250641607</v>
+        <v>1562.90750213869</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>4735.650956774169</v>
+        <v>1578.550318924723</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>4783.260479867529</v>
+        <v>1594.420159955843</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>4831.562332845594</v>
+        <v>1610.520777615198</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>4880.568012307518</v>
+        <v>1626.856004102505</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>4930.289260455028</v>
+        <v>1643.429753485009</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>4980.738071382882</v>
+        <v>1660.246023794294</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5031.92669750703</v>
+        <v>1677.30889916901</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5083.867656130266</v>
+        <v>1694.622552043423</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5136.573736145035</v>
+        <v>1712.191245381679</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5190.058004872591</v>
+        <v>1730.01933495753</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5244.333815037502</v>
+        <v>1748.111271679167</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5299.414811876053</v>
+        <v>1766.471603958685</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5355.314940376886</v>
+        <v>1785.104980125629</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5412.048452651563</v>
+        <v>1804.016150883854</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5469.629915432641</v>
+        <v>1823.209971810881</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5528.07421769614</v>
+        <v>1842.691405898714</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5587.39657840491</v>
+        <v>1862.465526134971</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5647.612554368888</v>
+        <v>1882.537518122962</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5708.738048217753</v>
+        <v>1902.912682739253</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5770.789316480867</v>
+        <v>1923.596438826955</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5833.782977768618</v>
+        <v>1944.594325922872</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5897.736021049187</v>
+        <v>1965.912007016395</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5962.665814013299</v>
+        <v>1987.555271337766</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6028.590111519607</v>
+        <v>2009.530037173203</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6095.527064112053</v>
+        <v>2031.842354704018</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6163.495226599989</v>
+        <v>2054.498408866663</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6232.513566691181</v>
+        <v>2077.504522230394</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6302.601473666535</v>
+        <v>2100.867157888845</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6373.778767085016</v>
+        <v>2124.59292236167</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6446.065705505876</v>
+        <v>2148.688568501961</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6519.482995214588</v>
+        <v>2173.160998404862</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>6594.051798937676</v>
+        <v>2198.017266312558</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>6669.793744530817</v>
+        <v>2223.264581510271</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>6746.730933623288</v>
+        <v>2248.910311207762</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>6824.885950200764</v>
+        <v>2274.961983400254</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>6904.281869107302</v>
+        <v>2301.427289702433</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>6984.942264446205</v>
+        <v>2328.314088148734</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7066.891217858006</v>
+        <v>2355.630405952669</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7150.153326652769</v>
+        <v>2383.384442217589</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7234.753711772327</v>
+        <v>2411.584570590775</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7320.718025556972</v>
+        <v>2440.239341852322</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7408.072459289384</v>
+        <v>2469.357486429796</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7496.84375048752</v>
+        <v>2498.947916829174</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>7587.059189916371</v>
+        <v>2529.019729972125</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>7678.746628287292</v>
+        <v>2559.582209429099</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>7771.934482611871</v>
+        <v>2590.644827537291</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>7866.651742175884</v>
+        <v>2622.217247391961</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>7962.927974097339</v>
+        <v>2654.309324699112</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8060.793328430915</v>
+        <v>2686.931109476972</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>8160.278542779663</v>
+        <v>2720.092847593221</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>8261.414946373203</v>
+        <v>2753.804982124399</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8364.234463569979</v>
+        <v>2788.078154523327</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8468.769616739753</v>
+        <v>2822.923205579918</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>8575.053528480763</v>
+        <v>2858.351176160255</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>8683.119923124468</v>
+        <v>2894.373307708154</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>8793.00312747948</v>
+        <v>2931.00104249316</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>8904.738070764532</v>
+        <v>2968.246023588176</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>9018.360283679012</v>
+        <v>3006.120094559672</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>9133.90589655841</v>
+        <v>3044.635298852802</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>9251.411636560337</v>
+        <v>3083.803878853444</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9370.914823825844</v>
+        <v>3123.638274608616</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>9492.453366559614</v>
+        <v>3164.151122186536</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>9616.065754971258</v>
+        <v>3205.355251657085</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>9741.791054019437</v>
+        <v>3247.263684673145</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>11269.0873416727</v>
+        <v>3756.362447224235</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>12820.77188274453</v>
+        <v>4273.590627581511</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>14397.26821288152</v>
+        <v>4799.089404293842</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15999.00542825816</v>
+        <v>5333.001809419384</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>17626.41806155449</v>
+        <v>5875.472687184833</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>19279.945941504</v>
+        <v>6426.648647168001</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>20960.03403534636</v>
+        <v>6986.678011782124</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22667.13227352259</v>
+        <v>7555.710757840865</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>24401.69535595403</v>
+        <v>8133.898451984679</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>26164.18253925863</v>
+        <v>8721.394179752881</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>27955.05740426643</v>
+        <v>9318.352468088813</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>29774.78760320969</v>
+        <v>9924.929201069897</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>31623.8445859827</v>
+        <v>10541.28152866091</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>33502.70330488518</v>
+        <v>11167.56776829506</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>35411.84189728634</v>
+        <v>11803.94729909545</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>37351.74134567698</v>
+        <v>12450.580448559</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>39322.8851146048</v>
+        <v>13107.62837153494</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>41325.75876402525</v>
+        <v>13775.25292134175</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>43360.84953864088</v>
+        <v>14453.6165128803</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45428.64593284154</v>
+        <v>15142.88197761386</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>47529.63723091048</v>
+        <v>15843.2124103035</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>49664.313022208</v>
+        <v>16554.77100740268</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>51833.16269110756</v>
+        <v>17277.72089703586</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>54036.67488151376</v>
+        <v>18012.22496050458</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>56275.3369358615</v>
+        <v>18758.44564528717</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>58549.6343085655</v>
+        <v>19516.54476952184</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>60860.04995396212</v>
+        <v>20286.68331798738</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>63207.06368886706</v>
+        <v>21069.02122962236</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>65591.15152995566</v>
+        <v>21863.7171766519</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>68012.78500626092</v>
+        <v>22670.92833542031</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>70472.4304471759</v>
+        <v>23490.81014905864</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>72970.54824644602</v>
+        <v>24323.51608214869</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>75507.59210273482</v>
+        <v>25169.19736757829</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>78084.00823745219</v>
+        <v>26028.0027458174</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>80700.23459064234</v>
+        <v>26900.0781968808</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>83356.69999583773</v>
+        <v>27785.56666527925</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>86053.82333489733</v>
+        <v>28684.60777829911</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>88792.01267396877</v>
+        <v>29597.33755798959</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>91571.66438182362</v>
+        <v>30523.88812727455</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>94393.16223193855</v>
+        <v>31464.3874106462</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>97256.87648981383</v>
+        <v>32418.95882993796</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>100163.1629871389</v>
+        <v>33387.72099571297</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>103112.3621845363</v>
+        <v>34370.78739484546</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>106104.7982247302</v>
+        <v>35368.26607491008</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>109140.777978107</v>
+        <v>36380.25932603567</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>112220.590082744</v>
+        <v>37406.86336091466</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>115344.503981101</v>
+        <v>38448.16799370032</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>118512.7689556667</v>
+        <v>39504.25631855557</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>121725.6131659653</v>
+        <v>40575.20438865511</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>124983.2426894172</v>
+        <v>41661.08089647241</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>128285.8405686437</v>
+        <v>42761.94685621458</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>131633.5658678871</v>
+        <v>43877.8552892957</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>135026.5527412945</v>
+        <v>45008.85091376485</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>138464.9095158813</v>
+        <v>46154.9698386271</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>141948.7177920467</v>
+        <v>47316.2392640156</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>141871.5228597774</v>
+        <v>47290.5076199258</v>
       </c>
       <c r="C358" t="n">
-        <v>3453.178342164983</v>
+        <v>1151.059447388331</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>141792.0060580607</v>
+        <v>47264.0020193536</v>
       </c>
       <c r="C359" t="n">
-        <v>6952.175122395342</v>
+        <v>2317.39170746512</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>141710.0510101728</v>
+        <v>47236.68367005761</v>
       </c>
       <c r="C360" t="n">
-        <v>10497.09817259995</v>
+        <v>3499.032724199992</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>141625.5355523002</v>
+        <v>47208.51185076675</v>
       </c>
       <c r="C361" t="n">
-        <v>14088.03205490899</v>
+        <v>4696.010684969675</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>141538.3315112774</v>
+        <v>47179.44383709248</v>
       </c>
       <c r="C362" t="n">
-        <v>17725.03753977759</v>
+        <v>5908.345846592544</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>141448.3044787504</v>
+        <v>47149.43482625016</v>
       </c>
       <c r="C363" t="n">
-        <v>21408.15112140003</v>
+        <v>7136.050373800029</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>141355.3135821376</v>
+        <v>47118.43786071256</v>
       </c>
       <c r="C364" t="n">
-        <v>25137.38457291929</v>
+        <v>8379.128190973117</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>141259.2112528011</v>
+        <v>47086.40375093375</v>
       </c>
       <c r="C365" t="n">
-        <v>28912.72454382421</v>
+        <v>9637.574847941429</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>141159.8429918996</v>
+        <v>47053.28099729989</v>
       </c>
       <c r="C366" t="n">
-        <v>32734.13220182905</v>
+        <v>10911.37740060971</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>141057.0471344398</v>
+        <v>47019.01571147997</v>
       </c>
       <c r="C367" t="n">
-        <v>36601.54292141462</v>
+        <v>12200.51430713824</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>140950.65461211</v>
+        <v>46983.55153737003</v>
       </c>
       <c r="C368" t="n">
-        <v>40514.86602106614</v>
+        <v>13504.95534035541</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>140840.4887155348</v>
+        <v>46946.82957184492</v>
       </c>
       <c r="C369" t="n">
-        <v>44473.98455109919</v>
+        <v>14824.6615170331</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>140726.3648566587</v>
+        <v>46908.78828555292</v>
       </c>
       <c r="C370" t="n">
-        <v>48478.75513378474</v>
+        <v>16159.58504459495</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>140608.0903320357</v>
+        <v>46869.36344401192</v>
       </c>
       <c r="C371" t="n">
-        <v>52529.00785730148</v>
+        <v>17509.6692857672</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>140485.4640878722</v>
+        <v>46828.48802929073</v>
       </c>
       <c r="C372" t="n">
-        <v>56624.54622483735</v>
+        <v>18874.8487416125</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>140358.276487752</v>
+        <v>46786.09216258401</v>
       </c>
       <c r="C373" t="n">
-        <v>56624.22077289072</v>
+        <v>18874.74025763028</v>
       </c>
       <c r="D373" t="n">
-        <v>4135.011160204228</v>
+        <v>1378.33705340141</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>140226.3090840496</v>
+        <v>46742.10302801656</v>
       </c>
       <c r="C374" t="n">
-        <v>56623.84418095344</v>
+        <v>18874.61472698454</v>
       </c>
       <c r="D374" t="n">
-        <v>8314.822346864052</v>
+        <v>2771.607448954685</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>140089.3343941231</v>
+        <v>46696.44479804106</v>
       </c>
       <c r="C375" t="n">
-        <v>56623.40897642399</v>
+        <v>18874.46965880804</v>
       </c>
       <c r="D375" t="n">
-        <v>12539.16542547679</v>
+        <v>4179.721808492266</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>139947.1156824678</v>
+        <v>46649.03856082264</v>
       </c>
       <c r="C376" t="n">
-        <v>56622.90668770159</v>
+        <v>18874.30222923392</v>
       </c>
       <c r="D376" t="n">
-        <v>16807.7470777458</v>
+        <v>5602.582359248601</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>139799.4067501015</v>
+        <v>46599.80225003382</v>
       </c>
       <c r="C377" t="n">
-        <v>56622.32772518216</v>
+        <v>18874.10924172744</v>
       </c>
       <c r="D377" t="n">
-        <v>21120.24915638645</v>
+        <v>7040.083052128819</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>139645.951732546</v>
+        <v>46548.65057751534</v>
       </c>
       <c r="C378" t="n">
-        <v>56621.66125023814</v>
+        <v>18873.88708341276</v>
       </c>
       <c r="D378" t="n">
-        <v>25476.32910970629</v>
+        <v>8492.109703235436</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>139486.4849078718</v>
+        <v>46495.49496929061</v>
       </c>
       <c r="C379" t="n">
-        <v>56620.89503127415</v>
+        <v>18873.63167709143</v>
       </c>
       <c r="D379" t="n">
-        <v>29875.62047631779</v>
+        <v>9958.540158772603</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>139320.7305163654</v>
+        <v>46440.24350545515</v>
       </c>
       <c r="C380" t="n">
-        <v>56620.01528592437</v>
+        <v>18873.3384286415</v>
       </c>
       <c r="D380" t="n">
-        <v>34317.7334500519</v>
+        <v>11439.24448335064</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>139148.402593488</v>
+        <v>46382.800864496</v>
       </c>
       <c r="C381" t="n">
-        <v>56619.00650843625</v>
+        <v>18873.0021694788</v>
       </c>
       <c r="D381" t="n">
-        <v>38802.25551483782</v>
+        <v>12934.08517161261</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>138969.2048178928</v>
+        <v>46323.06827263093</v>
       </c>
       <c r="C382" t="n">
-        <v>56617.85128127215</v>
+        <v>18872.61709375743</v>
       </c>
       <c r="D382" t="n">
-        <v>43328.75214899496</v>
+        <v>14442.91738299833</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>138782.830376374</v>
+        <v>46260.94345879133</v>
       </c>
       <c r="C383" t="n">
-        <v>56616.53006995435</v>
+        <v>18872.17668998483</v>
       </c>
       <c r="D383" t="n">
-        <v>43328.67099764866</v>
+        <v>14442.89033254956</v>
       </c>
       <c r="E383" t="n">
-        <v>5165.565887578204</v>
+        <v>1721.855295859405</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>138588.9618477276</v>
+        <v>46196.32061590922</v>
       </c>
       <c r="C384" t="n">
-        <v>56615.02100018298</v>
+        <v>18871.67366672771</v>
       </c>
       <c r="D384" t="n">
-        <v>43328.57424948494</v>
+        <v>14442.85808316165</v>
       </c>
       <c r="E384" t="n">
-        <v>10377.56012147606</v>
+        <v>3459.186707158695</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>138387.2711076023</v>
+        <v>46129.0903692008</v>
       </c>
       <c r="C385" t="n">
-        <v>56613.29961627118</v>
+        <v>18871.09987209044</v>
       </c>
       <c r="D385" t="n">
-        <v>43328.45909978039</v>
+        <v>14442.8196999268</v>
       </c>
       <c r="E385" t="n">
-        <v>15635.425414488</v>
+        <v>5211.808471496011</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>138177.4192565279</v>
+        <v>46059.13975217598</v>
       </c>
       <c r="C386" t="n">
-        <v>56611.33861996872</v>
+        <v>18870.44620665629</v>
       </c>
       <c r="D386" t="n">
-        <v>43328.32227790094</v>
+        <v>14442.77409263366</v>
       </c>
       <c r="E386" t="n">
-        <v>20938.5840671773</v>
+        <v>6979.528022392449</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>137959.0565734024</v>
+        <v>45986.35219113414</v>
       </c>
       <c r="C387" t="n">
-        <v>56609.10758878684</v>
+        <v>18869.70252959567</v>
       </c>
       <c r="D387" t="n">
-        <v>43328.15997718781</v>
+        <v>14442.71999239595</v>
       </c>
       <c r="E387" t="n">
-        <v>26286.43921310258</v>
+        <v>8762.146404367548</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>137731.8224968199</v>
+        <v>45910.60749893998</v>
       </c>
       <c r="C388" t="n">
-        <v>56606.572672993</v>
+        <v>18868.85755766438</v>
       </c>
       <c r="D388" t="n">
-        <v>43327.96777559722</v>
+        <v>14442.65592519908</v>
       </c>
       <c r="E388" t="n">
-        <v>31678.37614093599</v>
+        <v>10559.45871364536</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>137495.3456367095</v>
+        <v>45831.7818789032</v>
       </c>
       <c r="C389" t="n">
-        <v>56603.69627051838</v>
+        <v>18867.89875683951</v>
       </c>
       <c r="D389" t="n">
-        <v>43327.74054609593</v>
+        <v>14442.58018203199</v>
       </c>
       <c r="E389" t="n">
-        <v>37113.76369109836</v>
+        <v>12371.25456369949</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>137249.2438188425</v>
+        <v>45749.74793961419</v>
       </c>
       <c r="C390" t="n">
-        <v>56600.43667911358</v>
+        <v>18866.81222637124</v>
       </c>
       <c r="D390" t="n">
-        <v>43327.47235574275</v>
+        <v>14442.49078524759</v>
       </c>
       <c r="E390" t="n">
-        <v>42591.95572416688</v>
+        <v>14197.31857472233</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>136993.1241648418</v>
+        <v>45664.37472161395</v>
       </c>
       <c r="C391" t="n">
-        <v>56596.7477252</v>
+        <v>18865.58257506671</v>
       </c>
       <c r="D391" t="n">
-        <v>43327.15635231471</v>
+        <v>14442.38545077158</v>
       </c>
       <c r="E391" t="n">
-        <v>48112.292657929</v>
+        <v>16037.43088597637</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>136726.583210397</v>
+        <v>45575.52773679906</v>
       </c>
       <c r="C392" t="n">
-        <v>56592.57836899975</v>
+        <v>18864.19278966663</v>
       </c>
       <c r="D392" t="n">
-        <v>43326.78463726785</v>
+        <v>14442.26154575596</v>
       </c>
       <c r="E392" t="n">
-        <v>53674.10306957296</v>
+        <v>17891.3676898577</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>136449.2070644463</v>
+        <v>45483.06902148214</v>
       </c>
       <c r="C393" t="n">
-        <v>56587.872285685</v>
+        <v>18862.62409522838</v>
       </c>
       <c r="D393" t="n">
-        <v>43326.34812375576</v>
+        <v>14442.11604125193</v>
       </c>
       <c r="E393" t="n">
-        <v>53674.0368136397</v>
+        <v>17891.34560454661</v>
       </c>
       <c r="F393" t="n">
-        <v>6328.167502909429</v>
+        <v>2109.389167636474</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>136160.5716121314</v>
+        <v>45386.8572040438</v>
       </c>
       <c r="C394" t="n">
-        <v>56582.56742246989</v>
+        <v>18860.85580749001</v>
       </c>
       <c r="D394" t="n">
-        <v>43325.83637836845</v>
+        <v>14441.94545945616</v>
       </c>
       <c r="E394" t="n">
-        <v>53673.95656690851</v>
+        <v>17891.31885563621</v>
       </c>
       <c r="F394" t="n">
-        <v>12701.64548150398</v>
+        <v>4233.881827167988</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>135860.2427643651</v>
+        <v>45286.74758812173</v>
       </c>
       <c r="C395" t="n">
-        <v>56576.59553177747</v>
+        <v>18858.86517725921</v>
       </c>
       <c r="D395" t="n">
-        <v>43325.23744519924</v>
+        <v>14441.74581506642</v>
       </c>
       <c r="E395" t="n">
-        <v>53673.85955964326</v>
+        <v>17891.28651988113</v>
       </c>
       <c r="F395" t="n">
-        <v>19119.65010085257</v>
+        <v>6373.216700284182</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>135547.776756866</v>
+        <v>45182.59225228871</v>
       </c>
       <c r="C396" t="n">
-        <v>56569.88168084962</v>
+        <v>18856.62722694992</v>
       </c>
       <c r="D396" t="n">
-        <v>43324.53765080161</v>
+        <v>14441.51255026721</v>
       </c>
       <c r="E396" t="n">
-        <v>53673.7425140369</v>
+        <v>17891.24750467901</v>
       </c>
       <c r="F396" t="n">
-        <v>25581.39260522821</v>
+        <v>8527.130868409395</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>135222.7205015127</v>
+        <v>45074.24016717093</v>
       </c>
       <c r="C397" t="n">
-        <v>56562.34373843155</v>
+        <v>18854.11457947723</v>
       </c>
       <c r="D397" t="n">
-        <v>43323.72138856323</v>
+        <v>14441.24046285442</v>
       </c>
       <c r="E397" t="n">
-        <v>53673.60155935165</v>
+        <v>17891.20051978393</v>
       </c>
       <c r="F397" t="n">
-        <v>32086.08151602172</v>
+        <v>10695.36050534056</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>134884.6119928502</v>
+        <v>44961.5373309501</v>
       </c>
       <c r="C398" t="n">
-        <v>56553.89183945422</v>
+        <v>18851.29727981813</v>
       </c>
       <c r="D398" t="n">
-        <v>43322.77088100257</v>
+        <v>14440.92362700087</v>
       </c>
       <c r="E398" t="n">
-        <v>53673.43213452135</v>
+        <v>17891.14404484049</v>
       </c>
       <c r="F398" t="n">
-        <v>38632.92488387573</v>
+        <v>12877.64162795856</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>134532.9807725382</v>
+        <v>44844.32692417942</v>
       </c>
       <c r="C399" t="n">
-        <v>56544.42782895859</v>
+        <v>18848.14260965291</v>
       </c>
       <c r="D399" t="n">
-        <v>43321.66591848825</v>
+        <v>14440.55530616276</v>
       </c>
       <c r="E399" t="n">
-        <v>53673.22887666671</v>
+        <v>17891.07629222228</v>
       </c>
       <c r="F399" t="n">
-        <v>45221.13258949186</v>
+        <v>15073.71086316394</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>134167.3484544637</v>
+        <v>44722.44948482125</v>
       </c>
       <c r="C400" t="n">
-        <v>56533.84468685425</v>
+        <v>18844.61489561813</v>
       </c>
       <c r="D400" t="n">
-        <v>43320.38357289461</v>
+        <v>14440.12785763155</v>
       </c>
       <c r="E400" t="n">
-        <v>53672.98549383649</v>
+        <v>17890.9951646122</v>
       </c>
       <c r="F400" t="n">
-        <v>51849.9186871861</v>
+        <v>17283.30622906202</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>133787.2293131529</v>
+        <v>44595.74310438432</v>
       </c>
       <c r="C401" t="n">
-        <v>56522.02593548169</v>
+        <v>18840.67531182728</v>
       </c>
       <c r="D401" t="n">
-        <v>43318.89788474228</v>
+        <v>14439.63262824743</v>
       </c>
       <c r="E401" t="n">
-        <v>53672.69462014638</v>
+        <v>17890.8982067155</v>
       </c>
       <c r="F401" t="n">
-        <v>58518.50378490986</v>
+        <v>19506.16792830327</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>133392.1309379952</v>
+        <v>44464.04364599842</v>
       </c>
       <c r="C402" t="n">
-        <v>56508.845032351</v>
+        <v>18836.28167745038</v>
       </c>
       <c r="D402" t="n">
-        <v>43317.17952243259</v>
+        <v>14439.05984081087</v>
       </c>
       <c r="E402" t="n">
-        <v>53672.3476513457</v>
+        <v>17890.78255044861</v>
       </c>
       <c r="F402" t="n">
-        <v>65226.11745404858</v>
+        <v>21742.03915134951</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>132981.554955651</v>
+        <v>44327.18498521701</v>
       </c>
       <c r="C403" t="n">
-        <v>56494.16475085798</v>
+        <v>18831.38825028604</v>
       </c>
       <c r="D403" t="n">
-        <v>43315.19541227333</v>
+        <v>14438.39847075779</v>
       </c>
       <c r="E403" t="n">
-        <v>53671.93455870046</v>
+        <v>17890.64485290019</v>
       </c>
       <c r="F403" t="n">
-        <v>65226.06034888395</v>
+        <v>21742.02011629463</v>
       </c>
       <c r="G403" t="n">
-        <v>6438.734544675421</v>
+        <v>2146.244848225136</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>132554.9978228332</v>
+        <v>44184.99927427775</v>
       </c>
       <c r="C404" t="n">
-        <v>56477.83655223107</v>
+        <v>18825.9455174104</v>
       </c>
       <c r="D404" t="n">
-        <v>43312.9083381135</v>
+        <v>14437.63611270451</v>
       </c>
       <c r="E404" t="n">
-        <v>53671.44367894418</v>
+        <v>17890.48122631477</v>
       </c>
       <c r="F404" t="n">
-        <v>65225.9902459048</v>
+        <v>21741.99674863491</v>
       </c>
       <c r="G404" t="n">
-        <v>12913.29701030614</v>
+        <v>4304.432336768706</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>132111.9516914506</v>
+        <v>44037.31723048354</v>
       </c>
       <c r="C405" t="n">
-        <v>56459.69995243487</v>
+        <v>18819.899984145</v>
       </c>
       <c r="D405" t="n">
-        <v>43310.27650955874</v>
+        <v>14436.75883651959</v>
       </c>
       <c r="E405" t="n">
-        <v>53670.86147791726</v>
+        <v>17890.2871593058</v>
       </c>
       <c r="F405" t="n">
-        <v>65225.90436766203</v>
+        <v>21741.96812255399</v>
       </c>
       <c r="G405" t="n">
-        <v>19422.9943506983</v>
+        <v>6474.331450232754</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>131651.9053478542</v>
+        <v>43883.96844928477</v>
       </c>
       <c r="C406" t="n">
-        <v>56439.58188824526</v>
+        <v>18813.19396274847</v>
       </c>
       <c r="D406" t="n">
-        <v>43307.25309793329</v>
+        <v>14435.75103264444</v>
       </c>
       <c r="E406" t="n">
-        <v>53670.17228539495</v>
+        <v>17890.05742846502</v>
       </c>
       <c r="F406" t="n">
-        <v>65225.79938559447</v>
+        <v>21741.93312853146</v>
       </c>
       <c r="G406" t="n">
-        <v>25967.1519442607</v>
+        <v>8655.717314753549</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>131174.345227659</v>
+        <v>43724.78174255302</v>
       </c>
       <c r="C407" t="n">
-        <v>56417.29608721483</v>
+        <v>18805.76536240499</v>
       </c>
       <c r="D407" t="n">
-        <v>43303.78573938682</v>
+        <v>14434.59524646228</v>
       </c>
       <c r="E407" t="n">
-        <v>53669.35799849786</v>
+        <v>17889.78599949932</v>
       </c>
       <c r="F407" t="n">
-        <v>65225.67132011008</v>
+        <v>21741.89044003667</v>
       </c>
       <c r="G407" t="n">
-        <v>32545.11602202951</v>
+        <v>10848.37200734315</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>130678.7565072985</v>
+        <v>43559.58550243286</v>
       </c>
       <c r="C408" t="n">
-        <v>56392.64244675889</v>
+        <v>18797.54748225301</v>
       </c>
       <c r="D408" t="n">
-        <v>43299.81600482373</v>
+        <v>14433.27200160792</v>
       </c>
       <c r="E408" t="n">
-        <v>53668.39775099183</v>
+        <v>17889.46591699732</v>
       </c>
       <c r="F408" t="n">
-        <v>65225.51542454035</v>
+        <v>21741.83847484676</v>
       </c>
       <c r="G408" t="n">
-        <v>39156.25609263869</v>
+        <v>13052.08536421287</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>130164.6242731316</v>
+        <v>43388.20809104387</v>
       </c>
       <c r="C409" t="n">
-        <v>56365.40642810832</v>
+        <v>18788.46880936949</v>
       </c>
       <c r="D409" t="n">
-        <v>43295.27883665647</v>
+        <v>14431.75961221883</v>
       </c>
       <c r="E409" t="n">
-        <v>53667.26754572072</v>
+        <v>17889.08918190695</v>
       </c>
       <c r="F409" t="n">
-        <v>65225.32605076017</v>
+        <v>21741.77535025337</v>
       </c>
       <c r="G409" t="n">
-        <v>45799.96735690611</v>
+        <v>15266.65578563534</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>129631.4347685346</v>
+        <v>43210.47825617824</v>
       </c>
       <c r="C410" t="n">
-        <v>56335.3584713881</v>
+        <v>18778.45282379608</v>
       </c>
       <c r="D410" t="n">
-        <v>43290.10195275809</v>
+        <v>14430.0339842527</v>
       </c>
       <c r="E410" t="n">
-        <v>53665.93984738087</v>
+        <v>17888.64661579367</v>
       </c>
       <c r="F410" t="n">
-        <v>65225.09649403948</v>
+        <v>21741.69883134647</v>
       </c>
       <c r="G410" t="n">
-        <v>52475.67310435748</v>
+        <v>17491.89103478579</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>129078.6767190013</v>
+        <v>43026.22557300046</v>
       </c>
       <c r="C411" t="n">
-        <v>56302.25343858562</v>
+        <v>18767.41781286192</v>
       </c>
       <c r="D411" t="n">
-        <v>43284.20521841336</v>
+        <v>14428.0684061378</v>
       </c>
       <c r="E411" t="n">
-        <v>53664.38313284895</v>
+        <v>17888.12771094969</v>
       </c>
       <c r="F411" t="n">
-        <v>65224.81881445489</v>
+        <v>21741.60627148494</v>
       </c>
       <c r="G411" t="n">
-        <v>59182.82708369796</v>
+        <v>19727.60902789928</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>128505.8427348194</v>
+        <v>42835.2809116065</v>
       </c>
       <c r="C412" t="n">
-        <v>56265.83009166048</v>
+        <v>18755.27669722021</v>
       </c>
       <c r="D412" t="n">
-        <v>43277.4999875435</v>
+        <v>14425.83332918117</v>
       </c>
       <c r="E412" t="n">
-        <v>53662.56139631646</v>
+        <v>17887.52046543887</v>
       </c>
       <c r="F412" t="n">
-        <v>65224.48363194601</v>
+        <v>21741.49454398198</v>
       </c>
       <c r="G412" t="n">
-        <v>65920.9158388457</v>
+        <v>21973.63861294852</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>127912.4307904113</v>
+        <v>42637.47693013713</v>
       </c>
       <c r="C413" t="n">
-        <v>56225.81061351269</v>
+        <v>18741.93687117095</v>
       </c>
       <c r="D413" t="n">
-        <v>43269.88841500712</v>
+        <v>14423.29613833572</v>
       </c>
       <c r="E413" t="n">
-        <v>53660.43360657778</v>
+        <v>17886.81120219264</v>
       </c>
       <c r="F413" t="n">
-        <v>65224.07989185268</v>
+        <v>21741.35996395086</v>
       </c>
       <c r="G413" t="n">
-        <v>65920.87167179585</v>
+        <v>21973.62389059857</v>
       </c>
       <c r="H413" t="n">
-        <v>7269.992417250414</v>
+        <v>2423.330805750134</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>127297.9457789064</v>
+        <v>42432.64859296881</v>
       </c>
       <c r="C414" t="n">
-        <v>56181.90017995831</v>
+        <v>18727.30005998616</v>
       </c>
       <c r="D414" t="n">
-        <v>43261.26274235995</v>
+        <v>14420.42091411999</v>
       </c>
       <c r="E414" t="n">
-        <v>53657.95311396482</v>
+        <v>17885.98437132165</v>
       </c>
       <c r="F414" t="n">
-        <v>65223.59459751978</v>
+        <v>21741.19819917324</v>
       </c>
       <c r="G414" t="n">
-        <v>65920.81686198949</v>
+        <v>21973.60562066312</v>
       </c>
       <c r="H414" t="n">
-        <v>14572.23511024357</v>
+        <v>4857.411703414514</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>126661.9011399664</v>
+        <v>42220.63371332215</v>
       </c>
       <c r="C415" t="n">
-        <v>56133.78659125325</v>
+        <v>18711.26219708447</v>
       </c>
       <c r="D415" t="n">
-        <v>43251.50456008489</v>
+        <v>14417.16818669497</v>
       </c>
       <c r="E415" t="n">
-        <v>53655.06700463301</v>
+        <v>17885.02233487771</v>
       </c>
       <c r="F415" t="n">
-        <v>65223.01250631263</v>
+        <v>21741.00416877085</v>
       </c>
       <c r="G415" t="n">
-        <v>65920.74899949566</v>
+        <v>21973.58299983184</v>
       </c>
       <c r="H415" t="n">
-        <v>21906.29939008724</v>
+        <v>7302.099796695735</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>126003.820558306</v>
+        <v>42001.27351943536</v>
       </c>
       <c r="C416" t="n">
-        <v>56081.13997204712</v>
+        <v>18693.71332401576</v>
       </c>
       <c r="D416" t="n">
-        <v>43240.48404998254</v>
+        <v>14413.49468332752</v>
       </c>
       <c r="E416" t="n">
-        <v>53651.71540018338</v>
+        <v>17883.9051333945</v>
       </c>
       <c r="F416" t="n">
-        <v>65222.31578514976</v>
+        <v>21740.77192838323</v>
       </c>
       <c r="G416" t="n">
-        <v>65920.66516691294</v>
+        <v>21973.5550556376</v>
       </c>
       <c r="H416" t="n">
-        <v>29271.80180866838</v>
+        <v>9757.267269556112</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>125323.2397297492</v>
+        <v>41774.41324324972</v>
       </c>
       <c r="C417" t="n">
-        <v>56023.61254893161</v>
+        <v>18674.53751631059</v>
       </c>
       <c r="D417" t="n">
-        <v>43228.05921213383</v>
+        <v>14409.35307071129</v>
       </c>
       <c r="E417" t="n">
-        <v>53647.83070096367</v>
+        <v>17882.6102336546</v>
       </c>
       <c r="F417" t="n">
-        <v>65221.48362144209</v>
+        <v>21740.49454048067</v>
       </c>
       <c r="G417" t="n">
-        <v>65920.56184149587</v>
+        <v>21973.52061383191</v>
       </c>
       <c r="H417" t="n">
-        <v>36668.40643699821</v>
+        <v>12222.80214566605</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>124619.7081910335</v>
+        <v>41539.90273034453</v>
       </c>
       <c r="C418" t="n">
-        <v>55960.83851495935</v>
+        <v>18653.61283831982</v>
       </c>
       <c r="D418" t="n">
-        <v>43214.07508160843</v>
+        <v>14404.69169386949</v>
       </c>
       <c r="E418" t="n">
-        <v>53643.33677183452</v>
+        <v>17881.11225727821</v>
       </c>
       <c r="F418" t="n">
-        <v>65220.49178513078</v>
+        <v>21740.16392837691</v>
       </c>
       <c r="G418" t="n">
-        <v>65920.43478040445</v>
+        <v>21973.47826013477</v>
       </c>
       <c r="H418" t="n">
-        <v>44095.82706057803</v>
+        <v>14698.60902019265</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>123892.7912089308</v>
+        <v>41297.59706964363</v>
       </c>
       <c r="C419" t="n">
-        <v>55892.43399064399</v>
+        <v>18630.81133021471</v>
       </c>
       <c r="D419" t="n">
-        <v>43198.36294088812</v>
+        <v>14399.45431362938</v>
       </c>
       <c r="E419" t="n">
-        <v>53638.14806971902</v>
+        <v>17879.38268990638</v>
       </c>
       <c r="F419" t="n">
-        <v>65219.31213735373</v>
+        <v>21739.77071245122</v>
       </c>
       <c r="G419" t="n">
-        <v>65920.27888658794</v>
+        <v>21973.42629552927</v>
       </c>
       <c r="H419" t="n">
-        <v>51553.82928170878</v>
+        <v>17184.60976056956</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>123142.0717235863</v>
+        <v>41047.35724119545</v>
       </c>
       <c r="C420" t="n">
-        <v>55817.99709099662</v>
+        <v>18605.99903033226</v>
       </c>
       <c r="D420" t="n">
-        <v>43180.7395347954</v>
+        <v>14393.57984493181</v>
       </c>
       <c r="E420" t="n">
-        <v>53632.16871288506</v>
+        <v>17877.38957096173</v>
       </c>
       <c r="F420" t="n">
-        <v>65217.91208114726</v>
+        <v>21739.30402704906</v>
       </c>
       <c r="G420" t="n">
-        <v>65920.08805252954</v>
+        <v>21973.36268417647</v>
       </c>
       <c r="H420" t="n">
-        <v>59042.23251825939</v>
+        <v>19680.74417275309</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>122367.1523403116</v>
+        <v>40789.05078010388</v>
       </c>
       <c r="C421" t="n">
-        <v>55737.10810810118</v>
+        <v>18579.03603603377</v>
       </c>
       <c r="D421" t="n">
-        <v>43161.00629555716</v>
+        <v>14387.00209851906</v>
       </c>
       <c r="E421" t="n">
-        <v>53625.29149264069</v>
+        <v>17875.0971642136</v>
       </c>
       <c r="F421" t="n">
-        <v>65216.25394952008</v>
+        <v>21738.75131650667</v>
       </c>
       <c r="G421" t="n">
-        <v>65919.85497877898</v>
+        <v>21973.28499292628</v>
       </c>
       <c r="H421" t="n">
-        <v>66560.91188798178</v>
+        <v>22186.97062932722</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>121567.6573633844</v>
+        <v>40522.55245446149</v>
       </c>
       <c r="C422" t="n">
-        <v>55649.32981857174</v>
+        <v>18549.77660619062</v>
       </c>
       <c r="D422" t="n">
-        <v>43138.94858647832</v>
+        <v>14379.64952882612</v>
       </c>
       <c r="E422" t="n">
-        <v>53617.39682896012</v>
+        <v>17872.46560965341</v>
       </c>
       <c r="F422" t="n">
-        <v>65214.29432622837</v>
+        <v>21738.09810874276</v>
       </c>
       <c r="G422" t="n">
-        <v>65919.57096388654</v>
+        <v>21973.19032129547</v>
       </c>
       <c r="H422" t="n">
-        <v>74109.79996699038</v>
+        <v>24703.26665566342</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>120743.2348647302</v>
+        <v>40247.74495491008</v>
       </c>
       <c r="C423" t="n">
-        <v>55554.20792495992</v>
+        <v>18518.06930832002</v>
       </c>
       <c r="D423" t="n">
-        <v>43114.3349735419</v>
+        <v>14371.44499118064</v>
       </c>
       <c r="E423" t="n">
-        <v>53608.35167250309</v>
+        <v>17869.45055750107</v>
       </c>
       <c r="F423" t="n">
-        <v>65211.98329464877</v>
+        <v>21737.3277648829</v>
       </c>
       <c r="G423" t="n">
-        <v>65919.22566202785</v>
+        <v>21973.0752206759</v>
       </c>
       <c r="H423" t="n">
-        <v>81688.88841054973</v>
+        <v>27229.6294701832</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>119893.5587796894</v>
+        <v>39964.51959322982</v>
       </c>
       <c r="C424" t="n">
-        <v>55451.27163978336</v>
+        <v>18483.75721326117</v>
       </c>
       <c r="D424" t="n">
-        <v>43086.91653507489</v>
+        <v>14362.30551169164</v>
       </c>
       <c r="E424" t="n">
-        <v>53598.00835654316</v>
+        <v>17866.00278551443</v>
       </c>
       <c r="F424" t="n">
-        <v>65209.26361030281</v>
+        <v>21736.42120343425</v>
       </c>
       <c r="G424" t="n">
-        <v>65918.80680427821</v>
+        <v>21972.93560142603</v>
       </c>
       <c r="H424" t="n">
-        <v>89298.22942377286</v>
+        <v>29766.0764745909</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>119018.3310214102</v>
+        <v>39672.77700713676</v>
       </c>
       <c r="C425" t="n">
-        <v>55340.03442031885</v>
+        <v>18446.67814010633</v>
       </c>
       <c r="D425" t="n">
-        <v>43056.42622041014</v>
+        <v>14352.14207347006</v>
       </c>
       <c r="E425" t="n">
-        <v>53586.20340348218</v>
+        <v>17862.06780116077</v>
       </c>
       <c r="F425" t="n">
-        <v>65206.06979284281</v>
+        <v>21735.35659761425</v>
       </c>
       <c r="G425" t="n">
-        <v>65918.29987916393</v>
+        <v>21972.76662638793</v>
       </c>
       <c r="H425" t="n">
-        <v>96937.93706930807</v>
+        <v>32312.6456897693</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>118117.2836047662</v>
+        <v>39372.42786825541</v>
       </c>
       <c r="C426" t="n">
-        <v>55219.99486164363</v>
+        <v>18406.66495388125</v>
       </c>
       <c r="D426" t="n">
-        <v>43022.57826921732</v>
+        <v>14340.85942307245</v>
       </c>
       <c r="E426" t="n">
-        <v>53572.75629189162</v>
+        <v>17857.58543063058</v>
       </c>
       <c r="F426" t="n">
-        <v>65202.32713368357</v>
+        <v>21734.10904456117</v>
       </c>
       <c r="G426" t="n">
-        <v>65917.68776779162</v>
+        <v>21972.56258926383</v>
       </c>
       <c r="H426" t="n">
-        <v>104608.1883984879</v>
+        <v>34869.39613282926</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>117190.1807700791</v>
+        <v>39063.39359002638</v>
       </c>
       <c r="C427" t="n">
-        <v>55090.63775460744</v>
+        <v>18363.54591820253</v>
       </c>
       <c r="D427" t="n">
-        <v>42985.06770385382</v>
+        <v>14328.35590128461</v>
       </c>
       <c r="E427" t="n">
-        <v>53557.46819138534</v>
+        <v>17852.48939712849</v>
       </c>
       <c r="F427" t="n">
-        <v>65197.95061596621</v>
+        <v>21732.65020532205</v>
       </c>
       <c r="G427" t="n">
-        <v>65916.95032854479</v>
+        <v>21972.31677618155</v>
       </c>
       <c r="H427" t="n">
-        <v>112309.2243918287</v>
+        <v>37436.40813060951</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>116236.8210963433</v>
+        <v>38745.60703211441</v>
       </c>
       <c r="C428" t="n">
-        <v>54951.43531447813</v>
+        <v>18317.14510482609</v>
       </c>
       <c r="D428" t="n">
-        <v>42943.56990768173</v>
+        <v>14314.52330256058</v>
       </c>
       <c r="E428" t="n">
-        <v>53540.12067407915</v>
+        <v>17846.70689135976</v>
       </c>
       <c r="F428" t="n">
-        <v>65192.84374418712</v>
+        <v>21730.94791472901</v>
       </c>
       <c r="G428" t="n">
-        <v>65916.0639260454</v>
+        <v>21972.02130868175</v>
       </c>
       <c r="H428" t="n">
-        <v>120041.3506941326</v>
+        <v>40013.78356471082</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>115257.0395931019</v>
+        <v>38419.01319770063</v>
       </c>
       <c r="C429" t="n">
-        <v>54801.84858492018</v>
+        <v>18267.28286164011</v>
       </c>
       <c r="D429" t="n">
-        <v>42897.74030279223</v>
+        <v>14299.24676759742</v>
       </c>
       <c r="E429" t="n">
-        <v>53520.47441292208</v>
+        <v>17840.15813764074</v>
       </c>
       <c r="F429" t="n">
-        <v>65186.89728162656</v>
+        <v>21728.96576054216</v>
       </c>
       <c r="G429" t="n">
-        <v>65915.00089882282</v>
+        <v>21971.66696627423</v>
       </c>
       <c r="H429" t="n">
-        <v>127804.9381287878</v>
+        <v>42601.64604292921</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>114250.7097596275</v>
+        <v>38083.56991987582</v>
       </c>
       <c r="C430" t="n">
-        <v>54641.3290207437</v>
+        <v>18213.77634024795</v>
       </c>
       <c r="D430" t="n">
-        <v>42847.21414095315</v>
+        <v>14282.40471365106</v>
       </c>
       <c r="E430" t="n">
-        <v>53498.26787877699</v>
+        <v>17832.75595959237</v>
       </c>
       <c r="F430" t="n">
-        <v>65179.9878946833</v>
+        <v>21726.66263156107</v>
       </c>
       <c r="G430" t="n">
-        <v>65913.72895991946</v>
+        <v>21971.24298663978</v>
       </c>
       <c r="H430" t="n">
-        <v>135600.4229752049</v>
+        <v>45200.14099173488</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>113217.7455996139</v>
+        <v>37739.24853320466</v>
       </c>
       <c r="C431" t="n">
-        <v>54469.32025150045</v>
+        <v>18156.44008383353</v>
       </c>
       <c r="D431" t="n">
-        <v>42791.60642183246</v>
+        <v>14263.8688072775</v>
       </c>
       <c r="E431" t="n">
-        <v>53473.2160497643</v>
+        <v>17824.40534992148</v>
       </c>
       <c r="F431" t="n">
-        <v>65171.97670437113</v>
+        <v>21723.99223479035</v>
       </c>
       <c r="G431" t="n">
-        <v>65912.21052451053</v>
+        <v>21970.73684150347</v>
       </c>
       <c r="H431" t="n">
-        <v>143428.3069926438</v>
+        <v>47809.43566421451</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>112158.1035792063</v>
+        <v>37386.03452640212</v>
       </c>
       <c r="C432" t="n">
-        <v>54285.26002651209</v>
+        <v>18095.08667550408</v>
       </c>
       <c r="D432" t="n">
-        <v>42730.51195263054</v>
+        <v>14243.50398421018</v>
       </c>
       <c r="E432" t="n">
-        <v>53445.00914804357</v>
+        <v>17815.0030493479</v>
       </c>
       <c r="F432" t="n">
-        <v>65162.7077465724</v>
+        <v>21720.90258219077</v>
       </c>
       <c r="G432" t="n">
-        <v>65910.40195853623</v>
+        <v>21970.13398617869</v>
       </c>
       <c r="H432" t="n">
-        <v>151289.1571729998</v>
+        <v>50429.71905766651</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>111071.7845158788</v>
+        <v>37023.92817195961</v>
       </c>
       <c r="C433" t="n">
-        <v>54088.5823402999</v>
+        <v>18029.52744676668</v>
       </c>
       <c r="D433" t="n">
-        <v>42663.50556315792</v>
+        <v>14221.16852105264</v>
       </c>
       <c r="E433" t="n">
-        <v>53413.3114208663</v>
+        <v>17804.43714028881</v>
       </c>
       <c r="F433" t="n">
-        <v>65152.00634417618</v>
+        <v>21717.33544805871</v>
       </c>
       <c r="G433" t="n">
-        <v>65908.25274235624</v>
+        <v>21969.41758078537</v>
       </c>
       <c r="H433" t="n">
-        <v>159183.6052044492</v>
+        <v>53061.20173481631</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>109958.8353854341</v>
+        <v>36652.94512847804</v>
       </c>
       <c r="C434" t="n">
-        <v>53878.71973565516</v>
+        <v>17959.57324521843</v>
       </c>
       <c r="D434" t="n">
-        <v>42590.14249010909</v>
+        <v>14196.7141633697</v>
       </c>
       <c r="E434" t="n">
-        <v>53377.75998436293</v>
+        <v>17792.58666145435</v>
       </c>
       <c r="F434" t="n">
-        <v>65139.67739596003</v>
+        <v>21713.22579865332</v>
       </c>
       <c r="G434" t="n">
-        <v>65905.70454355629</v>
+        <v>21968.56818118539</v>
       </c>
       <c r="H434" t="n">
-        <v>167112.3466271801</v>
+        <v>55704.11554239328</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>108819.3510342393</v>
+        <v>36273.11701141311</v>
       </c>
       <c r="C435" t="n">
-        <v>53655.10577975823</v>
+        <v>17885.03525991945</v>
       </c>
       <c r="D435" t="n">
-        <v>42509.95894378729</v>
+        <v>14169.98631459578</v>
       </c>
       <c r="E435" t="n">
-        <v>53337.96375009594</v>
+        <v>17779.32125003202</v>
       </c>
       <c r="F435" t="n">
-        <v>65125.50358900288</v>
+        <v>21708.50119633427</v>
       </c>
       <c r="G435" t="n">
-        <v>65902.69019328227</v>
+        <v>21967.5633977607</v>
       </c>
       <c r="H435" t="n">
-        <v>175076.1396618106</v>
+        <v>58358.71322060344</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>107653.475783745</v>
+        <v>35884.49192791503</v>
       </c>
       <c r="C436" t="n">
-        <v>53417.17770683573</v>
+        <v>17805.72590227863</v>
       </c>
       <c r="D436" t="n">
-        <v>42422.47286981979</v>
+        <v>14140.82428993993</v>
       </c>
       <c r="E436" t="n">
-        <v>53293.50245588515</v>
+        <v>17764.50081862842</v>
       </c>
       <c r="F436" t="n">
-        <v>65109.24354353874</v>
+        <v>21703.08118117955</v>
       </c>
       <c r="G436" t="n">
-        <v>65899.13256087014</v>
+        <v>21966.37752029001</v>
       </c>
       <c r="H436" t="n">
-        <v>183075.8036904833</v>
+        <v>61025.26789682765</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>106461.4049143573</v>
+        <v>35487.13497145245</v>
       </c>
       <c r="C437" t="n">
-        <v>53164.37921885768</v>
+        <v>17721.45973961927</v>
       </c>
       <c r="D437" t="n">
-        <v>42327.18491745425</v>
+        <v>14109.06163915142</v>
       </c>
       <c r="E437" t="n">
-        <v>53243.92582375419</v>
+        <v>17747.97527458477</v>
       </c>
       <c r="F437" t="n">
-        <v>65090.62990146683</v>
+        <v>21696.87663382226</v>
       </c>
       <c r="G437" t="n">
-        <v>65894.94332209814</v>
+        <v>21964.98110736599</v>
       </c>
       <c r="H437" t="n">
-        <v>191112.2173701056</v>
+        <v>63704.07245670178</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>105243.3860158551</v>
+        <v>35081.12867195169</v>
       </c>
       <c r="C438" t="n">
-        <v>52896.1634337376</v>
+        <v>17632.05447791258</v>
       </c>
       <c r="D438" t="n">
-        <v>42223.5796248376</v>
+        <v>14074.52654161254</v>
       </c>
       <c r="E438" t="n">
-        <v>53188.75286901998</v>
+        <v>17729.58428967337</v>
       </c>
       <c r="F438" t="n">
-        <v>65069.36737220997</v>
+        <v>21689.78912406996</v>
       </c>
       <c r="G438" t="n">
-        <v>65890.02161713049</v>
+        <v>21963.34053904345</v>
       </c>
       <c r="H438" t="n">
-        <v>199186.3163567185</v>
+        <v>66395.43878557271</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>103999.7201917678</v>
+        <v>34666.57339725594</v>
       </c>
       <c r="C439" t="n">
-        <v>52611.99596843227</v>
+        <v>17537.33198947747</v>
       </c>
       <c r="D439" t="n">
-        <v>42111.12683024137</v>
+        <v>14037.04227674713</v>
       </c>
       <c r="E439" t="n">
-        <v>53127.47138550915</v>
+        <v>17709.15712850309</v>
       </c>
       <c r="F439" t="n">
-        <v>65045.13075223828</v>
+        <v>21681.71025074607</v>
       </c>
       <c r="G439" t="n">
-        <v>65884.25259517203</v>
+        <v>21961.41753172396</v>
       </c>
       <c r="H439" t="n">
-        <v>207299.0906196279</v>
+        <v>69099.69687320919</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>102730.7631054595</v>
+        <v>34243.58770181984</v>
       </c>
       <c r="C440" t="n">
-        <v>52311.35814226381</v>
+        <v>17437.11938075465</v>
       </c>
       <c r="D440" t="n">
-        <v>41989.2833165136</v>
+        <v>13996.4277721712</v>
       </c>
       <c r="E440" t="n">
-        <v>53059.53763259576</v>
+        <v>17686.51254419863</v>
       </c>
       <c r="F440" t="n">
-        <v>65017.56293732512</v>
+        <v>21672.52097910835</v>
       </c>
       <c r="G440" t="n">
-        <v>65877.5058440229</v>
+        <v>21959.16861467425</v>
       </c>
       <c r="H440" t="n">
-        <v>215451.5813236599</v>
+        <v>71817.19377455318</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>101436.9258560973</v>
+        <v>33812.30861869912</v>
       </c>
       <c r="C441" t="n">
-        <v>51993.75028373491</v>
+        <v>17331.25009457834</v>
       </c>
       <c r="D441" t="n">
-        <v>41857.49469410491</v>
+        <v>13952.4982313683</v>
       </c>
       <c r="E441" t="n">
-        <v>52984.37625017278</v>
+        <v>17661.45875005763</v>
       </c>
       <c r="F441" t="n">
-        <v>64986.27294944036</v>
+        <v>21662.09098314676</v>
       </c>
       <c r="G441" t="n">
-        <v>65869.63370413483</v>
+        <v>21956.5445680449</v>
       </c>
       <c r="H441" t="n">
-        <v>223644.8772578083</v>
+        <v>74548.29241926933</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>100118.6756732321</v>
+        <v>33372.89189107739</v>
       </c>
       <c r="C442" t="n">
-        <v>51658.69512209929</v>
+        <v>17219.56504069981</v>
       </c>
       <c r="D442" t="n">
-        <v>41715.19752584612</v>
+        <v>13905.06584194872</v>
       </c>
       <c r="E442" t="n">
-        <v>52901.38042775222</v>
+        <v>17633.79347591745</v>
       </c>
       <c r="F442" t="n">
-        <v>64950.83400307864</v>
+        <v>21650.27800102619</v>
       </c>
       <c r="G442" t="n">
-        <v>65860.46946843379</v>
+        <v>21953.48982281122</v>
       </c>
       <c r="H442" t="n">
-        <v>231880.1107886008</v>
+        <v>77293.37026286683</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>98776.53641937031</v>
+        <v>32925.51213979012</v>
       </c>
       <c r="C443" t="n">
-        <v>51305.74124301718</v>
+        <v>17101.91374767244</v>
       </c>
       <c r="D443" t="n">
-        <v>41561.82169425307</v>
+        <v>13853.94056475103</v>
       </c>
       <c r="E443" t="n">
-        <v>52809.91235360045</v>
+        <v>17603.30411786686</v>
       </c>
       <c r="F443" t="n">
-        <v>64910.78163871547</v>
+        <v>21636.92721290514</v>
       </c>
       <c r="G443" t="n">
-        <v>65849.82547110193</v>
+        <v>21949.94182370059</v>
       </c>
       <c r="H443" t="n">
-        <v>240158.453316766</v>
+        <v>80052.81777225516</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>97411.08889067805</v>
+        <v>32470.36296355935</v>
       </c>
       <c r="C444" t="n">
-        <v>50934.46658579246</v>
+        <v>16978.15552859753</v>
       </c>
       <c r="D444" t="n">
-        <v>41396.79300952112</v>
+        <v>13798.93100317371</v>
       </c>
       <c r="E444" t="n">
-        <v>52709.30396911532</v>
+        <v>17569.76798970515</v>
       </c>
       <c r="F444" t="n">
-        <v>64865.61195393274</v>
+        <v>21621.87065131089</v>
       </c>
       <c r="G444" t="n">
-        <v>65837.49107071046</v>
+        <v>21945.83035690344</v>
       </c>
       <c r="H444" t="n">
-        <v>248481.1102162977</v>
+        <v>82827.03673876575</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>96022.97090682869</v>
+        <v>32007.65696894291</v>
       </c>
       <c r="C445" t="n">
-        <v>50544.48195798819</v>
+        <v>16848.16065266277</v>
       </c>
       <c r="D445" t="n">
-        <v>41219.53605356557</v>
+        <v>13739.84535118853</v>
       </c>
       <c r="E445" t="n">
-        <v>52598.85805251088</v>
+        <v>17532.95268417033</v>
       </c>
       <c r="F445" t="n">
-        <v>64814.77996549806</v>
+        <v>21604.92665516599</v>
       </c>
       <c r="G445" t="n">
-        <v>65823.23053556529</v>
+        <v>21941.07684518839</v>
       </c>
       <c r="H445" t="n">
-        <v>256849.3152357713</v>
+        <v>85616.43841192363</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>94612.8771819753</v>
+        <v>31537.62572732511</v>
       </c>
       <c r="C446" t="n">
-        <v>50135.43454167471</v>
+        <v>16711.81151389161</v>
       </c>
       <c r="D446" t="n">
-        <v>41029.47725248941</v>
+        <v>13676.49241749648</v>
       </c>
       <c r="E446" t="n">
-        <v>52477.84965426327</v>
+        <v>17492.61655142114</v>
       </c>
       <c r="F446" t="n">
-        <v>64757.69813825278</v>
+        <v>21585.89937941757</v>
       </c>
       <c r="G446" t="n">
-        <v>65806.7808418652</v>
+        <v>21935.59361395502</v>
       </c>
       <c r="H446" t="n">
-        <v>265264.3243428406</v>
+        <v>88421.44144761344</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>93181.5589699004</v>
+        <v>31060.51965663348</v>
       </c>
       <c r="C447" t="n">
-        <v>49707.01136421067</v>
+        <v>16569.00378807027</v>
       </c>
       <c r="D447" t="n">
-        <v>40826.04816675006</v>
+        <v>13608.68272225003</v>
       </c>
       <c r="E447" t="n">
-        <v>52345.52790466709</v>
+        <v>17448.50930155574</v>
       </c>
       <c r="F447" t="n">
-        <v>64693.73511899426</v>
+        <v>21564.57837299807</v>
       </c>
       <c r="G447" t="n">
-        <v>65787.84939826737</v>
+        <v>21929.28313275574</v>
       </c>
       <c r="H447" t="n">
-        <v>273727.408994268</v>
+        <v>91242.46966475589</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>91729.82347756019</v>
+        <v>30576.60782585342</v>
       </c>
       <c r="C448" t="n">
-        <v>49258.94270531787</v>
+        <v>16419.64756843933</v>
       </c>
       <c r="D448" t="n">
-        <v>40608.68898508392</v>
+        <v>13536.22966169464</v>
       </c>
       <c r="E448" t="n">
-        <v>52201.11821123824</v>
+        <v>17400.37273707946</v>
       </c>
       <c r="F448" t="n">
-        <v>64622.21471555185</v>
+        <v>21540.73823851726</v>
       </c>
       <c r="G448" t="n">
-        <v>65766.11171368799</v>
+        <v>21922.03723789595</v>
       </c>
       <c r="H448" t="n">
-        <v>282239.8488156305</v>
+        <v>94079.94960520997</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>90258.53304248989</v>
+        <v>30086.17768082998</v>
       </c>
       <c r="C449" t="n">
-        <v>48791.00541131225</v>
+        <v>16263.66847043746</v>
       </c>
       <c r="D449" t="n">
-        <v>40376.85220497279</v>
+        <v>13458.95073499094</v>
       </c>
       <c r="E449" t="n">
-        <v>52043.82486057215</v>
+        <v>17347.94162019076</v>
       </c>
       <c r="F449" t="n">
-        <v>64542.41516287992</v>
+        <v>21514.13838762662</v>
       </c>
       <c r="G449" t="n">
-        <v>65741.20902861026</v>
+        <v>21913.73634287004</v>
       </c>
       <c r="H449" t="n">
-        <v>290802.923677091</v>
+        <v>96934.30789236349</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>88768.60407086789</v>
+        <v>29589.5346902893</v>
       </c>
       <c r="C450" t="n">
-        <v>48303.0260867191</v>
+        <v>16101.00869557308</v>
       </c>
       <c r="D450" t="n">
-        <v>40130.00647914261</v>
+        <v>13376.66882638088</v>
       </c>
       <c r="E450" t="n">
-        <v>51872.83403562286</v>
+        <v>17290.94467854099</v>
       </c>
       <c r="F450" t="n">
-        <v>64453.56871914222</v>
+        <v>21484.52290638071</v>
       </c>
       <c r="G450" t="n">
-        <v>65712.7459337919</v>
+        <v>21904.24864459725</v>
       </c>
       <c r="H450" t="n">
-        <v>299417.9051542729</v>
+        <v>99805.96838475748</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>87261.00573443658</v>
+        <v>29087.00191147886</v>
       </c>
       <c r="C451" t="n">
-        <v>47794.88413315227</v>
+        <v>15931.62804438413</v>
       </c>
       <c r="D451" t="n">
-        <v>39867.64060431961</v>
+        <v>13289.21353477321</v>
       </c>
       <c r="E451" t="n">
-        <v>51687.31725522481</v>
+        <v>17229.10575174164</v>
       </c>
       <c r="F451" t="n">
-        <v>64354.86163536442</v>
+        <v>21451.62054512145</v>
       </c>
       <c r="G451" t="n">
-        <v>65680.28800401613</v>
+        <v>21893.42933467199</v>
       </c>
       <c r="H451" t="n">
-        <v>308086.0473664957</v>
+        <v>102695.3491221651</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>85736.75842593658</v>
+        <v>28578.91947531221</v>
       </c>
       <c r="C452" t="n">
-        <v>47266.51460529447</v>
+        <v>15755.50486843153</v>
       </c>
       <c r="D452" t="n">
-        <v>39589.26762528146</v>
+        <v>13196.4225417605</v>
       </c>
       <c r="E452" t="n">
-        <v>51486.435238053</v>
+        <v>17162.14507935104</v>
       </c>
       <c r="F452" t="n">
-        <v>64245.43454220752</v>
+        <v>21415.14484740248</v>
       </c>
       <c r="G452" t="n">
-        <v>65643.35947835595</v>
+        <v>21881.1198261186</v>
       </c>
       <c r="H452" t="n">
-        <v>316808.577188329</v>
+        <v>105602.8590627762</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>490.5773364383481</v>
+        <v>686.8082710136873</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>491.1507514012744</v>
+        <v>687.6110519617843</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>491.7324058893045</v>
+        <v>688.4253682450264</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>492.3224174992462</v>
+        <v>689.2513844989448</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>492.9209054841101</v>
+        <v>690.0892676777543</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>493.5279907758422</v>
+        <v>690.9391870861792</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>494.1437960083513</v>
+        <v>691.8013144116918</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>494.7684455408368</v>
+        <v>692.6758237571714</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>495.4020654814222</v>
+        <v>693.5628916739912</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>496.0447837110953</v>
+        <v>694.4626971955337</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>496.6967299079582</v>
+        <v>695.3754218711417</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>497.3580355717948</v>
+        <v>696.3012498005128</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>498.0288340489545</v>
+        <v>697.2403676685362</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>498.7092605575613</v>
+        <v>698.1929647805858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>499.3994522130451</v>
+        <v>699.1592330982635</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>500.0995480540069</v>
+        <v>700.1393672756097</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>500.8096890684157</v>
+        <v>701.1335646957821</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>501.5300182201429</v>
+        <v>702.1420255082002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>502.2606804758412</v>
+        <v>703.1649526661779</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>503.0018228321653</v>
+        <v>704.2025519650315</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>503.7535943433458</v>
+        <v>705.2550320806843</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>504.5161461491154</v>
+        <v>706.3226046087615</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>505.2896315029923</v>
+        <v>707.4054841041893</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>506.0742058009286</v>
+        <v>708.5038881213004</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>506.8700266103219</v>
+        <v>709.6180372544508</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>507.677253699399</v>
+        <v>710.7481551791589</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>508.4960490669753</v>
+        <v>711.8944686937654</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>509.3265769725911</v>
+        <v>713.0572077616273</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>510.1690039670338</v>
+        <v>714.2366055538473</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>511.0234989232482</v>
+        <v>715.4328984925471</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>511.8902330676366</v>
+        <v>716.6463262946913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>512.7693800117604</v>
+        <v>717.8771320164645</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>513.6611157844376</v>
+        <v>719.1255620982129</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>514.5656188642546</v>
+        <v>720.3918664099563</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>515.4830702124799</v>
+        <v>721.6762982974717</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>516.4136533064013</v>
+        <v>722.9791146289617</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>517.3575541730797</v>
+        <v>724.3005758423116</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>518.3149614235288</v>
+        <v>725.6409459929403</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>519.286066287325</v>
+        <v>727.0004928022549</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>520.2710626476562</v>
+        <v>728.3794877067187</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>521.2701470768043</v>
+        <v>729.7782059075257</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>522.2835188720794</v>
+        <v>731.196926420911</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>523.3113800922011</v>
+        <v>732.6359321290821</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>524.3539355941379</v>
+        <v>734.0955098317935</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>525.4113930704062</v>
+        <v>735.5759502985687</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>526.4839630868347</v>
+        <v>737.0775483215687</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>527.5718591208054</v>
+        <v>738.6006027691276</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>528.6752975999683</v>
+        <v>740.1454166399556</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>529.7944979414384</v>
+        <v>741.7122971180136</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>530.9296825914846</v>
+        <v>743.3015556280782</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>532.0810770657121</v>
+        <v>744.9135078919974</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>533.2489099897451</v>
+        <v>746.5484739856428</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>534.4334131404122</v>
+        <v>748.2067783965775</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>535.634821487452</v>
+        <v>749.888750082433</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>536.8533732357301</v>
+        <v>751.5947225300223</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>538.0893098679815</v>
+        <v>753.3250338151732</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>539.3428761880875</v>
+        <v>755.0800266633225</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>540.6143203648887</v>
+        <v>756.8600485108443</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>541.9038939765381</v>
+        <v>758.6654515671535</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>543.2118520554081</v>
+        <v>760.4965928775716</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>544.5384531335555</v>
+        <v>762.3538343869781</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>545.8839592887463</v>
+        <v>764.2375430042449</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>547.2486361910558</v>
+        <v>766.148090667478</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>548.6327531500423</v>
+        <v>768.0858544100598</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>550.0365831625119</v>
+        <v>770.0512164275165</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>551.4604029608689</v>
+        <v>772.0445641452162</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>552.9044930620722</v>
+        <v>774.0662902869013</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>554.3691378171942</v>
+        <v>776.1167929440721</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>555.854625461601</v>
+        <v>778.1964756462411</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>557.3612481657514</v>
+        <v>780.3057474320514</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>558.8893020866277</v>
+        <v>782.445022921279</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>560.4390874198111</v>
+        <v>784.6147223877363</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>562.0109084521999</v>
+        <v>786.8152718330797</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>563.6050736153852</v>
+        <v>789.0471030615397</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>565.2218955396993</v>
+        <v>791.3106537555801</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>566.8616911089299</v>
+        <v>793.6063675525013</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>568.5247815157212</v>
+        <v>795.93469412201</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>570.2114923176766</v>
+        <v>798.2960892447467</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>571.9221534941519</v>
+        <v>800.6910148918128</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>573.6570995037727</v>
+        <v>803.1199393052818</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>575.4166693426696</v>
+        <v>805.5833370797375</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>577.2012066034488</v>
+        <v>808.0816892448286</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>579.01105953491</v>
+        <v>810.6154833488749</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>580.8465811025162</v>
+        <v>813.1852135435228</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>582.7081290496347</v>
+        <v>815.7913806694897</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>584.5960659595572</v>
+        <v>818.4344923433797</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>586.5107593183017</v>
+        <v>821.1150630456228</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>588.4525815782367</v>
+        <v>823.8336142095311</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>590.4219102224995</v>
+        <v>826.5906743114994</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>592.4191278302594</v>
+        <v>829.3867789623632</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>594.4446221428178</v>
+        <v>832.2224709999454</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>596.498786130564</v>
+        <v>835.0983005827894</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>598.5820180607992</v>
+        <v>838.0148252851186</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>600.6947215664558</v>
+        <v>840.9726101930381</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>602.837305715706</v>
+        <v>843.9722280019876</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>605.0101850824899</v>
+        <v>847.0142591154861</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>607.2137798179815</v>
+        <v>850.0992917451734</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>609.4485157229949</v>
+        <v>853.2279220121923</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>611.7148243213626</v>
+        <v>856.4007540499074</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>614.0131429342981</v>
+        <v>859.6184001080172</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>616.3439147557535</v>
+        <v>862.8814806580551</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>618.707588928811</v>
+        <v>866.1906245003358</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>621.1046206231022</v>
+        <v>869.5464688723436</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>623.5354711132982</v>
+        <v>872.9496595586173</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>626.0006078586777</v>
+        <v>876.4008510021483</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>628.5005045837999</v>
+        <v>879.900706417321</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>631.0356413603084</v>
+        <v>883.4498979044326</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>633.606504689876</v>
+        <v>887.0491065658258</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>636.2135875883323</v>
+        <v>890.6990226236652</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>638.8573896709888</v>
+        <v>894.4003455393847</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>641.538417239188</v>
+        <v>898.1537841348627</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>644.2571833681029</v>
+        <v>901.9600567153443</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>647.0142079958238</v>
+        <v>905.8198911941533</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>649.8100180137459</v>
+        <v>909.7340252192444</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>652.6451473583028</v>
+        <v>913.7032063016234</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>655.5201371040658</v>
+        <v>917.7281919456919</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>658.4355355582525</v>
+        <v>921.809749781554</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>661.3918983566641</v>
+        <v>925.9486576993302</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>664.3897885610991</v>
+        <v>930.1457039855395</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>667.4297767582742</v>
+        <v>934.4016874615836</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>670.5124411602883</v>
+        <v>938.7174176244038</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>673.6383677066747</v>
+        <v>943.0937147893439</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>676.8081501680725</v>
+        <v>947.5314102353018</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>680.0223902515709</v>
+        <v>952.0313463521996</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>683.2816977077593</v>
+        <v>956.5943767908631</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>686.5866904395367</v>
+        <v>961.2213666153517</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>689.9379946127219</v>
+        <v>965.9131924578114</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>693.3362447685205</v>
+        <v>970.6707426759282</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>696.7820839378876</v>
+        <v>975.4949175130424</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>700.2761637578575</v>
+        <v>980.3866292610006</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>703.8191445898726</v>
+        <v>985.3468024258217</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>707.4116956401933</v>
+        <v>990.3763738962708</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>711.0544950824249</v>
+        <v>995.4762931153948</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>714.7482301822421</v>
+        <v>1000.647522255139</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>718.4935974243646</v>
+        <v>1005.89103639411</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>722.2913026418506</v>
+        <v>1011.207823698591</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>726.1420611477897</v>
+        <v>1016.598885606905</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>730.0465978694441</v>
+        <v>1022.065237017222</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>734.0056474849418</v>
+        <v>1027.607906478918</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>738.0199545625712</v>
+        <v>1033.2279363876</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>742.090273702782</v>
+        <v>1038.926383183894</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>746.2173696829591</v>
+        <v>1044.704317556143</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>750.402017605068</v>
+        <v>1050.562824647095</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>754.6450030462541</v>
+        <v>1056.503004264755</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>758.9471222124948</v>
+        <v>1062.525971097493</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>763.3091820954073</v>
+        <v>1068.632854933571</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>767.7320006323001</v>
+        <v>1074.824800885221</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>772.216406869583</v>
+        <v>1081.102969617416</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>776.7632411296502</v>
+        <v>1087.46853758151</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>781.3733551813355</v>
+        <v>1093.92269725387</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>786.047612414076</v>
+        <v>1100.466657379707</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>790.7868880158867</v>
+        <v>1107.101643222241</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>795.5920691552942</v>
+        <v>1113.828896817412</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>800.4640551673486</v>
+        <v>1120.649677234288</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>805.4037577438487</v>
+        <v>1127.565260841389</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>810.4121011279406</v>
+        <v>1134.576941579117</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>815.4900223132129</v>
+        <v>1141.686031238499</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>820.6384712474643</v>
+        <v>1148.89385974645</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>825.858411041286</v>
+        <v>1156.2017754578</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>831.1508181816363</v>
+        <v>1163.611145454291</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>836.5166827505703</v>
+        <v>1171.123355850799</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>841.9570086493046</v>
+        <v>1178.739812109026</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>847.4728138278002</v>
+        <v>1186.461939358921</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>853.0651305200615</v>
+        <v>1194.291182728087</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>858.7350054853321</v>
+        <v>1202.229007679465</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>864.4835002554091</v>
+        <v>1210.276900357574</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>870.3116913882835</v>
+        <v>1218.436367943596</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>876.2206707283135</v>
+        <v>1226.708939019639</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>882.2115456731785</v>
+        <v>1235.096163942449</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>888.2854394478312</v>
+        <v>1243.599615226964</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>894.4434913857029</v>
+        <v>1252.220887939984</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>900.6868572174051</v>
+        <v>1260.961600104367</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>907.0167093671962</v>
+        <v>1269.823393114074</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>913.4342372574716</v>
+        <v>1278.807932160459</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>919.9406476215727</v>
+        <v>1287.916906670202</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>926.5371648251793</v>
+        <v>1297.152030755251</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>933.2250311966067</v>
+        <v>1306.515043675249</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>940.0055073662977</v>
+        <v>1316.007710312816</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>946.8798726158316</v>
+        <v>1325.631821662165</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>953.8494252367844</v>
+        <v>1335.389195331498</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>960.9154828997644</v>
+        <v>1345.28167605967</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>968.0793830339887</v>
+        <v>1355.311136247584</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>975.3424832177425</v>
+        <v>1365.47947650484</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>982.7061615801088</v>
+        <v>1375.788626212153</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>990.1718172143376</v>
+        <v>1386.240544100072</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>997.7408706032559</v>
+        <v>1396.837218844559</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1005.414764057126</v>
+        <v>1407.580669679976</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1013.194962164356</v>
+        <v>1418.472947030097</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1021.08295225551</v>
+        <v>1429.516133157714</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1029.080244881058</v>
+        <v>1440.712342833481</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1037.188374303293</v>
+        <v>1452.06372402461</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1045.408899002933</v>
+        <v>1463.572458604106</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1053.743402200837</v>
+        <v>1475.240763081171</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1062.193492395359</v>
+        <v>1487.070889353502</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1070.760803915842</v>
+        <v>1499.065125482178</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1079.446997492758</v>
+        <v>1511.225796489862</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1088.253760845044</v>
+        <v>1523.555265183062</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1097.182809285166</v>
+        <v>1536.055932999232</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1106.235886342476</v>
+        <v>1548.730240879466</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1115.414764405436</v>
+        <v>1561.580670167609</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1124.721245383291</v>
+        <v>1574.609743536608</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1134.157161387791</v>
+        <v>1587.820025942908</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1143.724375435567</v>
+        <v>1601.214125609793</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1153.424782171799</v>
+        <v>1614.794695040518</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1163.260308615805</v>
+        <v>1628.564432062128</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1173.232914929196</v>
+        <v>1642.526080900874</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1183.344595207263</v>
+        <v>1656.682433290167</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1193.597378294274</v>
+        <v>1671.036329611983</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1203.993328623365</v>
+        <v>1685.59066007271</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1214.534547081701</v>
+        <v>1700.348365914382</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1225.223171901657</v>
+        <v>1715.31244066232</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1236.061379578679</v>
+        <v>1730.48593141015</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1247.051385816597</v>
+        <v>1745.871940143234</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1258.195446501103</v>
+        <v>1761.473625101545</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1269.495858702147</v>
+        <v>1777.294202183006</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1280.954961705974</v>
+        <v>1793.336946388363</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1292.575138077591</v>
+        <v>1809.605193308627</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1304.358814754404</v>
+        <v>1826.102340656166</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1316.308464171785</v>
+        <v>1842.831849840498</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1328.426605421353</v>
+        <v>1859.797247589895</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1340.715805442712</v>
+        <v>1877.002127619797</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1353.178680249428</v>
+        <v>1894.450152349199</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1365.817896190007</v>
+        <v>1912.145054666009</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1378.63617124463</v>
+        <v>1930.090639742482</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1391.636276358393</v>
+        <v>1948.290786901751</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1404.82103681182</v>
+        <v>1966.749451536547</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1418.193333629353</v>
+        <v>1985.470667081094</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>1431.756105026577</v>
+        <v>2004.458547037207</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>1445.512347896852</v>
+        <v>2023.717287055593</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>1459.465119338086</v>
+        <v>2043.251167073319</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>1473.61753822027</v>
+        <v>2063.064553508378</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>1487.972786794463</v>
+        <v>2083.161901512249</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>1502.534112343823</v>
+        <v>2103.547757281353</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>1517.304828877278</v>
+        <v>2124.22676042819</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>1532.288318866392</v>
+        <v>2145.20364641295</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>1547.488035025946</v>
+        <v>2166.483249036324</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>1562.90750213869</v>
+        <v>2188.070502994165</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>1578.550318924723</v>
+        <v>2209.970446494612</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>1594.420159955843</v>
+        <v>2232.18822393818</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>1610.520777615198</v>
+        <v>2254.729088661278</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>1626.856004102505</v>
+        <v>2277.598405743507</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>1643.429753485009</v>
+        <v>2300.801654879013</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>1660.246023794294</v>
+        <v>2324.344433312011</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>1677.30889916901</v>
+        <v>2348.232458836615</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>1694.622552043423</v>
+        <v>2372.471572860791</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>1712.191245381679</v>
+        <v>2397.06774353435</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>1730.01933495753</v>
+        <v>2422.027068940542</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>1748.111271679167</v>
+        <v>2447.355780350834</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>1766.471603958685</v>
+        <v>2473.060245542158</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>1785.104980125629</v>
+        <v>2499.146972175879</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1804.016150883854</v>
+        <v>2525.622611237395</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1823.209971810881</v>
+        <v>2552.493960535232</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1842.691405898714</v>
+        <v>2579.7679682582</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1862.465526134971</v>
+        <v>2607.451736588958</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1882.537518122962</v>
+        <v>2635.552525372147</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1902.912682739253</v>
+        <v>2664.077755834953</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1923.596438826955</v>
+        <v>2693.035014357736</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1944.594325922872</v>
+        <v>2722.432056292022</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1965.912007016395</v>
+        <v>2752.276809822954</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1987.555271337766</v>
+        <v>2782.577379872873</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2009.530037173203</v>
+        <v>2813.342052042482</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2031.842354704018</v>
+        <v>2844.579296585626</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2054.498408866663</v>
+        <v>2876.297772413329</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2077.504522230394</v>
+        <v>2908.506331122551</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2100.867157888845</v>
+        <v>2941.214021044382</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2124.59292236167</v>
+        <v>2974.430091306338</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>2148.688568501961</v>
+        <v>3008.163995902744</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>2173.160998404862</v>
+        <v>3042.425397766808</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>2198.017266312558</v>
+        <v>3077.224172837583</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>2223.264581510271</v>
+        <v>3112.570414114381</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>2248.910311207762</v>
+        <v>3148.474435690868</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>2274.961983400254</v>
+        <v>3184.946776760356</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>2301.427289702433</v>
+        <v>3221.998205583406</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>2328.314088148734</v>
+        <v>3259.639723408228</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>2355.630405952669</v>
+        <v>3297.882568333738</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>2383.384442217589</v>
+        <v>3336.738219104623</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>2411.584570590775</v>
+        <v>3376.218398827084</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>2440.239341852322</v>
+        <v>3416.335078593252</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>2469.357486429796</v>
+        <v>3457.100481001713</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>2498.947916829174</v>
+        <v>3498.527083560841</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>2529.019729972125</v>
+        <v>3540.627621960972</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>2559.582209429099</v>
+        <v>3583.415093200737</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>2590.644827537291</v>
+        <v>3626.902758552206</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>2622.217247391961</v>
+        <v>3671.104146348747</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>2654.309324699112</v>
+        <v>3716.033054578758</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>2686.931109476972</v>
+        <v>3761.70355326776</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>2720.092847593221</v>
+        <v>3808.129986630508</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>2753.804982124399</v>
+        <v>3855.32697497416</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>2788.078154523327</v>
+        <v>3903.309416332655</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>2822.923205579918</v>
+        <v>3952.092487811886</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>2858.351176160255</v>
+        <v>4001.691646624357</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>2894.373307708154</v>
+        <v>4052.122630791418</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>2931.00104249316</v>
+        <v>4103.401459490424</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>2968.246023588176</v>
+        <v>4155.544433023448</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>3006.120094559672</v>
+        <v>4208.56813238354</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>3044.635298852802</v>
+        <v>4262.489418393925</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>3083.803878853444</v>
+        <v>4317.325430394822</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>3123.638274608616</v>
+        <v>4373.093584452061</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>3164.151122186536</v>
+        <v>4429.811571061153</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>3205.355251657085</v>
+        <v>4487.497352319921</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>3247.263684673145</v>
+        <v>4546.169158542404</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>3756.362447224235</v>
+        <v>5258.907426113927</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>4273.590627581511</v>
+        <v>5983.026878614115</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>4799.089404293842</v>
+        <v>6718.725166011381</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>5333.001809419384</v>
+        <v>7466.202533187136</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>5875.472687184833</v>
+        <v>8225.661762058766</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>6426.648647168001</v>
+        <v>8997.3081060352</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>6986.678011782124</v>
+        <v>9781.349216494969</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>7555.710757840865</v>
+        <v>10577.99506097721</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>8133.898451984679</v>
+        <v>11387.45783277855</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>8721.394179752881</v>
+        <v>12209.95185165403</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>9318.352468088813</v>
+        <v>13045.69345532434</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>9924.929201069897</v>
+        <v>13894.90088149786</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>10541.28152866091</v>
+        <v>14757.79414012526</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>11167.56776829506</v>
+        <v>15634.59487561309</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>11803.94729909545</v>
+        <v>16525.52621873363</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>12450.580448559</v>
+        <v>17430.8126279826</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>13107.62837153494</v>
+        <v>18350.67972014892</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>13775.25292134175</v>
+        <v>19285.35408987846</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>14453.6165128803</v>
+        <v>20235.06311803241</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>15142.88197761386</v>
+        <v>21200.0347686594</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>15843.2124103035</v>
+        <v>22180.4973744249</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>16554.77100740268</v>
+        <v>23176.67941036375</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>17277.72089703586</v>
+        <v>24188.8092558502</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>18012.22496050458</v>
+        <v>25217.11494470642</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>18758.44564528717</v>
+        <v>26261.82390340203</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>19516.54476952184</v>
+        <v>27323.16267733057</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>20286.68331798738</v>
+        <v>28401.35664518233</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>21069.02122962236</v>
+        <v>29496.62972147131</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>21863.7171766519</v>
+        <v>30609.20404731264</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>22670.92833542031</v>
+        <v>31739.29966958843</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>23490.81014905864</v>
+        <v>32887.1342086821</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>24323.51608214869</v>
+        <v>34052.92251500815</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>25169.19736757829</v>
+        <v>35236.8763146096</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>26028.0027458174</v>
+        <v>36439.20384414436</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>26900.0781968808</v>
+        <v>37660.10947563311</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>27785.56666527925</v>
+        <v>38899.79333139095</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>28684.60777829911</v>
+        <v>40158.45088961877</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>29597.33755798959</v>
+        <v>41436.27258118543</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>30523.88812727455</v>
+        <v>42733.44337818437</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>31464.3874106462</v>
+        <v>44050.14237490468</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>32418.95882993796</v>
+        <v>45386.54236191314</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>33387.72099571297</v>
+        <v>46742.80939399814</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>34370.78739484546</v>
+        <v>48119.10235278363</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>35368.26607491008</v>
+        <v>49515.57250487412</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>36380.25932603567</v>
+        <v>50932.36305644991</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>37406.86336091466</v>
+        <v>52369.60870528052</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>38448.16799370032</v>
+        <v>53827.43519118044</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>39504.25631855557</v>
+        <v>55305.9588459778</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>40575.20438865511</v>
+        <v>56805.28614411717</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>41661.08089647241</v>
+        <v>58325.51325506138</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>42761.94685621458</v>
+        <v>59866.72559870042</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>43877.8552892957</v>
+        <v>61428.99740501399</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>45008.85091376485</v>
+        <v>63012.39127927076</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>46154.9698386271</v>
+        <v>64616.95777407794</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>47316.2392640156</v>
+        <v>66242.73496962183</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>47290.5076199258</v>
+        <v>66206.71066789613</v>
       </c>
       <c r="C358" t="n">
-        <v>1151.059447388331</v>
+        <v>1611.483226343663</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>47264.0020193536</v>
+        <v>66169.60282709503</v>
       </c>
       <c r="C359" t="n">
-        <v>2317.39170746512</v>
+        <v>3244.348390451168</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>47236.68367005761</v>
+        <v>66131.35713808064</v>
       </c>
       <c r="C360" t="n">
-        <v>3499.032724199992</v>
+        <v>4898.645813879988</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>47208.51185076675</v>
+        <v>66091.91659107343</v>
       </c>
       <c r="C361" t="n">
-        <v>4696.010684969675</v>
+        <v>6574.414958957545</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>47179.44383709248</v>
+        <v>66051.22137192948</v>
       </c>
       <c r="C362" t="n">
-        <v>5908.345846592544</v>
+        <v>8271.684185229562</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>47149.43482625016</v>
+        <v>66009.20875675025</v>
       </c>
       <c r="C363" t="n">
-        <v>7136.050373800029</v>
+        <v>9990.47052332004</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>47118.43786071256</v>
+        <v>65965.81300499757</v>
       </c>
       <c r="C364" t="n">
-        <v>8379.128190973117</v>
+        <v>11730.77946736236</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>47086.40375093375</v>
+        <v>65920.96525130724</v>
       </c>
       <c r="C365" t="n">
-        <v>9637.574847941429</v>
+        <v>13492.604787118</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>47053.28099729989</v>
+        <v>65874.59339621986</v>
       </c>
       <c r="C366" t="n">
-        <v>10911.37740060971</v>
+        <v>15275.92836085359</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>47019.01571147997</v>
+        <v>65826.62199607195</v>
       </c>
       <c r="C367" t="n">
-        <v>12200.51430713824</v>
+        <v>17080.72002999353</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>46983.55153737003</v>
+        <v>65776.97215231803</v>
       </c>
       <c r="C368" t="n">
-        <v>13504.95534035541</v>
+        <v>18906.93747649758</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>46946.82957184492</v>
+        <v>65725.56140058291</v>
       </c>
       <c r="C369" t="n">
-        <v>14824.6615170331</v>
+        <v>20754.52612384634</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>46908.78828555292</v>
+        <v>65672.3035997741</v>
       </c>
       <c r="C370" t="n">
-        <v>16159.58504459495</v>
+        <v>22623.41906243293</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>46869.36344401192</v>
+        <v>65617.10882161667</v>
       </c>
       <c r="C371" t="n">
-        <v>17509.6692857672</v>
+        <v>24513.53700007408</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>46828.48802929073</v>
+        <v>65559.88324100703</v>
       </c>
       <c r="C372" t="n">
-        <v>18874.8487416125</v>
+        <v>26424.78823825749</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>46786.09216258401</v>
+        <v>65500.52902761763</v>
       </c>
       <c r="C373" t="n">
-        <v>18874.74025763028</v>
+        <v>26424.6363606824</v>
       </c>
       <c r="D373" t="n">
-        <v>1378.33705340141</v>
+        <v>1929.671874761974</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>46742.10302801656</v>
+        <v>65438.94423922318</v>
       </c>
       <c r="C374" t="n">
-        <v>18874.61472698454</v>
+        <v>26424.46061777834</v>
       </c>
       <c r="D374" t="n">
-        <v>2771.607448954685</v>
+        <v>3880.250428536559</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>46696.44479804106</v>
+        <v>65375.02271725747</v>
       </c>
       <c r="C375" t="n">
-        <v>18874.46965880804</v>
+        <v>26424.25752233127</v>
       </c>
       <c r="D375" t="n">
-        <v>4179.721808492266</v>
+        <v>5851.610531889172</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>46649.03856082264</v>
+        <v>65308.65398515169</v>
       </c>
       <c r="C376" t="n">
-        <v>18874.30222923392</v>
+        <v>26424.02312092748</v>
       </c>
       <c r="D376" t="n">
-        <v>5602.582359248601</v>
+        <v>7843.615302948042</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>46599.80225003382</v>
+        <v>65239.72315004737</v>
       </c>
       <c r="C377" t="n">
-        <v>18874.10924172744</v>
+        <v>26423.75293841841</v>
       </c>
       <c r="D377" t="n">
-        <v>7040.083052128819</v>
+        <v>9856.116272980345</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>46548.65057751534</v>
+        <v>65168.11080852147</v>
       </c>
       <c r="C378" t="n">
-        <v>18873.88708341276</v>
+        <v>26423.44191677786</v>
       </c>
       <c r="D378" t="n">
-        <v>8492.109703235436</v>
+        <v>11888.95358452961</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>46495.49496929061</v>
+        <v>65093.69295700682</v>
       </c>
       <c r="C379" t="n">
-        <v>18873.63167709143</v>
+        <v>26423.084347928</v>
       </c>
       <c r="D379" t="n">
-        <v>9958.540158772603</v>
+        <v>13941.95622228164</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>46440.24350545515</v>
+        <v>65016.34090763719</v>
       </c>
       <c r="C380" t="n">
-        <v>18873.3384286415</v>
+        <v>26422.6738000981</v>
       </c>
       <c r="D380" t="n">
-        <v>11439.24448335064</v>
+        <v>16014.94227669089</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>46382.800864496</v>
+        <v>64935.92121029443</v>
       </c>
       <c r="C381" t="n">
-        <v>18873.0021694788</v>
+        <v>26422.20303727032</v>
       </c>
       <c r="D381" t="n">
-        <v>12934.08517161261</v>
+        <v>18107.71924025766</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>46323.06827263093</v>
+        <v>64852.2955816833</v>
       </c>
       <c r="C382" t="n">
-        <v>18872.61709375743</v>
+        <v>26421.6639312604</v>
       </c>
       <c r="D382" t="n">
-        <v>14442.91738299833</v>
+        <v>20220.08433619766</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>46260.94345879133</v>
+        <v>64765.32084230788</v>
       </c>
       <c r="C383" t="n">
-        <v>18872.17668998483</v>
+        <v>26421.04736597876</v>
       </c>
       <c r="D383" t="n">
-        <v>14442.89033254956</v>
+        <v>20220.04646556939</v>
       </c>
       <c r="E383" t="n">
-        <v>1721.855295859405</v>
+        <v>3181.988586748182</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>46196.32061590922</v>
+        <v>64674.84886227288</v>
       </c>
       <c r="C384" t="n">
-        <v>18871.67366672771</v>
+        <v>26420.3431334188</v>
       </c>
       <c r="D384" t="n">
-        <v>14442.85808316165</v>
+        <v>20220.00131642631</v>
       </c>
       <c r="E384" t="n">
-        <v>3459.186707158695</v>
+        <v>6392.57703482927</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>46129.0903692008</v>
+        <v>64580.72651688111</v>
       </c>
       <c r="C385" t="n">
-        <v>18871.09987209044</v>
+        <v>26419.53982092661</v>
       </c>
       <c r="D385" t="n">
-        <v>14442.8196999268</v>
+        <v>20219.94757989753</v>
       </c>
       <c r="E385" t="n">
-        <v>5211.808471496011</v>
+        <v>9631.42205532463</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>46059.13975217598</v>
+        <v>64482.79565304636</v>
       </c>
       <c r="C386" t="n">
-        <v>18870.44620665629</v>
+        <v>26418.62468931881</v>
       </c>
       <c r="D386" t="n">
-        <v>14442.77409263366</v>
+        <v>20219.88372968712</v>
       </c>
       <c r="E386" t="n">
-        <v>6979.528022392449</v>
+        <v>12898.16778538125</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>45986.35219113414</v>
+        <v>64380.89306758779</v>
       </c>
       <c r="C387" t="n">
-        <v>18869.70252959567</v>
+        <v>26417.58354143393</v>
       </c>
       <c r="D387" t="n">
-        <v>14442.71999239595</v>
+        <v>20219.80798935432</v>
       </c>
       <c r="E387" t="n">
-        <v>8762.146404367548</v>
+        <v>16192.44655527123</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>45910.60749893998</v>
+        <v>64274.85049851595</v>
       </c>
       <c r="C388" t="n">
-        <v>18868.85755766438</v>
+        <v>26416.40058073013</v>
       </c>
       <c r="D388" t="n">
-        <v>14442.65592519908</v>
+        <v>20219.71829527871</v>
       </c>
       <c r="E388" t="n">
-        <v>10559.45871364536</v>
+        <v>19513.87970281662</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>45831.7818789032</v>
+        <v>64164.49463046444</v>
       </c>
       <c r="C389" t="n">
-        <v>18867.89875683951</v>
+        <v>26415.05825957531</v>
       </c>
       <c r="D389" t="n">
-        <v>14442.58018203199</v>
+        <v>20219.61225484478</v>
       </c>
       <c r="E389" t="n">
-        <v>12371.25456369949</v>
+        <v>22862.07843371665</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>45749.74793961419</v>
+        <v>64049.64711545988</v>
       </c>
       <c r="C390" t="n">
-        <v>18866.81222637124</v>
+        <v>26413.53711691974</v>
       </c>
       <c r="D390" t="n">
-        <v>14442.49078524759</v>
+        <v>20219.48709934663</v>
       </c>
       <c r="E390" t="n">
-        <v>14197.31857472233</v>
+        <v>26236.64472608687</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>45664.37472161395</v>
+        <v>63930.12461025953</v>
       </c>
       <c r="C391" t="n">
-        <v>18865.58257506671</v>
+        <v>26411.81560509339</v>
       </c>
       <c r="D391" t="n">
-        <v>14442.38545077158</v>
+        <v>20219.33963108021</v>
       </c>
       <c r="E391" t="n">
-        <v>16037.43088597637</v>
+        <v>29637.17227728433</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>45575.52773679906</v>
+        <v>63805.73883151866</v>
       </c>
       <c r="C392" t="n">
-        <v>18864.19278966663</v>
+        <v>26409.86990553328</v>
       </c>
       <c r="D392" t="n">
-        <v>14442.26154575596</v>
+        <v>20219.16616405834</v>
       </c>
       <c r="E392" t="n">
-        <v>17891.3676898577</v>
+        <v>33063.24749085703</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>45483.06902148214</v>
+        <v>63676.29663007498</v>
       </c>
       <c r="C393" t="n">
-        <v>18862.62409522838</v>
+        <v>26407.67373331973</v>
       </c>
       <c r="D393" t="n">
-        <v>14442.11604125193</v>
+        <v>20218.9624577527</v>
       </c>
       <c r="E393" t="n">
-        <v>17891.34560454661</v>
+        <v>33063.20667720214</v>
       </c>
       <c r="F393" t="n">
-        <v>2109.389167636474</v>
+        <v>3248.45931816017</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>45386.8572040438</v>
+        <v>63541.6000856613</v>
       </c>
       <c r="C394" t="n">
-        <v>18860.85580749001</v>
+        <v>26405.19813048602</v>
       </c>
       <c r="D394" t="n">
-        <v>14441.94545945616</v>
+        <v>20218.72364323862</v>
       </c>
       <c r="E394" t="n">
-        <v>17891.31885563621</v>
+        <v>33063.15724521573</v>
       </c>
       <c r="F394" t="n">
-        <v>4233.881827167988</v>
+        <v>6520.178013838703</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>45286.74758812173</v>
+        <v>63401.44662337042</v>
       </c>
       <c r="C395" t="n">
-        <v>18858.86517725921</v>
+        <v>26402.41124816289</v>
       </c>
       <c r="D395" t="n">
-        <v>14441.74581506642</v>
+        <v>20218.44414109299</v>
       </c>
       <c r="E395" t="n">
-        <v>17891.28651988113</v>
+        <v>33063.09748874033</v>
       </c>
       <c r="F395" t="n">
-        <v>6373.216700284182</v>
+        <v>9814.753718437642</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>45182.59225228871</v>
+        <v>63255.62915320419</v>
       </c>
       <c r="C396" t="n">
-        <v>18856.62722694992</v>
+        <v>26399.27811772989</v>
       </c>
       <c r="D396" t="n">
-        <v>14441.51255026721</v>
+        <v>20218.11757037409</v>
       </c>
       <c r="E396" t="n">
-        <v>17891.24750467901</v>
+        <v>33063.02538864681</v>
       </c>
       <c r="F396" t="n">
-        <v>8527.130868409395</v>
+        <v>13131.78153735047</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>45074.24016717093</v>
+        <v>63103.9362340393</v>
       </c>
       <c r="C397" t="n">
-        <v>18854.11457947723</v>
+        <v>26395.76041126813</v>
       </c>
       <c r="D397" t="n">
-        <v>14441.24046285442</v>
+        <v>20217.73664799619</v>
       </c>
       <c r="E397" t="n">
-        <v>17891.20051978393</v>
+        <v>33062.93856056069</v>
       </c>
       <c r="F397" t="n">
-        <v>10695.36050534056</v>
+        <v>16470.85517822446</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>44961.5373309501</v>
+        <v>62946.15226333013</v>
       </c>
       <c r="C398" t="n">
-        <v>18851.29727981813</v>
+        <v>26391.81619174537</v>
       </c>
       <c r="D398" t="n">
-        <v>14440.92362700087</v>
+        <v>20217.29307780121</v>
       </c>
       <c r="E398" t="n">
-        <v>17891.14404484049</v>
+        <v>33062.83419486523</v>
       </c>
       <c r="F398" t="n">
-        <v>12877.64162795856</v>
+        <v>19831.56810705619</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>44844.32692417942</v>
+        <v>62782.05769385117</v>
       </c>
       <c r="C399" t="n">
-        <v>18848.14260965291</v>
+        <v>26387.39965351408</v>
       </c>
       <c r="D399" t="n">
-        <v>14440.55530616276</v>
+        <v>20216.77742862787</v>
       </c>
       <c r="E399" t="n">
-        <v>17891.07629222228</v>
+        <v>33062.70898802677</v>
       </c>
       <c r="F399" t="n">
-        <v>15073.71086316394</v>
+        <v>23213.51472927246</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>44722.44948482125</v>
+        <v>62611.42927874974</v>
       </c>
       <c r="C400" t="n">
-        <v>18844.61489561813</v>
+        <v>26382.46085386538</v>
       </c>
       <c r="D400" t="n">
-        <v>14440.12785763155</v>
+        <v>20216.17900068417</v>
       </c>
       <c r="E400" t="n">
-        <v>17890.9951646122</v>
+        <v>33062.55906420335</v>
       </c>
       <c r="F400" t="n">
-        <v>17283.30622906202</v>
+        <v>26616.29159275551</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>44595.74310438432</v>
+        <v>62434.04034613803</v>
       </c>
       <c r="C401" t="n">
-        <v>18840.67531182728</v>
+        <v>26376.94543655819</v>
       </c>
       <c r="D401" t="n">
-        <v>14439.63262824743</v>
+        <v>20215.48567954641</v>
       </c>
       <c r="E401" t="n">
-        <v>17890.8982067155</v>
+        <v>33062.37988601025</v>
       </c>
       <c r="F401" t="n">
-        <v>19506.16792830327</v>
+        <v>30039.49860958703</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>44464.04364599842</v>
+        <v>62249.6611043978</v>
       </c>
       <c r="C402" t="n">
-        <v>18836.28167745038</v>
+        <v>26370.79434843053</v>
       </c>
       <c r="D402" t="n">
-        <v>14439.05984081087</v>
+        <v>20214.68377713521</v>
       </c>
       <c r="E402" t="n">
-        <v>17890.78255044861</v>
+        <v>33062.16615322904</v>
       </c>
       <c r="F402" t="n">
-        <v>21742.03915134951</v>
+        <v>33482.74029307823</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,19 +10906,19 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>44327.18498521701</v>
+        <v>62058.05897930381</v>
       </c>
       <c r="C403" t="n">
-        <v>18831.38825028604</v>
+        <v>26363.94355040046</v>
       </c>
       <c r="D403" t="n">
-        <v>14438.39847075779</v>
+        <v>20213.7578590609</v>
       </c>
       <c r="E403" t="n">
-        <v>17890.64485290019</v>
+        <v>33061.91168815957</v>
       </c>
       <c r="F403" t="n">
-        <v>21742.02011629463</v>
+        <v>33482.71097909372</v>
       </c>
       <c r="G403" t="n">
         <v>2146.244848225136</v>
@@ -10932,19 +10932,19 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>44184.99927427775</v>
+        <v>61858.99898398883</v>
       </c>
       <c r="C404" t="n">
-        <v>18825.9455174104</v>
+        <v>26356.32372437456</v>
       </c>
       <c r="D404" t="n">
-        <v>14437.63611270451</v>
+        <v>20212.69055778631</v>
       </c>
       <c r="E404" t="n">
-        <v>17890.48122631477</v>
+        <v>33061.60930622969</v>
       </c>
       <c r="F404" t="n">
-        <v>21741.99674863491</v>
+        <v>33482.67499289776</v>
       </c>
       <c r="G404" t="n">
         <v>4304.432336768706</v>
@@ -10958,19 +10958,19 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>44037.31723048354</v>
+        <v>61652.24412267693</v>
       </c>
       <c r="C405" t="n">
-        <v>18819.899984145</v>
+        <v>26347.859977803</v>
       </c>
       <c r="D405" t="n">
-        <v>14436.75883651959</v>
+        <v>20211.46237112742</v>
       </c>
       <c r="E405" t="n">
-        <v>17890.2871593058</v>
+        <v>33061.25067039711</v>
       </c>
       <c r="F405" t="n">
-        <v>21741.96812255399</v>
+        <v>33482.63090873314</v>
       </c>
       <c r="G405" t="n">
         <v>6474.331450232754</v>
@@ -10984,19 +10984,19 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>43883.96844928477</v>
+        <v>61437.55582899866</v>
       </c>
       <c r="C406" t="n">
-        <v>18813.19396274847</v>
+        <v>26338.47154784785</v>
       </c>
       <c r="D406" t="n">
-        <v>14435.75103264444</v>
+        <v>20210.05144570221</v>
       </c>
       <c r="E406" t="n">
-        <v>17890.05742846502</v>
+        <v>33060.82612780337</v>
       </c>
       <c r="F406" t="n">
-        <v>21741.93312853146</v>
+        <v>33482.57701793846</v>
       </c>
       <c r="G406" t="n">
         <v>8655.717314753549</v>
@@ -11010,19 +11010,19 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>43724.78174255302</v>
+        <v>61214.69443957422</v>
       </c>
       <c r="C407" t="n">
-        <v>18805.76536240499</v>
+        <v>26328.07150736698</v>
       </c>
       <c r="D407" t="n">
-        <v>14434.59524646228</v>
+        <v>20208.43334504719</v>
       </c>
       <c r="E407" t="n">
-        <v>17889.78599949932</v>
+        <v>33060.32452707476</v>
       </c>
       <c r="F407" t="n">
-        <v>21741.89044003667</v>
+        <v>33482.51127765648</v>
       </c>
       <c r="G407" t="n">
         <v>10848.37200734315</v>
@@ -11036,19 +11036,19 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>43559.58550243286</v>
+        <v>60983.41970340598</v>
       </c>
       <c r="C408" t="n">
-        <v>18797.54748225301</v>
+        <v>26316.56647515421</v>
       </c>
       <c r="D408" t="n">
-        <v>14433.27200160792</v>
+        <v>20206.58080225109</v>
       </c>
       <c r="E408" t="n">
-        <v>17889.46591699732</v>
+        <v>33059.73301461105</v>
       </c>
       <c r="F408" t="n">
-        <v>21741.83847484676</v>
+        <v>33482.43125126401</v>
       </c>
       <c r="G408" t="n">
         <v>13052.08536421287</v>
@@ -11062,19 +11062,19 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>43388.20809104387</v>
+        <v>60743.49132746142</v>
       </c>
       <c r="C409" t="n">
-        <v>18788.46880936949</v>
+        <v>26303.85633311728</v>
       </c>
       <c r="D409" t="n">
-        <v>14431.75961221883</v>
+        <v>20204.46345710636</v>
       </c>
       <c r="E409" t="n">
-        <v>17889.08918190695</v>
+        <v>33059.03680816404</v>
       </c>
       <c r="F409" t="n">
-        <v>21741.77535025337</v>
+        <v>33482.33403939019</v>
       </c>
       <c r="G409" t="n">
         <v>15266.65578563534</v>
@@ -11088,19 +11088,19 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>43210.47825617824</v>
+        <v>60494.66955864951</v>
       </c>
       <c r="C410" t="n">
-        <v>18778.45282379608</v>
+        <v>26289.83395331451</v>
       </c>
       <c r="D410" t="n">
-        <v>14430.0339842527</v>
+        <v>20202.04757795378</v>
       </c>
       <c r="E410" t="n">
-        <v>17888.64661579367</v>
+        <v>33058.2189459867</v>
       </c>
       <c r="F410" t="n">
-        <v>21741.69883134647</v>
+        <v>33482.21620027356</v>
       </c>
       <c r="G410" t="n">
         <v>17491.89103478579</v>
@@ -11114,19 +11114,19 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>43026.22557300046</v>
+        <v>60236.71580220063</v>
       </c>
       <c r="C411" t="n">
-        <v>18767.41781286192</v>
+        <v>26274.38493800669</v>
       </c>
       <c r="D411" t="n">
-        <v>14428.0684061378</v>
+        <v>20199.29576859291</v>
       </c>
       <c r="E411" t="n">
-        <v>17888.12771094969</v>
+        <v>33057.26000983503</v>
       </c>
       <c r="F411" t="n">
-        <v>21741.60627148494</v>
+        <v>33482.0736580868</v>
       </c>
       <c r="G411" t="n">
         <v>19727.60902789928</v>
@@ -11140,19 +11140,19 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>42835.2809116065</v>
+        <v>59969.39327624906</v>
       </c>
       <c r="C412" t="n">
-        <v>18755.27669722021</v>
+        <v>26257.38737610829</v>
       </c>
       <c r="D412" t="n">
-        <v>14425.83332918117</v>
+        <v>20196.16666085364</v>
       </c>
       <c r="E412" t="n">
-        <v>17887.52046543887</v>
+        <v>33056.13782013103</v>
       </c>
       <c r="F412" t="n">
-        <v>21741.49454398198</v>
+        <v>33481.90159773225</v>
       </c>
       <c r="G412" t="n">
         <v>21973.63861294852</v>
@@ -11166,19 +11166,19 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>42637.47693013713</v>
+        <v>59692.46770219195</v>
       </c>
       <c r="C413" t="n">
-        <v>18741.93687117095</v>
+        <v>26238.71161963932</v>
       </c>
       <c r="D413" t="n">
-        <v>14423.29613833572</v>
+        <v>20192.61459367</v>
       </c>
       <c r="E413" t="n">
-        <v>17886.81120219264</v>
+        <v>33054.82710165199</v>
       </c>
       <c r="F413" t="n">
-        <v>21741.35996395086</v>
+        <v>33481.69434448433</v>
       </c>
       <c r="G413" t="n">
         <v>21973.62389059857</v>
@@ -11192,19 +11192,19 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>42432.64859296881</v>
+        <v>59405.70803015637</v>
       </c>
       <c r="C414" t="n">
-        <v>18727.30005998616</v>
+        <v>26218.22008398062</v>
       </c>
       <c r="D414" t="n">
-        <v>14420.42091411999</v>
+        <v>20188.58927976799</v>
       </c>
       <c r="E414" t="n">
-        <v>17885.98437132165</v>
+        <v>33053.29911820241</v>
       </c>
       <c r="F414" t="n">
-        <v>21741.19819917324</v>
+        <v>33481.44522672679</v>
       </c>
       <c r="G414" t="n">
         <v>21973.60562066312</v>
@@ -11218,19 +11218,19 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>42220.63371332215</v>
+        <v>59108.88719865101</v>
       </c>
       <c r="C415" t="n">
-        <v>18711.26219708447</v>
+        <v>26195.76707591825</v>
       </c>
       <c r="D415" t="n">
-        <v>14417.16818669497</v>
+        <v>20184.03546137296</v>
       </c>
       <c r="E415" t="n">
-        <v>17885.02233487771</v>
+        <v>33051.52127485402</v>
       </c>
       <c r="F415" t="n">
-        <v>21741.00416877085</v>
+        <v>33481.14641990711</v>
       </c>
       <c r="G415" t="n">
         <v>21973.58299983184</v>
@@ -11244,19 +11244,19 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>42001.27351943536</v>
+        <v>58801.7829272095</v>
       </c>
       <c r="C416" t="n">
-        <v>18693.71332401576</v>
+        <v>26171.19865362206</v>
       </c>
       <c r="D416" t="n">
-        <v>14413.49468332752</v>
+        <v>20178.89255665853</v>
       </c>
       <c r="E416" t="n">
-        <v>17883.9051333945</v>
+        <v>33049.45668651304</v>
       </c>
       <c r="F416" t="n">
-        <v>21740.77192838323</v>
+        <v>33480.78876971018</v>
       </c>
       <c r="G416" t="n">
         <v>21973.5550556376</v>
@@ -11270,19 +11270,19 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>41774.41324324972</v>
+        <v>58484.17854054962</v>
       </c>
       <c r="C417" t="n">
-        <v>18674.53751631059</v>
+        <v>26144.35252283482</v>
       </c>
       <c r="D417" t="n">
-        <v>14409.35307071129</v>
+        <v>20173.09429899579</v>
       </c>
       <c r="E417" t="n">
-        <v>17882.6102336546</v>
+        <v>33047.0637117937</v>
       </c>
       <c r="F417" t="n">
-        <v>21740.49454048067</v>
+        <v>33480.36159234025</v>
       </c>
       <c r="G417" t="n">
         <v>21973.52061383191</v>
@@ -11296,19 +11296,19 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>41539.90273034453</v>
+        <v>58155.86382248233</v>
       </c>
       <c r="C418" t="n">
-        <v>18653.61283831982</v>
+        <v>26115.05797364777</v>
       </c>
       <c r="D418" t="n">
-        <v>14404.69169386949</v>
+        <v>20166.56837141728</v>
       </c>
       <c r="E418" t="n">
-        <v>17881.11225727821</v>
+        <v>33044.29545145015</v>
       </c>
       <c r="F418" t="n">
-        <v>21740.16392837691</v>
+        <v>33479.85244970044</v>
       </c>
       <c r="G418" t="n">
         <v>21973.47826013477</v>
@@ -11322,19 +11322,19 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>41297.59706964363</v>
+        <v>57816.63589750108</v>
       </c>
       <c r="C419" t="n">
-        <v>18630.81133021471</v>
+        <v>26083.13586230059</v>
       </c>
       <c r="D419" t="n">
-        <v>14399.45431362938</v>
+        <v>20159.23603908113</v>
       </c>
       <c r="E419" t="n">
-        <v>17879.38268990638</v>
+        <v>33041.099210947</v>
       </c>
       <c r="F419" t="n">
-        <v>21739.77071245122</v>
+        <v>33479.24689717488</v>
       </c>
       <c r="G419" t="n">
         <v>21973.42629552927</v>
@@ -11348,19 +11348,19 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>41047.35724119545</v>
+        <v>57466.30013767364</v>
       </c>
       <c r="C420" t="n">
-        <v>18605.99903033226</v>
+        <v>26048.39864246516</v>
       </c>
       <c r="D420" t="n">
-        <v>14393.57984493181</v>
+        <v>20151.01178290453</v>
       </c>
       <c r="E420" t="n">
-        <v>17877.38957096173</v>
+        <v>33037.41592713728</v>
       </c>
       <c r="F420" t="n">
-        <v>21739.30402704906</v>
+        <v>33478.52820165556</v>
       </c>
       <c r="G420" t="n">
         <v>21973.36268417647</v>
@@ -11374,19 +11374,19 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>40789.05078010388</v>
+        <v>57104.67109214547</v>
       </c>
       <c r="C421" t="n">
-        <v>18579.03603603377</v>
+        <v>26010.65045044729</v>
       </c>
       <c r="D421" t="n">
-        <v>14387.00209851906</v>
+        <v>20141.80293792668</v>
       </c>
       <c r="E421" t="n">
-        <v>17875.0971642136</v>
+        <v>33033.17955946674</v>
       </c>
       <c r="F421" t="n">
-        <v>21738.75131650667</v>
+        <v>33477.67702742028</v>
       </c>
       <c r="G421" t="n">
         <v>21973.28499292628</v>
@@ -11400,19 +11400,19 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>40522.55245446149</v>
+        <v>56731.57343624606</v>
       </c>
       <c r="C422" t="n">
-        <v>18549.77660619062</v>
+        <v>25969.68724866687</v>
       </c>
       <c r="D422" t="n">
-        <v>14379.64952882612</v>
+        <v>20131.50934035656</v>
       </c>
       <c r="E422" t="n">
-        <v>17872.46560965341</v>
+        <v>33028.31644663952</v>
       </c>
       <c r="F422" t="n">
-        <v>21738.09810874276</v>
+        <v>33476.67108746386</v>
       </c>
       <c r="G422" t="n">
         <v>21973.19032129547</v>
@@ -11426,19 +11426,19 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>40247.74495491008</v>
+        <v>56346.84293687408</v>
       </c>
       <c r="C423" t="n">
-        <v>18518.06930832002</v>
+        <v>25925.29703164802</v>
       </c>
       <c r="D423" t="n">
-        <v>14371.44499118064</v>
+        <v>20120.0229876529</v>
       </c>
       <c r="E423" t="n">
-        <v>17869.45055750107</v>
+        <v>33022.74463026198</v>
       </c>
       <c r="F423" t="n">
-        <v>21737.3277648829</v>
+        <v>33475.48475791966</v>
       </c>
       <c r="G423" t="n">
         <v>21973.0752206759</v>
@@ -11452,19 +11452,19 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>39964.51959322982</v>
+        <v>55950.32743052173</v>
       </c>
       <c r="C424" t="n">
-        <v>18483.75721326117</v>
+        <v>25877.26009856562</v>
       </c>
       <c r="D424" t="n">
-        <v>14362.30551169164</v>
+        <v>20107.22771636829</v>
       </c>
       <c r="E424" t="n">
-        <v>17866.00278551443</v>
+        <v>33016.37314763067</v>
       </c>
       <c r="F424" t="n">
-        <v>21736.42120343425</v>
+        <v>33474.08865328874</v>
       </c>
       <c r="G424" t="n">
         <v>21972.93560142603</v>
@@ -11478,19 +11478,19 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>39672.77700713676</v>
+        <v>55541.88780999146</v>
       </c>
       <c r="C425" t="n">
-        <v>18446.67814010633</v>
+        <v>25825.34939614886</v>
       </c>
       <c r="D425" t="n">
-        <v>14352.14207347006</v>
+        <v>20092.99890285807</v>
       </c>
       <c r="E425" t="n">
-        <v>17862.06780116077</v>
+        <v>33009.10129654511</v>
       </c>
       <c r="F425" t="n">
-        <v>21735.35659761425</v>
+        <v>33472.44916032594</v>
       </c>
       <c r="G425" t="n">
         <v>21972.76662638793</v>
@@ -11504,19 +11504,19 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>39372.42786825541</v>
+        <v>55121.39901555759</v>
       </c>
       <c r="C426" t="n">
-        <v>18406.66495388125</v>
+        <v>25769.33093543375</v>
       </c>
       <c r="D426" t="n">
-        <v>14340.85942307245</v>
+        <v>20077.20319230143</v>
       </c>
       <c r="E426" t="n">
-        <v>17857.58543063058</v>
+        <v>33000.81787580532</v>
       </c>
       <c r="F426" t="n">
-        <v>21734.10904456117</v>
+        <v>33470.52792862419</v>
       </c>
       <c r="G426" t="n">
         <v>21972.56258926383</v>
@@ -11530,19 +11530,19 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>39063.39359002638</v>
+        <v>54688.75102603694</v>
       </c>
       <c r="C427" t="n">
-        <v>18363.54591820253</v>
+        <v>25708.96428548354</v>
       </c>
       <c r="D427" t="n">
-        <v>14328.35590128461</v>
+        <v>20059.69826179845</v>
       </c>
       <c r="E427" t="n">
-        <v>17852.48939712849</v>
+        <v>32991.40040589346</v>
       </c>
       <c r="F427" t="n">
-        <v>21732.65020532205</v>
+        <v>33468.28131619595</v>
       </c>
       <c r="G427" t="n">
         <v>21972.31677618155</v>
@@ -11556,19 +11556,19 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>38745.60703211441</v>
+        <v>54243.8498449602</v>
       </c>
       <c r="C428" t="n">
-        <v>18317.14510482609</v>
+        <v>25644.00314675653</v>
       </c>
       <c r="D428" t="n">
-        <v>14314.52330256058</v>
+        <v>20040.33262358481</v>
       </c>
       <c r="E428" t="n">
-        <v>17846.70689135976</v>
+        <v>32980.71433523283</v>
       </c>
       <c r="F428" t="n">
-        <v>21730.94791472901</v>
+        <v>33465.65978868268</v>
       </c>
       <c r="G428" t="n">
         <v>21972.02130868175</v>
@@ -11582,19 +11582,19 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>38419.01319770063</v>
+        <v>53786.61847678089</v>
       </c>
       <c r="C429" t="n">
-        <v>18267.28286164011</v>
+        <v>25574.19600629614</v>
       </c>
       <c r="D429" t="n">
-        <v>14299.24676759742</v>
+        <v>20018.94547463638</v>
       </c>
       <c r="E429" t="n">
-        <v>17840.15813764074</v>
+        <v>32968.61223836008</v>
       </c>
       <c r="F429" t="n">
-        <v>21728.96576054216</v>
+        <v>33462.60727123493</v>
       </c>
       <c r="G429" t="n">
         <v>21971.66696627423</v>
@@ -11608,19 +11608,19 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>38083.56991987582</v>
+        <v>53316.99788782616</v>
       </c>
       <c r="C430" t="n">
-        <v>18213.77634024795</v>
+        <v>25499.28687634712</v>
       </c>
       <c r="D430" t="n">
-        <v>14282.40471365106</v>
+        <v>19995.36659911147</v>
       </c>
       <c r="E430" t="n">
-        <v>17832.75595959237</v>
+        <v>32954.93301332671</v>
       </c>
       <c r="F430" t="n">
-        <v>21726.66263156107</v>
+        <v>33459.06045260405</v>
       </c>
       <c r="G430" t="n">
         <v>21971.24298663978</v>
@@ -11634,19 +11634,19 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>37739.24853320466</v>
+        <v>52834.94794648654</v>
       </c>
       <c r="C431" t="n">
-        <v>18156.44008383353</v>
+        <v>25419.01611736694</v>
       </c>
       <c r="D431" t="n">
-        <v>14263.8688072775</v>
+        <v>19969.41633018849</v>
       </c>
       <c r="E431" t="n">
-        <v>17824.40534992148</v>
+        <v>32939.50108665488</v>
       </c>
       <c r="F431" t="n">
-        <v>21723.99223479035</v>
+        <v>33454.94804157714</v>
       </c>
       <c r="G431" t="n">
         <v>21970.73684150347</v>
@@ -11660,19 +11660,19 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>37386.03452640212</v>
+        <v>52340.44833696297</v>
       </c>
       <c r="C432" t="n">
-        <v>18095.08667550408</v>
+        <v>25333.12134570571</v>
       </c>
       <c r="D432" t="n">
-        <v>14243.50398421018</v>
+        <v>19940.90557789426</v>
       </c>
       <c r="E432" t="n">
-        <v>17815.0030493479</v>
+        <v>32922.12563519492</v>
       </c>
       <c r="F432" t="n">
-        <v>21720.90258219077</v>
+        <v>33450.18997657379</v>
       </c>
       <c r="G432" t="n">
         <v>21970.13398617869</v>
@@ -11686,19 +11686,19 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>37023.92817195961</v>
+        <v>51833.49944074346</v>
       </c>
       <c r="C433" t="n">
-        <v>18029.52744676668</v>
+        <v>25241.33842547336</v>
       </c>
       <c r="D433" t="n">
-        <v>14221.16852105264</v>
+        <v>19909.6359294737</v>
       </c>
       <c r="E433" t="n">
-        <v>17804.43714028881</v>
+        <v>32902.59983525372</v>
       </c>
       <c r="F433" t="n">
-        <v>21717.33544805871</v>
+        <v>33444.69659001041</v>
       </c>
       <c r="G433" t="n">
         <v>21969.41758078537</v>
@@ -11712,19 +11712,19 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>36652.94512847804</v>
+        <v>51314.12317986925</v>
       </c>
       <c r="C434" t="n">
-        <v>17959.57324521843</v>
+        <v>25143.40254330581</v>
       </c>
       <c r="D434" t="n">
-        <v>14196.7141633697</v>
+        <v>19875.39982871758</v>
       </c>
       <c r="E434" t="n">
-        <v>17792.58666145435</v>
+        <v>32880.70015036765</v>
       </c>
       <c r="F434" t="n">
-        <v>21713.22579865332</v>
+        <v>33438.36772992611</v>
       </c>
       <c r="G434" t="n">
         <v>21968.56818118539</v>
@@ -11738,19 +11738,19 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>36273.11701141311</v>
+        <v>50782.36381597837</v>
       </c>
       <c r="C435" t="n">
-        <v>17885.03525991945</v>
+        <v>25039.04936388723</v>
       </c>
       <c r="D435" t="n">
-        <v>14169.98631459578</v>
+        <v>19837.98084043408</v>
       </c>
       <c r="E435" t="n">
-        <v>17779.32125003202</v>
+        <v>32856.18567005919</v>
       </c>
       <c r="F435" t="n">
-        <v>21708.50119633427</v>
+        <v>33431.09184235478</v>
       </c>
       <c r="G435" t="n">
         <v>21967.5633977607</v>
@@ -11764,19 +11764,19 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>35884.49192791503</v>
+        <v>50238.28869908104</v>
       </c>
       <c r="C436" t="n">
-        <v>17805.72590227863</v>
+        <v>24928.01626319007</v>
       </c>
       <c r="D436" t="n">
-        <v>14140.82428993993</v>
+        <v>19797.15400591591</v>
       </c>
       <c r="E436" t="n">
-        <v>17764.50081862842</v>
+        <v>32828.79751282533</v>
       </c>
       <c r="F436" t="n">
-        <v>21703.08118117955</v>
+        <v>33422.74501901652</v>
       </c>
       <c r="G436" t="n">
         <v>21966.37752029001</v>
@@ -11790,19 +11790,19 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>35487.13497145245</v>
+        <v>49681.98896003342</v>
       </c>
       <c r="C437" t="n">
-        <v>17721.45973961927</v>
+        <v>24810.04363546697</v>
       </c>
       <c r="D437" t="n">
-        <v>14109.06163915142</v>
+        <v>19752.68629481199</v>
       </c>
       <c r="E437" t="n">
-        <v>17747.97527458477</v>
+        <v>32798.25830743265</v>
       </c>
       <c r="F437" t="n">
-        <v>21696.87663382226</v>
+        <v>33413.19001608627</v>
       </c>
       <c r="G437" t="n">
         <v>21964.98110736599</v>
@@ -11816,19 +11816,19 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>35081.12867195169</v>
+        <v>49113.58014073234</v>
       </c>
       <c r="C438" t="n">
-        <v>17632.05447791258</v>
+        <v>24684.87626907761</v>
       </c>
       <c r="D438" t="n">
-        <v>14074.52654161254</v>
+        <v>19704.33715825756</v>
       </c>
       <c r="E438" t="n">
-        <v>17729.58428967337</v>
+        <v>32764.27176731639</v>
       </c>
       <c r="F438" t="n">
-        <v>21689.78912406996</v>
+        <v>33402.27525106774</v>
       </c>
       <c r="G438" t="n">
         <v>21963.34053904345</v>
@@ -11842,19 +11842,19 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>34666.57339725594</v>
+        <v>48533.20275615831</v>
       </c>
       <c r="C439" t="n">
-        <v>17537.33198947747</v>
+        <v>24552.26478526845</v>
       </c>
       <c r="D439" t="n">
-        <v>14037.04227674713</v>
+        <v>19651.85918744599</v>
       </c>
       <c r="E439" t="n">
-        <v>17709.15712850309</v>
+        <v>32726.52237347372</v>
       </c>
       <c r="F439" t="n">
-        <v>21681.71025074607</v>
+        <v>33389.83378614896</v>
       </c>
       <c r="G439" t="n">
         <v>21961.41753172396</v>
@@ -11868,19 +11868,19 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>34243.58770181984</v>
+        <v>47941.0227825478</v>
       </c>
       <c r="C440" t="n">
-        <v>17437.11938075465</v>
+        <v>24411.9671330565</v>
       </c>
       <c r="D440" t="n">
-        <v>13996.4277721712</v>
+        <v>19594.99888103968</v>
       </c>
       <c r="E440" t="n">
-        <v>17686.51254419863</v>
+        <v>32684.67518167907</v>
       </c>
       <c r="F440" t="n">
-        <v>21672.52097910835</v>
+        <v>33375.68230782686</v>
       </c>
       <c r="G440" t="n">
         <v>21959.16861467425</v>
@@ -11894,19 +11894,19 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>33812.30861869912</v>
+        <v>47337.23206617877</v>
       </c>
       <c r="C441" t="n">
-        <v>17331.25009457834</v>
+        <v>24263.75013240968</v>
       </c>
       <c r="D441" t="n">
-        <v>13952.4982313683</v>
+        <v>19533.49752391563</v>
       </c>
       <c r="E441" t="n">
-        <v>17661.45875005763</v>
+        <v>32638.37577010652</v>
       </c>
       <c r="F441" t="n">
-        <v>21662.09098314676</v>
+        <v>33359.62011404601</v>
       </c>
       <c r="G441" t="n">
         <v>21956.5445680449</v>
@@ -11920,19 +11920,19 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>33372.89189107739</v>
+        <v>46722.04864750832</v>
       </c>
       <c r="C442" t="n">
-        <v>17219.56504069981</v>
+        <v>24107.39105697973</v>
       </c>
       <c r="D442" t="n">
-        <v>13905.06584194872</v>
+        <v>19467.0921787282</v>
       </c>
       <c r="E442" t="n">
-        <v>17633.79347591745</v>
+        <v>32587.25034349545</v>
       </c>
       <c r="F442" t="n">
-        <v>21650.27800102619</v>
+        <v>33341.42812158033</v>
       </c>
       <c r="G442" t="n">
         <v>21953.48982281122</v>
@@ -11946,19 +11946,19 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>32925.51213979012</v>
+        <v>46095.71699570616</v>
       </c>
       <c r="C443" t="n">
-        <v>17101.91374767244</v>
+        <v>23942.67924674141</v>
       </c>
       <c r="D443" t="n">
-        <v>13853.94056475103</v>
+        <v>19395.51679065144</v>
       </c>
       <c r="E443" t="n">
-        <v>17603.30411786686</v>
+        <v>32530.90600981796</v>
       </c>
       <c r="F443" t="n">
-        <v>21636.92721290514</v>
+        <v>33320.86790787391</v>
       </c>
       <c r="G443" t="n">
         <v>21949.94182370059</v>
@@ -11972,19 +11972,19 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>32470.36296355935</v>
+        <v>45458.5081489831</v>
       </c>
       <c r="C444" t="n">
-        <v>16978.15552859753</v>
+        <v>23769.41774003654</v>
       </c>
       <c r="D444" t="n">
-        <v>13798.93100317371</v>
+        <v>19318.5034044432</v>
       </c>
       <c r="E444" t="n">
-        <v>17569.76798970515</v>
+        <v>32468.93124497512</v>
       </c>
       <c r="F444" t="n">
-        <v>21621.87065131089</v>
+        <v>33297.68080301877</v>
       </c>
       <c r="G444" t="n">
         <v>21945.83035690344</v>
@@ -11998,19 +11998,19 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>32007.65696894291</v>
+        <v>44810.71975652007</v>
       </c>
       <c r="C445" t="n">
-        <v>16848.16065266277</v>
+        <v>23587.42491372788</v>
       </c>
       <c r="D445" t="n">
-        <v>13739.84535118853</v>
+        <v>19235.78349166394</v>
       </c>
       <c r="E445" t="n">
-        <v>17532.95268417033</v>
+        <v>32400.89656034678</v>
       </c>
       <c r="F445" t="n">
-        <v>21604.92665516599</v>
+        <v>33271.58704895563</v>
       </c>
       <c r="G445" t="n">
         <v>21941.07684518839</v>
@@ -12024,19 +12024,19 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>31537.62572732511</v>
+        <v>44152.67601825515</v>
       </c>
       <c r="C446" t="n">
-        <v>16711.81151389161</v>
+        <v>23396.53611944826</v>
       </c>
       <c r="D446" t="n">
-        <v>13676.49241749648</v>
+        <v>19147.08938449507</v>
       </c>
       <c r="E446" t="n">
-        <v>17492.61655142114</v>
+        <v>32326.35538702626</v>
       </c>
       <c r="F446" t="n">
-        <v>21585.89937941757</v>
+        <v>33242.28504430306</v>
       </c>
       <c r="G446" t="n">
         <v>21935.59361395502</v>
@@ -12050,19 +12050,19 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>31060.51965663348</v>
+        <v>43484.72751928688</v>
       </c>
       <c r="C447" t="n">
-        <v>16569.00378807027</v>
+        <v>23196.60530329837</v>
       </c>
       <c r="D447" t="n">
-        <v>13608.68272225003</v>
+        <v>19052.15581115004</v>
       </c>
       <c r="E447" t="n">
-        <v>17448.50930155574</v>
+        <v>32244.84518927501</v>
       </c>
       <c r="F447" t="n">
-        <v>21564.57837299807</v>
+        <v>33209.45069441702</v>
       </c>
       <c r="G447" t="n">
         <v>21929.28313275574</v>
@@ -12076,19 +12076,19 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>30576.60782585342</v>
+        <v>42807.2509561948</v>
       </c>
       <c r="C448" t="n">
-        <v>16419.64756843933</v>
+        <v>22987.50659581506</v>
       </c>
       <c r="D448" t="n">
-        <v>13536.22966169464</v>
+        <v>18950.7215263725</v>
       </c>
       <c r="E448" t="n">
-        <v>17400.37273707946</v>
+        <v>32155.88881812284</v>
       </c>
       <c r="F448" t="n">
-        <v>21540.73823851726</v>
+        <v>33172.73688731658</v>
       </c>
       <c r="G448" t="n">
         <v>21922.03723789595</v>
@@ -12102,19 +12102,19 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>30086.17768082998</v>
+        <v>42120.64875316196</v>
       </c>
       <c r="C449" t="n">
-        <v>16263.66847043746</v>
+        <v>22769.13585861244</v>
       </c>
       <c r="D449" t="n">
-        <v>13458.95073499094</v>
+        <v>18842.53102898731</v>
       </c>
       <c r="E449" t="n">
-        <v>17347.94162019076</v>
+        <v>32058.99611411253</v>
       </c>
       <c r="F449" t="n">
-        <v>21514.13838762662</v>
+        <v>33131.77311694499</v>
       </c>
       <c r="G449" t="n">
         <v>21913.73634287004</v>
@@ -12128,19 +12128,19 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>29589.5346902893</v>
+        <v>41425.34856640502</v>
       </c>
       <c r="C450" t="n">
-        <v>16101.00869557308</v>
+        <v>22541.41217380231</v>
       </c>
       <c r="D450" t="n">
-        <v>13376.66882638088</v>
+        <v>18727.33635693323</v>
       </c>
       <c r="E450" t="n">
-        <v>17290.94467854099</v>
+        <v>31953.66576594376</v>
       </c>
       <c r="F450" t="n">
-        <v>21484.52290638071</v>
+        <v>33086.1652758263</v>
       </c>
       <c r="G450" t="n">
         <v>21904.24864459725</v>
@@ -12154,19 +12154,19 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>29087.00191147886</v>
+        <v>40721.80267607039</v>
       </c>
       <c r="C451" t="n">
-        <v>15931.62804438413</v>
+        <v>22304.27926213778</v>
       </c>
       <c r="D451" t="n">
-        <v>13289.21353477321</v>
+        <v>18604.89894868249</v>
       </c>
       <c r="E451" t="n">
-        <v>17229.10575174164</v>
+        <v>31839.38742921856</v>
       </c>
       <c r="F451" t="n">
-        <v>21451.62054512145</v>
+        <v>33035.49563948703</v>
       </c>
       <c r="G451" t="n">
         <v>21893.42933467199</v>
@@ -12180,19 +12180,19 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>28578.91947531221</v>
+        <v>40010.48726543708</v>
       </c>
       <c r="C452" t="n">
-        <v>15755.50486843153</v>
+        <v>22057.70681580414</v>
       </c>
       <c r="D452" t="n">
-        <v>13196.4225417605</v>
+        <v>18474.99155846469</v>
       </c>
       <c r="E452" t="n">
-        <v>17162.14507935104</v>
+        <v>31715.64410664072</v>
       </c>
       <c r="F452" t="n">
-        <v>21415.14484740248</v>
+        <v>32979.32306499983</v>
       </c>
       <c r="G452" t="n">
         <v>21881.1198261186</v>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>686.8082710136873</v>
+        <v>1471.732009315044</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>687.6110519617843</v>
+        <v>1473.452254203823</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>688.4253682450264</v>
+        <v>1475.197217667914</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>689.2513844989448</v>
+        <v>1476.967252497739</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>690.0892676777543</v>
+        <v>1478.76271645233</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>690.9391870861792</v>
+        <v>1480.583972327526</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>691.8013144116918</v>
+        <v>1482.431388025054</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>692.6758237571714</v>
+        <v>1484.30533662251</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>693.5628916739912</v>
+        <v>1486.206196444267</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>694.4626971955337</v>
+        <v>1488.134351133286</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>695.3754218711417</v>
+        <v>1490.090189723875</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>696.3012498005128</v>
+        <v>1492.074106715384</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>697.2403676685362</v>
+        <v>1494.086502146863</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>698.1929647805858</v>
+        <v>1496.127781672684</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>699.1592330982635</v>
+        <v>1498.198356639135</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>700.1393672756097</v>
+        <v>1500.298644162021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>701.1335646957821</v>
+        <v>1502.429067205247</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>702.1420255082002</v>
+        <v>1504.590054660429</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>703.1649526661779</v>
+        <v>1506.782041427524</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>704.2025519650315</v>
+        <v>1509.005468496496</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>705.2550320806843</v>
+        <v>1511.260783030038</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>706.3226046087615</v>
+        <v>1513.548438447345</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>707.4054841041893</v>
+        <v>1515.868894508977</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>708.5038881213004</v>
+        <v>1518.222617402786</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>709.6180372544508</v>
+        <v>1520.610079830966</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>710.7481551791589</v>
+        <v>1523.031761098198</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>711.8944686937654</v>
+        <v>1525.488147200926</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>713.0572077616273</v>
+        <v>1527.979730917772</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>714.2366055538473</v>
+        <v>1530.507011901102</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>715.4328984925471</v>
+        <v>1533.070496769745</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>716.6463262946913</v>
+        <v>1535.67069920291</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>717.8771320164645</v>
+        <v>1538.308140035281</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>719.1255620982129</v>
+        <v>1540.983347353313</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>720.3918664099563</v>
+        <v>1543.696856592764</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>721.6762982974717</v>
+        <v>1546.44921063744</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>722.9791146289617</v>
+        <v>1549.240959919204</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>724.3005758423116</v>
+        <v>1552.072662519239</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>725.6409459929403</v>
+        <v>1554.944884270586</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>727.0004928022549</v>
+        <v>1557.858198861975</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>728.3794877067187</v>
+        <v>1560.813187942968</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>729.7782059075257</v>
+        <v>1563.810441230413</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>731.196926420911</v>
+        <v>1566.850556616238</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>732.6359321290821</v>
+        <v>1569.934140276603</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>734.0955098317935</v>
+        <v>1573.061806782415</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>735.5759502985687</v>
+        <v>1576.234179211218</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>737.0775483215687</v>
+        <v>1579.451889260503</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>738.6006027691276</v>
+        <v>1582.715577362416</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>740.1454166399556</v>
+        <v>1586.025892799905</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>741.7122971180136</v>
+        <v>1589.383493824315</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>743.3015556280782</v>
+        <v>1592.789047774454</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>744.9135078919974</v>
+        <v>1596.243231197137</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>746.5484739856428</v>
+        <v>1599.746729969234</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>748.2067783965775</v>
+        <v>1603.300239421237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>749.888750082433</v>
+        <v>1606.904464462357</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>751.5947225300223</v>
+        <v>1610.560119707191</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>753.3250338151732</v>
+        <v>1614.267929603943</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>755.0800266633225</v>
+        <v>1618.028628564263</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>756.8600485108443</v>
+        <v>1621.842961094666</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>758.6654515671535</v>
+        <v>1625.711681929614</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>760.4965928775716</v>
+        <v>1629.635556166224</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>762.3538343869781</v>
+        <v>1633.615359400667</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>764.2375430042449</v>
+        <v>1637.651877866239</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>766.148090667478</v>
+        <v>1641.745908573166</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>768.0858544100598</v>
+        <v>1645.898259450126</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>770.0512164275165</v>
+        <v>1650.109749487534</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>772.0445641452162</v>
+        <v>1654.381208882607</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>774.0662902869013</v>
+        <v>1658.713479186215</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>776.1167929440721</v>
+        <v>1663.107413451582</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>778.1964756462411</v>
+        <v>1667.563876384804</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>780.3057474320514</v>
+        <v>1672.083744497254</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>782.445022921279</v>
+        <v>1676.667906259883</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>784.6147223877363</v>
+        <v>1681.317262259435</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>786.8152718330797</v>
+        <v>1686.032725356599</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>789.0471030615397</v>
+        <v>1690.815220846157</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>791.3106537555801</v>
+        <v>1695.6656866191</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>793.6063675525013</v>
+        <v>1700.585073326789</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>795.93469412201</v>
+        <v>1705.574344547164</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>798.2960892447467</v>
+        <v>1710.634476953029</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>800.6910148918128</v>
+        <v>1715.766460482456</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>803.1199393052818</v>
+        <v>1720.971298511319</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>805.5833370797375</v>
+        <v>1726.250008028009</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>808.0816892448286</v>
+        <v>1731.603619810347</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>810.6154833488749</v>
+        <v>1737.03317860473</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>813.1852135435228</v>
+        <v>1742.539743307549</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>815.7913806694897</v>
+        <v>1748.124387148905</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>818.4344923433797</v>
+        <v>1753.788197878671</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>821.1150630456228</v>
+        <v>1759.532277954906</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>823.8336142095311</v>
+        <v>1765.35774473471</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>826.5906743114994</v>
+        <v>1771.265730667498</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>829.3867789623632</v>
+        <v>1777.257383490778</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>832.2224709999454</v>
+        <v>1783.333866428455</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>835.0983005827894</v>
+        <v>1789.496358391691</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>838.0148252851186</v>
+        <v>1795.746054182397</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>840.9726101930381</v>
+        <v>1802.084164699368</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>843.9722280019876</v>
+        <v>1808.511917147117</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>847.0142591154861</v>
+        <v>1815.030555247469</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>850.0992917451734</v>
+        <v>1821.641339453944</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>853.2279220121923</v>
+        <v>1828.345547168984</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>856.4007540499074</v>
+        <v>1835.144472964089</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>859.6184001080172</v>
+        <v>1842.039428802893</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>862.8814806580551</v>
+        <v>1849.03174426726</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>866.1906245003358</v>
+        <v>1856.122766786432</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>869.5464688723436</v>
+        <v>1863.313861869307</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>872.9496595586173</v>
+        <v>1870.606413339895</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>876.4008510021483</v>
+        <v>1878.001823576032</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>879.900706417321</v>
+        <v>1885.501513751401</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>883.4498979044326</v>
+        <v>1893.106924080925</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>887.0491065658258</v>
+        <v>1900.819514069627</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>890.6990226236652</v>
+        <v>1908.640762764997</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>894.4003455393847</v>
+        <v>1916.572169012966</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>898.1537841348627</v>
+        <v>1924.615251717562</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>901.9600567153443</v>
+        <v>1932.771550104309</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>905.8198911941533</v>
+        <v>1941.042623987471</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>909.7340252192444</v>
+        <v>1949.430054041237</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>913.7032063016234</v>
+        <v>1957.935442074907</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>917.7281919456919</v>
+        <v>1966.560411312197</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>921.809749781554</v>
+        <v>1975.306606674757</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>925.9486576993302</v>
+        <v>1984.175695069991</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>930.1457039855395</v>
+        <v>1993.169365683297</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>934.4016874615836</v>
+        <v>2002.289330274823</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>938.7174176244038</v>
+        <v>2011.537323480864</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>943.0937147893439</v>
+        <v>2020.915103120023</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>947.5314102353018</v>
+        <v>2030.424450504218</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>952.0313463521996</v>
+        <v>2040.067170754712</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>956.5943767908631</v>
+        <v>2049.845093123277</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>961.2213666153517</v>
+        <v>2059.760071318611</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>965.9131924578114</v>
+        <v>2069.813983838165</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>970.6707426759282</v>
+        <v>2080.00873430556</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>975.4949175130424</v>
+        <v>2090.346251813664</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>980.3866292610006</v>
+        <v>2100.828491273572</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>985.3468024258217</v>
+        <v>2111.457433769619</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>990.3763738962708</v>
+        <v>2122.235086920581</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>995.4762931153948</v>
+        <v>2133.163485247276</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1000.647522255139</v>
+        <v>2144.244690546727</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1005.89103639411</v>
+        <v>2155.480792273092</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>1011.207823698591</v>
+        <v>2166.873907925552</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>1016.598885606905</v>
+        <v>2178.426183443368</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>1022.065237017222</v>
+        <v>2190.139793608334</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>1027.607906478918</v>
+        <v>2202.016942454825</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1033.2279363876</v>
+        <v>2214.059863687713</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1038.926383183894</v>
+        <v>2226.270821108345</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1044.704317556143</v>
+        <v>2238.652109048878</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1050.562824647095</v>
+        <v>2251.206052815205</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>1056.503004264755</v>
+        <v>2263.93500913876</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>1062.525971097493</v>
+        <v>2276.841366637484</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>1068.632854933571</v>
+        <v>2289.927546286222</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1074.824800885221</v>
+        <v>2303.1960018969</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>1081.102969617416</v>
+        <v>2316.64922060875</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>1087.46853758151</v>
+        <v>2330.28972338895</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>1093.92269725387</v>
+        <v>2344.120065544006</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1100.466657379707</v>
+        <v>2358.142837242227</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>1107.101643222241</v>
+        <v>2372.36066404766</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1113.828896817412</v>
+        <v>2386.776207465883</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>1120.649677234288</v>
+        <v>2401.392165502047</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>1127.565260841389</v>
+        <v>2416.211273231547</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>1134.576941579117</v>
+        <v>2431.236303383823</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>1141.686031238499</v>
+        <v>2446.470066939639</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1148.89385974645</v>
+        <v>2461.915413742392</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>1156.2017754578</v>
+        <v>2477.575233123856</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>1163.611145454291</v>
+        <v>2493.452454544908</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>1171.123355850799</v>
+        <v>2509.550048251712</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1178.739812109026</v>
+        <v>2525.871025947912</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1186.461939358921</v>
+        <v>2542.4184414834</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1194.291182728087</v>
+        <v>2559.195391560185</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1202.229007679465</v>
+        <v>2576.205016455994</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>1210.276900357574</v>
+        <v>2593.450500766229</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1218.436367943596</v>
+        <v>2610.93507416485</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>1226.708939019639</v>
+        <v>2628.662012184941</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1235.096163942449</v>
+        <v>2646.634637019535</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1243.599615226964</v>
+        <v>2664.856318343493</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1252.220887939984</v>
+        <v>2683.330474157109</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1260.961600104367</v>
+        <v>2702.060571652216</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1269.823393114074</v>
+        <v>2721.050128101587</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1278.807932160459</v>
+        <v>2740.302711772416</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>1287.916906670202</v>
+        <v>2759.821942864719</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>1297.152030755251</v>
+        <v>2779.611494475538</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>1306.515043675249</v>
+        <v>2799.675093589818</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>1316.007710312816</v>
+        <v>2820.016522098892</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>1325.631821662165</v>
+        <v>2840.639617847496</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1335.389195331498</v>
+        <v>2861.54827571035</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>1345.28167605967</v>
+        <v>2882.746448699292</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1355.311136247584</v>
+        <v>2904.238149101966</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1365.47947650484</v>
+        <v>2926.027449653229</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1375.788626212153</v>
+        <v>2948.118484740326</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>1386.240544100072</v>
+        <v>2970.515451643013</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1396.837218844559</v>
+        <v>2993.222611809767</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>1407.580669679976</v>
+        <v>3016.244292171378</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>1418.472947030097</v>
+        <v>3039.584886493066</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>1429.516133157714</v>
+        <v>3063.24885676653</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>1440.712342833481</v>
+        <v>3087.24073464317</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>1452.06372402461</v>
+        <v>3111.565122909879</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>1463.572458604106</v>
+        <v>3136.226697008799</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1475.240763081171</v>
+        <v>3161.230206602509</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1487.070889353502</v>
+        <v>3186.580477186077</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>1499.065125482178</v>
+        <v>3212.282411747525</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1511.225796489862</v>
+        <v>3238.340992478274</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>1523.555265183062</v>
+        <v>3264.761282535131</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>1536.055932999232</v>
+        <v>3291.548427855499</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>1548.730240879466</v>
+        <v>3318.707659027427</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1561.580670167609</v>
+        <v>3346.244293216307</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>1574.609743536608</v>
+        <v>3374.163736149874</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1587.820025942908</v>
+        <v>3402.471484163373</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>1601.214125609793</v>
+        <v>3431.173126306698</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>1614.794695040518</v>
+        <v>3460.274346515397</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1628.564432062128</v>
+        <v>3489.780925847419</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>1642.526080900874</v>
+        <v>3519.698744787587</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>1656.682433290167</v>
+        <v>3550.033785621785</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1671.036329611983</v>
+        <v>3580.792134882823</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>1685.59066007271</v>
+        <v>3611.979985870093</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1700.348365914382</v>
+        <v>3643.603641245104</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1715.31244066232</v>
+        <v>3675.669515704973</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>1730.48593141015</v>
+        <v>3708.184138736036</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1745.871940143234</v>
+        <v>3741.154157449787</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>1761.473625101545</v>
+        <v>3774.586339503309</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>1777.294202183006</v>
+        <v>3808.487576106442</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>1793.336946388363</v>
+        <v>3842.864885117922</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>1809.605193308627</v>
+        <v>3877.725414232774</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1826.102340656166</v>
+        <v>3913.076444263211</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1842.831849840498</v>
+        <v>3948.925392515356</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1859.797247589895</v>
+        <v>3985.279816264062</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>1877.002127619797</v>
+        <v>4022.147416328135</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>1894.450152349199</v>
+        <v>4059.536040748284</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1912.145054666009</v>
+        <v>4097.453688570019</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1930.090639742482</v>
+        <v>4135.908513733891</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>1948.290786901751</v>
+        <v>4174.908829075182</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>1966.749451536547</v>
+        <v>4214.463110435458</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>1985.470667081094</v>
+        <v>4254.580000888061</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2004.458547037207</v>
+        <v>4295.268315079732</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>2023.717287055593</v>
+        <v>4336.537043690554</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>2043.251167073319</v>
+        <v>4378.395358014256</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>2063.064553508378</v>
+        <v>4420.852614660809</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>2083.161901512249</v>
+        <v>4463.918360383392</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>2103.547757281353</v>
+        <v>4507.602337031471</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>2124.22676042819</v>
+        <v>4551.914486631837</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>2145.20364641295</v>
+        <v>4596.864956599178</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2166.483249036324</v>
+        <v>4642.464105077836</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2188.070502994165</v>
+        <v>4688.72250641607</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>2209.970446494612</v>
+        <v>4735.650956774169</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>2232.18822393818</v>
+        <v>4783.260479867529</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2254.729088661278</v>
+        <v>4831.562332845594</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2277.598405743507</v>
+        <v>4880.568012307518</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>2300.801654879013</v>
+        <v>4930.289260455028</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2324.344433312011</v>
+        <v>4980.738071382882</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>2348.232458836615</v>
+        <v>5031.92669750703</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2372.471572860791</v>
+        <v>5083.867656130266</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2397.06774353435</v>
+        <v>5136.573736145035</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2422.027068940542</v>
+        <v>5190.058004872591</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2447.355780350834</v>
+        <v>5244.333815037502</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2473.060245542158</v>
+        <v>5299.414811876053</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>2499.146972175879</v>
+        <v>5355.314940376886</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>2525.622611237395</v>
+        <v>5412.048452651563</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2552.493960535232</v>
+        <v>5469.629915432641</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2579.7679682582</v>
+        <v>5528.07421769614</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2607.451736588958</v>
+        <v>5587.39657840491</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2635.552525372147</v>
+        <v>5647.612554368888</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2664.077755834953</v>
+        <v>5708.738048217753</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2693.035014357736</v>
+        <v>5770.789316480867</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>2722.432056292022</v>
+        <v>5833.782977768618</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2752.276809822954</v>
+        <v>5897.736021049187</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2782.577379872873</v>
+        <v>5962.665814013299</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2813.342052042482</v>
+        <v>6028.590111519607</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2844.579296585626</v>
+        <v>6095.527064112053</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>2876.297772413329</v>
+        <v>6163.495226599989</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>2908.506331122551</v>
+        <v>6232.513566691181</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2941.214021044382</v>
+        <v>6302.601473666535</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>2974.430091306338</v>
+        <v>6373.778767085016</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>3008.163995902744</v>
+        <v>6446.065705505876</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>3042.425397766808</v>
+        <v>6519.482995214588</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>3077.224172837583</v>
+        <v>6594.051798937676</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3112.570414114381</v>
+        <v>6669.793744530817</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3148.474435690868</v>
+        <v>6746.730933623288</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3184.946776760356</v>
+        <v>6824.885950200764</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3221.998205583406</v>
+        <v>6904.281869107302</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>3259.639723408228</v>
+        <v>6984.942264446205</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>3297.882568333738</v>
+        <v>7066.891217858006</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3336.738219104623</v>
+        <v>7150.153326652769</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>3376.218398827084</v>
+        <v>7234.753711772327</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>3416.335078593252</v>
+        <v>7320.718025556972</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>3457.100481001713</v>
+        <v>7408.072459289384</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>3498.527083560841</v>
+        <v>7496.84375048752</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3540.627621960972</v>
+        <v>7587.059189916371</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>3583.415093200737</v>
+        <v>7678.746628287292</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3626.902758552206</v>
+        <v>7771.934482611871</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3671.104146348747</v>
+        <v>7866.651742175884</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3716.033054578758</v>
+        <v>7962.927974097339</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3761.70355326776</v>
+        <v>8060.793328430915</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3808.129986630508</v>
+        <v>8160.278542779663</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3855.32697497416</v>
+        <v>8261.414946373203</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3903.309416332655</v>
+        <v>8364.234463569979</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3952.092487811886</v>
+        <v>8468.769616739753</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4001.691646624357</v>
+        <v>8575.053528480763</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>4052.122630791418</v>
+        <v>8683.119923124468</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>4103.401459490424</v>
+        <v>8793.00312747948</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4155.544433023448</v>
+        <v>8904.738070764532</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>4208.56813238354</v>
+        <v>9018.360283679012</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4262.489418393925</v>
+        <v>9133.90589655841</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4317.325430394822</v>
+        <v>9251.411636560337</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4373.093584452061</v>
+        <v>9370.914823825844</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4429.811571061153</v>
+        <v>9492.453366559614</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4487.497352319921</v>
+        <v>9616.065754971258</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>4546.169158542404</v>
+        <v>9741.791054019437</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5258.907426113927</v>
+        <v>11269.0873416727</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5983.026878614115</v>
+        <v>12820.77188274453</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6718.725166011381</v>
+        <v>14397.26821288152</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7466.202533187136</v>
+        <v>15999.00542825816</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8225.661762058766</v>
+        <v>17626.41806155449</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>8997.3081060352</v>
+        <v>19279.945941504</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>9781.349216494969</v>
+        <v>20960.03403534636</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>10577.99506097721</v>
+        <v>22667.13227352259</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>11387.45783277855</v>
+        <v>24401.69535595403</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12209.95185165403</v>
+        <v>26164.18253925863</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>13045.69345532434</v>
+        <v>27955.05740426643</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>13894.90088149786</v>
+        <v>29774.78760320969</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>14757.79414012526</v>
+        <v>31623.8445859827</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>15634.59487561309</v>
+        <v>33502.70330488518</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>16525.52621873363</v>
+        <v>35411.84189728634</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>17430.8126279826</v>
+        <v>37351.74134567698</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>18350.67972014892</v>
+        <v>39322.8851146048</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>19285.35408987846</v>
+        <v>41325.75876402525</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>20235.06311803241</v>
+        <v>43360.84953864088</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>21200.0347686594</v>
+        <v>45428.64593284154</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>22180.4973744249</v>
+        <v>47529.63723091048</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>23176.67941036375</v>
+        <v>49664.313022208</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>24188.8092558502</v>
+        <v>51833.16269110756</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>25217.11494470642</v>
+        <v>54036.67488151376</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26261.82390340203</v>
+        <v>56275.3369358615</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27323.16267733057</v>
+        <v>58549.6343085655</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28401.35664518233</v>
+        <v>60860.04995396212</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>29496.62972147131</v>
+        <v>63207.06368886706</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>30609.20404731264</v>
+        <v>65591.15152995566</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>31739.29966958843</v>
+        <v>68012.78500626092</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>32887.1342086821</v>
+        <v>70472.4304471759</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>34052.92251500815</v>
+        <v>72970.54824644602</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>35236.8763146096</v>
+        <v>75507.59210273482</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>36439.20384414436</v>
+        <v>78084.00823745219</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>37660.10947563311</v>
+        <v>80700.23459064234</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>38899.79333139095</v>
+        <v>83356.69999583773</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>40158.45088961877</v>
+        <v>86053.82333489733</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>41436.27258118543</v>
+        <v>88792.01267396877</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>42733.44337818437</v>
+        <v>91571.66438182362</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>44050.14237490468</v>
+        <v>94393.16223193855</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>45386.54236191314</v>
+        <v>97256.87648981383</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>46742.80939399814</v>
+        <v>100163.1629871389</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>48119.10235278363</v>
+        <v>103112.3621845363</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>49515.57250487412</v>
+        <v>106104.7982247302</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>50932.36305644991</v>
+        <v>109140.777978107</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>52369.60870528052</v>
+        <v>112220.590082744</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>53827.43519118044</v>
+        <v>115344.503981101</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>55305.9588459778</v>
+        <v>118512.7689556667</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>56805.28614411717</v>
+        <v>121725.6131659653</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>58325.51325506138</v>
+        <v>124983.2426894172</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>59866.72559870042</v>
+        <v>128285.8405686437</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>61428.99740501399</v>
+        <v>131633.5658678871</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>63012.39127927076</v>
+        <v>135026.5527412945</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>64616.95777407794</v>
+        <v>138464.9095158813</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>66242.73496962183</v>
+        <v>141948.7177920467</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>66206.71066789613</v>
+        <v>141871.5228597774</v>
       </c>
       <c r="C358" t="n">
-        <v>1611.483226343663</v>
+        <v>3453.178342164983</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>66169.60282709503</v>
+        <v>141792.0060580607</v>
       </c>
       <c r="C359" t="n">
-        <v>3244.348390451168</v>
+        <v>6952.175122395342</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>66131.35713808064</v>
+        <v>141710.0510101728</v>
       </c>
       <c r="C360" t="n">
-        <v>4898.645813879988</v>
+        <v>10497.09817259995</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>66091.91659107343</v>
+        <v>141625.5355523002</v>
       </c>
       <c r="C361" t="n">
-        <v>6574.414958957545</v>
+        <v>14088.03205490899</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>66051.22137192948</v>
+        <v>141538.3315112774</v>
       </c>
       <c r="C362" t="n">
-        <v>8271.684185229562</v>
+        <v>17725.03753977759</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>66009.20875675025</v>
+        <v>141448.3044787504</v>
       </c>
       <c r="C363" t="n">
-        <v>9990.47052332004</v>
+        <v>21408.15112140003</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>65965.81300499757</v>
+        <v>141355.3135821376</v>
       </c>
       <c r="C364" t="n">
-        <v>11730.77946736236</v>
+        <v>25137.38457291929</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>65920.96525130724</v>
+        <v>141259.2112528011</v>
       </c>
       <c r="C365" t="n">
-        <v>13492.604787118</v>
+        <v>28912.72454382421</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>65874.59339621986</v>
+        <v>141159.8429918996</v>
       </c>
       <c r="C366" t="n">
-        <v>15275.92836085359</v>
+        <v>32734.13220182905</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>65826.62199607195</v>
+        <v>141057.0471344398</v>
       </c>
       <c r="C367" t="n">
-        <v>17080.72002999353</v>
+        <v>36601.54292141462</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>65776.97215231803</v>
+        <v>140950.65461211</v>
       </c>
       <c r="C368" t="n">
-        <v>18906.93747649758</v>
+        <v>40514.86602106614</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>65725.56140058291</v>
+        <v>140840.4887155348</v>
       </c>
       <c r="C369" t="n">
-        <v>20754.52612384634</v>
+        <v>44473.98455109919</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>65672.3035997741</v>
+        <v>140726.3648566587</v>
       </c>
       <c r="C370" t="n">
-        <v>22623.41906243293</v>
+        <v>48478.75513378474</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>65617.10882161667</v>
+        <v>140608.0903320357</v>
       </c>
       <c r="C371" t="n">
-        <v>24513.53700007408</v>
+        <v>52529.00785730148</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>65559.88324100703</v>
+        <v>140485.4640878722</v>
       </c>
       <c r="C372" t="n">
-        <v>26424.78823825749</v>
+        <v>56624.54622483735</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>65500.52902761763</v>
+        <v>140358.276487752</v>
       </c>
       <c r="C373" t="n">
-        <v>26424.6363606824</v>
+        <v>56624.22077289072</v>
       </c>
       <c r="D373" t="n">
-        <v>1929.671874761974</v>
+        <v>4135.011160204228</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>65438.94423922318</v>
+        <v>140226.3090840496</v>
       </c>
       <c r="C374" t="n">
-        <v>26424.46061777834</v>
+        <v>56623.84418095344</v>
       </c>
       <c r="D374" t="n">
-        <v>3880.250428536559</v>
+        <v>8314.822346864052</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>65375.02271725747</v>
+        <v>140089.3343941231</v>
       </c>
       <c r="C375" t="n">
-        <v>26424.25752233127</v>
+        <v>56623.40897642399</v>
       </c>
       <c r="D375" t="n">
-        <v>5851.610531889172</v>
+        <v>12539.16542547679</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>65308.65398515169</v>
+        <v>139947.1156824678</v>
       </c>
       <c r="C376" t="n">
-        <v>26424.02312092748</v>
+        <v>56622.90668770159</v>
       </c>
       <c r="D376" t="n">
-        <v>7843.615302948042</v>
+        <v>16807.7470777458</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>65239.72315004737</v>
+        <v>139799.4067501015</v>
       </c>
       <c r="C377" t="n">
-        <v>26423.75293841841</v>
+        <v>56622.32772518216</v>
       </c>
       <c r="D377" t="n">
-        <v>9856.116272980345</v>
+        <v>21120.24915638645</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>65168.11080852147</v>
+        <v>139645.951732546</v>
       </c>
       <c r="C378" t="n">
-        <v>26423.44191677786</v>
+        <v>56621.66125023814</v>
       </c>
       <c r="D378" t="n">
-        <v>11888.95358452961</v>
+        <v>25476.32910970629</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>65093.69295700682</v>
+        <v>139486.4849078718</v>
       </c>
       <c r="C379" t="n">
-        <v>26423.084347928</v>
+        <v>56620.89503127415</v>
       </c>
       <c r="D379" t="n">
-        <v>13941.95622228164</v>
+        <v>29875.62047631779</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>65016.34090763719</v>
+        <v>139320.7305163654</v>
       </c>
       <c r="C380" t="n">
-        <v>26422.6738000981</v>
+        <v>56620.01528592437</v>
       </c>
       <c r="D380" t="n">
-        <v>16014.94227669089</v>
+        <v>34317.7334500519</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>64935.92121029443</v>
+        <v>139148.402593488</v>
       </c>
       <c r="C381" t="n">
-        <v>26422.20303727032</v>
+        <v>56619.00650843625</v>
       </c>
       <c r="D381" t="n">
-        <v>18107.71924025766</v>
+        <v>38802.25551483782</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>64852.2955816833</v>
+        <v>138969.2048178928</v>
       </c>
       <c r="C382" t="n">
-        <v>26421.6639312604</v>
+        <v>56617.85128127215</v>
       </c>
       <c r="D382" t="n">
-        <v>20220.08433619766</v>
+        <v>43328.75214899496</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>64765.32084230788</v>
+        <v>138782.830376374</v>
       </c>
       <c r="C383" t="n">
-        <v>26421.04736597876</v>
+        <v>56616.53006995435</v>
       </c>
       <c r="D383" t="n">
-        <v>20220.04646556939</v>
+        <v>43328.67099764866</v>
       </c>
       <c r="E383" t="n">
-        <v>3181.988586748182</v>
+        <v>5165.565887578204</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>64674.84886227288</v>
+        <v>138588.9618477276</v>
       </c>
       <c r="C384" t="n">
-        <v>26420.3431334188</v>
+        <v>56615.02100018298</v>
       </c>
       <c r="D384" t="n">
-        <v>20220.00131642631</v>
+        <v>43328.57424948494</v>
       </c>
       <c r="E384" t="n">
-        <v>6392.57703482927</v>
+        <v>10377.56012147606</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>64580.72651688111</v>
+        <v>138387.2711076023</v>
       </c>
       <c r="C385" t="n">
-        <v>26419.53982092661</v>
+        <v>56613.29961627118</v>
       </c>
       <c r="D385" t="n">
-        <v>20219.94757989753</v>
+        <v>43328.45909978039</v>
       </c>
       <c r="E385" t="n">
-        <v>9631.42205532463</v>
+        <v>15635.425414488</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>64482.79565304636</v>
+        <v>138177.4192565279</v>
       </c>
       <c r="C386" t="n">
-        <v>26418.62468931881</v>
+        <v>56611.33861996872</v>
       </c>
       <c r="D386" t="n">
-        <v>20219.88372968712</v>
+        <v>43328.32227790094</v>
       </c>
       <c r="E386" t="n">
-        <v>12898.16778538125</v>
+        <v>20938.5840671773</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>64380.89306758779</v>
+        <v>137959.0565734024</v>
       </c>
       <c r="C387" t="n">
-        <v>26417.58354143393</v>
+        <v>56609.10758878684</v>
       </c>
       <c r="D387" t="n">
-        <v>20219.80798935432</v>
+        <v>43328.15997718781</v>
       </c>
       <c r="E387" t="n">
-        <v>16192.44655527123</v>
+        <v>26286.43921310258</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>64274.85049851595</v>
+        <v>137731.8224968199</v>
       </c>
       <c r="C388" t="n">
-        <v>26416.40058073013</v>
+        <v>56606.572672993</v>
       </c>
       <c r="D388" t="n">
-        <v>20219.71829527871</v>
+        <v>43327.96777559722</v>
       </c>
       <c r="E388" t="n">
-        <v>19513.87970281662</v>
+        <v>31678.37614093599</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>64164.49463046444</v>
+        <v>137495.3456367095</v>
       </c>
       <c r="C389" t="n">
-        <v>26415.05825957531</v>
+        <v>56603.69627051838</v>
       </c>
       <c r="D389" t="n">
-        <v>20219.61225484478</v>
+        <v>43327.74054609593</v>
       </c>
       <c r="E389" t="n">
-        <v>22862.07843371665</v>
+        <v>37113.76369109836</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>64049.64711545988</v>
+        <v>137249.2438188425</v>
       </c>
       <c r="C390" t="n">
-        <v>26413.53711691974</v>
+        <v>56600.43667911358</v>
       </c>
       <c r="D390" t="n">
-        <v>20219.48709934663</v>
+        <v>43327.47235574275</v>
       </c>
       <c r="E390" t="n">
-        <v>26236.64472608687</v>
+        <v>42591.95572416688</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>63930.12461025953</v>
+        <v>136993.1241648418</v>
       </c>
       <c r="C391" t="n">
-        <v>26411.81560509339</v>
+        <v>56596.7477252</v>
       </c>
       <c r="D391" t="n">
-        <v>20219.33963108021</v>
+        <v>43327.15635231471</v>
       </c>
       <c r="E391" t="n">
-        <v>29637.17227728433</v>
+        <v>48112.292657929</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>63805.73883151866</v>
+        <v>136726.583210397</v>
       </c>
       <c r="C392" t="n">
-        <v>26409.86990553328</v>
+        <v>56592.57836899975</v>
       </c>
       <c r="D392" t="n">
-        <v>20219.16616405834</v>
+        <v>43326.78463726785</v>
       </c>
       <c r="E392" t="n">
-        <v>33063.24749085703</v>
+        <v>53674.10306957296</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>63676.29663007498</v>
+        <v>136449.2070644463</v>
       </c>
       <c r="C393" t="n">
-        <v>26407.67373331973</v>
+        <v>56587.872285685</v>
       </c>
       <c r="D393" t="n">
-        <v>20218.9624577527</v>
+        <v>43326.34812375576</v>
       </c>
       <c r="E393" t="n">
-        <v>33063.20667720214</v>
+        <v>53674.0368136397</v>
       </c>
       <c r="F393" t="n">
-        <v>3248.45931816017</v>
+        <v>6328.167502909429</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>63541.6000856613</v>
+        <v>136160.5716121314</v>
       </c>
       <c r="C394" t="n">
-        <v>26405.19813048602</v>
+        <v>56582.56742246989</v>
       </c>
       <c r="D394" t="n">
-        <v>20218.72364323862</v>
+        <v>43325.83637836845</v>
       </c>
       <c r="E394" t="n">
-        <v>33063.15724521573</v>
+        <v>53673.95656690851</v>
       </c>
       <c r="F394" t="n">
-        <v>6520.178013838703</v>
+        <v>12701.64548150398</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>63401.44662337042</v>
+        <v>135860.2427643651</v>
       </c>
       <c r="C395" t="n">
-        <v>26402.41124816289</v>
+        <v>56576.59553177747</v>
       </c>
       <c r="D395" t="n">
-        <v>20218.44414109299</v>
+        <v>43325.23744519924</v>
       </c>
       <c r="E395" t="n">
-        <v>33063.09748874033</v>
+        <v>53673.85955964326</v>
       </c>
       <c r="F395" t="n">
-        <v>9814.753718437642</v>
+        <v>19119.65010085257</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>63255.62915320419</v>
+        <v>135547.776756866</v>
       </c>
       <c r="C396" t="n">
-        <v>26399.27811772989</v>
+        <v>56569.88168084962</v>
       </c>
       <c r="D396" t="n">
-        <v>20218.11757037409</v>
+        <v>43324.53765080161</v>
       </c>
       <c r="E396" t="n">
-        <v>33063.02538864681</v>
+        <v>53673.7425140369</v>
       </c>
       <c r="F396" t="n">
-        <v>13131.78153735047</v>
+        <v>25581.39260522821</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>63103.9362340393</v>
+        <v>135222.7205015127</v>
       </c>
       <c r="C397" t="n">
-        <v>26395.76041126813</v>
+        <v>56562.34373843155</v>
       </c>
       <c r="D397" t="n">
-        <v>20217.73664799619</v>
+        <v>43323.72138856323</v>
       </c>
       <c r="E397" t="n">
-        <v>33062.93856056069</v>
+        <v>53673.60155935165</v>
       </c>
       <c r="F397" t="n">
-        <v>16470.85517822446</v>
+        <v>32086.08151602172</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>62946.15226333013</v>
+        <v>134884.6119928502</v>
       </c>
       <c r="C398" t="n">
-        <v>26391.81619174537</v>
+        <v>56553.89183945422</v>
       </c>
       <c r="D398" t="n">
-        <v>20217.29307780121</v>
+        <v>43322.77088100257</v>
       </c>
       <c r="E398" t="n">
-        <v>33062.83419486523</v>
+        <v>53673.43213452135</v>
       </c>
       <c r="F398" t="n">
-        <v>19831.56810705619</v>
+        <v>38632.92488387573</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>62782.05769385117</v>
+        <v>134532.9807725382</v>
       </c>
       <c r="C399" t="n">
-        <v>26387.39965351408</v>
+        <v>56544.42782895859</v>
       </c>
       <c r="D399" t="n">
-        <v>20216.77742862787</v>
+        <v>43321.66591848825</v>
       </c>
       <c r="E399" t="n">
-        <v>33062.70898802677</v>
+        <v>53673.22887666671</v>
       </c>
       <c r="F399" t="n">
-        <v>23213.51472927246</v>
+        <v>45221.13258949186</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>62611.42927874974</v>
+        <v>134167.3484544637</v>
       </c>
       <c r="C400" t="n">
-        <v>26382.46085386538</v>
+        <v>56533.84468685425</v>
       </c>
       <c r="D400" t="n">
-        <v>20216.17900068417</v>
+        <v>43320.38357289461</v>
       </c>
       <c r="E400" t="n">
-        <v>33062.55906420335</v>
+        <v>53672.98549383649</v>
       </c>
       <c r="F400" t="n">
-        <v>26616.29159275551</v>
+        <v>51849.9186871861</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>62434.04034613803</v>
+        <v>133787.2293131529</v>
       </c>
       <c r="C401" t="n">
-        <v>26376.94543655819</v>
+        <v>56522.02593548169</v>
       </c>
       <c r="D401" t="n">
-        <v>20215.48567954641</v>
+        <v>43318.89788474228</v>
       </c>
       <c r="E401" t="n">
-        <v>33062.37988601025</v>
+        <v>53672.69462014638</v>
       </c>
       <c r="F401" t="n">
-        <v>30039.49860958703</v>
+        <v>58518.50378490986</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>62249.6611043978</v>
+        <v>133392.1309379952</v>
       </c>
       <c r="C402" t="n">
-        <v>26370.79434843053</v>
+        <v>56508.845032351</v>
       </c>
       <c r="D402" t="n">
-        <v>20214.68377713521</v>
+        <v>43317.17952243259</v>
       </c>
       <c r="E402" t="n">
-        <v>33062.16615322904</v>
+        <v>53672.3476513457</v>
       </c>
       <c r="F402" t="n">
-        <v>33482.74029307823</v>
+        <v>65226.11745404858</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>62058.05897930381</v>
+        <v>132981.554955651</v>
       </c>
       <c r="C403" t="n">
-        <v>26363.94355040046</v>
+        <v>56494.16475085798</v>
       </c>
       <c r="D403" t="n">
-        <v>20213.7578590609</v>
+        <v>43315.19541227333</v>
       </c>
       <c r="E403" t="n">
-        <v>33061.91168815957</v>
+        <v>53671.93455870046</v>
       </c>
       <c r="F403" t="n">
-        <v>33482.71097909372</v>
+        <v>65226.06034888395</v>
       </c>
       <c r="G403" t="n">
-        <v>2146.244848225136</v>
+        <v>6438.734544675421</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>61858.99898398883</v>
+        <v>132554.9978228332</v>
       </c>
       <c r="C404" t="n">
-        <v>26356.32372437456</v>
+        <v>56477.83655223107</v>
       </c>
       <c r="D404" t="n">
-        <v>20212.69055778631</v>
+        <v>43312.9083381135</v>
       </c>
       <c r="E404" t="n">
-        <v>33061.60930622969</v>
+        <v>53671.44367894418</v>
       </c>
       <c r="F404" t="n">
-        <v>33482.67499289776</v>
+        <v>65225.9902459048</v>
       </c>
       <c r="G404" t="n">
-        <v>4304.432336768706</v>
+        <v>12913.29701030614</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>61652.24412267693</v>
+        <v>132111.9516914506</v>
       </c>
       <c r="C405" t="n">
-        <v>26347.859977803</v>
+        <v>56459.69995243487</v>
       </c>
       <c r="D405" t="n">
-        <v>20211.46237112742</v>
+        <v>43310.27650955874</v>
       </c>
       <c r="E405" t="n">
-        <v>33061.25067039711</v>
+        <v>53670.86147791726</v>
       </c>
       <c r="F405" t="n">
-        <v>33482.63090873314</v>
+        <v>65225.90436766203</v>
       </c>
       <c r="G405" t="n">
-        <v>6474.331450232754</v>
+        <v>19422.9943506983</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>61437.55582899866</v>
+        <v>131651.9053478542</v>
       </c>
       <c r="C406" t="n">
-        <v>26338.47154784785</v>
+        <v>56439.58188824526</v>
       </c>
       <c r="D406" t="n">
-        <v>20210.05144570221</v>
+        <v>43307.25309793329</v>
       </c>
       <c r="E406" t="n">
-        <v>33060.82612780337</v>
+        <v>53670.17228539495</v>
       </c>
       <c r="F406" t="n">
-        <v>33482.57701793846</v>
+        <v>65225.79938559447</v>
       </c>
       <c r="G406" t="n">
-        <v>8655.717314753549</v>
+        <v>25967.1519442607</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>61214.69443957422</v>
+        <v>131174.345227659</v>
       </c>
       <c r="C407" t="n">
-        <v>26328.07150736698</v>
+        <v>56417.29608721483</v>
       </c>
       <c r="D407" t="n">
-        <v>20208.43334504719</v>
+        <v>43303.78573938682</v>
       </c>
       <c r="E407" t="n">
-        <v>33060.32452707476</v>
+        <v>53669.35799849786</v>
       </c>
       <c r="F407" t="n">
-        <v>33482.51127765648</v>
+        <v>65225.67132011008</v>
       </c>
       <c r="G407" t="n">
-        <v>10848.37200734315</v>
+        <v>32545.11602202951</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>60983.41970340598</v>
+        <v>130678.7565072985</v>
       </c>
       <c r="C408" t="n">
-        <v>26316.56647515421</v>
+        <v>56392.64244675889</v>
       </c>
       <c r="D408" t="n">
-        <v>20206.58080225109</v>
+        <v>43299.81600482373</v>
       </c>
       <c r="E408" t="n">
-        <v>33059.73301461105</v>
+        <v>53668.39775099183</v>
       </c>
       <c r="F408" t="n">
-        <v>33482.43125126401</v>
+        <v>65225.51542454035</v>
       </c>
       <c r="G408" t="n">
-        <v>13052.08536421287</v>
+        <v>39156.25609263869</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>60743.49132746142</v>
+        <v>130164.6242731316</v>
       </c>
       <c r="C409" t="n">
-        <v>26303.85633311728</v>
+        <v>56365.40642810832</v>
       </c>
       <c r="D409" t="n">
-        <v>20204.46345710636</v>
+        <v>43295.27883665647</v>
       </c>
       <c r="E409" t="n">
-        <v>33059.03680816404</v>
+        <v>53667.26754572072</v>
       </c>
       <c r="F409" t="n">
-        <v>33482.33403939019</v>
+        <v>65225.32605076017</v>
       </c>
       <c r="G409" t="n">
-        <v>15266.65578563534</v>
+        <v>45799.96735690611</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>60494.66955864951</v>
+        <v>129631.4347685346</v>
       </c>
       <c r="C410" t="n">
-        <v>26289.83395331451</v>
+        <v>56335.3584713881</v>
       </c>
       <c r="D410" t="n">
-        <v>20202.04757795378</v>
+        <v>43290.10195275809</v>
       </c>
       <c r="E410" t="n">
-        <v>33058.2189459867</v>
+        <v>53665.93984738087</v>
       </c>
       <c r="F410" t="n">
-        <v>33482.21620027356</v>
+        <v>65225.09649403948</v>
       </c>
       <c r="G410" t="n">
-        <v>17491.89103478579</v>
+        <v>52475.67310435748</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>60236.71580220063</v>
+        <v>129078.6767190013</v>
       </c>
       <c r="C411" t="n">
-        <v>26274.38493800669</v>
+        <v>56302.25343858562</v>
       </c>
       <c r="D411" t="n">
-        <v>20199.29576859291</v>
+        <v>43284.20521841336</v>
       </c>
       <c r="E411" t="n">
-        <v>33057.26000983503</v>
+        <v>53664.38313284895</v>
       </c>
       <c r="F411" t="n">
-        <v>33482.0736580868</v>
+        <v>65224.81881445489</v>
       </c>
       <c r="G411" t="n">
-        <v>19727.60902789928</v>
+        <v>59182.82708369796</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>59969.39327624906</v>
+        <v>128505.8427348194</v>
       </c>
       <c r="C412" t="n">
-        <v>26257.38737610829</v>
+        <v>56265.83009166048</v>
       </c>
       <c r="D412" t="n">
-        <v>20196.16666085364</v>
+        <v>43277.4999875435</v>
       </c>
       <c r="E412" t="n">
-        <v>33056.13782013103</v>
+        <v>53662.56139631646</v>
       </c>
       <c r="F412" t="n">
-        <v>33481.90159773225</v>
+        <v>65224.48363194601</v>
       </c>
       <c r="G412" t="n">
-        <v>21973.63861294852</v>
+        <v>65920.9158388457</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>59692.46770219195</v>
+        <v>127912.4307904113</v>
       </c>
       <c r="C413" t="n">
-        <v>26238.71161963932</v>
+        <v>56225.81061351269</v>
       </c>
       <c r="D413" t="n">
-        <v>20192.61459367</v>
+        <v>43269.88841500712</v>
       </c>
       <c r="E413" t="n">
-        <v>33054.82710165199</v>
+        <v>53660.43360657778</v>
       </c>
       <c r="F413" t="n">
-        <v>33481.69434448433</v>
+        <v>65224.07989185268</v>
       </c>
       <c r="G413" t="n">
-        <v>21973.62389059857</v>
+        <v>65920.87167179585</v>
       </c>
       <c r="H413" t="n">
-        <v>2423.330805750134</v>
+        <v>7269.992417250414</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>59405.70803015637</v>
+        <v>127297.9457789064</v>
       </c>
       <c r="C414" t="n">
-        <v>26218.22008398062</v>
+        <v>56181.90017995831</v>
       </c>
       <c r="D414" t="n">
-        <v>20188.58927976799</v>
+        <v>43261.26274235995</v>
       </c>
       <c r="E414" t="n">
-        <v>33053.29911820241</v>
+        <v>53657.95311396482</v>
       </c>
       <c r="F414" t="n">
-        <v>33481.44522672679</v>
+        <v>65223.59459751978</v>
       </c>
       <c r="G414" t="n">
-        <v>21973.60562066312</v>
+        <v>65920.81686198949</v>
       </c>
       <c r="H414" t="n">
-        <v>4857.411703414514</v>
+        <v>14572.23511024357</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>59108.88719865101</v>
+        <v>126661.9011399664</v>
       </c>
       <c r="C415" t="n">
-        <v>26195.76707591825</v>
+        <v>56133.78659125325</v>
       </c>
       <c r="D415" t="n">
-        <v>20184.03546137296</v>
+        <v>43251.50456008489</v>
       </c>
       <c r="E415" t="n">
-        <v>33051.52127485402</v>
+        <v>53655.06700463301</v>
       </c>
       <c r="F415" t="n">
-        <v>33481.14641990711</v>
+        <v>65223.01250631263</v>
       </c>
       <c r="G415" t="n">
-        <v>21973.58299983184</v>
+        <v>65920.74899949566</v>
       </c>
       <c r="H415" t="n">
-        <v>7302.099796695735</v>
+        <v>21906.29939008724</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>58801.7829272095</v>
+        <v>126003.820558306</v>
       </c>
       <c r="C416" t="n">
-        <v>26171.19865362206</v>
+        <v>56081.13997204712</v>
       </c>
       <c r="D416" t="n">
-        <v>20178.89255665853</v>
+        <v>43240.48404998254</v>
       </c>
       <c r="E416" t="n">
-        <v>33049.45668651304</v>
+        <v>53651.71540018338</v>
       </c>
       <c r="F416" t="n">
-        <v>33480.78876971018</v>
+        <v>65222.31578514976</v>
       </c>
       <c r="G416" t="n">
-        <v>21973.5550556376</v>
+        <v>65920.66516691294</v>
       </c>
       <c r="H416" t="n">
-        <v>9757.267269556112</v>
+        <v>29271.80180866838</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>58484.17854054962</v>
+        <v>125323.2397297492</v>
       </c>
       <c r="C417" t="n">
-        <v>26144.35252283482</v>
+        <v>56023.61254893161</v>
       </c>
       <c r="D417" t="n">
-        <v>20173.09429899579</v>
+        <v>43228.05921213383</v>
       </c>
       <c r="E417" t="n">
-        <v>33047.0637117937</v>
+        <v>53647.83070096367</v>
       </c>
       <c r="F417" t="n">
-        <v>33480.36159234025</v>
+        <v>65221.48362144209</v>
       </c>
       <c r="G417" t="n">
-        <v>21973.52061383191</v>
+        <v>65920.56184149587</v>
       </c>
       <c r="H417" t="n">
-        <v>12222.80214566605</v>
+        <v>36668.40643699821</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>58155.86382248233</v>
+        <v>124619.7081910335</v>
       </c>
       <c r="C418" t="n">
-        <v>26115.05797364777</v>
+        <v>55960.83851495935</v>
       </c>
       <c r="D418" t="n">
-        <v>20166.56837141728</v>
+        <v>43214.07508160843</v>
       </c>
       <c r="E418" t="n">
-        <v>33044.29545145015</v>
+        <v>53643.33677183452</v>
       </c>
       <c r="F418" t="n">
-        <v>33479.85244970044</v>
+        <v>65220.49178513078</v>
       </c>
       <c r="G418" t="n">
-        <v>21973.47826013477</v>
+        <v>65920.43478040445</v>
       </c>
       <c r="H418" t="n">
-        <v>14698.60902019265</v>
+        <v>44095.82706057803</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>57816.63589750108</v>
+        <v>123892.7912089308</v>
       </c>
       <c r="C419" t="n">
-        <v>26083.13586230059</v>
+        <v>55892.43399064399</v>
       </c>
       <c r="D419" t="n">
-        <v>20159.23603908113</v>
+        <v>43198.36294088812</v>
       </c>
       <c r="E419" t="n">
-        <v>33041.099210947</v>
+        <v>53638.14806971902</v>
       </c>
       <c r="F419" t="n">
-        <v>33479.24689717488</v>
+        <v>65219.31213735373</v>
       </c>
       <c r="G419" t="n">
-        <v>21973.42629552927</v>
+        <v>65920.27888658794</v>
       </c>
       <c r="H419" t="n">
-        <v>17184.60976056956</v>
+        <v>51553.82928170878</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>57466.30013767364</v>
+        <v>123142.0717235863</v>
       </c>
       <c r="C420" t="n">
-        <v>26048.39864246516</v>
+        <v>55817.99709099662</v>
       </c>
       <c r="D420" t="n">
-        <v>20151.01178290453</v>
+        <v>43180.7395347954</v>
       </c>
       <c r="E420" t="n">
-        <v>33037.41592713728</v>
+        <v>53632.16871288506</v>
       </c>
       <c r="F420" t="n">
-        <v>33478.52820165556</v>
+        <v>65217.91208114726</v>
       </c>
       <c r="G420" t="n">
-        <v>21973.36268417647</v>
+        <v>65920.08805252954</v>
       </c>
       <c r="H420" t="n">
-        <v>19680.74417275309</v>
+        <v>59042.23251825939</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>57104.67109214547</v>
+        <v>122367.1523403116</v>
       </c>
       <c r="C421" t="n">
-        <v>26010.65045044729</v>
+        <v>55737.10810810118</v>
       </c>
       <c r="D421" t="n">
-        <v>20141.80293792668</v>
+        <v>43161.00629555716</v>
       </c>
       <c r="E421" t="n">
-        <v>33033.17955946674</v>
+        <v>53625.29149264069</v>
       </c>
       <c r="F421" t="n">
-        <v>33477.67702742028</v>
+        <v>65216.25394952008</v>
       </c>
       <c r="G421" t="n">
-        <v>21973.28499292628</v>
+        <v>65919.85497877898</v>
       </c>
       <c r="H421" t="n">
-        <v>22186.97062932722</v>
+        <v>66560.91188798178</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>56731.57343624606</v>
+        <v>121567.6573633844</v>
       </c>
       <c r="C422" t="n">
-        <v>25969.68724866687</v>
+        <v>55649.32981857174</v>
       </c>
       <c r="D422" t="n">
-        <v>20131.50934035656</v>
+        <v>43138.94858647832</v>
       </c>
       <c r="E422" t="n">
-        <v>33028.31644663952</v>
+        <v>53617.39682896012</v>
       </c>
       <c r="F422" t="n">
-        <v>33476.67108746386</v>
+        <v>65214.29432622837</v>
       </c>
       <c r="G422" t="n">
-        <v>21973.19032129547</v>
+        <v>65919.57096388654</v>
       </c>
       <c r="H422" t="n">
-        <v>24703.26665566342</v>
+        <v>74109.79996699038</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>56346.84293687408</v>
+        <v>120743.2348647302</v>
       </c>
       <c r="C423" t="n">
-        <v>25925.29703164802</v>
+        <v>55554.20792495992</v>
       </c>
       <c r="D423" t="n">
-        <v>20120.0229876529</v>
+        <v>43114.3349735419</v>
       </c>
       <c r="E423" t="n">
-        <v>33022.74463026198</v>
+        <v>53608.35167250309</v>
       </c>
       <c r="F423" t="n">
-        <v>33475.48475791966</v>
+        <v>65211.98329464877</v>
       </c>
       <c r="G423" t="n">
-        <v>21973.0752206759</v>
+        <v>65919.22566202785</v>
       </c>
       <c r="H423" t="n">
-        <v>27229.6294701832</v>
+        <v>81688.88841054973</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>55950.32743052173</v>
+        <v>119893.5587796894</v>
       </c>
       <c r="C424" t="n">
-        <v>25877.26009856562</v>
+        <v>55451.27163978336</v>
       </c>
       <c r="D424" t="n">
-        <v>20107.22771636829</v>
+        <v>43086.91653507489</v>
       </c>
       <c r="E424" t="n">
-        <v>33016.37314763067</v>
+        <v>53598.00835654316</v>
       </c>
       <c r="F424" t="n">
-        <v>33474.08865328874</v>
+        <v>65209.26361030281</v>
       </c>
       <c r="G424" t="n">
-        <v>21972.93560142603</v>
+        <v>65918.80680427821</v>
       </c>
       <c r="H424" t="n">
-        <v>29766.0764745909</v>
+        <v>89298.22942377286</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>55541.88780999146</v>
+        <v>119018.3310214102</v>
       </c>
       <c r="C425" t="n">
-        <v>25825.34939614886</v>
+        <v>55340.03442031885</v>
       </c>
       <c r="D425" t="n">
-        <v>20092.99890285807</v>
+        <v>43056.42622041014</v>
       </c>
       <c r="E425" t="n">
-        <v>33009.10129654511</v>
+        <v>53586.20340348218</v>
       </c>
       <c r="F425" t="n">
-        <v>33472.44916032594</v>
+        <v>65206.06979284281</v>
       </c>
       <c r="G425" t="n">
-        <v>21972.76662638793</v>
+        <v>65918.29987916393</v>
       </c>
       <c r="H425" t="n">
-        <v>32312.6456897693</v>
+        <v>96937.93706930807</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>55121.39901555759</v>
+        <v>118117.2836047662</v>
       </c>
       <c r="C426" t="n">
-        <v>25769.33093543375</v>
+        <v>55219.99486164363</v>
       </c>
       <c r="D426" t="n">
-        <v>20077.20319230143</v>
+        <v>43022.57826921732</v>
       </c>
       <c r="E426" t="n">
-        <v>33000.81787580532</v>
+        <v>53572.75629189162</v>
       </c>
       <c r="F426" t="n">
-        <v>33470.52792862419</v>
+        <v>65202.32713368357</v>
       </c>
       <c r="G426" t="n">
-        <v>21972.56258926383</v>
+        <v>65917.68776779162</v>
       </c>
       <c r="H426" t="n">
-        <v>34869.39613282926</v>
+        <v>104608.1883984879</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>54688.75102603694</v>
+        <v>117190.1807700791</v>
       </c>
       <c r="C427" t="n">
-        <v>25708.96428548354</v>
+        <v>55090.63775460744</v>
       </c>
       <c r="D427" t="n">
-        <v>20059.69826179845</v>
+        <v>42985.06770385382</v>
       </c>
       <c r="E427" t="n">
-        <v>32991.40040589346</v>
+        <v>53557.46819138534</v>
       </c>
       <c r="F427" t="n">
-        <v>33468.28131619595</v>
+        <v>65197.95061596621</v>
       </c>
       <c r="G427" t="n">
-        <v>21972.31677618155</v>
+        <v>65916.95032854479</v>
       </c>
       <c r="H427" t="n">
-        <v>37436.40813060951</v>
+        <v>112309.2243918287</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>54243.8498449602</v>
+        <v>116236.8210963433</v>
       </c>
       <c r="C428" t="n">
-        <v>25644.00314675653</v>
+        <v>54951.43531447813</v>
       </c>
       <c r="D428" t="n">
-        <v>20040.33262358481</v>
+        <v>42943.56990768173</v>
       </c>
       <c r="E428" t="n">
-        <v>32980.71433523283</v>
+        <v>53540.12067407915</v>
       </c>
       <c r="F428" t="n">
-        <v>33465.65978868268</v>
+        <v>65192.84374418712</v>
       </c>
       <c r="G428" t="n">
-        <v>21972.02130868175</v>
+        <v>65916.0639260454</v>
       </c>
       <c r="H428" t="n">
-        <v>40013.78356471082</v>
+        <v>120041.3506941326</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>53786.61847678089</v>
+        <v>115257.0395931019</v>
       </c>
       <c r="C429" t="n">
-        <v>25574.19600629614</v>
+        <v>54801.84858492018</v>
       </c>
       <c r="D429" t="n">
-        <v>20018.94547463638</v>
+        <v>42897.74030279223</v>
       </c>
       <c r="E429" t="n">
-        <v>32968.61223836008</v>
+        <v>53520.47441292208</v>
       </c>
       <c r="F429" t="n">
-        <v>33462.60727123493</v>
+        <v>65186.89728162656</v>
       </c>
       <c r="G429" t="n">
-        <v>21971.66696627423</v>
+        <v>65915.00089882282</v>
       </c>
       <c r="H429" t="n">
-        <v>42601.64604292921</v>
+        <v>127804.9381287878</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>53316.99788782616</v>
+        <v>114250.7097596275</v>
       </c>
       <c r="C430" t="n">
-        <v>25499.28687634712</v>
+        <v>54641.3290207437</v>
       </c>
       <c r="D430" t="n">
-        <v>19995.36659911147</v>
+        <v>42847.21414095315</v>
       </c>
       <c r="E430" t="n">
-        <v>32954.93301332671</v>
+        <v>53498.26787877699</v>
       </c>
       <c r="F430" t="n">
-        <v>33459.06045260405</v>
+        <v>65179.9878946833</v>
       </c>
       <c r="G430" t="n">
-        <v>21971.24298663978</v>
+        <v>65913.72895991946</v>
       </c>
       <c r="H430" t="n">
-        <v>45200.14099173488</v>
+        <v>135600.4229752049</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>52834.94794648654</v>
+        <v>113217.7455996139</v>
       </c>
       <c r="C431" t="n">
-        <v>25419.01611736694</v>
+        <v>54469.32025150045</v>
       </c>
       <c r="D431" t="n">
-        <v>19969.41633018849</v>
+        <v>42791.60642183246</v>
       </c>
       <c r="E431" t="n">
-        <v>32939.50108665488</v>
+        <v>53473.2160497643</v>
       </c>
       <c r="F431" t="n">
-        <v>33454.94804157714</v>
+        <v>65171.97670437113</v>
       </c>
       <c r="G431" t="n">
-        <v>21970.73684150347</v>
+        <v>65912.21052451053</v>
       </c>
       <c r="H431" t="n">
-        <v>47809.43566421451</v>
+        <v>143428.3069926438</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>52340.44833696297</v>
+        <v>112158.1035792063</v>
       </c>
       <c r="C432" t="n">
-        <v>25333.12134570571</v>
+        <v>54285.26002651209</v>
       </c>
       <c r="D432" t="n">
-        <v>19940.90557789426</v>
+        <v>42730.51195263054</v>
       </c>
       <c r="E432" t="n">
-        <v>32922.12563519492</v>
+        <v>53445.00914804357</v>
       </c>
       <c r="F432" t="n">
-        <v>33450.18997657379</v>
+        <v>65162.7077465724</v>
       </c>
       <c r="G432" t="n">
-        <v>21970.13398617869</v>
+        <v>65910.40195853623</v>
       </c>
       <c r="H432" t="n">
-        <v>50429.71905766651</v>
+        <v>151289.1571729998</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>51833.49944074346</v>
+        <v>111071.7845158788</v>
       </c>
       <c r="C433" t="n">
-        <v>25241.33842547336</v>
+        <v>54088.5823402999</v>
       </c>
       <c r="D433" t="n">
-        <v>19909.6359294737</v>
+        <v>42663.50556315792</v>
       </c>
       <c r="E433" t="n">
-        <v>32902.59983525372</v>
+        <v>53413.3114208663</v>
       </c>
       <c r="F433" t="n">
-        <v>33444.69659001041</v>
+        <v>65152.00634417618</v>
       </c>
       <c r="G433" t="n">
-        <v>21969.41758078537</v>
+        <v>65908.25274235624</v>
       </c>
       <c r="H433" t="n">
-        <v>53061.20173481631</v>
+        <v>159183.6052044492</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>51314.12317986925</v>
+        <v>109958.8353854341</v>
       </c>
       <c r="C434" t="n">
-        <v>25143.40254330581</v>
+        <v>53878.71973565516</v>
       </c>
       <c r="D434" t="n">
-        <v>19875.39982871758</v>
+        <v>42590.14249010909</v>
       </c>
       <c r="E434" t="n">
-        <v>32880.70015036765</v>
+        <v>53377.75998436293</v>
       </c>
       <c r="F434" t="n">
-        <v>33438.36772992611</v>
+        <v>65139.67739596003</v>
       </c>
       <c r="G434" t="n">
-        <v>21968.56818118539</v>
+        <v>65905.70454355629</v>
       </c>
       <c r="H434" t="n">
-        <v>55704.11554239328</v>
+        <v>167112.3466271801</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>50782.36381597837</v>
+        <v>108819.3510342393</v>
       </c>
       <c r="C435" t="n">
-        <v>25039.04936388723</v>
+        <v>53655.10577975823</v>
       </c>
       <c r="D435" t="n">
-        <v>19837.98084043408</v>
+        <v>42509.95894378729</v>
       </c>
       <c r="E435" t="n">
-        <v>32856.18567005919</v>
+        <v>53337.96375009594</v>
       </c>
       <c r="F435" t="n">
-        <v>33431.09184235478</v>
+        <v>65125.50358900288</v>
       </c>
       <c r="G435" t="n">
-        <v>21967.5633977607</v>
+        <v>65902.69019328227</v>
       </c>
       <c r="H435" t="n">
-        <v>58358.71322060344</v>
+        <v>175076.1396618106</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>50238.28869908104</v>
+        <v>107653.475783745</v>
       </c>
       <c r="C436" t="n">
-        <v>24928.01626319007</v>
+        <v>53417.17770683573</v>
       </c>
       <c r="D436" t="n">
-        <v>19797.15400591591</v>
+        <v>42422.47286981979</v>
       </c>
       <c r="E436" t="n">
-        <v>32828.79751282533</v>
+        <v>53293.50245588515</v>
       </c>
       <c r="F436" t="n">
-        <v>33422.74501901652</v>
+        <v>65109.24354353874</v>
       </c>
       <c r="G436" t="n">
-        <v>21966.37752029001</v>
+        <v>65899.13256087014</v>
       </c>
       <c r="H436" t="n">
-        <v>61025.26789682765</v>
+        <v>183075.8036904833</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>49681.98896003342</v>
+        <v>106461.4049143573</v>
       </c>
       <c r="C437" t="n">
-        <v>24810.04363546697</v>
+        <v>53164.37921885768</v>
       </c>
       <c r="D437" t="n">
-        <v>19752.68629481199</v>
+        <v>42327.18491745425</v>
       </c>
       <c r="E437" t="n">
-        <v>32798.25830743265</v>
+        <v>53243.92582375419</v>
       </c>
       <c r="F437" t="n">
-        <v>33413.19001608627</v>
+        <v>65090.62990146683</v>
       </c>
       <c r="G437" t="n">
-        <v>21964.98110736599</v>
+        <v>65894.94332209814</v>
       </c>
       <c r="H437" t="n">
-        <v>63704.07245670178</v>
+        <v>191112.2173701056</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>49113.58014073234</v>
+        <v>105243.3860158551</v>
       </c>
       <c r="C438" t="n">
-        <v>24684.87626907761</v>
+        <v>52896.1634337376</v>
       </c>
       <c r="D438" t="n">
-        <v>19704.33715825756</v>
+        <v>42223.5796248376</v>
       </c>
       <c r="E438" t="n">
-        <v>32764.27176731639</v>
+        <v>53188.75286901998</v>
       </c>
       <c r="F438" t="n">
-        <v>33402.27525106774</v>
+        <v>65069.36737220997</v>
       </c>
       <c r="G438" t="n">
-        <v>21963.34053904345</v>
+        <v>65890.02161713049</v>
       </c>
       <c r="H438" t="n">
-        <v>66395.43878557271</v>
+        <v>199186.3163567185</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>48533.20275615831</v>
+        <v>103999.7201917678</v>
       </c>
       <c r="C439" t="n">
-        <v>24552.26478526845</v>
+        <v>52611.99596843227</v>
       </c>
       <c r="D439" t="n">
-        <v>19651.85918744599</v>
+        <v>42111.12683024137</v>
       </c>
       <c r="E439" t="n">
-        <v>32726.52237347372</v>
+        <v>53127.47138550915</v>
       </c>
       <c r="F439" t="n">
-        <v>33389.83378614896</v>
+        <v>65045.13075223828</v>
       </c>
       <c r="G439" t="n">
-        <v>21961.41753172396</v>
+        <v>65884.25259517203</v>
       </c>
       <c r="H439" t="n">
-        <v>69099.69687320919</v>
+        <v>207299.0906196279</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>47941.0227825478</v>
+        <v>102730.7631054595</v>
       </c>
       <c r="C440" t="n">
-        <v>24411.9671330565</v>
+        <v>52311.35814226381</v>
       </c>
       <c r="D440" t="n">
-        <v>19594.99888103968</v>
+        <v>41989.2833165136</v>
       </c>
       <c r="E440" t="n">
-        <v>32684.67518167907</v>
+        <v>53059.53763259576</v>
       </c>
       <c r="F440" t="n">
-        <v>33375.68230782686</v>
+        <v>65017.56293732512</v>
       </c>
       <c r="G440" t="n">
-        <v>21959.16861467425</v>
+        <v>65877.5058440229</v>
       </c>
       <c r="H440" t="n">
-        <v>71817.19377455318</v>
+        <v>215451.5813236599</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>47337.23206617877</v>
+        <v>101436.9258560973</v>
       </c>
       <c r="C441" t="n">
-        <v>24263.75013240968</v>
+        <v>51993.75028373491</v>
       </c>
       <c r="D441" t="n">
-        <v>19533.49752391563</v>
+        <v>41857.49469410491</v>
       </c>
       <c r="E441" t="n">
-        <v>32638.37577010652</v>
+        <v>52984.37625017278</v>
       </c>
       <c r="F441" t="n">
-        <v>33359.62011404601</v>
+        <v>64986.27294944036</v>
       </c>
       <c r="G441" t="n">
-        <v>21956.5445680449</v>
+        <v>65869.63370413483</v>
       </c>
       <c r="H441" t="n">
-        <v>74548.29241926933</v>
+        <v>223644.8772578083</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>46722.04864750832</v>
+        <v>100118.6756732321</v>
       </c>
       <c r="C442" t="n">
-        <v>24107.39105697973</v>
+        <v>51658.69512209929</v>
       </c>
       <c r="D442" t="n">
-        <v>19467.0921787282</v>
+        <v>41715.19752584612</v>
       </c>
       <c r="E442" t="n">
-        <v>32587.25034349545</v>
+        <v>52901.38042775222</v>
       </c>
       <c r="F442" t="n">
-        <v>33341.42812158033</v>
+        <v>64950.83400307864</v>
       </c>
       <c r="G442" t="n">
-        <v>21953.48982281122</v>
+        <v>65860.46946843379</v>
       </c>
       <c r="H442" t="n">
-        <v>77293.37026286683</v>
+        <v>231880.1107886008</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>46095.71699570616</v>
+        <v>98776.53641937031</v>
       </c>
       <c r="C443" t="n">
-        <v>23942.67924674141</v>
+        <v>51305.74124301718</v>
       </c>
       <c r="D443" t="n">
-        <v>19395.51679065144</v>
+        <v>41561.82169425307</v>
       </c>
       <c r="E443" t="n">
-        <v>32530.90600981796</v>
+        <v>52809.91235360045</v>
       </c>
       <c r="F443" t="n">
-        <v>33320.86790787391</v>
+        <v>64910.78163871547</v>
       </c>
       <c r="G443" t="n">
-        <v>21949.94182370059</v>
+        <v>65849.82547110193</v>
       </c>
       <c r="H443" t="n">
-        <v>80052.81777225516</v>
+        <v>240158.453316766</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>45458.5081489831</v>
+        <v>97411.08889067805</v>
       </c>
       <c r="C444" t="n">
-        <v>23769.41774003654</v>
+        <v>50934.46658579246</v>
       </c>
       <c r="D444" t="n">
-        <v>19318.5034044432</v>
+        <v>41396.79300952112</v>
       </c>
       <c r="E444" t="n">
-        <v>32468.93124497512</v>
+        <v>52709.30396911532</v>
       </c>
       <c r="F444" t="n">
-        <v>33297.68080301877</v>
+        <v>64865.61195393274</v>
       </c>
       <c r="G444" t="n">
-        <v>21945.83035690344</v>
+        <v>65837.49107071046</v>
       </c>
       <c r="H444" t="n">
-        <v>82827.03673876575</v>
+        <v>248481.1102162977</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>44810.71975652007</v>
+        <v>96022.97090682869</v>
       </c>
       <c r="C445" t="n">
-        <v>23587.42491372788</v>
+        <v>50544.48195798819</v>
       </c>
       <c r="D445" t="n">
-        <v>19235.78349166394</v>
+        <v>41219.53605356557</v>
       </c>
       <c r="E445" t="n">
-        <v>32400.89656034678</v>
+        <v>52598.85805251088</v>
       </c>
       <c r="F445" t="n">
-        <v>33271.58704895563</v>
+        <v>64814.77996549806</v>
       </c>
       <c r="G445" t="n">
-        <v>21941.07684518839</v>
+        <v>65823.23053556529</v>
       </c>
       <c r="H445" t="n">
-        <v>85616.43841192363</v>
+        <v>256849.3152357713</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>44152.67601825515</v>
+        <v>94612.8771819753</v>
       </c>
       <c r="C446" t="n">
-        <v>23396.53611944826</v>
+        <v>50135.43454167471</v>
       </c>
       <c r="D446" t="n">
-        <v>19147.08938449507</v>
+        <v>41029.47725248941</v>
       </c>
       <c r="E446" t="n">
-        <v>32326.35538702626</v>
+        <v>52477.84965426327</v>
       </c>
       <c r="F446" t="n">
-        <v>33242.28504430306</v>
+        <v>64757.69813825278</v>
       </c>
       <c r="G446" t="n">
-        <v>21935.59361395502</v>
+        <v>65806.7808418652</v>
       </c>
       <c r="H446" t="n">
-        <v>88421.44144761344</v>
+        <v>265264.3243428406</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>43484.72751928688</v>
+        <v>93181.5589699004</v>
       </c>
       <c r="C447" t="n">
-        <v>23196.60530329837</v>
+        <v>49707.01136421067</v>
       </c>
       <c r="D447" t="n">
-        <v>19052.15581115004</v>
+        <v>40826.04816675006</v>
       </c>
       <c r="E447" t="n">
-        <v>32244.84518927501</v>
+        <v>52345.52790466709</v>
       </c>
       <c r="F447" t="n">
-        <v>33209.45069441702</v>
+        <v>64693.73511899426</v>
       </c>
       <c r="G447" t="n">
-        <v>21929.28313275574</v>
+        <v>65787.84939826737</v>
       </c>
       <c r="H447" t="n">
-        <v>91242.46966475589</v>
+        <v>273727.408994268</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>42807.2509561948</v>
+        <v>91729.82347756019</v>
       </c>
       <c r="C448" t="n">
-        <v>22987.50659581506</v>
+        <v>49258.94270531787</v>
       </c>
       <c r="D448" t="n">
-        <v>18950.7215263725</v>
+        <v>40608.68898508392</v>
       </c>
       <c r="E448" t="n">
-        <v>32155.88881812284</v>
+        <v>52201.11821123824</v>
       </c>
       <c r="F448" t="n">
-        <v>33172.73688731658</v>
+        <v>64622.21471555185</v>
       </c>
       <c r="G448" t="n">
-        <v>21922.03723789595</v>
+        <v>65766.11171368799</v>
       </c>
       <c r="H448" t="n">
-        <v>94079.94960520997</v>
+        <v>282239.8488156305</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>42120.64875316196</v>
+        <v>90258.53304248989</v>
       </c>
       <c r="C449" t="n">
-        <v>22769.13585861244</v>
+        <v>48791.00541131225</v>
       </c>
       <c r="D449" t="n">
-        <v>18842.53102898731</v>
+        <v>40376.85220497279</v>
       </c>
       <c r="E449" t="n">
-        <v>32058.99611411253</v>
+        <v>52043.82486057215</v>
       </c>
       <c r="F449" t="n">
-        <v>33131.77311694499</v>
+        <v>64542.41516287992</v>
       </c>
       <c r="G449" t="n">
-        <v>21913.73634287004</v>
+        <v>65741.20902861026</v>
       </c>
       <c r="H449" t="n">
-        <v>96934.30789236349</v>
+        <v>290802.923677091</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>41425.34856640502</v>
+        <v>88768.60407086789</v>
       </c>
       <c r="C450" t="n">
-        <v>22541.41217380231</v>
+        <v>48303.0260867191</v>
       </c>
       <c r="D450" t="n">
-        <v>18727.33635693323</v>
+        <v>40130.00647914261</v>
       </c>
       <c r="E450" t="n">
-        <v>31953.66576594376</v>
+        <v>51872.83403562286</v>
       </c>
       <c r="F450" t="n">
-        <v>33086.1652758263</v>
+        <v>64453.56871914222</v>
       </c>
       <c r="G450" t="n">
-        <v>21904.24864459725</v>
+        <v>65712.7459337919</v>
       </c>
       <c r="H450" t="n">
-        <v>99805.96838475748</v>
+        <v>299417.9051542729</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>40721.80267607039</v>
+        <v>87261.00573443658</v>
       </c>
       <c r="C451" t="n">
-        <v>22304.27926213778</v>
+        <v>47794.88413315227</v>
       </c>
       <c r="D451" t="n">
-        <v>18604.89894868249</v>
+        <v>39867.64060431961</v>
       </c>
       <c r="E451" t="n">
-        <v>31839.38742921856</v>
+        <v>51687.31725522481</v>
       </c>
       <c r="F451" t="n">
-        <v>33035.49563948703</v>
+        <v>64354.86163536442</v>
       </c>
       <c r="G451" t="n">
-        <v>21893.42933467199</v>
+        <v>65680.28800401613</v>
       </c>
       <c r="H451" t="n">
-        <v>102695.3491221651</v>
+        <v>308086.0473664957</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>40010.48726543708</v>
+        <v>85736.75842593658</v>
       </c>
       <c r="C452" t="n">
-        <v>22057.70681580414</v>
+        <v>47266.51460529447</v>
       </c>
       <c r="D452" t="n">
-        <v>18474.99155846469</v>
+        <v>39589.26762528146</v>
       </c>
       <c r="E452" t="n">
-        <v>31715.64410664072</v>
+        <v>51486.435238053</v>
       </c>
       <c r="F452" t="n">
-        <v>32979.32306499983</v>
+        <v>64245.43454220752</v>
       </c>
       <c r="G452" t="n">
-        <v>21881.1198261186</v>
+        <v>65643.35947835595</v>
       </c>
       <c r="H452" t="n">
-        <v>105602.8590627762</v>
+        <v>316808.577188329</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>1471.732009315044</v>
+        <v>686.8082710136873</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>1473.452254203823</v>
+        <v>687.6110519617843</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>1475.197217667914</v>
+        <v>688.4253682450264</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>1476.967252497739</v>
+        <v>689.2513844989448</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>1478.76271645233</v>
+        <v>690.0892676777543</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>1480.583972327526</v>
+        <v>690.9391870861792</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>1482.431388025054</v>
+        <v>691.8013144116918</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>1484.30533662251</v>
+        <v>692.6758237571714</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>1486.206196444267</v>
+        <v>693.5628916739912</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.134351133286</v>
+        <v>694.4626971955337</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>1490.090189723875</v>
+        <v>695.3754218711417</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>1492.074106715384</v>
+        <v>696.3012498005128</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>1494.086502146863</v>
+        <v>697.2403676685362</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>1496.127781672684</v>
+        <v>698.1929647805858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>1498.198356639135</v>
+        <v>699.1592330982635</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>1500.298644162021</v>
+        <v>700.1393672756097</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>1502.429067205247</v>
+        <v>701.1335646957821</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>1504.590054660429</v>
+        <v>702.1420255082002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>1506.782041427524</v>
+        <v>703.1649526661779</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>1509.005468496496</v>
+        <v>704.2025519650315</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>1511.260783030038</v>
+        <v>705.2550320806843</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>1513.548438447345</v>
+        <v>706.3226046087615</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>1515.868894508977</v>
+        <v>707.4054841041893</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>1518.222617402786</v>
+        <v>708.5038881213004</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>1520.610079830966</v>
+        <v>709.6180372544508</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>1523.031761098198</v>
+        <v>710.7481551791589</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>1525.488147200926</v>
+        <v>711.8944686937654</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>1527.979730917772</v>
+        <v>713.0572077616273</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>1530.507011901102</v>
+        <v>714.2366055538473</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>1533.070496769745</v>
+        <v>715.4328984925471</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>1535.67069920291</v>
+        <v>716.6463262946913</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>1538.308140035281</v>
+        <v>717.8771320164645</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>1540.983347353313</v>
+        <v>719.1255620982129</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>1543.696856592764</v>
+        <v>720.3918664099563</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>1546.44921063744</v>
+        <v>721.6762982974717</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>1549.240959919204</v>
+        <v>722.9791146289617</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>1552.072662519239</v>
+        <v>724.3005758423116</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>1554.944884270586</v>
+        <v>725.6409459929403</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>1557.858198861975</v>
+        <v>727.0004928022549</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>1560.813187942968</v>
+        <v>728.3794877067187</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>1563.810441230413</v>
+        <v>729.7782059075257</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>1566.850556616238</v>
+        <v>731.196926420911</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>1569.934140276603</v>
+        <v>732.6359321290821</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>1573.061806782415</v>
+        <v>734.0955098317935</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>1576.234179211218</v>
+        <v>735.5759502985687</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>1579.451889260503</v>
+        <v>737.0775483215687</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>1582.715577362416</v>
+        <v>738.6006027691276</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>1586.025892799905</v>
+        <v>740.1454166399556</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>1589.383493824315</v>
+        <v>741.7122971180136</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>1592.789047774454</v>
+        <v>743.3015556280782</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>1596.243231197137</v>
+        <v>744.9135078919974</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>1599.746729969234</v>
+        <v>746.5484739856428</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>1603.300239421237</v>
+        <v>748.2067783965775</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>1606.904464462357</v>
+        <v>749.888750082433</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>1610.560119707191</v>
+        <v>751.5947225300223</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>1614.267929603943</v>
+        <v>753.3250338151732</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>1618.028628564263</v>
+        <v>755.0800266633225</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>1621.842961094666</v>
+        <v>756.8600485108443</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>1625.711681929614</v>
+        <v>758.6654515671535</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>1629.635556166224</v>
+        <v>760.4965928775716</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>1633.615359400667</v>
+        <v>762.3538343869781</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>1637.651877866239</v>
+        <v>764.2375430042449</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>1641.745908573166</v>
+        <v>766.148090667478</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>1645.898259450126</v>
+        <v>768.0858544100598</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>1650.109749487534</v>
+        <v>770.0512164275165</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>1654.381208882607</v>
+        <v>772.0445641452162</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>1658.713479186215</v>
+        <v>774.0662902869013</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>1663.107413451582</v>
+        <v>776.1167929440721</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>1667.563876384804</v>
+        <v>778.1964756462411</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>1672.083744497254</v>
+        <v>780.3057474320514</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>1676.667906259883</v>
+        <v>782.445022921279</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>1681.317262259435</v>
+        <v>784.6147223877363</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>1686.032725356599</v>
+        <v>786.8152718330797</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>1690.815220846157</v>
+        <v>789.0471030615397</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>1695.6656866191</v>
+        <v>791.3106537555801</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>1700.585073326789</v>
+        <v>793.6063675525013</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>1705.574344547164</v>
+        <v>795.93469412201</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>1710.634476953029</v>
+        <v>798.2960892447467</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>1715.766460482456</v>
+        <v>800.6910148918128</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>1720.971298511319</v>
+        <v>803.1199393052818</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>1726.250008028009</v>
+        <v>805.5833370797375</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>1731.603619810347</v>
+        <v>808.0816892448286</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>1737.03317860473</v>
+        <v>810.6154833488749</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>1742.539743307549</v>
+        <v>813.1852135435228</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>1748.124387148905</v>
+        <v>815.7913806694897</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>1753.788197878671</v>
+        <v>818.4344923433797</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>1759.532277954906</v>
+        <v>821.1150630456228</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>1765.35774473471</v>
+        <v>823.8336142095311</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>1771.265730667498</v>
+        <v>826.5906743114994</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>1777.257383490778</v>
+        <v>829.3867789623632</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>1783.333866428455</v>
+        <v>832.2224709999454</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>1789.496358391691</v>
+        <v>835.0983005827894</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>1795.746054182397</v>
+        <v>838.0148252851186</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>1802.084164699368</v>
+        <v>840.9726101930381</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>1808.511917147117</v>
+        <v>843.9722280019876</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>1815.030555247469</v>
+        <v>847.0142591154861</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>1821.641339453944</v>
+        <v>850.0992917451734</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>1828.345547168984</v>
+        <v>853.2279220121923</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>1835.144472964089</v>
+        <v>856.4007540499074</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>1842.039428802893</v>
+        <v>859.6184001080172</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>1849.03174426726</v>
+        <v>862.8814806580551</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>1856.122766786432</v>
+        <v>866.1906245003358</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>1863.313861869307</v>
+        <v>869.5464688723436</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>1870.606413339895</v>
+        <v>872.9496595586173</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>1878.001823576032</v>
+        <v>876.4008510021483</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>1885.501513751401</v>
+        <v>879.900706417321</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>1893.106924080925</v>
+        <v>883.4498979044326</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>1900.819514069627</v>
+        <v>887.0491065658258</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>1908.640762764997</v>
+        <v>890.6990226236652</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>1916.572169012966</v>
+        <v>894.4003455393847</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>1924.615251717562</v>
+        <v>898.1537841348627</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>1932.771550104309</v>
+        <v>901.9600567153443</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>1941.042623987471</v>
+        <v>905.8198911941533</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>1949.430054041237</v>
+        <v>909.7340252192444</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>1957.935442074907</v>
+        <v>913.7032063016234</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>1966.560411312197</v>
+        <v>917.7281919456919</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>1975.306606674757</v>
+        <v>921.809749781554</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>1984.175695069991</v>
+        <v>925.9486576993302</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>1993.169365683297</v>
+        <v>930.1457039855395</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>2002.289330274823</v>
+        <v>934.4016874615836</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>2011.537323480864</v>
+        <v>938.7174176244038</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>2020.915103120023</v>
+        <v>943.0937147893439</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>2030.424450504218</v>
+        <v>947.5314102353018</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>2040.067170754712</v>
+        <v>952.0313463521996</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>2049.845093123277</v>
+        <v>956.5943767908631</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>2059.760071318611</v>
+        <v>961.2213666153517</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>2069.813983838165</v>
+        <v>965.9131924578114</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>2080.00873430556</v>
+        <v>970.6707426759282</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>2090.346251813664</v>
+        <v>975.4949175130424</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>2100.828491273572</v>
+        <v>980.3866292610006</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>2111.457433769619</v>
+        <v>985.3468024258217</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>2122.235086920581</v>
+        <v>990.3763738962708</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>2133.163485247276</v>
+        <v>995.4762931153948</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>2144.244690546727</v>
+        <v>1000.647522255139</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>2155.480792273092</v>
+        <v>1005.89103639411</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>2166.873907925552</v>
+        <v>1011.207823698591</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>2178.426183443368</v>
+        <v>1016.598885606905</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>2190.139793608334</v>
+        <v>1022.065237017222</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>2202.016942454825</v>
+        <v>1027.607906478918</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>2214.059863687713</v>
+        <v>1033.2279363876</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>2226.270821108345</v>
+        <v>1038.926383183894</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>2238.652109048878</v>
+        <v>1044.704317556143</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>2251.206052815205</v>
+        <v>1050.562824647095</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>2263.93500913876</v>
+        <v>1056.503004264755</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>2276.841366637484</v>
+        <v>1062.525971097493</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>2289.927546286222</v>
+        <v>1068.632854933571</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>2303.1960018969</v>
+        <v>1074.824800885221</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>2316.64922060875</v>
+        <v>1081.102969617416</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>2330.28972338895</v>
+        <v>1087.46853758151</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>2344.120065544006</v>
+        <v>1093.92269725387</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>2358.142837242227</v>
+        <v>1100.466657379707</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>2372.36066404766</v>
+        <v>1107.101643222241</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>2386.776207465883</v>
+        <v>1113.828896817412</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>2401.392165502047</v>
+        <v>1120.649677234288</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>2416.211273231547</v>
+        <v>1127.565260841389</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>2431.236303383823</v>
+        <v>1134.576941579117</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>2446.470066939639</v>
+        <v>1141.686031238499</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>2461.915413742392</v>
+        <v>1148.89385974645</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>2477.575233123856</v>
+        <v>1156.2017754578</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>2493.452454544908</v>
+        <v>1163.611145454291</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>2509.550048251712</v>
+        <v>1171.123355850799</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>2525.871025947912</v>
+        <v>1178.739812109026</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>2542.4184414834</v>
+        <v>1186.461939358921</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>2559.195391560185</v>
+        <v>1194.291182728087</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>2576.205016455994</v>
+        <v>1202.229007679465</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>2593.450500766229</v>
+        <v>1210.276900357574</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>2610.93507416485</v>
+        <v>1218.436367943596</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>2628.662012184941</v>
+        <v>1226.708939019639</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>2646.634637019535</v>
+        <v>1235.096163942449</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>2664.856318343493</v>
+        <v>1243.599615226964</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>2683.330474157109</v>
+        <v>1252.220887939984</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>2702.060571652216</v>
+        <v>1260.961600104367</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>2721.050128101587</v>
+        <v>1269.823393114074</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>2740.302711772416</v>
+        <v>1278.807932160459</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>2759.821942864719</v>
+        <v>1287.916906670202</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>2779.611494475538</v>
+        <v>1297.152030755251</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>2799.675093589818</v>
+        <v>1306.515043675249</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>2820.016522098892</v>
+        <v>1316.007710312816</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>2840.639617847496</v>
+        <v>1325.631821662165</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>2861.54827571035</v>
+        <v>1335.389195331498</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>2882.746448699292</v>
+        <v>1345.28167605967</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>2904.238149101966</v>
+        <v>1355.311136247584</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>2926.027449653229</v>
+        <v>1365.47947650484</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>2948.118484740326</v>
+        <v>1375.788626212153</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>2970.515451643013</v>
+        <v>1386.240544100072</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>2993.222611809767</v>
+        <v>1396.837218844559</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>3016.244292171378</v>
+        <v>1407.580669679976</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>3039.584886493066</v>
+        <v>1418.472947030097</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>3063.24885676653</v>
+        <v>1429.516133157714</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>3087.24073464317</v>
+        <v>1440.712342833481</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>3111.565122909879</v>
+        <v>1452.06372402461</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>3136.226697008799</v>
+        <v>1463.572458604106</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>3161.230206602509</v>
+        <v>1475.240763081171</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>3186.580477186077</v>
+        <v>1487.070889353502</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>3212.282411747525</v>
+        <v>1499.065125482178</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>3238.340992478274</v>
+        <v>1511.225796489862</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>3264.761282535131</v>
+        <v>1523.555265183062</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>3291.548427855499</v>
+        <v>1536.055932999232</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>3318.707659027427</v>
+        <v>1548.730240879466</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>3346.244293216307</v>
+        <v>1561.580670167609</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>3374.163736149874</v>
+        <v>1574.609743536608</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>3402.471484163373</v>
+        <v>1587.820025942908</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>3431.173126306698</v>
+        <v>1601.214125609793</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>3460.274346515397</v>
+        <v>1614.794695040518</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>3489.780925847419</v>
+        <v>1628.564432062128</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>3519.698744787587</v>
+        <v>1642.526080900874</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>3550.033785621785</v>
+        <v>1656.682433290167</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>3580.792134882823</v>
+        <v>1671.036329611983</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>3611.979985870093</v>
+        <v>1685.59066007271</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>3643.603641245104</v>
+        <v>1700.348365914382</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>3675.669515704973</v>
+        <v>1715.31244066232</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>3708.184138736036</v>
+        <v>1730.48593141015</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>3741.154157449787</v>
+        <v>1745.871940143234</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>3774.586339503309</v>
+        <v>1761.473625101545</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>3808.487576106442</v>
+        <v>1777.294202183006</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>3842.864885117922</v>
+        <v>1793.336946388363</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>3877.725414232774</v>
+        <v>1809.605193308627</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>3913.076444263211</v>
+        <v>1826.102340656166</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>3948.925392515356</v>
+        <v>1842.831849840498</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>3985.279816264062</v>
+        <v>1859.797247589895</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>4022.147416328135</v>
+        <v>1877.002127619797</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>4059.536040748284</v>
+        <v>1894.450152349199</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>4097.453688570019</v>
+        <v>1912.145054666009</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>4135.908513733891</v>
+        <v>1930.090639742482</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>4174.908829075182</v>
+        <v>1948.290786901751</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>4214.463110435458</v>
+        <v>1966.749451536547</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>4254.580000888061</v>
+        <v>1985.470667081094</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>4295.268315079732</v>
+        <v>2004.458547037207</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>4336.537043690554</v>
+        <v>2023.717287055593</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>4378.395358014256</v>
+        <v>2043.251167073319</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>4420.852614660809</v>
+        <v>2063.064553508378</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>4463.918360383392</v>
+        <v>2083.161901512249</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>4507.602337031471</v>
+        <v>2103.547757281353</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>4551.914486631837</v>
+        <v>2124.22676042819</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>4596.864956599178</v>
+        <v>2145.20364641295</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>4642.464105077836</v>
+        <v>2166.483249036324</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>4688.72250641607</v>
+        <v>2188.070502994165</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>4735.650956774169</v>
+        <v>2209.970446494612</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>4783.260479867529</v>
+        <v>2232.18822393818</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>4831.562332845594</v>
+        <v>2254.729088661278</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>4880.568012307518</v>
+        <v>2277.598405743507</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>4930.289260455028</v>
+        <v>2300.801654879013</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>4980.738071382882</v>
+        <v>2324.344433312011</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>5031.92669750703</v>
+        <v>2348.232458836615</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>5083.867656130266</v>
+        <v>2372.471572860791</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>5136.573736145035</v>
+        <v>2397.06774353435</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>5190.058004872591</v>
+        <v>2422.027068940542</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>5244.333815037502</v>
+        <v>2447.355780350834</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>5299.414811876053</v>
+        <v>2473.060245542158</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>5355.314940376886</v>
+        <v>2499.146972175879</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>5412.048452651563</v>
+        <v>2525.622611237395</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>5469.629915432641</v>
+        <v>2552.493960535232</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>5528.07421769614</v>
+        <v>2579.7679682582</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>5587.39657840491</v>
+        <v>2607.451736588958</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>5647.612554368888</v>
+        <v>2635.552525372147</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>5708.738048217753</v>
+        <v>2664.077755834953</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>5770.789316480867</v>
+        <v>2693.035014357736</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>5833.782977768618</v>
+        <v>2722.432056292022</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>5897.736021049187</v>
+        <v>2752.276809822954</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>5962.665814013299</v>
+        <v>2782.577379872873</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>6028.590111519607</v>
+        <v>2813.342052042482</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>6095.527064112053</v>
+        <v>2844.579296585626</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>6163.495226599989</v>
+        <v>2876.297772413329</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>6232.513566691181</v>
+        <v>2908.506331122551</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>6302.601473666535</v>
+        <v>2941.214021044382</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>6373.778767085016</v>
+        <v>2974.430091306338</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>6446.065705505876</v>
+        <v>3008.163995902744</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>6519.482995214588</v>
+        <v>3042.425397766808</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>6594.051798937676</v>
+        <v>3077.224172837583</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>6669.793744530817</v>
+        <v>3112.570414114381</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>6746.730933623288</v>
+        <v>3148.474435690868</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>6824.885950200764</v>
+        <v>3184.946776760356</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>6904.281869107302</v>
+        <v>3221.998205583406</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>6984.942264446205</v>
+        <v>3259.639723408228</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>7066.891217858006</v>
+        <v>3297.882568333738</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>7150.153326652769</v>
+        <v>3336.738219104623</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>7234.753711772327</v>
+        <v>3376.218398827084</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>7320.718025556972</v>
+        <v>3416.335078593252</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>7408.072459289384</v>
+        <v>3457.100481001713</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>7496.84375048752</v>
+        <v>3498.527083560841</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>7587.059189916371</v>
+        <v>3540.627621960972</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>7678.746628287292</v>
+        <v>3583.415093200737</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>7771.934482611871</v>
+        <v>3626.902758552206</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>7866.651742175884</v>
+        <v>3671.104146348747</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>7962.927974097339</v>
+        <v>3716.033054578758</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>8060.793328430915</v>
+        <v>3761.70355326776</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>8160.278542779663</v>
+        <v>3808.129986630508</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>8261.414946373203</v>
+        <v>3855.32697497416</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>8364.234463569979</v>
+        <v>3903.309416332655</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>8468.769616739753</v>
+        <v>3952.092487811886</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>8575.053528480763</v>
+        <v>4001.691646624357</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>8683.119923124468</v>
+        <v>4052.122630791418</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>8793.00312747948</v>
+        <v>4103.401459490424</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>8904.738070764532</v>
+        <v>4155.544433023448</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>9018.360283679012</v>
+        <v>4208.56813238354</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>9133.90589655841</v>
+        <v>4262.489418393925</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>9251.411636560337</v>
+        <v>4317.325430394822</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>9370.914823825844</v>
+        <v>4373.093584452061</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>9492.453366559614</v>
+        <v>4429.811571061153</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>9616.065754971258</v>
+        <v>4487.497352319921</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>9741.791054019437</v>
+        <v>4546.169158542404</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>11269.0873416727</v>
+        <v>5258.907426113927</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>12820.77188274453</v>
+        <v>5983.026878614115</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>14397.26821288152</v>
+        <v>6718.725166011381</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>15999.00542825816</v>
+        <v>7466.202533187136</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>17626.41806155449</v>
+        <v>8225.661762058766</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>19279.945941504</v>
+        <v>8997.3081060352</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>20960.03403534636</v>
+        <v>9781.349216494969</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22667.13227352259</v>
+        <v>10577.99506097721</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>24401.69535595403</v>
+        <v>11387.45783277855</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>26164.18253925863</v>
+        <v>12209.95185165403</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>27955.05740426643</v>
+        <v>13045.69345532434</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>29774.78760320969</v>
+        <v>13894.90088149786</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>31623.8445859827</v>
+        <v>14757.79414012526</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>33502.70330488518</v>
+        <v>15634.59487561309</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>35411.84189728634</v>
+        <v>16525.52621873363</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>37351.74134567698</v>
+        <v>17430.8126279826</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>39322.8851146048</v>
+        <v>18350.67972014892</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>41325.75876402525</v>
+        <v>19285.35408987846</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>43360.84953864088</v>
+        <v>20235.06311803241</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>45428.64593284154</v>
+        <v>21200.0347686594</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>47529.63723091048</v>
+        <v>22180.4973744249</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>49664.313022208</v>
+        <v>23176.67941036375</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>51833.16269110756</v>
+        <v>24188.8092558502</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>54036.67488151376</v>
+        <v>25217.11494470642</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>56275.3369358615</v>
+        <v>26261.82390340203</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>58549.6343085655</v>
+        <v>27323.16267733057</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>60860.04995396212</v>
+        <v>28401.35664518233</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>63207.06368886706</v>
+        <v>29496.62972147131</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>65591.15152995566</v>
+        <v>30609.20404731264</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>68012.78500626092</v>
+        <v>31739.29966958843</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>70472.4304471759</v>
+        <v>32887.1342086821</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>72970.54824644602</v>
+        <v>34052.92251500815</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>75507.59210273482</v>
+        <v>35236.8763146096</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>78084.00823745219</v>
+        <v>36439.20384414436</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>80700.23459064234</v>
+        <v>37660.10947563311</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>83356.69999583773</v>
+        <v>38899.79333139095</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>86053.82333489733</v>
+        <v>40158.45088961877</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>88792.01267396877</v>
+        <v>41436.27258118543</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>91571.66438182362</v>
+        <v>42733.44337818437</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>94393.16223193855</v>
+        <v>44050.14237490468</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>97256.87648981383</v>
+        <v>45386.54236191314</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>100163.1629871389</v>
+        <v>46742.80939399814</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>103112.3621845363</v>
+        <v>48119.10235278363</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>106104.7982247302</v>
+        <v>49515.57250487412</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>109140.777978107</v>
+        <v>50932.36305644991</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>112220.590082744</v>
+        <v>52369.60870528052</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>115344.503981101</v>
+        <v>53827.43519118044</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>118512.7689556667</v>
+        <v>55305.9588459778</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>121725.6131659653</v>
+        <v>56805.28614411717</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>124983.2426894172</v>
+        <v>58325.51325506138</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>128285.8405686437</v>
+        <v>59866.72559870042</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>131633.5658678871</v>
+        <v>61428.99740501399</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>135026.5527412945</v>
+        <v>63012.39127927076</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>138464.9095158813</v>
+        <v>64616.95777407794</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>141948.7177920467</v>
+        <v>66242.73496962183</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>141871.5228597774</v>
+        <v>66206.71066789613</v>
       </c>
       <c r="C358" t="n">
-        <v>3453.178342164983</v>
+        <v>1611.483226343663</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>141792.0060580607</v>
+        <v>66169.60282709503</v>
       </c>
       <c r="C359" t="n">
-        <v>6952.175122395342</v>
+        <v>3244.348390451168</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>141710.0510101728</v>
+        <v>66131.35713808064</v>
       </c>
       <c r="C360" t="n">
-        <v>10497.09817259995</v>
+        <v>4898.645813879988</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>141625.5355523002</v>
+        <v>66091.91659107343</v>
       </c>
       <c r="C361" t="n">
-        <v>14088.03205490899</v>
+        <v>6574.414958957545</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>141538.3315112774</v>
+        <v>66051.22137192948</v>
       </c>
       <c r="C362" t="n">
-        <v>17725.03753977759</v>
+        <v>8271.684185229562</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>141448.3044787504</v>
+        <v>66009.20875675025</v>
       </c>
       <c r="C363" t="n">
-        <v>21408.15112140003</v>
+        <v>9990.47052332004</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>141355.3135821376</v>
+        <v>65965.81300499757</v>
       </c>
       <c r="C364" t="n">
-        <v>25137.38457291929</v>
+        <v>11730.77946736236</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>141259.2112528011</v>
+        <v>65920.96525130724</v>
       </c>
       <c r="C365" t="n">
-        <v>28912.72454382421</v>
+        <v>13492.604787118</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>141159.8429918996</v>
+        <v>65874.59339621986</v>
       </c>
       <c r="C366" t="n">
-        <v>32734.13220182905</v>
+        <v>15275.92836085359</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>141057.0471344398</v>
+        <v>65826.62199607195</v>
       </c>
       <c r="C367" t="n">
-        <v>36601.54292141462</v>
+        <v>17080.72002999353</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>140950.65461211</v>
+        <v>65776.97215231803</v>
       </c>
       <c r="C368" t="n">
-        <v>40514.86602106614</v>
+        <v>18906.93747649758</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>140840.4887155348</v>
+        <v>65725.56140058291</v>
       </c>
       <c r="C369" t="n">
-        <v>44473.98455109919</v>
+        <v>20754.52612384634</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>140726.3648566587</v>
+        <v>65672.3035997741</v>
       </c>
       <c r="C370" t="n">
-        <v>48478.75513378474</v>
+        <v>22623.41906243293</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>140608.0903320357</v>
+        <v>65617.10882161667</v>
       </c>
       <c r="C371" t="n">
-        <v>52529.00785730148</v>
+        <v>24513.53700007408</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>140485.4640878722</v>
+        <v>65559.88324100703</v>
       </c>
       <c r="C372" t="n">
-        <v>56624.54622483735</v>
+        <v>26424.78823825749</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>140358.276487752</v>
+        <v>65500.52902761763</v>
       </c>
       <c r="C373" t="n">
-        <v>56624.22077289072</v>
+        <v>26424.6363606824</v>
       </c>
       <c r="D373" t="n">
-        <v>4135.011160204228</v>
+        <v>1929.671874761974</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>140226.3090840496</v>
+        <v>65438.94423922318</v>
       </c>
       <c r="C374" t="n">
-        <v>56623.84418095344</v>
+        <v>26424.46061777834</v>
       </c>
       <c r="D374" t="n">
-        <v>8314.822346864052</v>
+        <v>3880.250428536559</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>140089.3343941231</v>
+        <v>65375.02271725747</v>
       </c>
       <c r="C375" t="n">
-        <v>56623.40897642399</v>
+        <v>26424.25752233127</v>
       </c>
       <c r="D375" t="n">
-        <v>12539.16542547679</v>
+        <v>5851.610531889172</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>139947.1156824678</v>
+        <v>65308.65398515169</v>
       </c>
       <c r="C376" t="n">
-        <v>56622.90668770159</v>
+        <v>26424.02312092748</v>
       </c>
       <c r="D376" t="n">
-        <v>16807.7470777458</v>
+        <v>7843.615302948042</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>139799.4067501015</v>
+        <v>65239.72315004737</v>
       </c>
       <c r="C377" t="n">
-        <v>56622.32772518216</v>
+        <v>26423.75293841841</v>
       </c>
       <c r="D377" t="n">
-        <v>21120.24915638645</v>
+        <v>9856.116272980345</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>139645.951732546</v>
+        <v>65168.11080852147</v>
       </c>
       <c r="C378" t="n">
-        <v>56621.66125023814</v>
+        <v>26423.44191677786</v>
       </c>
       <c r="D378" t="n">
-        <v>25476.32910970629</v>
+        <v>11888.95358452961</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>139486.4849078718</v>
+        <v>65093.69295700682</v>
       </c>
       <c r="C379" t="n">
-        <v>56620.89503127415</v>
+        <v>26423.084347928</v>
       </c>
       <c r="D379" t="n">
-        <v>29875.62047631779</v>
+        <v>13941.95622228164</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>139320.7305163654</v>
+        <v>65016.34090763719</v>
       </c>
       <c r="C380" t="n">
-        <v>56620.01528592437</v>
+        <v>26422.6738000981</v>
       </c>
       <c r="D380" t="n">
-        <v>34317.7334500519</v>
+        <v>16014.94227669089</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>139148.402593488</v>
+        <v>64935.92121029443</v>
       </c>
       <c r="C381" t="n">
-        <v>56619.00650843625</v>
+        <v>26422.20303727032</v>
       </c>
       <c r="D381" t="n">
-        <v>38802.25551483782</v>
+        <v>18107.71924025766</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>138969.2048178928</v>
+        <v>64852.2955816833</v>
       </c>
       <c r="C382" t="n">
-        <v>56617.85128127215</v>
+        <v>26421.6639312604</v>
       </c>
       <c r="D382" t="n">
-        <v>43328.75214899496</v>
+        <v>20220.08433619766</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>138782.830376374</v>
+        <v>64765.32084230788</v>
       </c>
       <c r="C383" t="n">
-        <v>56616.53006995435</v>
+        <v>26421.04736597876</v>
       </c>
       <c r="D383" t="n">
-        <v>43328.67099764866</v>
+        <v>20220.04646556939</v>
       </c>
       <c r="E383" t="n">
-        <v>5165.565887578204</v>
+        <v>3181.988586748182</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>138588.9618477276</v>
+        <v>64674.84886227288</v>
       </c>
       <c r="C384" t="n">
-        <v>56615.02100018298</v>
+        <v>26420.3431334188</v>
       </c>
       <c r="D384" t="n">
-        <v>43328.57424948494</v>
+        <v>20220.00131642631</v>
       </c>
       <c r="E384" t="n">
-        <v>10377.56012147606</v>
+        <v>6392.57703482927</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>138387.2711076023</v>
+        <v>64580.72651688111</v>
       </c>
       <c r="C385" t="n">
-        <v>56613.29961627118</v>
+        <v>26419.53982092661</v>
       </c>
       <c r="D385" t="n">
-        <v>43328.45909978039</v>
+        <v>20219.94757989753</v>
       </c>
       <c r="E385" t="n">
-        <v>15635.425414488</v>
+        <v>9631.42205532463</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>138177.4192565279</v>
+        <v>64482.79565304636</v>
       </c>
       <c r="C386" t="n">
-        <v>56611.33861996872</v>
+        <v>26418.62468931881</v>
       </c>
       <c r="D386" t="n">
-        <v>43328.32227790094</v>
+        <v>20219.88372968712</v>
       </c>
       <c r="E386" t="n">
-        <v>20938.5840671773</v>
+        <v>12898.16778538125</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>137959.0565734024</v>
+        <v>64380.89306758779</v>
       </c>
       <c r="C387" t="n">
-        <v>56609.10758878684</v>
+        <v>26417.58354143393</v>
       </c>
       <c r="D387" t="n">
-        <v>43328.15997718781</v>
+        <v>20219.80798935432</v>
       </c>
       <c r="E387" t="n">
-        <v>26286.43921310258</v>
+        <v>16192.44655527123</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>137731.8224968199</v>
+        <v>64274.85049851595</v>
       </c>
       <c r="C388" t="n">
-        <v>56606.572672993</v>
+        <v>26416.40058073013</v>
       </c>
       <c r="D388" t="n">
-        <v>43327.96777559722</v>
+        <v>20219.71829527871</v>
       </c>
       <c r="E388" t="n">
-        <v>31678.37614093599</v>
+        <v>19513.87970281662</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>137495.3456367095</v>
+        <v>64164.49463046444</v>
       </c>
       <c r="C389" t="n">
-        <v>56603.69627051838</v>
+        <v>26415.05825957531</v>
       </c>
       <c r="D389" t="n">
-        <v>43327.74054609593</v>
+        <v>20219.61225484478</v>
       </c>
       <c r="E389" t="n">
-        <v>37113.76369109836</v>
+        <v>22862.07843371665</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>137249.2438188425</v>
+        <v>64049.64711545988</v>
       </c>
       <c r="C390" t="n">
-        <v>56600.43667911358</v>
+        <v>26413.53711691974</v>
       </c>
       <c r="D390" t="n">
-        <v>43327.47235574275</v>
+        <v>20219.48709934663</v>
       </c>
       <c r="E390" t="n">
-        <v>42591.95572416688</v>
+        <v>26236.64472608687</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>136993.1241648418</v>
+        <v>63930.12461025953</v>
       </c>
       <c r="C391" t="n">
-        <v>56596.7477252</v>
+        <v>26411.81560509339</v>
       </c>
       <c r="D391" t="n">
-        <v>43327.15635231471</v>
+        <v>20219.33963108021</v>
       </c>
       <c r="E391" t="n">
-        <v>48112.292657929</v>
+        <v>29637.17227728433</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>136726.583210397</v>
+        <v>63805.73883151866</v>
       </c>
       <c r="C392" t="n">
-        <v>56592.57836899975</v>
+        <v>26409.86990553328</v>
       </c>
       <c r="D392" t="n">
-        <v>43326.78463726785</v>
+        <v>20219.16616405834</v>
       </c>
       <c r="E392" t="n">
-        <v>53674.10306957296</v>
+        <v>33063.24749085703</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>136449.2070644463</v>
+        <v>63676.29663007498</v>
       </c>
       <c r="C393" t="n">
-        <v>56587.872285685</v>
+        <v>26407.67373331973</v>
       </c>
       <c r="D393" t="n">
-        <v>43326.34812375576</v>
+        <v>20218.9624577527</v>
       </c>
       <c r="E393" t="n">
-        <v>53674.0368136397</v>
+        <v>33063.20667720214</v>
       </c>
       <c r="F393" t="n">
-        <v>6328.167502909429</v>
+        <v>3248.45931816017</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>136160.5716121314</v>
+        <v>63541.6000856613</v>
       </c>
       <c r="C394" t="n">
-        <v>56582.56742246989</v>
+        <v>26405.19813048602</v>
       </c>
       <c r="D394" t="n">
-        <v>43325.83637836845</v>
+        <v>20218.72364323862</v>
       </c>
       <c r="E394" t="n">
-        <v>53673.95656690851</v>
+        <v>33063.15724521573</v>
       </c>
       <c r="F394" t="n">
-        <v>12701.64548150398</v>
+        <v>6520.178013838703</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>135860.2427643651</v>
+        <v>63401.44662337042</v>
       </c>
       <c r="C395" t="n">
-        <v>56576.59553177747</v>
+        <v>26402.41124816289</v>
       </c>
       <c r="D395" t="n">
-        <v>43325.23744519924</v>
+        <v>20218.44414109299</v>
       </c>
       <c r="E395" t="n">
-        <v>53673.85955964326</v>
+        <v>33063.09748874033</v>
       </c>
       <c r="F395" t="n">
-        <v>19119.65010085257</v>
+        <v>9814.753718437642</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>135547.776756866</v>
+        <v>63255.62915320419</v>
       </c>
       <c r="C396" t="n">
-        <v>56569.88168084962</v>
+        <v>26399.27811772989</v>
       </c>
       <c r="D396" t="n">
-        <v>43324.53765080161</v>
+        <v>20218.11757037409</v>
       </c>
       <c r="E396" t="n">
-        <v>53673.7425140369</v>
+        <v>33063.02538864681</v>
       </c>
       <c r="F396" t="n">
-        <v>25581.39260522821</v>
+        <v>13131.78153735047</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>135222.7205015127</v>
+        <v>63103.9362340393</v>
       </c>
       <c r="C397" t="n">
-        <v>56562.34373843155</v>
+        <v>26395.76041126813</v>
       </c>
       <c r="D397" t="n">
-        <v>43323.72138856323</v>
+        <v>20217.73664799619</v>
       </c>
       <c r="E397" t="n">
-        <v>53673.60155935165</v>
+        <v>33062.93856056069</v>
       </c>
       <c r="F397" t="n">
-        <v>32086.08151602172</v>
+        <v>16470.85517822446</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>134884.6119928502</v>
+        <v>62946.15226333013</v>
       </c>
       <c r="C398" t="n">
-        <v>56553.89183945422</v>
+        <v>26391.81619174537</v>
       </c>
       <c r="D398" t="n">
-        <v>43322.77088100257</v>
+        <v>20217.29307780121</v>
       </c>
       <c r="E398" t="n">
-        <v>53673.43213452135</v>
+        <v>33062.83419486523</v>
       </c>
       <c r="F398" t="n">
-        <v>38632.92488387573</v>
+        <v>19831.56810705619</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>134532.9807725382</v>
+        <v>62782.05769385117</v>
       </c>
       <c r="C399" t="n">
-        <v>56544.42782895859</v>
+        <v>26387.39965351408</v>
       </c>
       <c r="D399" t="n">
-        <v>43321.66591848825</v>
+        <v>20216.77742862787</v>
       </c>
       <c r="E399" t="n">
-        <v>53673.22887666671</v>
+        <v>33062.70898802677</v>
       </c>
       <c r="F399" t="n">
-        <v>45221.13258949186</v>
+        <v>23213.51472927246</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>134167.3484544637</v>
+        <v>62611.42927874974</v>
       </c>
       <c r="C400" t="n">
-        <v>56533.84468685425</v>
+        <v>26382.46085386538</v>
       </c>
       <c r="D400" t="n">
-        <v>43320.38357289461</v>
+        <v>20216.17900068417</v>
       </c>
       <c r="E400" t="n">
-        <v>53672.98549383649</v>
+        <v>33062.55906420335</v>
       </c>
       <c r="F400" t="n">
-        <v>51849.9186871861</v>
+        <v>26616.29159275551</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>133787.2293131529</v>
+        <v>62434.04034613803</v>
       </c>
       <c r="C401" t="n">
-        <v>56522.02593548169</v>
+        <v>26376.94543655819</v>
       </c>
       <c r="D401" t="n">
-        <v>43318.89788474228</v>
+        <v>20215.48567954641</v>
       </c>
       <c r="E401" t="n">
-        <v>53672.69462014638</v>
+        <v>33062.37988601025</v>
       </c>
       <c r="F401" t="n">
-        <v>58518.50378490986</v>
+        <v>30039.49860958703</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>133392.1309379952</v>
+        <v>62249.6611043978</v>
       </c>
       <c r="C402" t="n">
-        <v>56508.845032351</v>
+        <v>26370.79434843053</v>
       </c>
       <c r="D402" t="n">
-        <v>43317.17952243259</v>
+        <v>20214.68377713521</v>
       </c>
       <c r="E402" t="n">
-        <v>53672.3476513457</v>
+        <v>33062.16615322904</v>
       </c>
       <c r="F402" t="n">
-        <v>65226.11745404858</v>
+        <v>33482.74029307823</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>132981.554955651</v>
+        <v>62058.05897930381</v>
       </c>
       <c r="C403" t="n">
-        <v>56494.16475085798</v>
+        <v>26363.94355040046</v>
       </c>
       <c r="D403" t="n">
-        <v>43315.19541227333</v>
+        <v>20213.7578590609</v>
       </c>
       <c r="E403" t="n">
-        <v>53671.93455870046</v>
+        <v>33061.91168815957</v>
       </c>
       <c r="F403" t="n">
-        <v>65226.06034888395</v>
+        <v>33482.71097909372</v>
       </c>
       <c r="G403" t="n">
-        <v>6438.734544675421</v>
+        <v>2146.244848225136</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>132554.9978228332</v>
+        <v>61858.99898398883</v>
       </c>
       <c r="C404" t="n">
-        <v>56477.83655223107</v>
+        <v>26356.32372437456</v>
       </c>
       <c r="D404" t="n">
-        <v>43312.9083381135</v>
+        <v>20212.69055778631</v>
       </c>
       <c r="E404" t="n">
-        <v>53671.44367894418</v>
+        <v>33061.60930622969</v>
       </c>
       <c r="F404" t="n">
-        <v>65225.9902459048</v>
+        <v>33482.67499289776</v>
       </c>
       <c r="G404" t="n">
-        <v>12913.29701030614</v>
+        <v>4304.432336768706</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>132111.9516914506</v>
+        <v>61652.24412267693</v>
       </c>
       <c r="C405" t="n">
-        <v>56459.69995243487</v>
+        <v>26347.859977803</v>
       </c>
       <c r="D405" t="n">
-        <v>43310.27650955874</v>
+        <v>20211.46237112742</v>
       </c>
       <c r="E405" t="n">
-        <v>53670.86147791726</v>
+        <v>33061.25067039711</v>
       </c>
       <c r="F405" t="n">
-        <v>65225.90436766203</v>
+        <v>33482.63090873314</v>
       </c>
       <c r="G405" t="n">
-        <v>19422.9943506983</v>
+        <v>6474.331450232754</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>131651.9053478542</v>
+        <v>61437.55582899866</v>
       </c>
       <c r="C406" t="n">
-        <v>56439.58188824526</v>
+        <v>26338.47154784785</v>
       </c>
       <c r="D406" t="n">
-        <v>43307.25309793329</v>
+        <v>20210.05144570221</v>
       </c>
       <c r="E406" t="n">
-        <v>53670.17228539495</v>
+        <v>33060.82612780337</v>
       </c>
       <c r="F406" t="n">
-        <v>65225.79938559447</v>
+        <v>33482.57701793846</v>
       </c>
       <c r="G406" t="n">
-        <v>25967.1519442607</v>
+        <v>8655.717314753549</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>131174.345227659</v>
+        <v>61214.69443957422</v>
       </c>
       <c r="C407" t="n">
-        <v>56417.29608721483</v>
+        <v>26328.07150736698</v>
       </c>
       <c r="D407" t="n">
-        <v>43303.78573938682</v>
+        <v>20208.43334504719</v>
       </c>
       <c r="E407" t="n">
-        <v>53669.35799849786</v>
+        <v>33060.32452707476</v>
       </c>
       <c r="F407" t="n">
-        <v>65225.67132011008</v>
+        <v>33482.51127765648</v>
       </c>
       <c r="G407" t="n">
-        <v>32545.11602202951</v>
+        <v>10848.37200734315</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>130678.7565072985</v>
+        <v>60983.41970340598</v>
       </c>
       <c r="C408" t="n">
-        <v>56392.64244675889</v>
+        <v>26316.56647515421</v>
       </c>
       <c r="D408" t="n">
-        <v>43299.81600482373</v>
+        <v>20206.58080225109</v>
       </c>
       <c r="E408" t="n">
-        <v>53668.39775099183</v>
+        <v>33059.73301461105</v>
       </c>
       <c r="F408" t="n">
-        <v>65225.51542454035</v>
+        <v>33482.43125126401</v>
       </c>
       <c r="G408" t="n">
-        <v>39156.25609263869</v>
+        <v>13052.08536421287</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>130164.6242731316</v>
+        <v>60743.49132746142</v>
       </c>
       <c r="C409" t="n">
-        <v>56365.40642810832</v>
+        <v>26303.85633311728</v>
       </c>
       <c r="D409" t="n">
-        <v>43295.27883665647</v>
+        <v>20204.46345710636</v>
       </c>
       <c r="E409" t="n">
-        <v>53667.26754572072</v>
+        <v>33059.03680816404</v>
       </c>
       <c r="F409" t="n">
-        <v>65225.32605076017</v>
+        <v>33482.33403939019</v>
       </c>
       <c r="G409" t="n">
-        <v>45799.96735690611</v>
+        <v>15266.65578563534</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>129631.4347685346</v>
+        <v>60494.66955864951</v>
       </c>
       <c r="C410" t="n">
-        <v>56335.3584713881</v>
+        <v>26289.83395331451</v>
       </c>
       <c r="D410" t="n">
-        <v>43290.10195275809</v>
+        <v>20202.04757795378</v>
       </c>
       <c r="E410" t="n">
-        <v>53665.93984738087</v>
+        <v>33058.2189459867</v>
       </c>
       <c r="F410" t="n">
-        <v>65225.09649403948</v>
+        <v>33482.21620027356</v>
       </c>
       <c r="G410" t="n">
-        <v>52475.67310435748</v>
+        <v>17491.89103478579</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>129078.6767190013</v>
+        <v>60236.71580220063</v>
       </c>
       <c r="C411" t="n">
-        <v>56302.25343858562</v>
+        <v>26274.38493800669</v>
       </c>
       <c r="D411" t="n">
-        <v>43284.20521841336</v>
+        <v>20199.29576859291</v>
       </c>
       <c r="E411" t="n">
-        <v>53664.38313284895</v>
+        <v>33057.26000983503</v>
       </c>
       <c r="F411" t="n">
-        <v>65224.81881445489</v>
+        <v>33482.0736580868</v>
       </c>
       <c r="G411" t="n">
-        <v>59182.82708369796</v>
+        <v>19727.60902789928</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>128505.8427348194</v>
+        <v>59969.39327624906</v>
       </c>
       <c r="C412" t="n">
-        <v>56265.83009166048</v>
+        <v>26257.38737610829</v>
       </c>
       <c r="D412" t="n">
-        <v>43277.4999875435</v>
+        <v>20196.16666085364</v>
       </c>
       <c r="E412" t="n">
-        <v>53662.56139631646</v>
+        <v>33056.13782013103</v>
       </c>
       <c r="F412" t="n">
-        <v>65224.48363194601</v>
+        <v>33481.90159773225</v>
       </c>
       <c r="G412" t="n">
-        <v>65920.9158388457</v>
+        <v>21973.63861294852</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>127912.4307904113</v>
+        <v>59692.46770219195</v>
       </c>
       <c r="C413" t="n">
-        <v>56225.81061351269</v>
+        <v>26238.71161963932</v>
       </c>
       <c r="D413" t="n">
-        <v>43269.88841500712</v>
+        <v>20192.61459367</v>
       </c>
       <c r="E413" t="n">
-        <v>53660.43360657778</v>
+        <v>33054.82710165199</v>
       </c>
       <c r="F413" t="n">
-        <v>65224.07989185268</v>
+        <v>33481.69434448433</v>
       </c>
       <c r="G413" t="n">
-        <v>65920.87167179585</v>
+        <v>21973.62389059857</v>
       </c>
       <c r="H413" t="n">
-        <v>7269.992417250414</v>
+        <v>2423.330805750134</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>127297.9457789064</v>
+        <v>59405.70803015637</v>
       </c>
       <c r="C414" t="n">
-        <v>56181.90017995831</v>
+        <v>26218.22008398062</v>
       </c>
       <c r="D414" t="n">
-        <v>43261.26274235995</v>
+        <v>20188.58927976799</v>
       </c>
       <c r="E414" t="n">
-        <v>53657.95311396482</v>
+        <v>33053.29911820241</v>
       </c>
       <c r="F414" t="n">
-        <v>65223.59459751978</v>
+        <v>33481.44522672679</v>
       </c>
       <c r="G414" t="n">
-        <v>65920.81686198949</v>
+        <v>21973.60562066312</v>
       </c>
       <c r="H414" t="n">
-        <v>14572.23511024357</v>
+        <v>4857.411703414514</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>126661.9011399664</v>
+        <v>59108.88719865101</v>
       </c>
       <c r="C415" t="n">
-        <v>56133.78659125325</v>
+        <v>26195.76707591825</v>
       </c>
       <c r="D415" t="n">
-        <v>43251.50456008489</v>
+        <v>20184.03546137296</v>
       </c>
       <c r="E415" t="n">
-        <v>53655.06700463301</v>
+        <v>33051.52127485402</v>
       </c>
       <c r="F415" t="n">
-        <v>65223.01250631263</v>
+        <v>33481.14641990711</v>
       </c>
       <c r="G415" t="n">
-        <v>65920.74899949566</v>
+        <v>21973.58299983184</v>
       </c>
       <c r="H415" t="n">
-        <v>21906.29939008724</v>
+        <v>7302.099796695735</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>126003.820558306</v>
+        <v>58801.7829272095</v>
       </c>
       <c r="C416" t="n">
-        <v>56081.13997204712</v>
+        <v>26171.19865362206</v>
       </c>
       <c r="D416" t="n">
-        <v>43240.48404998254</v>
+        <v>20178.89255665853</v>
       </c>
       <c r="E416" t="n">
-        <v>53651.71540018338</v>
+        <v>33049.45668651304</v>
       </c>
       <c r="F416" t="n">
-        <v>65222.31578514976</v>
+        <v>33480.78876971018</v>
       </c>
       <c r="G416" t="n">
-        <v>65920.66516691294</v>
+        <v>21973.5550556376</v>
       </c>
       <c r="H416" t="n">
-        <v>29271.80180866838</v>
+        <v>9757.267269556112</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>125323.2397297492</v>
+        <v>58484.17854054962</v>
       </c>
       <c r="C417" t="n">
-        <v>56023.61254893161</v>
+        <v>26144.35252283482</v>
       </c>
       <c r="D417" t="n">
-        <v>43228.05921213383</v>
+        <v>20173.09429899579</v>
       </c>
       <c r="E417" t="n">
-        <v>53647.83070096367</v>
+        <v>33047.0637117937</v>
       </c>
       <c r="F417" t="n">
-        <v>65221.48362144209</v>
+        <v>33480.36159234025</v>
       </c>
       <c r="G417" t="n">
-        <v>65920.56184149587</v>
+        <v>21973.52061383191</v>
       </c>
       <c r="H417" t="n">
-        <v>36668.40643699821</v>
+        <v>12222.80214566605</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>124619.7081910335</v>
+        <v>58155.86382248233</v>
       </c>
       <c r="C418" t="n">
-        <v>55960.83851495935</v>
+        <v>26115.05797364777</v>
       </c>
       <c r="D418" t="n">
-        <v>43214.07508160843</v>
+        <v>20166.56837141728</v>
       </c>
       <c r="E418" t="n">
-        <v>53643.33677183452</v>
+        <v>33044.29545145015</v>
       </c>
       <c r="F418" t="n">
-        <v>65220.49178513078</v>
+        <v>33479.85244970044</v>
       </c>
       <c r="G418" t="n">
-        <v>65920.43478040445</v>
+        <v>21973.47826013477</v>
       </c>
       <c r="H418" t="n">
-        <v>44095.82706057803</v>
+        <v>14698.60902019265</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>123892.7912089308</v>
+        <v>57816.63589750108</v>
       </c>
       <c r="C419" t="n">
-        <v>55892.43399064399</v>
+        <v>26083.13586230059</v>
       </c>
       <c r="D419" t="n">
-        <v>43198.36294088812</v>
+        <v>20159.23603908113</v>
       </c>
       <c r="E419" t="n">
-        <v>53638.14806971902</v>
+        <v>33041.099210947</v>
       </c>
       <c r="F419" t="n">
-        <v>65219.31213735373</v>
+        <v>33479.24689717488</v>
       </c>
       <c r="G419" t="n">
-        <v>65920.27888658794</v>
+        <v>21973.42629552927</v>
       </c>
       <c r="H419" t="n">
-        <v>51553.82928170878</v>
+        <v>17184.60976056956</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>123142.0717235863</v>
+        <v>57466.30013767364</v>
       </c>
       <c r="C420" t="n">
-        <v>55817.99709099662</v>
+        <v>26048.39864246516</v>
       </c>
       <c r="D420" t="n">
-        <v>43180.7395347954</v>
+        <v>20151.01178290453</v>
       </c>
       <c r="E420" t="n">
-        <v>53632.16871288506</v>
+        <v>33037.41592713728</v>
       </c>
       <c r="F420" t="n">
-        <v>65217.91208114726</v>
+        <v>33478.52820165556</v>
       </c>
       <c r="G420" t="n">
-        <v>65920.08805252954</v>
+        <v>21973.36268417647</v>
       </c>
       <c r="H420" t="n">
-        <v>59042.23251825939</v>
+        <v>19680.74417275309</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>122367.1523403116</v>
+        <v>57104.67109214547</v>
       </c>
       <c r="C421" t="n">
-        <v>55737.10810810118</v>
+        <v>26010.65045044729</v>
       </c>
       <c r="D421" t="n">
-        <v>43161.00629555716</v>
+        <v>20141.80293792668</v>
       </c>
       <c r="E421" t="n">
-        <v>53625.29149264069</v>
+        <v>33033.17955946674</v>
       </c>
       <c r="F421" t="n">
-        <v>65216.25394952008</v>
+        <v>33477.67702742028</v>
       </c>
       <c r="G421" t="n">
-        <v>65919.85497877898</v>
+        <v>21973.28499292628</v>
       </c>
       <c r="H421" t="n">
-        <v>66560.91188798178</v>
+        <v>22186.97062932722</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>121567.6573633844</v>
+        <v>56731.57343624606</v>
       </c>
       <c r="C422" t="n">
-        <v>55649.32981857174</v>
+        <v>25969.68724866687</v>
       </c>
       <c r="D422" t="n">
-        <v>43138.94858647832</v>
+        <v>20131.50934035656</v>
       </c>
       <c r="E422" t="n">
-        <v>53617.39682896012</v>
+        <v>33028.31644663952</v>
       </c>
       <c r="F422" t="n">
-        <v>65214.29432622837</v>
+        <v>33476.67108746386</v>
       </c>
       <c r="G422" t="n">
-        <v>65919.57096388654</v>
+        <v>21973.19032129547</v>
       </c>
       <c r="H422" t="n">
-        <v>74109.79996699038</v>
+        <v>24703.26665566342</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>120743.2348647302</v>
+        <v>56346.84293687408</v>
       </c>
       <c r="C423" t="n">
-        <v>55554.20792495992</v>
+        <v>25925.29703164802</v>
       </c>
       <c r="D423" t="n">
-        <v>43114.3349735419</v>
+        <v>20120.0229876529</v>
       </c>
       <c r="E423" t="n">
-        <v>53608.35167250309</v>
+        <v>33022.74463026198</v>
       </c>
       <c r="F423" t="n">
-        <v>65211.98329464877</v>
+        <v>33475.48475791966</v>
       </c>
       <c r="G423" t="n">
-        <v>65919.22566202785</v>
+        <v>21973.0752206759</v>
       </c>
       <c r="H423" t="n">
-        <v>81688.88841054973</v>
+        <v>27229.6294701832</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>119893.5587796894</v>
+        <v>55950.32743052173</v>
       </c>
       <c r="C424" t="n">
-        <v>55451.27163978336</v>
+        <v>25877.26009856562</v>
       </c>
       <c r="D424" t="n">
-        <v>43086.91653507489</v>
+        <v>20107.22771636829</v>
       </c>
       <c r="E424" t="n">
-        <v>53598.00835654316</v>
+        <v>33016.37314763067</v>
       </c>
       <c r="F424" t="n">
-        <v>65209.26361030281</v>
+        <v>33474.08865328874</v>
       </c>
       <c r="G424" t="n">
-        <v>65918.80680427821</v>
+        <v>21972.93560142603</v>
       </c>
       <c r="H424" t="n">
-        <v>89298.22942377286</v>
+        <v>29766.0764745909</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>119018.3310214102</v>
+        <v>55541.88780999146</v>
       </c>
       <c r="C425" t="n">
-        <v>55340.03442031885</v>
+        <v>25825.34939614886</v>
       </c>
       <c r="D425" t="n">
-        <v>43056.42622041014</v>
+        <v>20092.99890285807</v>
       </c>
       <c r="E425" t="n">
-        <v>53586.20340348218</v>
+        <v>33009.10129654511</v>
       </c>
       <c r="F425" t="n">
-        <v>65206.06979284281</v>
+        <v>33472.44916032594</v>
       </c>
       <c r="G425" t="n">
-        <v>65918.29987916393</v>
+        <v>21972.76662638793</v>
       </c>
       <c r="H425" t="n">
-        <v>96937.93706930807</v>
+        <v>32312.6456897693</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>118117.2836047662</v>
+        <v>55121.39901555759</v>
       </c>
       <c r="C426" t="n">
-        <v>55219.99486164363</v>
+        <v>25769.33093543375</v>
       </c>
       <c r="D426" t="n">
-        <v>43022.57826921732</v>
+        <v>20077.20319230143</v>
       </c>
       <c r="E426" t="n">
-        <v>53572.75629189162</v>
+        <v>33000.81787580532</v>
       </c>
       <c r="F426" t="n">
-        <v>65202.32713368357</v>
+        <v>33470.52792862419</v>
       </c>
       <c r="G426" t="n">
-        <v>65917.68776779162</v>
+        <v>21972.56258926383</v>
       </c>
       <c r="H426" t="n">
-        <v>104608.1883984879</v>
+        <v>34869.39613282926</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>117190.1807700791</v>
+        <v>54688.75102603694</v>
       </c>
       <c r="C427" t="n">
-        <v>55090.63775460744</v>
+        <v>25708.96428548354</v>
       </c>
       <c r="D427" t="n">
-        <v>42985.06770385382</v>
+        <v>20059.69826179845</v>
       </c>
       <c r="E427" t="n">
-        <v>53557.46819138534</v>
+        <v>32991.40040589346</v>
       </c>
       <c r="F427" t="n">
-        <v>65197.95061596621</v>
+        <v>33468.28131619595</v>
       </c>
       <c r="G427" t="n">
-        <v>65916.95032854479</v>
+        <v>21972.31677618155</v>
       </c>
       <c r="H427" t="n">
-        <v>112309.2243918287</v>
+        <v>37436.40813060951</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>116236.8210963433</v>
+        <v>54243.8498449602</v>
       </c>
       <c r="C428" t="n">
-        <v>54951.43531447813</v>
+        <v>25644.00314675653</v>
       </c>
       <c r="D428" t="n">
-        <v>42943.56990768173</v>
+        <v>20040.33262358481</v>
       </c>
       <c r="E428" t="n">
-        <v>53540.12067407915</v>
+        <v>32980.71433523283</v>
       </c>
       <c r="F428" t="n">
-        <v>65192.84374418712</v>
+        <v>33465.65978868268</v>
       </c>
       <c r="G428" t="n">
-        <v>65916.0639260454</v>
+        <v>21972.02130868175</v>
       </c>
       <c r="H428" t="n">
-        <v>120041.3506941326</v>
+        <v>40013.78356471082</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>115257.0395931019</v>
+        <v>53786.61847678089</v>
       </c>
       <c r="C429" t="n">
-        <v>54801.84858492018</v>
+        <v>25574.19600629614</v>
       </c>
       <c r="D429" t="n">
-        <v>42897.74030279223</v>
+        <v>20018.94547463638</v>
       </c>
       <c r="E429" t="n">
-        <v>53520.47441292208</v>
+        <v>32968.61223836008</v>
       </c>
       <c r="F429" t="n">
-        <v>65186.89728162656</v>
+        <v>33462.60727123493</v>
       </c>
       <c r="G429" t="n">
-        <v>65915.00089882282</v>
+        <v>21971.66696627423</v>
       </c>
       <c r="H429" t="n">
-        <v>127804.9381287878</v>
+        <v>42601.64604292921</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>114250.7097596275</v>
+        <v>53316.99788782616</v>
       </c>
       <c r="C430" t="n">
-        <v>54641.3290207437</v>
+        <v>25499.28687634712</v>
       </c>
       <c r="D430" t="n">
-        <v>42847.21414095315</v>
+        <v>19995.36659911147</v>
       </c>
       <c r="E430" t="n">
-        <v>53498.26787877699</v>
+        <v>32954.93301332671</v>
       </c>
       <c r="F430" t="n">
-        <v>65179.9878946833</v>
+        <v>33459.06045260405</v>
       </c>
       <c r="G430" t="n">
-        <v>65913.72895991946</v>
+        <v>21971.24298663978</v>
       </c>
       <c r="H430" t="n">
-        <v>135600.4229752049</v>
+        <v>45200.14099173488</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>113217.7455996139</v>
+        <v>52834.94794648654</v>
       </c>
       <c r="C431" t="n">
-        <v>54469.32025150045</v>
+        <v>25419.01611736694</v>
       </c>
       <c r="D431" t="n">
-        <v>42791.60642183246</v>
+        <v>19969.41633018849</v>
       </c>
       <c r="E431" t="n">
-        <v>53473.2160497643</v>
+        <v>32939.50108665488</v>
       </c>
       <c r="F431" t="n">
-        <v>65171.97670437113</v>
+        <v>33454.94804157714</v>
       </c>
       <c r="G431" t="n">
-        <v>65912.21052451053</v>
+        <v>21970.73684150347</v>
       </c>
       <c r="H431" t="n">
-        <v>143428.3069926438</v>
+        <v>47809.43566421451</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>112158.1035792063</v>
+        <v>52340.44833696297</v>
       </c>
       <c r="C432" t="n">
-        <v>54285.26002651209</v>
+        <v>25333.12134570571</v>
       </c>
       <c r="D432" t="n">
-        <v>42730.51195263054</v>
+        <v>19940.90557789426</v>
       </c>
       <c r="E432" t="n">
-        <v>53445.00914804357</v>
+        <v>32922.12563519492</v>
       </c>
       <c r="F432" t="n">
-        <v>65162.7077465724</v>
+        <v>33450.18997657379</v>
       </c>
       <c r="G432" t="n">
-        <v>65910.40195853623</v>
+        <v>21970.13398617869</v>
       </c>
       <c r="H432" t="n">
-        <v>151289.1571729998</v>
+        <v>50429.71905766651</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>111071.7845158788</v>
+        <v>51833.49944074346</v>
       </c>
       <c r="C433" t="n">
-        <v>54088.5823402999</v>
+        <v>25241.33842547336</v>
       </c>
       <c r="D433" t="n">
-        <v>42663.50556315792</v>
+        <v>19909.6359294737</v>
       </c>
       <c r="E433" t="n">
-        <v>53413.3114208663</v>
+        <v>32902.59983525372</v>
       </c>
       <c r="F433" t="n">
-        <v>65152.00634417618</v>
+        <v>33444.69659001041</v>
       </c>
       <c r="G433" t="n">
-        <v>65908.25274235624</v>
+        <v>21969.41758078537</v>
       </c>
       <c r="H433" t="n">
-        <v>159183.6052044492</v>
+        <v>53061.20173481631</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>109958.8353854341</v>
+        <v>51314.12317986925</v>
       </c>
       <c r="C434" t="n">
-        <v>53878.71973565516</v>
+        <v>25143.40254330581</v>
       </c>
       <c r="D434" t="n">
-        <v>42590.14249010909</v>
+        <v>19875.39982871758</v>
       </c>
       <c r="E434" t="n">
-        <v>53377.75998436293</v>
+        <v>32880.70015036765</v>
       </c>
       <c r="F434" t="n">
-        <v>65139.67739596003</v>
+        <v>33438.36772992611</v>
       </c>
       <c r="G434" t="n">
-        <v>65905.70454355629</v>
+        <v>21968.56818118539</v>
       </c>
       <c r="H434" t="n">
-        <v>167112.3466271801</v>
+        <v>55704.11554239328</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>108819.3510342393</v>
+        <v>50782.36381597837</v>
       </c>
       <c r="C435" t="n">
-        <v>53655.10577975823</v>
+        <v>25039.04936388723</v>
       </c>
       <c r="D435" t="n">
-        <v>42509.95894378729</v>
+        <v>19837.98084043408</v>
       </c>
       <c r="E435" t="n">
-        <v>53337.96375009594</v>
+        <v>32856.18567005919</v>
       </c>
       <c r="F435" t="n">
-        <v>65125.50358900288</v>
+        <v>33431.09184235478</v>
       </c>
       <c r="G435" t="n">
-        <v>65902.69019328227</v>
+        <v>21967.5633977607</v>
       </c>
       <c r="H435" t="n">
-        <v>175076.1396618106</v>
+        <v>58358.71322060344</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>107653.475783745</v>
+        <v>50238.28869908104</v>
       </c>
       <c r="C436" t="n">
-        <v>53417.17770683573</v>
+        <v>24928.01626319007</v>
       </c>
       <c r="D436" t="n">
-        <v>42422.47286981979</v>
+        <v>19797.15400591591</v>
       </c>
       <c r="E436" t="n">
-        <v>53293.50245588515</v>
+        <v>32828.79751282533</v>
       </c>
       <c r="F436" t="n">
-        <v>65109.24354353874</v>
+        <v>33422.74501901652</v>
       </c>
       <c r="G436" t="n">
-        <v>65899.13256087014</v>
+        <v>21966.37752029001</v>
       </c>
       <c r="H436" t="n">
-        <v>183075.8036904833</v>
+        <v>61025.26789682765</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>106461.4049143573</v>
+        <v>49681.98896003342</v>
       </c>
       <c r="C437" t="n">
-        <v>53164.37921885768</v>
+        <v>24810.04363546697</v>
       </c>
       <c r="D437" t="n">
-        <v>42327.18491745425</v>
+        <v>19752.68629481199</v>
       </c>
       <c r="E437" t="n">
-        <v>53243.92582375419</v>
+        <v>32798.25830743265</v>
       </c>
       <c r="F437" t="n">
-        <v>65090.62990146683</v>
+        <v>33413.19001608627</v>
       </c>
       <c r="G437" t="n">
-        <v>65894.94332209814</v>
+        <v>21964.98110736599</v>
       </c>
       <c r="H437" t="n">
-        <v>191112.2173701056</v>
+        <v>63704.07245670178</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>105243.3860158551</v>
+        <v>49113.58014073234</v>
       </c>
       <c r="C438" t="n">
-        <v>52896.1634337376</v>
+        <v>24684.87626907761</v>
       </c>
       <c r="D438" t="n">
-        <v>42223.5796248376</v>
+        <v>19704.33715825756</v>
       </c>
       <c r="E438" t="n">
-        <v>53188.75286901998</v>
+        <v>32764.27176731639</v>
       </c>
       <c r="F438" t="n">
-        <v>65069.36737220997</v>
+        <v>33402.27525106774</v>
       </c>
       <c r="G438" t="n">
-        <v>65890.02161713049</v>
+        <v>21963.34053904345</v>
       </c>
       <c r="H438" t="n">
-        <v>199186.3163567185</v>
+        <v>66395.43878557271</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>103999.7201917678</v>
+        <v>48533.20275615831</v>
       </c>
       <c r="C439" t="n">
-        <v>52611.99596843227</v>
+        <v>24552.26478526845</v>
       </c>
       <c r="D439" t="n">
-        <v>42111.12683024137</v>
+        <v>19651.85918744599</v>
       </c>
       <c r="E439" t="n">
-        <v>53127.47138550915</v>
+        <v>32726.52237347372</v>
       </c>
       <c r="F439" t="n">
-        <v>65045.13075223828</v>
+        <v>33389.83378614896</v>
       </c>
       <c r="G439" t="n">
-        <v>65884.25259517203</v>
+        <v>21961.41753172396</v>
       </c>
       <c r="H439" t="n">
-        <v>207299.0906196279</v>
+        <v>69099.69687320919</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>102730.7631054595</v>
+        <v>47941.0227825478</v>
       </c>
       <c r="C440" t="n">
-        <v>52311.35814226381</v>
+        <v>24411.9671330565</v>
       </c>
       <c r="D440" t="n">
-        <v>41989.2833165136</v>
+        <v>19594.99888103968</v>
       </c>
       <c r="E440" t="n">
-        <v>53059.53763259576</v>
+        <v>32684.67518167907</v>
       </c>
       <c r="F440" t="n">
-        <v>65017.56293732512</v>
+        <v>33375.68230782686</v>
       </c>
       <c r="G440" t="n">
-        <v>65877.5058440229</v>
+        <v>21959.16861467425</v>
       </c>
       <c r="H440" t="n">
-        <v>215451.5813236599</v>
+        <v>71817.19377455318</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>101436.9258560973</v>
+        <v>47337.23206617877</v>
       </c>
       <c r="C441" t="n">
-        <v>51993.75028373491</v>
+        <v>24263.75013240968</v>
       </c>
       <c r="D441" t="n">
-        <v>41857.49469410491</v>
+        <v>19533.49752391563</v>
       </c>
       <c r="E441" t="n">
-        <v>52984.37625017278</v>
+        <v>32638.37577010652</v>
       </c>
       <c r="F441" t="n">
-        <v>64986.27294944036</v>
+        <v>33359.62011404601</v>
       </c>
       <c r="G441" t="n">
-        <v>65869.63370413483</v>
+        <v>21956.5445680449</v>
       </c>
       <c r="H441" t="n">
-        <v>223644.8772578083</v>
+        <v>74548.29241926933</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>100118.6756732321</v>
+        <v>46722.04864750832</v>
       </c>
       <c r="C442" t="n">
-        <v>51658.69512209929</v>
+        <v>24107.39105697973</v>
       </c>
       <c r="D442" t="n">
-        <v>41715.19752584612</v>
+        <v>19467.0921787282</v>
       </c>
       <c r="E442" t="n">
-        <v>52901.38042775222</v>
+        <v>32587.25034349545</v>
       </c>
       <c r="F442" t="n">
-        <v>64950.83400307864</v>
+        <v>33341.42812158033</v>
       </c>
       <c r="G442" t="n">
-        <v>65860.46946843379</v>
+        <v>21953.48982281122</v>
       </c>
       <c r="H442" t="n">
-        <v>231880.1107886008</v>
+        <v>77293.37026286683</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>98776.53641937031</v>
+        <v>46095.71699570616</v>
       </c>
       <c r="C443" t="n">
-        <v>51305.74124301718</v>
+        <v>23942.67924674141</v>
       </c>
       <c r="D443" t="n">
-        <v>41561.82169425307</v>
+        <v>19395.51679065144</v>
       </c>
       <c r="E443" t="n">
-        <v>52809.91235360045</v>
+        <v>32530.90600981796</v>
       </c>
       <c r="F443" t="n">
-        <v>64910.78163871547</v>
+        <v>33320.86790787391</v>
       </c>
       <c r="G443" t="n">
-        <v>65849.82547110193</v>
+        <v>21949.94182370059</v>
       </c>
       <c r="H443" t="n">
-        <v>240158.453316766</v>
+        <v>80052.81777225516</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>97411.08889067805</v>
+        <v>45458.5081489831</v>
       </c>
       <c r="C444" t="n">
-        <v>50934.46658579246</v>
+        <v>23769.41774003654</v>
       </c>
       <c r="D444" t="n">
-        <v>41396.79300952112</v>
+        <v>19318.5034044432</v>
       </c>
       <c r="E444" t="n">
-        <v>52709.30396911532</v>
+        <v>32468.93124497512</v>
       </c>
       <c r="F444" t="n">
-        <v>64865.61195393274</v>
+        <v>33297.68080301877</v>
       </c>
       <c r="G444" t="n">
-        <v>65837.49107071046</v>
+        <v>21945.83035690344</v>
       </c>
       <c r="H444" t="n">
-        <v>248481.1102162977</v>
+        <v>82827.03673876575</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>96022.97090682869</v>
+        <v>44810.71975652007</v>
       </c>
       <c r="C445" t="n">
-        <v>50544.48195798819</v>
+        <v>23587.42491372788</v>
       </c>
       <c r="D445" t="n">
-        <v>41219.53605356557</v>
+        <v>19235.78349166394</v>
       </c>
       <c r="E445" t="n">
-        <v>52598.85805251088</v>
+        <v>32400.89656034678</v>
       </c>
       <c r="F445" t="n">
-        <v>64814.77996549806</v>
+        <v>33271.58704895563</v>
       </c>
       <c r="G445" t="n">
-        <v>65823.23053556529</v>
+        <v>21941.07684518839</v>
       </c>
       <c r="H445" t="n">
-        <v>256849.3152357713</v>
+        <v>85616.43841192363</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>94612.8771819753</v>
+        <v>44152.67601825515</v>
       </c>
       <c r="C446" t="n">
-        <v>50135.43454167471</v>
+        <v>23396.53611944826</v>
       </c>
       <c r="D446" t="n">
-        <v>41029.47725248941</v>
+        <v>19147.08938449507</v>
       </c>
       <c r="E446" t="n">
-        <v>52477.84965426327</v>
+        <v>32326.35538702626</v>
       </c>
       <c r="F446" t="n">
-        <v>64757.69813825278</v>
+        <v>33242.28504430306</v>
       </c>
       <c r="G446" t="n">
-        <v>65806.7808418652</v>
+        <v>21935.59361395502</v>
       </c>
       <c r="H446" t="n">
-        <v>265264.3243428406</v>
+        <v>88421.44144761344</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>93181.5589699004</v>
+        <v>43484.72751928688</v>
       </c>
       <c r="C447" t="n">
-        <v>49707.01136421067</v>
+        <v>23196.60530329837</v>
       </c>
       <c r="D447" t="n">
-        <v>40826.04816675006</v>
+        <v>19052.15581115004</v>
       </c>
       <c r="E447" t="n">
-        <v>52345.52790466709</v>
+        <v>32244.84518927501</v>
       </c>
       <c r="F447" t="n">
-        <v>64693.73511899426</v>
+        <v>33209.45069441702</v>
       </c>
       <c r="G447" t="n">
-        <v>65787.84939826737</v>
+        <v>21929.28313275574</v>
       </c>
       <c r="H447" t="n">
-        <v>273727.408994268</v>
+        <v>91242.46966475589</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>91729.82347756019</v>
+        <v>42807.2509561948</v>
       </c>
       <c r="C448" t="n">
-        <v>49258.94270531787</v>
+        <v>22987.50659581506</v>
       </c>
       <c r="D448" t="n">
-        <v>40608.68898508392</v>
+        <v>18950.7215263725</v>
       </c>
       <c r="E448" t="n">
-        <v>52201.11821123824</v>
+        <v>32155.88881812284</v>
       </c>
       <c r="F448" t="n">
-        <v>64622.21471555185</v>
+        <v>33172.73688731658</v>
       </c>
       <c r="G448" t="n">
-        <v>65766.11171368799</v>
+        <v>21922.03723789595</v>
       </c>
       <c r="H448" t="n">
-        <v>282239.8488156305</v>
+        <v>94079.94960520997</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>90258.53304248989</v>
+        <v>42120.64875316196</v>
       </c>
       <c r="C449" t="n">
-        <v>48791.00541131225</v>
+        <v>22769.13585861244</v>
       </c>
       <c r="D449" t="n">
-        <v>40376.85220497279</v>
+        <v>18842.53102898731</v>
       </c>
       <c r="E449" t="n">
-        <v>52043.82486057215</v>
+        <v>32058.99611411253</v>
       </c>
       <c r="F449" t="n">
-        <v>64542.41516287992</v>
+        <v>33131.77311694499</v>
       </c>
       <c r="G449" t="n">
-        <v>65741.20902861026</v>
+        <v>21913.73634287004</v>
       </c>
       <c r="H449" t="n">
-        <v>290802.923677091</v>
+        <v>96934.30789236349</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>88768.60407086789</v>
+        <v>41425.34856640502</v>
       </c>
       <c r="C450" t="n">
-        <v>48303.0260867191</v>
+        <v>22541.41217380231</v>
       </c>
       <c r="D450" t="n">
-        <v>40130.00647914261</v>
+        <v>18727.33635693323</v>
       </c>
       <c r="E450" t="n">
-        <v>51872.83403562286</v>
+        <v>31953.66576594376</v>
       </c>
       <c r="F450" t="n">
-        <v>64453.56871914222</v>
+        <v>33086.1652758263</v>
       </c>
       <c r="G450" t="n">
-        <v>65712.7459337919</v>
+        <v>21904.24864459725</v>
       </c>
       <c r="H450" t="n">
-        <v>299417.9051542729</v>
+        <v>99805.96838475748</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>87261.00573443658</v>
+        <v>40721.80267607039</v>
       </c>
       <c r="C451" t="n">
-        <v>47794.88413315227</v>
+        <v>22304.27926213778</v>
       </c>
       <c r="D451" t="n">
-        <v>39867.64060431961</v>
+        <v>18604.89894868249</v>
       </c>
       <c r="E451" t="n">
-        <v>51687.31725522481</v>
+        <v>31839.38742921856</v>
       </c>
       <c r="F451" t="n">
-        <v>64354.86163536442</v>
+        <v>33035.49563948703</v>
       </c>
       <c r="G451" t="n">
-        <v>65680.28800401613</v>
+        <v>21893.42933467199</v>
       </c>
       <c r="H451" t="n">
-        <v>308086.0473664957</v>
+        <v>102695.3491221651</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>85736.75842593658</v>
+        <v>40010.48726543708</v>
       </c>
       <c r="C452" t="n">
-        <v>47266.51460529447</v>
+        <v>22057.70681580414</v>
       </c>
       <c r="D452" t="n">
-        <v>39589.26762528146</v>
+        <v>18474.99155846469</v>
       </c>
       <c r="E452" t="n">
-        <v>51486.435238053</v>
+        <v>31715.64410664072</v>
       </c>
       <c r="F452" t="n">
-        <v>64245.43454220752</v>
+        <v>32979.32306499983</v>
       </c>
       <c r="G452" t="n">
-        <v>65643.35947835595</v>
+        <v>21881.1198261186</v>
       </c>
       <c r="H452" t="n">
-        <v>316808.577188329</v>
+        <v>105602.8590627762</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/s_c_TH.xlsx
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>688.4253682450264</v>
+        <v>688.4253682450263</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>689.2513844989448</v>
+        <v>689.2513844989446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>690.0892676777543</v>
+        <v>690.0892676777544</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>690.9391870861792</v>
+        <v>690.939187086179</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>691.8013144116918</v>
+        <v>691.8013144116919</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>692.6758237571714</v>
+        <v>692.6758237571712</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>693.5628916739912</v>
+        <v>693.5628916739911</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>695.3754218711417</v>
+        <v>695.3754218711413</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>696.3012498005128</v>
+        <v>696.3012498005127</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>699.1592330982635</v>
+        <v>699.1592330982631</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>700.1393672756097</v>
+        <v>700.1393672756095</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>701.1335646957821</v>
+        <v>701.1335646957822</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>703.1649526661779</v>
+        <v>703.1649526661778</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>705.2550320806843</v>
+        <v>705.2550320806844</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>707.4054841041893</v>
+        <v>707.4054841041891</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>708.5038881213004</v>
+        <v>708.5038881213001</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>709.6180372544508</v>
+        <v>709.6180372544505</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>710.7481551791589</v>
+        <v>710.7481551791586</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>711.8944686937654</v>
+        <v>711.8944686937655</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>713.0572077616273</v>
+        <v>713.0572077616275</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>714.2366055538473</v>
+        <v>714.2366055538474</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>715.4328984925471</v>
+        <v>715.4328984925476</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>717.8771320164645</v>
+        <v>717.8771320164641</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>719.1255620982129</v>
+        <v>719.1255620982128</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>721.6762982974717</v>
+        <v>721.6762982974715</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>724.3005758423116</v>
+        <v>724.3005758423114</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>725.6409459929403</v>
+        <v>725.64094599294</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>727.0004928022549</v>
+        <v>727.0004928022552</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>728.3794877067187</v>
+        <v>728.379487706719</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>729.7782059075257</v>
+        <v>729.7782059075263</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>731.196926420911</v>
+        <v>731.1969264209108</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>732.6359321290821</v>
+        <v>732.6359321290819</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>734.0955098317935</v>
+        <v>734.0955098317938</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>735.5759502985687</v>
+        <v>735.5759502985682</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>737.0775483215687</v>
+        <v>737.0775483215689</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>738.6006027691276</v>
+        <v>738.600602769128</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>740.1454166399556</v>
+        <v>740.1454166399558</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>741.7122971180136</v>
+        <v>741.712297118014</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>743.3015556280782</v>
+        <v>743.3015556280781</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>744.9135078919974</v>
+        <v>744.9135078919969</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>746.5484739856428</v>
+        <v>746.5484739856432</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>748.2067783965775</v>
+        <v>748.2067783965773</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>749.888750082433</v>
+        <v>749.8887500824335</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>753.3250338151732</v>
+        <v>753.3250338151738</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>755.0800266633225</v>
+        <v>755.0800266633228</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>758.6654515671535</v>
+        <v>758.6654515671536</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>760.4965928775716</v>
+        <v>760.496592877572</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>762.3538343869781</v>
+        <v>762.3538343869785</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>764.2375430042449</v>
+        <v>764.2375430042451</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>768.0858544100598</v>
+        <v>768.0858544100588</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>770.0512164275165</v>
+        <v>770.0512164275173</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>772.0445641452162</v>
+        <v>772.0445641452167</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>774.0662902869013</v>
+        <v>774.0662902869011</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>776.1167929440721</v>
+        <v>776.1167929440722</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>778.1964756462411</v>
+        <v>778.196475646242</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>780.3057474320514</v>
+        <v>780.3057474320516</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>782.445022921279</v>
+        <v>782.4450229212794</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>786.8152718330797</v>
+        <v>786.8152718330804</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>789.0471030615397</v>
+        <v>789.0471030615402</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>791.3106537555801</v>
+        <v>791.3106537555799</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>793.6063675525013</v>
+        <v>793.6063675525012</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>795.93469412201</v>
+        <v>795.9346941220094</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>798.2960892447467</v>
+        <v>798.2960892447476</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>800.6910148918128</v>
+        <v>800.6910148918125</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>803.1199393052818</v>
+        <v>803.1199393052816</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>805.5833370797375</v>
+        <v>805.5833370797376</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>808.0816892448286</v>
+        <v>808.0816892448282</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>810.6154833488749</v>
+        <v>810.6154833488741</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>813.1852135435228</v>
+        <v>813.1852135435224</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>815.7913806694897</v>
+        <v>815.7913806694893</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>818.4344923433797</v>
+        <v>818.43449234338</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>821.1150630456228</v>
+        <v>821.115063045622</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>823.8336142095311</v>
+        <v>823.8336142095312</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>826.5906743114994</v>
+        <v>826.5906743114989</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>829.3867789623632</v>
+        <v>829.3867789623631</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>832.2224709999454</v>
+        <v>832.2224709999452</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>835.0983005827894</v>
+        <v>835.0983005827891</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>838.0148252851186</v>
+        <v>838.0148252851193</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>840.9726101930381</v>
+        <v>840.9726101930387</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>843.9722280019876</v>
+        <v>843.9722280019873</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>847.0142591154861</v>
+        <v>847.0142591154864</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>853.2279220121923</v>
+        <v>853.2279220121927</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>856.4007540499074</v>
+        <v>856.4007540499073</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>859.6184001080172</v>
+        <v>859.6184001080168</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>862.8814806580551</v>
+        <v>862.881480658055</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>866.1906245003358</v>
+        <v>866.1906245003355</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>869.5464688723436</v>
+        <v>869.5464688723438</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>872.9496595586173</v>
+        <v>872.9496595586177</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>876.4008510021483</v>
+        <v>876.400851002148</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>879.900706417321</v>
+        <v>879.9007064173201</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>883.4498979044326</v>
+        <v>883.449897904432</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>887.0491065658258</v>
+        <v>887.049106565826</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>890.6990226236652</v>
+        <v>890.6990226236653</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>894.4003455393847</v>
+        <v>894.4003455393841</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>898.1537841348627</v>
+        <v>898.1537841348628</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>905.8198911941533</v>
+        <v>905.8198911941529</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>909.7340252192444</v>
+        <v>909.734025219244</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>913.7032063016234</v>
+        <v>913.7032063016233</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>917.7281919456919</v>
+        <v>917.7281919456922</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>921.809749781554</v>
+        <v>921.8097497815534</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>925.9486576993302</v>
+        <v>925.9486576993303</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>930.1457039855395</v>
+        <v>930.1457039855389</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>934.4016874615836</v>
+        <v>934.4016874615832</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>938.7174176244038</v>
+        <v>938.7174176244035</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>943.0937147893439</v>
+        <v>943.0937147893446</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>947.5314102353018</v>
+        <v>947.531410235302</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>956.5943767908631</v>
+        <v>956.5943767908634</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>961.2213666153517</v>
+        <v>961.2213666153516</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>965.9131924578114</v>
+        <v>965.913192457811</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>975.4949175130424</v>
+        <v>975.4949175130425</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>980.3866292610006</v>
+        <v>980.3866292610002</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>985.3468024258217</v>
+        <v>985.3468024258219</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>995.4762931153948</v>
+        <v>995.4762931153954</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>1000.647522255139</v>
+        <v>1000.64752225514</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>1005.89103639411</v>
+        <v>1005.891036394111</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>1033.2279363876</v>
+        <v>1033.227936387599</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>1038.926383183894</v>
+        <v>1038.926383183895</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>1044.704317556143</v>
+        <v>1044.704317556144</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>1050.562824647095</v>
+        <v>1050.562824647096</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>1074.824800885221</v>
+        <v>1074.82480088522</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>1100.466657379707</v>
+        <v>1100.466657379706</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>1113.828896817412</v>
+        <v>1113.828896817413</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>1148.89385974645</v>
+        <v>1148.893859746449</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>1178.739812109026</v>
+        <v>1178.739812109025</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>1186.461939358921</v>
+        <v>1186.46193935892</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>1194.291182728087</v>
+        <v>1194.291182728086</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>1202.229007679465</v>
+        <v>1202.229007679464</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>1218.436367943596</v>
+        <v>1218.436367943597</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>1235.096163942449</v>
+        <v>1235.09616394245</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>1243.599615226964</v>
+        <v>1243.599615226963</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>1252.220887939984</v>
+        <v>1252.220887939985</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>1260.961600104367</v>
+        <v>1260.961600104368</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>1269.823393114074</v>
+        <v>1269.823393114075</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>1278.807932160459</v>
+        <v>1278.807932160461</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>1335.389195331498</v>
+        <v>1335.389195331499</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>1355.311136247584</v>
+        <v>1355.311136247585</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>1365.47947650484</v>
+        <v>1365.479476504841</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>1375.788626212153</v>
+        <v>1375.788626212152</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>1396.837218844559</v>
+        <v>1396.837218844558</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>1475.240763081171</v>
+        <v>1475.240763081172</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>1487.070889353502</v>
+        <v>1487.070889353503</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>1511.225796489862</v>
+        <v>1511.225796489861</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>1561.580670167609</v>
+        <v>1561.58067016761</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>1587.820025942908</v>
+        <v>1587.820025942907</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>1628.564432062128</v>
+        <v>1628.564432062127</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>1671.036329611983</v>
+        <v>1671.036329611982</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>1700.348365914382</v>
+        <v>1700.348365914384</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>1715.31244066232</v>
+        <v>1715.312440662321</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>1745.871940143234</v>
+        <v>1745.871940143235</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>1826.102340656166</v>
+        <v>1826.102340656165</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>1842.831849840498</v>
+        <v>1842.831849840499</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>1859.797247589895</v>
+        <v>1859.797247589896</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>1912.145054666009</v>
+        <v>1912.14505466601</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>1930.090639742482</v>
+        <v>1930.090639742481</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>2004.458547037207</v>
+        <v>2004.458547037208</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>2166.483249036324</v>
+        <v>2166.483249036323</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>2188.070502994165</v>
+        <v>2188.070502994166</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>2254.729088661278</v>
+        <v>2254.729088661277</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>2277.598405743507</v>
+        <v>2277.598405743508</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>2324.344433312011</v>
+        <v>2324.344433312013</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>2372.471572860791</v>
+        <v>2372.47157286079</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>2397.06774353435</v>
+        <v>2397.067743534349</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>2422.027068940542</v>
+        <v>2422.027068940543</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>2447.355780350834</v>
+        <v>2447.355780350833</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>2473.060245542158</v>
+        <v>2473.060245542159</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>2552.493960535232</v>
+        <v>2552.493960535231</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>2579.7679682582</v>
+        <v>2579.767968258201</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>2607.451736588958</v>
+        <v>2607.451736588959</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>2635.552525372147</v>
+        <v>2635.552525372146</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>2664.077755834953</v>
+        <v>2664.077755834954</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>2693.035014357736</v>
+        <v>2693.035014357737</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>2752.276809822954</v>
+        <v>2752.276809822952</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>2782.577379872873</v>
+        <v>2782.577379872871</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>2813.342052042482</v>
+        <v>2813.342052042486</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>2844.579296585626</v>
+        <v>2844.579296585624</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>2941.214021044382</v>
+        <v>2941.214021044381</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>3112.570414114381</v>
+        <v>3112.57041411438</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>3148.474435690868</v>
+        <v>3148.474435690869</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>3184.946776760356</v>
+        <v>3184.946776760357</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>3221.998205583406</v>
+        <v>3221.998205583408</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>3259.639723408228</v>
+        <v>3259.639723408229</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>3297.882568333738</v>
+        <v>3297.882568333737</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>3336.738219104623</v>
+        <v>3336.738219104624</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>3376.218398827084</v>
+        <v>3376.218398827086</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>3416.335078593252</v>
+        <v>3416.335078593253</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>3498.527083560841</v>
+        <v>3498.527083560842</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>3540.627621960972</v>
+        <v>3540.627621960974</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>3626.902758552206</v>
+        <v>3626.902758552207</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>3671.104146348747</v>
+        <v>3671.104146348746</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>3716.033054578758</v>
+        <v>3716.033054578757</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>3761.70355326776</v>
+        <v>3761.703553267758</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>3808.129986630508</v>
+        <v>3808.12998663051</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>3855.32697497416</v>
+        <v>3855.326974974161</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>3903.309416332655</v>
+        <v>3903.309416332657</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>3952.092487811886</v>
+        <v>3952.092487811888</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>4001.691646624357</v>
+        <v>4001.691646624358</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>4155.544433023448</v>
+        <v>4155.544433023446</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>4262.489418393925</v>
+        <v>4262.489418393924</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>4317.325430394822</v>
+        <v>4317.325430394823</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>4373.093584452061</v>
+        <v>4373.093584452063</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>4429.811571061153</v>
+        <v>4429.811571061151</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>4487.497352319921</v>
+        <v>4487.497352319919</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>5258.907426113927</v>
+        <v>5258.907426116883</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>5983.026878614115</v>
+        <v>5983.026878619914</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>6718.725166011381</v>
+        <v>6718.725166019906</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>7466.202533187136</v>
+        <v>7466.202533198279</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>8225.661762058766</v>
+        <v>8225.661762072403</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>8997.3081060352</v>
+        <v>8997.30810605122</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>9781.349216494969</v>
+        <v>9781.349216513247</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>10577.99506097721</v>
+        <v>10577.9950609976</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>11387.45783277855</v>
+        <v>11387.45783280094</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>12209.95185165403</v>
+        <v>12209.95185167832</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>13045.69345532434</v>
+        <v>13045.69345535037</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>13894.90088149786</v>
+        <v>13894.90088152549</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>14757.79414012526</v>
+        <v>14757.79414015437</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>15634.59487561309</v>
+        <v>15634.59487564352</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>16525.52621873363</v>
+        <v>16525.52621876527</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>17430.8126279826</v>
+        <v>17430.81262801529</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>18350.67972014892</v>
+        <v>18350.6797201825</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>19285.35408987846</v>
+        <v>19285.3540899128</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>20235.06311803241</v>
+        <v>20235.06311806737</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>21200.0347686594</v>
+        <v>21200.0347686948</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>22180.4973744249</v>
+        <v>22180.49737446058</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>23176.67941036375</v>
+        <v>23176.67941039958</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>24188.8092558502</v>
+        <v>24188.80925588602</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>25217.11494470642</v>
+        <v>25217.11494474204</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26261.82390340203</v>
+        <v>26261.82390343731</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27323.16267733057</v>
+        <v>27323.16267736533</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28401.35664518233</v>
+        <v>28401.3566452164</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>29496.62972147131</v>
+        <v>29496.6297215045</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>30609.20404731264</v>
+        <v>30609.2040473448</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>31739.29966958843</v>
+        <v>31739.29966961939</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>32887.1342086821</v>
+        <v>32887.13420871164</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>34052.92251500815</v>
+        <v>34052.92251503614</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>35236.8763146096</v>
+        <v>35236.87631463583</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>36439.20384414436</v>
+        <v>36439.20384416865</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>37660.10947563311</v>
+        <v>37660.10947565528</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>38899.79333139095</v>
+        <v>38899.7933314108</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>40158.45088961877</v>
+        <v>40158.45088963611</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>41436.27258118543</v>
+        <v>41436.27258120011</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>42733.44337818437</v>
+        <v>42733.44337819616</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>44050.14237490468</v>
+        <v>44050.1423749134</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>45386.54236191314</v>
+        <v>45386.54236191859</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>46742.80939399814</v>
+        <v>46742.80939400015</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>48119.10235278363</v>
+        <v>48119.10235278196</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>49515.57250487412</v>
+        <v>49515.57250486861</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>50932.36305644991</v>
+        <v>50932.36305644039</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>52369.60870528052</v>
+        <v>52369.60870526676</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>53827.43519118044</v>
+        <v>53827.43519116225</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>55305.9588459778</v>
+        <v>55305.95884595495</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>56805.28614411717</v>
+        <v>56805.28614408953</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>58325.51325506138</v>
+        <v>58325.51325502873</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>59866.72559870042</v>
+        <v>59866.7255986626</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>61428.99740501399</v>
+        <v>61428.99740497083</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>63012.39127927076</v>
+        <v>63012.39127922205</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>64616.95777407794</v>
+        <v>64616.95777402346</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>66242.73496962183</v>
+        <v>66242.73496956141</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>66206.71066789613</v>
+        <v>66206.71066784181</v>
       </c>
       <c r="C358" t="n">
-        <v>1611.483226343663</v>
+        <v>1611.483226331958</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>66169.60282709503</v>
+        <v>66169.60282704714</v>
       </c>
       <c r="C359" t="n">
-        <v>3244.348390451168</v>
+        <v>3244.34839042732</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>66131.35713808064</v>
+        <v>66131.35713803941</v>
       </c>
       <c r="C360" t="n">
-        <v>4898.645813879988</v>
+        <v>4898.645813843563</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>66091.91659107343</v>
+        <v>66091.91659103922</v>
       </c>
       <c r="C361" t="n">
-        <v>6574.414958957545</v>
+        <v>6574.414958908103</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>66051.22137192948</v>
+        <v>66051.22137190257</v>
       </c>
       <c r="C362" t="n">
-        <v>8271.684185229562</v>
+        <v>8271.684185166605</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>66009.20875675025</v>
+        <v>66009.20875673099</v>
       </c>
       <c r="C363" t="n">
-        <v>9990.47052332004</v>
+        <v>9990.470523243108</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>65965.81300499757</v>
+        <v>65965.8130049863</v>
       </c>
       <c r="C364" t="n">
-        <v>11730.77946736236</v>
+        <v>11730.77946727102</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>65920.96525130724</v>
+        <v>65920.96525130428</v>
       </c>
       <c r="C365" t="n">
-        <v>13492.604787118</v>
+        <v>13492.60478701171</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>65874.59339621986</v>
+        <v>65874.59339622557</v>
       </c>
       <c r="C366" t="n">
-        <v>15275.92836085359</v>
+        <v>15275.92836073192</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>65826.62199607195</v>
+        <v>65826.62199608669</v>
       </c>
       <c r="C367" t="n">
-        <v>17080.72002999353</v>
+        <v>17080.72002985603</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>65776.97215231803</v>
+        <v>65776.97215234215</v>
       </c>
       <c r="C368" t="n">
-        <v>18906.93747649758</v>
+        <v>18906.93747634376</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>65725.56140058291</v>
+        <v>65725.56140061679</v>
       </c>
       <c r="C369" t="n">
-        <v>20754.52612384634</v>
+        <v>20754.52612367576</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>65672.3035997741</v>
+        <v>65672.30359981807</v>
       </c>
       <c r="C370" t="n">
-        <v>22623.41906243293</v>
+        <v>22623.41906224506</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>65617.10882161667</v>
+        <v>65617.10882167118</v>
       </c>
       <c r="C371" t="n">
-        <v>24513.53700007408</v>
+        <v>24513.53699986845</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>65559.88324100703</v>
+        <v>65559.88324107243</v>
       </c>
       <c r="C372" t="n">
-        <v>26424.78823825749</v>
+        <v>26424.7882380337</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>65500.52902761763</v>
+        <v>65500.52902769431</v>
       </c>
       <c r="C373" t="n">
-        <v>26424.6363606824</v>
+        <v>26424.63636045842</v>
       </c>
       <c r="D373" t="n">
-        <v>1929.671874761974</v>
+        <v>1929.671874743486</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>65438.94423922318</v>
+        <v>65438.94423931151</v>
       </c>
       <c r="C374" t="n">
-        <v>26424.46061777834</v>
+        <v>26424.46061755414</v>
       </c>
       <c r="D374" t="n">
-        <v>3880.250428536559</v>
+        <v>3880.250428499209</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>65375.02271725747</v>
+        <v>65375.02271735786</v>
       </c>
       <c r="C375" t="n">
-        <v>26424.25752233127</v>
+        <v>26424.25752210683</v>
       </c>
       <c r="D375" t="n">
-        <v>5851.610531889172</v>
+        <v>5851.610531832546</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>65308.65398515169</v>
+        <v>65308.65398526456</v>
       </c>
       <c r="C376" t="n">
-        <v>26424.02312092748</v>
+        <v>26424.02312070276</v>
       </c>
       <c r="D376" t="n">
-        <v>7843.615302948042</v>
+        <v>7843.615302871662</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>65239.72315004737</v>
+        <v>65239.72315017309</v>
       </c>
       <c r="C377" t="n">
-        <v>26423.75293841841</v>
+        <v>26423.75293819337</v>
       </c>
       <c r="D377" t="n">
-        <v>9856.116272980345</v>
+        <v>9856.116272883857</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>65168.11080852147</v>
+        <v>65168.11080866047</v>
       </c>
       <c r="C378" t="n">
-        <v>26423.44191677786</v>
+        <v>26423.44191655246</v>
       </c>
       <c r="D378" t="n">
-        <v>11888.95358452961</v>
+        <v>11888.95358441255</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>65093.69295700682</v>
+        <v>65093.69295715947</v>
       </c>
       <c r="C379" t="n">
-        <v>26423.084347928</v>
+        <v>26423.0843477022</v>
       </c>
       <c r="D379" t="n">
-        <v>13941.95622228164</v>
+        <v>13941.95622214373</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>65016.34090763719</v>
+        <v>65016.34090780388</v>
       </c>
       <c r="C380" t="n">
-        <v>26422.6738000981</v>
+        <v>26422.67379987183</v>
       </c>
       <c r="D380" t="n">
-        <v>16014.94227669089</v>
+        <v>16014.94227653176</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>64935.92121029443</v>
+        <v>64935.92121047559</v>
       </c>
       <c r="C381" t="n">
-        <v>26422.20303727032</v>
+        <v>26422.20303704352</v>
       </c>
       <c r="D381" t="n">
-        <v>18107.71924025766</v>
+        <v>18107.71924007691</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>64852.2955816833</v>
+        <v>64852.29558187931</v>
       </c>
       <c r="C382" t="n">
-        <v>26421.6639312604</v>
+        <v>26421.66393103302</v>
       </c>
       <c r="D382" t="n">
-        <v>20220.08433619766</v>
+        <v>20220.08433599501</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>64765.32084230788</v>
+        <v>64765.32084251913</v>
       </c>
       <c r="C383" t="n">
-        <v>26421.04736597876</v>
+        <v>26421.04736575071</v>
       </c>
       <c r="D383" t="n">
-        <v>20220.04646556939</v>
+        <v>20220.04646536666</v>
       </c>
       <c r="E383" t="n">
-        <v>3181.988586748182</v>
+        <v>3181.988586715127</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>64674.84886227288</v>
+        <v>64674.84886249976</v>
       </c>
       <c r="C384" t="n">
-        <v>26420.3431334188</v>
+        <v>26420.34313319</v>
       </c>
       <c r="D384" t="n">
-        <v>20220.00131642631</v>
+        <v>20220.0013162235</v>
       </c>
       <c r="E384" t="n">
-        <v>6392.57703482927</v>
+        <v>6392.577034762819</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>64580.72651688111</v>
+        <v>64580.72651712396</v>
       </c>
       <c r="C385" t="n">
-        <v>26419.53982092661</v>
+        <v>26419.53982069698</v>
       </c>
       <c r="D385" t="n">
-        <v>20219.94757989753</v>
+        <v>20219.94757969461</v>
       </c>
       <c r="E385" t="n">
-        <v>9631.42205532463</v>
+        <v>9631.422055224351</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>64482.79565304636</v>
+        <v>64482.7956533056</v>
       </c>
       <c r="C386" t="n">
-        <v>26418.62468931881</v>
+        <v>26418.62468908822</v>
       </c>
       <c r="D386" t="n">
-        <v>20219.88372968712</v>
+        <v>20219.88372948409</v>
       </c>
       <c r="E386" t="n">
-        <v>12898.16778538125</v>
+        <v>12898.16778524689</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>64380.89306758779</v>
+        <v>64380.89306786374</v>
       </c>
       <c r="C387" t="n">
-        <v>26417.58354143393</v>
+        <v>26417.5835412023</v>
       </c>
       <c r="D387" t="n">
-        <v>20219.80798935432</v>
+        <v>20219.80798915115</v>
       </c>
       <c r="E387" t="n">
-        <v>16192.44655527123</v>
+        <v>16192.44655510254</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>64274.85049851595</v>
+        <v>64274.85049880896</v>
       </c>
       <c r="C388" t="n">
-        <v>26416.40058073013</v>
+        <v>26416.40058049732</v>
       </c>
       <c r="D388" t="n">
-        <v>20219.71829527871</v>
+        <v>20219.71829507538</v>
       </c>
       <c r="E388" t="n">
-        <v>19513.87970281662</v>
+        <v>19513.87970261332</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>64164.49463046444</v>
+        <v>64164.49463077485</v>
       </c>
       <c r="C389" t="n">
-        <v>26415.05825957531</v>
+        <v>26415.05825934118</v>
       </c>
       <c r="D389" t="n">
-        <v>20219.61225484478</v>
+        <v>20219.61225464126</v>
       </c>
       <c r="E389" t="n">
-        <v>22862.07843371665</v>
+        <v>22862.07843347867</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>64049.64711545988</v>
+        <v>64049.64711578799</v>
       </c>
       <c r="C390" t="n">
-        <v>26413.53711691974</v>
+        <v>26413.53711668415</v>
       </c>
       <c r="D390" t="n">
-        <v>20219.48709934663</v>
+        <v>20219.48709914288</v>
       </c>
       <c r="E390" t="n">
-        <v>26236.64472608687</v>
+        <v>26236.64472581407</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>63930.12461025953</v>
+        <v>63930.12461060567</v>
       </c>
       <c r="C391" t="n">
-        <v>26411.81560509339</v>
+        <v>26411.81560485618</v>
       </c>
       <c r="D391" t="n">
-        <v>20219.33963108021</v>
+        <v>20219.33963087622</v>
       </c>
       <c r="E391" t="n">
-        <v>29637.17227728433</v>
+        <v>29637.1722769768</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>63805.73883151866</v>
+        <v>63805.73883188312</v>
       </c>
       <c r="C392" t="n">
-        <v>26409.86990553328</v>
+        <v>26409.86990529424</v>
       </c>
       <c r="D392" t="n">
-        <v>20219.16616405834</v>
+        <v>20219.16616385406</v>
       </c>
       <c r="E392" t="n">
-        <v>33063.24749085703</v>
+        <v>33063.24749051472</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>63676.29663007498</v>
+        <v>63676.29663045803</v>
       </c>
       <c r="C393" t="n">
-        <v>26407.67373331973</v>
+        <v>26407.67373307869</v>
       </c>
       <c r="D393" t="n">
-        <v>20218.9624577527</v>
+        <v>20218.96245754808</v>
       </c>
       <c r="E393" t="n">
-        <v>33063.20667720214</v>
+        <v>33063.20667685974</v>
       </c>
       <c r="F393" t="n">
-        <v>3248.45931816017</v>
+        <v>3248.459318127702</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>63541.6000856613</v>
+        <v>63541.60008606325</v>
       </c>
       <c r="C394" t="n">
-        <v>26405.19813048602</v>
+        <v>26405.19813024275</v>
       </c>
       <c r="D394" t="n">
-        <v>20218.72364323862</v>
+        <v>20218.72364303362</v>
       </c>
       <c r="E394" t="n">
-        <v>33063.15724521573</v>
+        <v>33063.15724487324</v>
       </c>
       <c r="F394" t="n">
-        <v>6520.178013838703</v>
+        <v>6520.178013773908</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>63401.44662337042</v>
+        <v>63401.44662379142</v>
       </c>
       <c r="C395" t="n">
-        <v>26402.41124816289</v>
+        <v>26402.41124791715</v>
       </c>
       <c r="D395" t="n">
-        <v>20218.44414109299</v>
+        <v>20218.44414088754</v>
       </c>
       <c r="E395" t="n">
-        <v>33063.09748874033</v>
+        <v>33063.09748839773</v>
       </c>
       <c r="F395" t="n">
-        <v>9814.753718437642</v>
+        <v>9814.753718340808</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>63255.62915320419</v>
+        <v>63255.62915364445</v>
       </c>
       <c r="C396" t="n">
-        <v>26399.27811772989</v>
+        <v>26399.27811748143</v>
       </c>
       <c r="D396" t="n">
-        <v>20218.11757037409</v>
+        <v>20218.11757016812</v>
       </c>
       <c r="E396" t="n">
-        <v>33063.02538864681</v>
+        <v>33063.02538830409</v>
       </c>
       <c r="F396" t="n">
-        <v>13131.78153735047</v>
+        <v>13131.78153722199</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>63103.9362340393</v>
+        <v>63103.93623449907</v>
       </c>
       <c r="C397" t="n">
-        <v>26395.76041126813</v>
+        <v>26395.76041101666</v>
       </c>
       <c r="D397" t="n">
-        <v>20217.73664799619</v>
+        <v>20217.73664778963</v>
       </c>
       <c r="E397" t="n">
-        <v>33062.93856056069</v>
+        <v>33062.9385602178</v>
       </c>
       <c r="F397" t="n">
-        <v>16470.85517822446</v>
+        <v>16470.85517806481</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>62946.15226333013</v>
+        <v>62946.15226380956</v>
       </c>
       <c r="C398" t="n">
-        <v>26391.81619174537</v>
+        <v>26391.81619149061</v>
       </c>
       <c r="D398" t="n">
-        <v>20217.29307780121</v>
+        <v>20217.29307759399</v>
       </c>
       <c r="E398" t="n">
-        <v>33062.83419486523</v>
+        <v>33062.83419452215</v>
       </c>
       <c r="F398" t="n">
-        <v>19831.56810705619</v>
+        <v>19831.56810686595</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>62782.05769385117</v>
+        <v>62782.05769435039</v>
       </c>
       <c r="C399" t="n">
-        <v>26387.39965351408</v>
+        <v>26387.39965325568</v>
       </c>
       <c r="D399" t="n">
-        <v>20216.77742862787</v>
+        <v>20216.77742841987</v>
       </c>
       <c r="E399" t="n">
-        <v>33062.70898802677</v>
+        <v>33062.70898768347</v>
       </c>
       <c r="F399" t="n">
-        <v>23213.51472927246</v>
+        <v>23213.51472905231</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>62611.42927874974</v>
+        <v>62611.42927926889</v>
       </c>
       <c r="C400" t="n">
-        <v>26382.46085386538</v>
+        <v>26382.460853603</v>
       </c>
       <c r="D400" t="n">
-        <v>20216.17900068417</v>
+        <v>20216.17900047531</v>
       </c>
       <c r="E400" t="n">
-        <v>33062.55906420335</v>
+        <v>33062.55906385978</v>
       </c>
       <c r="F400" t="n">
-        <v>26616.29159275551</v>
+        <v>26616.29159250621</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>62434.04034613803</v>
+        <v>62434.04034667715</v>
       </c>
       <c r="C401" t="n">
-        <v>26376.94543655819</v>
+        <v>26376.94543629144</v>
       </c>
       <c r="D401" t="n">
-        <v>20215.48567954641</v>
+        <v>20215.48567933656</v>
       </c>
       <c r="E401" t="n">
-        <v>33062.37988601025</v>
+        <v>33062.37988566636</v>
       </c>
       <c r="F401" t="n">
-        <v>30039.49860958703</v>
+        <v>30039.49860930947</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>62249.6611043978</v>
+        <v>62249.66110495697</v>
       </c>
       <c r="C402" t="n">
-        <v>26370.79434843053</v>
+        <v>26370.79434815901</v>
       </c>
       <c r="D402" t="n">
-        <v>20214.68377713521</v>
+        <v>20214.68377692424</v>
       </c>
       <c r="E402" t="n">
-        <v>33062.16615322904</v>
+        <v>33062.16615288478</v>
       </c>
       <c r="F402" t="n">
-        <v>33482.74029307823</v>
+        <v>33482.74029277348</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>62058.05897930381</v>
+        <v>62058.05897988306</v>
       </c>
       <c r="C403" t="n">
-        <v>26363.94355040046</v>
+        <v>26363.94355012371</v>
       </c>
       <c r="D403" t="n">
-        <v>20213.7578590609</v>
+        <v>20213.75785884865</v>
       </c>
       <c r="E403" t="n">
-        <v>33061.91168815957</v>
+        <v>33061.91168781489</v>
       </c>
       <c r="F403" t="n">
-        <v>33482.71097909372</v>
+        <v>33482.71097878892</v>
       </c>
       <c r="G403" t="n">
-        <v>2146.244848225136</v>
+        <v>2146.244848208984</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>61858.99898398883</v>
+        <v>61858.99898458812</v>
       </c>
       <c r="C404" t="n">
-        <v>26356.32372437456</v>
+        <v>26356.32372409213</v>
       </c>
       <c r="D404" t="n">
-        <v>20212.69055778631</v>
+        <v>20212.69055757262</v>
       </c>
       <c r="E404" t="n">
-        <v>33061.60930622969</v>
+        <v>33061.60930588451</v>
       </c>
       <c r="F404" t="n">
-        <v>33482.67499289776</v>
+        <v>33482.67499259289</v>
       </c>
       <c r="G404" t="n">
-        <v>4304.432336768706</v>
+        <v>4304.432336737241</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>61652.24412267693</v>
+        <v>61652.24412329625</v>
       </c>
       <c r="C405" t="n">
-        <v>26347.859977803</v>
+        <v>26347.85997751438</v>
       </c>
       <c r="D405" t="n">
-        <v>20211.46237112742</v>
+        <v>20211.46237091212</v>
       </c>
       <c r="E405" t="n">
-        <v>33061.25067039711</v>
+        <v>33061.25067005136</v>
       </c>
       <c r="F405" t="n">
-        <v>33482.63090873314</v>
+        <v>33482.6309084282</v>
       </c>
       <c r="G405" t="n">
-        <v>6474.331450232754</v>
+        <v>6474.331450186815</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>61437.55582899866</v>
+        <v>61437.55582963795</v>
       </c>
       <c r="C406" t="n">
-        <v>26338.47154784785</v>
+        <v>26338.47154755252</v>
       </c>
       <c r="D406" t="n">
-        <v>20210.05144570221</v>
+        <v>20210.05144548507</v>
       </c>
       <c r="E406" t="n">
-        <v>33060.82612780337</v>
+        <v>33060.82612745694</v>
       </c>
       <c r="F406" t="n">
-        <v>33482.57701793846</v>
+        <v>33482.57701763342</v>
       </c>
       <c r="G406" t="n">
-        <v>8655.717314753549</v>
+        <v>8655.717314694122</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>61214.69443957422</v>
+        <v>61214.69444023334</v>
       </c>
       <c r="C407" t="n">
-        <v>26328.07150736698</v>
+        <v>26328.07150706435</v>
       </c>
       <c r="D407" t="n">
-        <v>20208.43334504719</v>
+        <v>20208.43334482799</v>
       </c>
       <c r="E407" t="n">
-        <v>33060.32452707476</v>
+        <v>33060.32452672756</v>
       </c>
       <c r="F407" t="n">
-        <v>33482.51127765648</v>
+        <v>33482.51127735135</v>
       </c>
       <c r="G407" t="n">
-        <v>10848.37200734315</v>
+        <v>10848.37200727135</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>60983.41970340598</v>
+        <v>60983.4197040848</v>
       </c>
       <c r="C408" t="n">
-        <v>26316.56647515421</v>
+        <v>26316.56647484367</v>
       </c>
       <c r="D408" t="n">
-        <v>20206.58080225109</v>
+        <v>20206.58080202958</v>
       </c>
       <c r="E408" t="n">
-        <v>33059.73301461105</v>
+        <v>33059.73301426296</v>
       </c>
       <c r="F408" t="n">
-        <v>33482.43125126401</v>
+        <v>33482.43125095875</v>
       </c>
       <c r="G408" t="n">
-        <v>13052.08536421287</v>
+        <v>13052.08536412982</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>60743.49132746142</v>
+        <v>60743.49132815976</v>
       </c>
       <c r="C409" t="n">
-        <v>26303.85633311728</v>
+        <v>26303.85633279819</v>
       </c>
       <c r="D409" t="n">
-        <v>20204.46345710636</v>
+        <v>20204.46345688229</v>
       </c>
       <c r="E409" t="n">
-        <v>33059.03680816404</v>
+        <v>33059.0368078149</v>
       </c>
       <c r="F409" t="n">
-        <v>33482.33403939019</v>
+        <v>33482.33403908479</v>
       </c>
       <c r="G409" t="n">
-        <v>15266.65578563534</v>
+        <v>15266.6557855423</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>60494.66955864951</v>
+        <v>60494.66955936718</v>
       </c>
       <c r="C410" t="n">
-        <v>26289.83395331451</v>
+        <v>26289.8339529862</v>
       </c>
       <c r="D410" t="n">
-        <v>20202.04757795378</v>
+        <v>20202.04757772682</v>
       </c>
       <c r="E410" t="n">
-        <v>33058.2189459867</v>
+        <v>33058.21894563637</v>
       </c>
       <c r="F410" t="n">
-        <v>33482.21620027356</v>
+        <v>33482.21619996799</v>
       </c>
       <c r="G410" t="n">
-        <v>17491.89103478579</v>
+        <v>17491.89103468414</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>60236.71580220063</v>
+        <v>60236.71580293736</v>
       </c>
       <c r="C411" t="n">
-        <v>26274.38493800669</v>
+        <v>26274.38493766843</v>
       </c>
       <c r="D411" t="n">
-        <v>20199.29576859291</v>
+        <v>20199.29576836274</v>
       </c>
       <c r="E411" t="n">
-        <v>33057.26000983503</v>
+        <v>33057.26000948333</v>
       </c>
       <c r="F411" t="n">
-        <v>33482.0736580868</v>
+        <v>33482.07365778101</v>
       </c>
       <c r="G411" t="n">
-        <v>19727.60902789928</v>
+        <v>19727.60902779047</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>59969.39327624906</v>
+        <v>59969.39327700456</v>
       </c>
       <c r="C412" t="n">
-        <v>26257.38737610829</v>
+        <v>26257.38737575934</v>
       </c>
       <c r="D412" t="n">
-        <v>20196.16666085364</v>
+        <v>20196.16666061989</v>
       </c>
       <c r="E412" t="n">
-        <v>33056.13782013103</v>
+        <v>33056.13781977774</v>
       </c>
       <c r="F412" t="n">
-        <v>33481.90159773225</v>
+        <v>33481.90159742621</v>
       </c>
       <c r="G412" t="n">
-        <v>21973.63861294852</v>
+        <v>21973.63861283418</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>59692.46770219195</v>
+        <v>59692.46770296591</v>
       </c>
       <c r="C413" t="n">
-        <v>26238.71161963932</v>
+        <v>26238.71161927889</v>
       </c>
       <c r="D413" t="n">
-        <v>20192.61459367</v>
+        <v>20192.61459343227</v>
       </c>
       <c r="E413" t="n">
-        <v>33054.82710165199</v>
+        <v>33054.82710129691</v>
       </c>
       <c r="F413" t="n">
-        <v>33481.69434448433</v>
+        <v>33481.69434417799</v>
       </c>
       <c r="G413" t="n">
-        <v>21973.62389059857</v>
+        <v>21973.6238904842</v>
       </c>
       <c r="H413" t="n">
-        <v>2423.330805750134</v>
+        <v>2423.330805746099</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>59405.70803015637</v>
+        <v>59405.70803094839</v>
       </c>
       <c r="C414" t="n">
-        <v>26218.22008398062</v>
+        <v>26218.22008360788</v>
       </c>
       <c r="D414" t="n">
-        <v>20188.58927976799</v>
+        <v>20188.58927952586</v>
       </c>
       <c r="E414" t="n">
-        <v>33053.29911820241</v>
+        <v>33053.29911784526</v>
       </c>
       <c r="F414" t="n">
-        <v>33481.44522672679</v>
+        <v>33481.4452264201</v>
       </c>
       <c r="G414" t="n">
-        <v>21973.60562066312</v>
+        <v>21973.60562054874</v>
       </c>
       <c r="H414" t="n">
-        <v>4857.411703414514</v>
+        <v>4857.411703408366</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>59108.88719865101</v>
+        <v>59108.8871994608</v>
       </c>
       <c r="C415" t="n">
-        <v>26195.76707591825</v>
+        <v>26195.76707553235</v>
       </c>
       <c r="D415" t="n">
-        <v>20184.03546137296</v>
+        <v>20184.03546112596</v>
       </c>
       <c r="E415" t="n">
-        <v>33051.52127485402</v>
+        <v>33051.52127449452</v>
       </c>
       <c r="F415" t="n">
-        <v>33481.14641990711</v>
+        <v>33481.14641960002</v>
       </c>
       <c r="G415" t="n">
-        <v>21973.58299983184</v>
+        <v>21973.58299971743</v>
       </c>
       <c r="H415" t="n">
-        <v>7302.099796695735</v>
+        <v>7302.099796689508</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>58801.7829272095</v>
+        <v>58801.78292803655</v>
       </c>
       <c r="C416" t="n">
-        <v>26171.19865362206</v>
+        <v>26171.1986532221</v>
       </c>
       <c r="D416" t="n">
-        <v>20178.89255665853</v>
+        <v>20178.89255640615</v>
       </c>
       <c r="E416" t="n">
-        <v>33049.45668651304</v>
+        <v>33049.45668615086</v>
       </c>
       <c r="F416" t="n">
-        <v>33480.78876971018</v>
+        <v>33480.7887694026</v>
       </c>
       <c r="G416" t="n">
-        <v>21973.5550556376</v>
+        <v>21973.55505552316</v>
       </c>
       <c r="H416" t="n">
-        <v>9757.267269556112</v>
+        <v>9757.267269552036</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>58484.17854054962</v>
+        <v>58484.17854139348</v>
       </c>
       <c r="C417" t="n">
-        <v>26144.35252283482</v>
+        <v>26144.35252241986</v>
       </c>
       <c r="D417" t="n">
-        <v>20173.09429899579</v>
+        <v>20173.09429873749</v>
       </c>
       <c r="E417" t="n">
-        <v>33047.0637117937</v>
+        <v>33047.06371142851</v>
       </c>
       <c r="F417" t="n">
-        <v>33480.36159234025</v>
+        <v>33480.3615920321</v>
       </c>
       <c r="G417" t="n">
-        <v>21973.52061383191</v>
+        <v>21973.52061371744</v>
       </c>
       <c r="H417" t="n">
-        <v>12222.80214566605</v>
+        <v>12222.80214566658</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>58155.86382248233</v>
+        <v>58155.86382334252</v>
       </c>
       <c r="C418" t="n">
-        <v>26115.05797364777</v>
+        <v>26115.05797321686</v>
       </c>
       <c r="D418" t="n">
-        <v>20166.56837141728</v>
+        <v>20166.56837115248</v>
       </c>
       <c r="E418" t="n">
-        <v>33044.29545145015</v>
+        <v>33044.29545108151</v>
       </c>
       <c r="F418" t="n">
-        <v>33479.85244970044</v>
+        <v>33479.85244939164</v>
       </c>
       <c r="G418" t="n">
-        <v>21973.47826013477</v>
+        <v>21973.47826002025</v>
       </c>
       <c r="H418" t="n">
-        <v>14698.60902019265</v>
+        <v>14698.60902020025</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>57816.63589750108</v>
+        <v>57816.63589837706</v>
       </c>
       <c r="C419" t="n">
-        <v>26083.13586230059</v>
+        <v>26083.13586185274</v>
       </c>
       <c r="D419" t="n">
-        <v>20159.23603908113</v>
+        <v>20159.23603880918</v>
       </c>
       <c r="E419" t="n">
-        <v>33041.099210947</v>
+        <v>33041.0992105745</v>
       </c>
       <c r="F419" t="n">
-        <v>33479.24689717488</v>
+        <v>33479.24689686532</v>
       </c>
       <c r="G419" t="n">
-        <v>21973.42629552927</v>
+        <v>21973.42629541468</v>
       </c>
       <c r="H419" t="n">
-        <v>17184.60976056956</v>
+        <v>17184.60976058689</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>57466.30013767364</v>
+        <v>57466.30013856481</v>
       </c>
       <c r="C420" t="n">
-        <v>26048.39864246516</v>
+        <v>26048.39864199933</v>
       </c>
       <c r="D420" t="n">
-        <v>20151.01178290453</v>
+        <v>20151.01178262476</v>
       </c>
       <c r="E420" t="n">
-        <v>33037.41592713728</v>
+        <v>33037.41592676041</v>
       </c>
       <c r="F420" t="n">
-        <v>33478.52820165556</v>
+        <v>33478.5282013451</v>
       </c>
       <c r="G420" t="n">
-        <v>21973.36268417647</v>
+        <v>21973.36268406182</v>
       </c>
       <c r="H420" t="n">
-        <v>19680.74417275309</v>
+        <v>19680.74417278298</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>57104.67109214547</v>
+        <v>57104.67109305127</v>
       </c>
       <c r="C421" t="n">
-        <v>26010.65045044729</v>
+        <v>26010.65044996245</v>
       </c>
       <c r="D421" t="n">
-        <v>20141.80293792668</v>
+        <v>20141.80293763836</v>
       </c>
       <c r="E421" t="n">
-        <v>33033.17955946674</v>
+        <v>33033.17955908496</v>
       </c>
       <c r="F421" t="n">
-        <v>33477.67702742028</v>
+        <v>33477.67702710879</v>
       </c>
       <c r="G421" t="n">
-        <v>21973.28499292628</v>
+        <v>21973.28499281155</v>
       </c>
       <c r="H421" t="n">
-        <v>22186.97062932722</v>
+        <v>22186.97062937255</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>56731.57343624606</v>
+        <v>56731.57343716591</v>
       </c>
       <c r="C422" t="n">
-        <v>25969.68724866687</v>
+        <v>25969.68724816195</v>
       </c>
       <c r="D422" t="n">
-        <v>20131.50934035656</v>
+        <v>20131.50934005892</v>
       </c>
       <c r="E422" t="n">
-        <v>33028.31644663952</v>
+        <v>33028.31644625222</v>
       </c>
       <c r="F422" t="n">
-        <v>33476.67108746386</v>
+        <v>33476.67108715117</v>
       </c>
       <c r="G422" t="n">
-        <v>21973.19032129547</v>
+        <v>21973.19032118064</v>
       </c>
       <c r="H422" t="n">
-        <v>24703.26665566342</v>
+        <v>24703.26665572721</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>56346.84293687408</v>
+        <v>56346.84293780732</v>
       </c>
       <c r="C423" t="n">
-        <v>25925.29703164802</v>
+        <v>25925.29703112194</v>
       </c>
       <c r="D423" t="n">
-        <v>20120.0229876529</v>
+        <v>20120.02298734512</v>
       </c>
       <c r="E423" t="n">
-        <v>33022.74463026198</v>
+        <v>33022.74462986851</v>
       </c>
       <c r="F423" t="n">
-        <v>33475.48475791966</v>
+        <v>33475.48475760559</v>
       </c>
       <c r="G423" t="n">
-        <v>21973.0752206759</v>
+        <v>21973.07522056096</v>
       </c>
       <c r="H423" t="n">
-        <v>27229.6294701832</v>
+        <v>27229.62947026874</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>55950.32743052173</v>
+        <v>55950.3274314676</v>
       </c>
       <c r="C424" t="n">
-        <v>25877.26009856562</v>
+        <v>25877.26009801726</v>
       </c>
       <c r="D424" t="n">
-        <v>20107.22771636829</v>
+        <v>20107.22771604951</v>
       </c>
       <c r="E424" t="n">
-        <v>33016.37314763067</v>
+        <v>33016.37314723031</v>
       </c>
       <c r="F424" t="n">
-        <v>33474.08865328874</v>
+        <v>33474.08865297308</v>
       </c>
       <c r="G424" t="n">
-        <v>21972.93560142603</v>
+        <v>21972.93560131095</v>
       </c>
       <c r="H424" t="n">
-        <v>29766.0764745909</v>
+        <v>29766.07647470156</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>55541.88780999146</v>
+        <v>55541.88781094928</v>
       </c>
       <c r="C425" t="n">
-        <v>25825.34939614886</v>
+        <v>25825.3493955771</v>
       </c>
       <c r="D425" t="n">
-        <v>20092.99890285807</v>
+        <v>20092.99890252736</v>
       </c>
       <c r="E425" t="n">
-        <v>33009.10129654511</v>
+        <v>33009.10129613706</v>
       </c>
       <c r="F425" t="n">
-        <v>33472.44916032594</v>
+        <v>33472.44916000845</v>
       </c>
       <c r="G425" t="n">
-        <v>21972.76662638793</v>
+        <v>21972.76662627268</v>
       </c>
       <c r="H425" t="n">
-        <v>32312.6456897693</v>
+        <v>32312.64568990857</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>55121.39901555759</v>
+        <v>55121.39901652667</v>
       </c>
       <c r="C426" t="n">
-        <v>25769.33093543375</v>
+        <v>25769.33093483749</v>
       </c>
       <c r="D426" t="n">
-        <v>20077.20319230143</v>
+        <v>20077.20319195783</v>
       </c>
       <c r="E426" t="n">
-        <v>33000.81787580532</v>
+        <v>33000.81787538872</v>
       </c>
       <c r="F426" t="n">
-        <v>33470.52792862419</v>
+        <v>33470.52792830461</v>
       </c>
       <c r="G426" t="n">
-        <v>21972.56258926383</v>
+        <v>21972.56258914839</v>
       </c>
       <c r="H426" t="n">
-        <v>34869.39613282926</v>
+        <v>34869.39613300075</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>54688.75102603694</v>
+        <v>54688.75102701651</v>
       </c>
       <c r="C427" t="n">
-        <v>25708.96428548354</v>
+        <v>25708.96428486164</v>
       </c>
       <c r="D427" t="n">
-        <v>20059.69826179845</v>
+        <v>20059.69826144095</v>
       </c>
       <c r="E427" t="n">
-        <v>32991.40040589346</v>
+        <v>32991.40040546738</v>
       </c>
       <c r="F427" t="n">
-        <v>33468.28131619595</v>
+        <v>33468.28131587397</v>
       </c>
       <c r="G427" t="n">
-        <v>21972.31677618155</v>
+        <v>21972.31677606589</v>
       </c>
       <c r="H427" t="n">
-        <v>37436.40813060951</v>
+        <v>37436.40813081706</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>54243.8498449602</v>
+        <v>54243.84984594949</v>
       </c>
       <c r="C428" t="n">
-        <v>25644.00314675653</v>
+        <v>25644.00314610788</v>
       </c>
       <c r="D428" t="n">
-        <v>20040.33262358481</v>
+        <v>20040.33262321234</v>
       </c>
       <c r="E428" t="n">
-        <v>32980.71433523283</v>
+        <v>32980.71433479626</v>
       </c>
       <c r="F428" t="n">
-        <v>33465.65978868268</v>
+        <v>33465.65978835795</v>
       </c>
       <c r="G428" t="n">
-        <v>21972.02130868175</v>
+        <v>21972.02130856582</v>
       </c>
       <c r="H428" t="n">
-        <v>40013.78356471082</v>
+        <v>40013.78356495836</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>53786.61847678089</v>
+        <v>53786.61847777912</v>
       </c>
       <c r="C429" t="n">
-        <v>25574.19600629614</v>
+        <v>25574.19600561964</v>
       </c>
       <c r="D429" t="n">
-        <v>20018.94547463638</v>
+        <v>20018.94547424783</v>
       </c>
       <c r="E429" t="n">
-        <v>32968.61223836008</v>
+        <v>32968.61223791192</v>
       </c>
       <c r="F429" t="n">
-        <v>33462.60727123493</v>
+        <v>33462.60727090709</v>
       </c>
       <c r="G429" t="n">
-        <v>21971.66696627423</v>
+        <v>21971.66696615798</v>
       </c>
       <c r="H429" t="n">
-        <v>42601.64604292921</v>
+        <v>42601.64604322071</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>53316.99788782616</v>
+        <v>53316.99788883254</v>
       </c>
       <c r="C430" t="n">
-        <v>25499.28687634712</v>
+        <v>25499.28687564167</v>
       </c>
       <c r="D430" t="n">
-        <v>19995.36659911147</v>
+        <v>19995.36659870569</v>
       </c>
       <c r="E430" t="n">
-        <v>32954.93301332671</v>
+        <v>32954.93301286577</v>
       </c>
       <c r="F430" t="n">
-        <v>33459.06045260405</v>
+        <v>33459.06045227267</v>
       </c>
       <c r="G430" t="n">
-        <v>21971.24298663978</v>
+        <v>21971.24298652315</v>
       </c>
       <c r="H430" t="n">
-        <v>45200.14099173488</v>
+        <v>45200.14099207464</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>52834.94794648654</v>
+        <v>52834.94794750027</v>
       </c>
       <c r="C431" t="n">
-        <v>25419.01611736694</v>
+        <v>25419.01611663146</v>
       </c>
       <c r="D431" t="n">
-        <v>19969.41633018849</v>
+        <v>19969.41632976429</v>
       </c>
       <c r="E431" t="n">
-        <v>32939.50108665488</v>
+        <v>32939.5010861799</v>
       </c>
       <c r="F431" t="n">
-        <v>33454.94804157714</v>
+        <v>33454.94804124175</v>
       </c>
       <c r="G431" t="n">
-        <v>21970.73684150347</v>
+        <v>21970.73684138641</v>
       </c>
       <c r="H431" t="n">
-        <v>47809.43566421451</v>
+        <v>47809.43566460677</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>52340.44833696297</v>
+        <v>52340.4483379832</v>
       </c>
       <c r="C432" t="n">
-        <v>25333.12134570571</v>
+        <v>25333.12134493917</v>
       </c>
       <c r="D432" t="n">
-        <v>19940.90557789426</v>
+        <v>19940.9055774504</v>
       </c>
       <c r="E432" t="n">
-        <v>32922.12563519492</v>
+        <v>32922.12563470453</v>
       </c>
       <c r="F432" t="n">
-        <v>33450.18997657379</v>
+        <v>33450.18997623388</v>
       </c>
       <c r="G432" t="n">
-        <v>21970.13398617869</v>
+        <v>21970.13398606113</v>
       </c>
       <c r="H432" t="n">
-        <v>50429.71905766651</v>
+        <v>50429.71905811557</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>51833.49944074346</v>
+        <v>51833.49944176935</v>
       </c>
       <c r="C433" t="n">
-        <v>25241.33842547336</v>
+        <v>25241.33842467475</v>
       </c>
       <c r="D433" t="n">
-        <v>19909.6359294737</v>
+        <v>19909.63592900892</v>
       </c>
       <c r="E433" t="n">
-        <v>32902.59983525372</v>
+        <v>32902.59983474648</v>
       </c>
       <c r="F433" t="n">
-        <v>33444.69659001041</v>
+        <v>33444.69658966538</v>
       </c>
       <c r="G433" t="n">
-        <v>21969.41758078537</v>
+        <v>21969.41758066722</v>
       </c>
       <c r="H433" t="n">
-        <v>53061.20173481631</v>
+        <v>53061.2017353268</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>51314.12317986925</v>
+        <v>51314.12318089997</v>
       </c>
       <c r="C434" t="n">
-        <v>25143.40254330581</v>
+        <v>25143.40254247418</v>
       </c>
       <c r="D434" t="n">
-        <v>19875.39982871758</v>
+        <v>19875.39982823061</v>
       </c>
       <c r="E434" t="n">
-        <v>32880.70015036765</v>
+        <v>32880.70014984201</v>
       </c>
       <c r="F434" t="n">
-        <v>33438.36772992611</v>
+        <v>33438.36772957535</v>
       </c>
       <c r="G434" t="n">
-        <v>21968.56818118539</v>
+        <v>21968.56818106656</v>
       </c>
       <c r="H434" t="n">
-        <v>55704.11554239328</v>
+        <v>55704.11554296986</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>50782.36381597837</v>
+        <v>50782.3638170131</v>
       </c>
       <c r="C435" t="n">
-        <v>25039.04936388723</v>
+        <v>25039.04936302168</v>
       </c>
       <c r="D435" t="n">
-        <v>19837.98084043408</v>
+        <v>19837.98083992358</v>
       </c>
       <c r="E435" t="n">
-        <v>32856.18567005919</v>
+        <v>32856.18566951351</v>
       </c>
       <c r="F435" t="n">
-        <v>33431.09184235478</v>
+        <v>33431.09184199757</v>
       </c>
       <c r="G435" t="n">
-        <v>21967.5633977607</v>
+        <v>21967.56339764109</v>
       </c>
       <c r="H435" t="n">
-        <v>58358.71322060344</v>
+        <v>58358.71322125079</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>50238.28869908104</v>
+        <v>50238.28870011892</v>
       </c>
       <c r="C436" t="n">
-        <v>24928.01626319007</v>
+        <v>24928.01626228974</v>
       </c>
       <c r="D436" t="n">
-        <v>19797.15400591591</v>
+        <v>19797.15400538054</v>
       </c>
       <c r="E436" t="n">
-        <v>32828.79751282533</v>
+        <v>32828.7975122579</v>
       </c>
       <c r="F436" t="n">
-        <v>33422.74501901652</v>
+        <v>33422.74501865212</v>
       </c>
       <c r="G436" t="n">
-        <v>21966.37752029001</v>
+        <v>21966.37752016947</v>
       </c>
       <c r="H436" t="n">
-        <v>61025.26789682765</v>
+        <v>61025.26789755047</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>49681.98896003342</v>
+        <v>49681.98896107364</v>
       </c>
       <c r="C437" t="n">
-        <v>24810.04363546697</v>
+        <v>24810.04363453109</v>
       </c>
       <c r="D437" t="n">
-        <v>19752.68629481199</v>
+        <v>19752.68629425041</v>
       </c>
       <c r="E437" t="n">
-        <v>32798.25830743265</v>
+        <v>32798.25830684164</v>
       </c>
       <c r="F437" t="n">
-        <v>33413.19001608627</v>
+        <v>33413.19001571383</v>
       </c>
       <c r="G437" t="n">
-        <v>21964.98110736599</v>
+        <v>21964.98110724442</v>
       </c>
       <c r="H437" t="n">
-        <v>63704.07245670178</v>
+        <v>63704.07245750499</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>49113.58014073234</v>
+        <v>49113.58014177404</v>
       </c>
       <c r="C438" t="n">
-        <v>24684.87626907761</v>
+        <v>24684.87626810546</v>
       </c>
       <c r="D438" t="n">
-        <v>19704.33715825756</v>
+        <v>19704.3371576684</v>
       </c>
       <c r="E438" t="n">
-        <v>32764.27176731639</v>
+        <v>32764.27176669987</v>
       </c>
       <c r="F438" t="n">
-        <v>33402.27525106774</v>
+        <v>33402.27525068635</v>
       </c>
       <c r="G438" t="n">
-        <v>21963.34053904345</v>
+        <v>21963.34053892067</v>
       </c>
       <c r="H438" t="n">
-        <v>66395.43878557271</v>
+        <v>66395.43878646112</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>48533.20275615831</v>
+        <v>48533.20275720066</v>
       </c>
       <c r="C439" t="n">
-        <v>24552.26478526845</v>
+        <v>24552.26478425941</v>
       </c>
       <c r="D439" t="n">
-        <v>19651.85918744599</v>
+        <v>19651.85918682791</v>
       </c>
       <c r="E439" t="n">
-        <v>32726.52237347372</v>
+        <v>32726.5223728297</v>
       </c>
       <c r="F439" t="n">
-        <v>33389.83378614896</v>
+        <v>33389.83378575762</v>
       </c>
       <c r="G439" t="n">
-        <v>21961.41753172396</v>
+        <v>21961.41753159981</v>
       </c>
       <c r="H439" t="n">
-        <v>69099.69687320919</v>
+        <v>69099.69687418772</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>47941.0227825478</v>
+        <v>47941.02278358995</v>
       </c>
       <c r="C440" t="n">
-        <v>24411.9671330565</v>
+        <v>24411.96713201004</v>
       </c>
       <c r="D440" t="n">
-        <v>19594.99888103968</v>
+        <v>19594.99888039133</v>
       </c>
       <c r="E440" t="n">
-        <v>32684.67518167907</v>
+        <v>32684.67518100548</v>
       </c>
       <c r="F440" t="n">
-        <v>33375.68230782686</v>
+        <v>33375.68230742451</v>
       </c>
       <c r="G440" t="n">
-        <v>21959.16861467425</v>
+        <v>21959.16861454852</v>
       </c>
       <c r="H440" t="n">
-        <v>71817.19377455318</v>
+        <v>71817.19377562686</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>47337.23206617877</v>
+        <v>47337.23206721996</v>
       </c>
       <c r="C441" t="n">
-        <v>24263.75013240968</v>
+        <v>24263.75013132536</v>
       </c>
       <c r="D441" t="n">
-        <v>19533.49752391563</v>
+        <v>19533.49752323568</v>
       </c>
       <c r="E441" t="n">
-        <v>32638.37577010652</v>
+        <v>32638.37576940119</v>
       </c>
       <c r="F441" t="n">
-        <v>33359.62011404601</v>
+        <v>33359.62011363149</v>
       </c>
       <c r="G441" t="n">
-        <v>21956.5445680449</v>
+        <v>21956.54456791738</v>
       </c>
       <c r="H441" t="n">
-        <v>74548.29241926933</v>
+        <v>74548.29242044307</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>46722.04864750832</v>
+        <v>46722.04864854776</v>
       </c>
       <c r="C442" t="n">
-        <v>24107.39105697973</v>
+        <v>24107.39105585722</v>
       </c>
       <c r="D442" t="n">
-        <v>19467.0921787282</v>
+        <v>19467.09217801536</v>
       </c>
       <c r="E442" t="n">
-        <v>32587.25034349545</v>
+        <v>32587.25034275616</v>
       </c>
       <c r="F442" t="n">
-        <v>33341.42812158033</v>
+        <v>33341.42812115241</v>
       </c>
       <c r="G442" t="n">
-        <v>21953.48982281122</v>
+        <v>21953.48982268166</v>
       </c>
       <c r="H442" t="n">
-        <v>77293.37026286683</v>
+        <v>77293.37026414556</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>46095.71699570616</v>
+        <v>46095.71699674304</v>
       </c>
       <c r="C443" t="n">
-        <v>23942.67924674141</v>
+        <v>23942.67924558049</v>
       </c>
       <c r="D443" t="n">
-        <v>19395.51679065144</v>
+        <v>19395.51678990444</v>
       </c>
       <c r="E443" t="n">
-        <v>32530.90600981796</v>
+        <v>32530.90600904241</v>
       </c>
       <c r="F443" t="n">
-        <v>33320.86790787391</v>
+        <v>33320.86790743125</v>
       </c>
       <c r="G443" t="n">
-        <v>21949.94182370059</v>
+        <v>21949.94182356873</v>
       </c>
       <c r="H443" t="n">
-        <v>80052.81777225516</v>
+        <v>80052.81777364381</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>45458.5081489831</v>
+        <v>45458.50815001666</v>
       </c>
       <c r="C444" t="n">
-        <v>23769.41774003654</v>
+        <v>23769.41773883712</v>
       </c>
       <c r="D444" t="n">
-        <v>19318.5034044432</v>
+        <v>19318.50340366083</v>
       </c>
       <c r="E444" t="n">
-        <v>32468.93124497512</v>
+        <v>32468.93124416097</v>
       </c>
       <c r="F444" t="n">
-        <v>33297.68080301877</v>
+        <v>33297.68080255995</v>
       </c>
       <c r="G444" t="n">
-        <v>21945.83035690344</v>
+        <v>21945.83035676896</v>
       </c>
       <c r="H444" t="n">
-        <v>82827.03673876575</v>
+        <v>82827.03674026921</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>44810.71975652007</v>
+        <v>44810.71975754958</v>
       </c>
       <c r="C445" t="n">
-        <v>23587.42491372788</v>
+        <v>23587.42491248998</v>
       </c>
       <c r="D445" t="n">
-        <v>19235.78349166394</v>
+        <v>19235.78349084505</v>
       </c>
       <c r="E445" t="n">
-        <v>32400.89656034678</v>
+        <v>32400.89655949164</v>
       </c>
       <c r="F445" t="n">
-        <v>33271.58704895563</v>
+        <v>33271.58704847914</v>
       </c>
       <c r="G445" t="n">
-        <v>21941.07684518839</v>
+        <v>21941.07684505096</v>
       </c>
       <c r="H445" t="n">
-        <v>85616.43841192363</v>
+        <v>85616.43841354649</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>44152.67601825515</v>
+        <v>44152.67601927988</v>
       </c>
       <c r="C446" t="n">
-        <v>23396.53611944826</v>
+        <v>23396.53611817204</v>
       </c>
       <c r="D446" t="n">
-        <v>19147.08938449507</v>
+        <v>19147.08938363855</v>
       </c>
       <c r="E446" t="n">
-        <v>32326.35538702626</v>
+        <v>32326.3553861277</v>
       </c>
       <c r="F446" t="n">
-        <v>33242.28504430306</v>
+        <v>33242.28504380731</v>
       </c>
       <c r="G446" t="n">
-        <v>21935.59361395502</v>
+        <v>21935.59361381429</v>
       </c>
       <c r="H446" t="n">
-        <v>88421.44144761344</v>
+        <v>88421.44144936056</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>43484.72751928688</v>
+        <v>43484.72752030614</v>
       </c>
       <c r="C447" t="n">
-        <v>23196.60530329837</v>
+        <v>23196.60530198412</v>
       </c>
       <c r="D447" t="n">
-        <v>19052.15581115004</v>
+        <v>19052.1558102549</v>
       </c>
       <c r="E447" t="n">
-        <v>32244.84518927501</v>
+        <v>32244.84518833059</v>
       </c>
       <c r="F447" t="n">
-        <v>33209.45069441702</v>
+        <v>33209.45069390031</v>
       </c>
       <c r="G447" t="n">
-        <v>21929.28313275574</v>
+        <v>21929.2831326113</v>
       </c>
       <c r="H447" t="n">
-        <v>91242.46966475589</v>
+        <v>91242.46966663167</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>42807.2509561948</v>
+        <v>42807.25095720791</v>
       </c>
       <c r="C448" t="n">
-        <v>22987.50659581506</v>
+        <v>22987.50659446321</v>
       </c>
       <c r="D448" t="n">
-        <v>18950.7215263725</v>
+        <v>18950.72152543783</v>
       </c>
       <c r="E448" t="n">
-        <v>32155.88881812284</v>
+        <v>32155.88881713013</v>
       </c>
       <c r="F448" t="n">
-        <v>33172.73688731658</v>
+        <v>33172.73688677713</v>
       </c>
       <c r="G448" t="n">
-        <v>21922.03723789595</v>
+        <v>21922.03723774736</v>
       </c>
       <c r="H448" t="n">
-        <v>94079.94960520997</v>
+        <v>94079.94960721896</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>42120.64875316196</v>
+        <v>42120.64875416827</v>
       </c>
       <c r="C449" t="n">
-        <v>22769.13585861244</v>
+        <v>22769.13585722358</v>
       </c>
       <c r="D449" t="n">
-        <v>18842.53102898731</v>
+        <v>18842.53102801228</v>
       </c>
       <c r="E449" t="n">
-        <v>32058.99611411253</v>
+        <v>32058.99611306909</v>
       </c>
       <c r="F449" t="n">
-        <v>33131.77311694499</v>
+        <v>33131.77311638094</v>
       </c>
       <c r="G449" t="n">
-        <v>21913.73634287004</v>
+        <v>21913.73634271682</v>
       </c>
       <c r="H449" t="n">
-        <v>96934.30789236349</v>
+        <v>96934.3078945099</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>41425.34856640502</v>
+        <v>41425.34856740391</v>
       </c>
       <c r="C450" t="n">
-        <v>22541.41217380231</v>
+        <v>22541.41217237715</v>
       </c>
       <c r="D450" t="n">
-        <v>18727.33635693323</v>
+        <v>18727.33635591714</v>
       </c>
       <c r="E450" t="n">
-        <v>31953.66576594376</v>
+        <v>31953.66576484719</v>
       </c>
       <c r="F450" t="n">
-        <v>33086.1652758263</v>
+        <v>33086.16527523572</v>
       </c>
       <c r="G450" t="n">
-        <v>21904.24864459725</v>
+        <v>21904.24864443889</v>
       </c>
       <c r="H450" t="n">
-        <v>99805.96838475748</v>
+        <v>99805.96838704524</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>40721.80267607039</v>
+        <v>40721.80267706128</v>
       </c>
       <c r="C451" t="n">
-        <v>22304.27926213778</v>
+        <v>22304.27926067719</v>
       </c>
       <c r="D451" t="n">
-        <v>18604.89894868249</v>
+        <v>18604.89894762477</v>
       </c>
       <c r="E451" t="n">
-        <v>31839.38742921856</v>
+        <v>31839.3874280665</v>
       </c>
       <c r="F451" t="n">
-        <v>33035.49563948703</v>
+        <v>33035.4956388679</v>
       </c>
       <c r="G451" t="n">
-        <v>21893.42933467199</v>
+        <v>21893.42933450792</v>
       </c>
       <c r="H451" t="n">
-        <v>102695.3491221651</v>
+        <v>102695.3491245981</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>40010.48726543708</v>
+        <v>40010.48726641935</v>
       </c>
       <c r="C452" t="n">
-        <v>22057.70681580414</v>
+        <v>22057.70681430915</v>
       </c>
       <c r="D452" t="n">
-        <v>18474.99155846469</v>
+        <v>18474.99155736488</v>
       </c>
       <c r="E452" t="n">
-        <v>31715.64410664072</v>
+        <v>31715.64410543088</v>
       </c>
       <c r="F452" t="n">
-        <v>32979.32306499983</v>
+        <v>32979.32306435006</v>
       </c>
       <c r="G452" t="n">
-        <v>21881.1198261186</v>
+        <v>21881.11982594821</v>
       </c>
       <c r="H452" t="n">
-        <v>105602.8590627762</v>
+        <v>105602.859065358</v>
       </c>
     </row>
   </sheetData>
